--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <sheet name="Carver City" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="Lumakesi" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="Boars Snout" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Echohaven" sheetId="25" state="visible" r:id="rId26"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="2323">
   <si>
     <t xml:space="preserve">Panahon</t>
   </si>
@@ -13878,6 +13879,458 @@
 North 9940
 South/Leave 9934</t>
   </si>
+  <si>
+    <t xml:space="preserve">#10104
+South 10106
+East 10108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10107
+West 10109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10116
+South 10118
+East 10120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10119
+East 10123
+West 10121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10122
+East 10126
+West 10124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10125
+East 10129
+West 10127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10128
+East 10132
+West 10130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10131
+South 10135
+West 10133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10176
+South 10178
+East 10180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10179
+South 10183
+West 10181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10188
+South 10190
+East 10192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10191
+South 10228
+East 10195
+West 10193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10194
+East 10198
+West 10196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10197
+East 10201
+West 10199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10200
+South 10204
+West 10202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10101
+North 10105
+South 10103
+East 10111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10110
+East 10114
+West 10112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10113
+North 10117
+West 10115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10146
+South 10150
+East 10148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10143
+East 10145
+West 10147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10140
+East 10142
+West 10145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10137
+East 10139
+West 10141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10134
+North 10136
+West 10138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10173
+North 10177
+South 10175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10182
+North 10184
+East 10186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10185
+North 10189
+West 10187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10227
+North 10229
+South 10231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10221
+South 10223
+East 10225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10224
+West 10226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10203
+North 10205
+South 10207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10098
+North 10102
+South 10100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10074
+South 10076
+East 10078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10077
+West 10079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10149
+North 10151
+South 10153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10158
+South 10160
+East 10162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10161
+East 10165
+West 10163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10166
+East 10168
+West 10166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10167
+East 10171
+West 10169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10170
+North 10174
+West 10172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10236
+South 10240
+East 10238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10233
+East 10235
+West 10237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10230
+North 10232
+West 10234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10218
+North 10222
+East 10220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10215
+South 10217
+West 10219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10206
+North 10208
+South 10210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10095
+North 10099
+South 10097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10071
+North 10075
+South 10081
+East 10073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10068
+South 10070
+West 10072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10152
+North 10154
+East 10156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10155
+North 10159
+West 10157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10056
+South 10058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10248
+South 10252
+East 10250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10245
+East 10247
+West 10249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10242
+East 10244
+West 10246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10239
+North 10241
+West 10243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10299
+South 10303
+East 10301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10296
+East 10298
+West 10300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10293
+South 10295
+West 10297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10212
+North 10216
+East 10214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10209
+North 10211
+West 10213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10092
+North 10096
+South 10094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10080
+North 10082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10065
+North 10069
+South 10084
+East 10067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10062
+East 10064
+West 10066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10059
+South 10061
+West 10063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10053
+North 10057
+South 10055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10251
+North 10253
+East 10255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10254
+East 10258
+West 10256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10257
+South 10261
+West 10259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10305
+East 10307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10302
+North 10304
+West 10306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10272
+South 10274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10290
+North 10294
+East 10292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10287
+East 10289
+West 10291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10284
+South 10286
+West 10288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10089
+North 10093
+East 10091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10086
+East 10088
+West 10090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10083
+West 10087
+North10085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10050
+East 10052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10047
+North 10060
+East 10049
+West 10051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10044
+North 1054
+East 10046
+West 10048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10041
+East 10043
+West 10045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10036
+West 10042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#102600
+North 10262
+East 10264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10263
+East 10267
+West 10265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10266
+East 10270
+West 10268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10269
+North 10273
+East 10276
+West 10271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10275
+East 10279
+West 10277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10278
+East 10282
+West 10280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10281
+North 10285
+West 10283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
 </sst>
 </file>
 
@@ -13886,7 +14339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -14092,11 +14545,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="63">
     <fill>
@@ -14148,9 +14596,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBE480A"/>
-        <bgColor rgb="FFAC5A02"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFAF5602"/>
+        <bgColor rgb="FFE94504"/>
       </patternFill>
     </fill>
     <fill>
@@ -14172,8 +14620,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E905"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFDDE106"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -14245,32 +14693,32 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFAC0036"/>
+        <fgColor rgb="FFAB0033"/>
         <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFAC0036"/>
+        <fgColor rgb="FFAB0033"/>
         <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FF86D215"/>
-        <bgColor rgb="FFFFBF00"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFDDE106"/>
+        <bgColor rgb="FFCCE84C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FF3F3249"/>
-        <bgColor rgb="FF7030A0"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF3F3249"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF800080"/>
-        <bgColor rgb="FFAC0036"/>
+        <bgColor rgb="FFAB0033"/>
       </patternFill>
     </fill>
     <fill>
@@ -14294,7 +14742,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCE84C"/>
-        <bgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFD3EB62"/>
       </patternFill>
     </fill>
     <fill>
@@ -14306,13 +14754,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFDDE106"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFDDE106"/>
       </patternFill>
     </fill>
     <fill>
@@ -14365,14 +14813,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF86D215"/>
-        <bgColor rgb="FFA9D18E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFB4C8DA"/>
-        <bgColor rgb="FFB4C7E7"/>
+        <fgColor rgb="FFB4C7DE"/>
+        <bgColor rgb="FFB7CFEB"/>
       </patternFill>
     </fill>
     <fill>
@@ -14395,14 +14837,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C8DA"/>
-        <bgColor rgb="FFB4C7E7"/>
+        <fgColor rgb="FFB4C7DE"/>
+        <bgColor rgb="FFB7CFEB"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFCCE84C"/>
-        <bgColor rgb="FFE8F2A1"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3EB62"/>
+        <bgColor rgb="FFCCE84C"/>
       </patternFill>
     </fill>
     <fill>
@@ -14412,15 +14854,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFAC5A02"/>
-        <bgColor rgb="FFBE480A"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAF5602"/>
+        <bgColor rgb="FF843C0B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFB4C7E7"/>
+        <fgColor rgb="FFB7CFEB"/>
+        <bgColor rgb="FFB4C7DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -14432,7 +14874,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF843C0B"/>
-        <bgColor rgb="FFAC5A02"/>
+        <bgColor rgb="FFAF5602"/>
       </patternFill>
     </fill>
     <fill>
@@ -14454,15 +14896,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFB4C8DA"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFB4C7DE"/>
+        <bgColor rgb="FFB7CFEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B3CA"/>
-        <bgColor rgb="FFB4C8DA"/>
+        <bgColor rgb="FFB4C7DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -14471,8 +14913,14 @@
         <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="68">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -14859,6 +15307,104 @@
       <bottom style="dashed"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="mediumDashDotDot"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -15035,7 +15581,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="255">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15256,11 +15802,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15344,11 +15890,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15384,7 +15930,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15396,7 +15942,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15404,7 +15950,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15436,7 +15982,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15448,19 +15994,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15468,19 +16010,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="47" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="48" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="48" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15504,7 +16046,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15512,11 +16054,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="48" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15524,15 +16066,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15540,19 +16090,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="53" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15560,7 +16102,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15676,11 +16218,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15688,11 +16230,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="57" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15700,11 +16242,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="57" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15712,7 +16254,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15720,7 +16262,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15728,7 +16270,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15744,7 +16286,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="59" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15756,7 +16298,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="59" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15768,19 +16310,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15790,10 +16332,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -15824,7 +16362,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15832,7 +16370,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15844,7 +16382,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="47" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15856,7 +16394,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="47" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15896,99 +16434,171 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16061,10 +16671,10 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FFDDE8CB"/>
-      <rgbColor rgb="FFAC0036"/>
+      <rgbColor rgb="FFAB0033"/>
       <rgbColor rgb="FF00770C"/>
       <rgbColor rgb="FFFFF5CE"/>
-      <rgbColor rgb="FFAC5A02"/>
+      <rgbColor rgb="FFAF5602"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF009669"/>
       <rgbColor rgb="FFB7B3CA"/>
@@ -16073,25 +16683,25 @@
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFDEE6EF"/>
-      <rgbColor rgb="FFE94504"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFFFDBB6"/>
-      <rgbColor rgb="FFBDD7EE"/>
+      <rgbColor rgb="FFB7CFEB"/>
       <rgbColor rgb="FFFFFFD7"/>
-      <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFE6E905"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFDDE106"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFD3EB62"/>
       <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFDEE7E5"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFA6"/>
-      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FFB4C7DE"/>
       <rgbColor rgb="FFEC9BA4"/>
-      <rgbColor rgb="FFB4C8DA"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FFA9D18E"/>
@@ -16106,7 +16716,7 @@
       <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FF843C0B"/>
-      <rgbColor rgb="FFBE480A"/>
+      <rgbColor rgb="FFE94504"/>
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3F3249"/>
     </indexedColors>
@@ -16121,8 +16731,8 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X31" activeCellId="0" sqref="X31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R18" activeCellId="2" sqref="L5:M5 L6 R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27210,8 +27820,8 @@
   </sheetPr>
   <dimension ref="D3:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="2" sqref="L5:M5 L6 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27220,34 +27830,34 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="56" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="56" t="s">
         <v>1797</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="56" t="s">
         <v>1798</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="56" t="s">
         <v>1799</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="111" t="s">
         <v>1800</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="56" t="s">
         <v>1801</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="56" t="s">
         <v>1802</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="56" t="s">
         <v>1803</v>
       </c>
     </row>
@@ -27269,8 +27879,8 @@
   </sheetPr>
   <dimension ref="C2:P11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="2" sqref="L5:M5 L6 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27282,36 +27892,36 @@
       <c r="C2" s="42" t="s">
         <v>1193</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="56" t="s">
         <v>1804</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="112" t="s">
         <v>1805</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="112" t="s">
         <v>1806</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="113" t="s">
         <v>1807</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="113" t="s">
         <v>1810</v>
       </c>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="113" t="s">
         <v>1811</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="113" t="s">
         <v>1812</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="112" t="s">
         <v>1813</v>
       </c>
       <c r="N3" s="102" t="s">
@@ -27322,104 +27932,104 @@
       <c r="C4" s="53" t="s">
         <v>1815</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="112" t="s">
         <v>1816</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="113" t="s">
         <v>1817</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="113" t="s">
         <v>1818</v>
       </c>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="113" t="s">
         <v>1819</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="113" t="s">
         <v>1820</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="113" t="s">
         <v>1821</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="113" t="s">
         <v>1822</v>
       </c>
-      <c r="P4" s="113" t="s">
+      <c r="P4" s="112" t="s">
         <v>1823</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="113" t="s">
         <v>1824</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="113" t="s">
         <v>1825</v>
       </c>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="113" t="s">
         <v>1826</v>
       </c>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="113" t="s">
         <v>1827</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="113" t="s">
         <v>1828</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="112" t="s">
         <v>1829</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="113" t="s">
         <v>1830</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="113" t="s">
         <v>1831</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="112" t="s">
         <v>1832</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="113" t="s">
         <v>1833</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="113" t="s">
         <v>1834</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="K7" s="113" t="s">
         <v>1835</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="113" t="s">
         <v>1836</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="113" t="s">
         <v>1837</v>
       </c>
-      <c r="N7" s="113" t="s">
+      <c r="N7" s="112" t="s">
         <v>1838</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="112" t="s">
         <v>1839</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="113" t="s">
         <v>1840</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="113" t="s">
         <v>1841</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="113" t="s">
         <v>1842</v>
       </c>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="113" t="s">
         <v>1843</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="113" t="s">
         <v>1844</v>
       </c>
-      <c r="L9" s="114" t="s">
+      <c r="L9" s="113" t="s">
         <v>1845</v>
       </c>
     </row>
@@ -27427,13 +28037,13 @@
       <c r="G10" s="102" t="s">
         <v>1846</v>
       </c>
-      <c r="K10" s="114" t="s">
+      <c r="K10" s="113" t="s">
         <v>1847</v>
       </c>
-      <c r="L10" s="114" t="s">
+      <c r="L10" s="113" t="s">
         <v>1848</v>
       </c>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="112" t="s">
         <v>1849</v>
       </c>
     </row>
@@ -27460,8 +28070,8 @@
   </sheetPr>
   <dimension ref="E2:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U5" activeCellId="0" sqref="U5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U5" activeCellId="2" sqref="L5:M5 L6 U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27470,10 +28080,10 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="114" t="s">
         <v>1851</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="114" t="s">
         <v>1852</v>
       </c>
       <c r="Q2" s="53" t="s">
@@ -27481,22 +28091,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T3" s="116"/>
-      <c r="U3" s="116" t="s">
+      <c r="T3" s="115"/>
+      <c r="U3" s="115" t="s">
         <v>1854</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="115" t="s">
+      <c r="L4" s="114" t="s">
         <v>1855</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="116" t="s">
         <v>1856</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="116" t="s">
         <v>1857</v>
       </c>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="116" t="s">
         <v>1858</v>
       </c>
       <c r="R4" s="48" t="s">
@@ -27505,17 +28115,17 @@
       <c r="S4" s="48" t="s">
         <v>1860</v>
       </c>
-      <c r="T4" s="118"/>
-      <c r="U4" s="116"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="115"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O5" s="117" t="s">
+      <c r="O5" s="116" t="s">
         <v>1861</v>
       </c>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="116" t="s">
         <v>1862</v>
       </c>
-      <c r="Q5" s="117" t="s">
+      <c r="Q5" s="116" t="s">
         <v>1863</v>
       </c>
       <c r="R5" s="48" t="s">
@@ -27532,10 +28142,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O6" s="117" t="s">
+      <c r="O6" s="116" t="s">
         <v>1868</v>
       </c>
-      <c r="P6" s="117" t="s">
+      <c r="P6" s="116" t="s">
         <v>1869</v>
       </c>
       <c r="Q6" s="4" t="s">
@@ -27555,10 +28165,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="56" t="s">
         <v>1875</v>
       </c>
-      <c r="N7" s="119" t="s">
+      <c r="N7" s="118" t="s">
         <v>1876</v>
       </c>
       <c r="O7" s="4" t="s">
@@ -27584,17 +28194,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="103"/>
-      <c r="O8" s="120" t="s">
+      <c r="E8" s="56"/>
+      <c r="O8" s="119" t="s">
         <v>1884</v>
       </c>
-      <c r="P8" s="120" t="s">
+      <c r="P8" s="119" t="s">
         <v>1885</v>
       </c>
-      <c r="Q8" s="120" t="s">
+      <c r="Q8" s="119" t="s">
         <v>1886</v>
       </c>
-      <c r="R8" s="120" t="s">
+      <c r="R8" s="119" t="s">
         <v>1887</v>
       </c>
       <c r="S8" s="6" t="s">
@@ -27606,12 +28216,12 @@
       <c r="U8" s="6" t="s">
         <v>1890</v>
       </c>
-      <c r="W8" s="103" t="s">
+      <c r="W8" s="56" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="103"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -27633,8 +28243,8 @@
   </sheetPr>
   <dimension ref="C1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="2" sqref="L5:M5 L6 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27709,7 +28319,7 @@
       <c r="D4" s="47" t="s">
         <v>1911</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="56" t="s">
         <v>1912</v>
       </c>
       <c r="G4" s="47" t="s">
@@ -27732,7 +28342,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="56" t="s">
         <v>1919</v>
       </c>
       <c r="D5" s="47" t="s">
@@ -27819,8 +28429,8 @@
   </sheetPr>
   <dimension ref="D3:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="2" sqref="L5:M5 L6 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27829,104 +28439,104 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="120" t="s">
         <v>1939</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="120" t="s">
         <v>1940</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="120" t="s">
         <v>1941</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="120" t="s">
         <v>1942</v>
       </c>
-      <c r="I3" s="121" t="s">
+      <c r="I3" s="120" t="s">
         <v>1943</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="120" t="s">
         <v>1944</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="121" t="s">
         <v>1945</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>1946</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="120" t="s">
         <v>1947</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="120" t="s">
         <v>1948</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="123" t="s">
         <v>1949</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="121" t="s">
         <v>1950</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="120" t="s">
         <v>1951</v>
       </c>
-      <c r="L5" s="125" t="s">
+      <c r="L5" s="124" t="s">
         <v>1952</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="120" t="s">
         <v>1953</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="120" t="s">
         <v>1954</v>
       </c>
-      <c r="G6" s="126" t="s">
+      <c r="G6" s="125" t="s">
         <v>1955</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="121" t="s">
         <v>1956</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="120" t="s">
         <v>1957</v>
       </c>
-      <c r="L6" s="127" t="s">
+      <c r="L6" s="126" t="s">
         <v>1958</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="127" t="s">
         <v>1959</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="128" t="s">
         <v>1960</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="121" t="s">
         <v>1961</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="120" t="s">
         <v>1962</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="120" t="s">
         <v>1963</v>
       </c>
-      <c r="L7" s="130" t="s">
+      <c r="L7" s="129" t="s">
         <v>1964</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="120" t="s">
         <v>1965</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="120" t="s">
         <v>1966</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="120" t="s">
         <v>1967</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="120" t="s">
         <v>1968</v>
       </c>
     </row>
@@ -27948,8 +28558,8 @@
   </sheetPr>
   <dimension ref="F2:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="2" sqref="L5:M5 L6 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27958,56 +28568,56 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="56" t="s">
         <v>1969</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="56" t="s">
         <v>1970</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="130" t="s">
         <v>1971</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="130" t="s">
         <v>1972</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="130" t="s">
         <v>1973</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="130" t="s">
         <v>1974</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="130" t="s">
         <v>1975</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="130" t="s">
         <v>1976</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="56" t="s">
         <v>1977</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="130" t="s">
         <v>1978</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="130" t="s">
         <v>1979</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="130" t="s">
         <v>1980</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="56" t="s">
         <v>1981</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G7" s="103" t="s">
+      <c r="G7" s="56" t="s">
         <v>1982</v>
       </c>
     </row>
@@ -28029,8 +28639,8 @@
   </sheetPr>
   <dimension ref="L5:V14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="2" sqref="L5:M5 L6 N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28039,149 +28649,149 @@
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R5" s="132" t="s">
+      <c r="R5" s="131" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L6" s="103" t="s">
+      <c r="L6" s="56" t="s">
         <v>1984</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="103" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="56" t="s">
         <v>1985</v>
       </c>
-      <c r="S6" s="133"/>
+      <c r="S6" s="132"/>
     </row>
     <row r="7" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="103" t="s">
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="56" t="s">
         <v>1986</v>
       </c>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="132"/>
     </row>
     <row r="8" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="56" t="s">
         <v>1987</v>
       </c>
-      <c r="O8" s="134" t="s">
+      <c r="O8" s="133" t="s">
         <v>1988</v>
       </c>
-      <c r="P8" s="103" t="s">
+      <c r="P8" s="56" t="s">
         <v>1989</v>
       </c>
-      <c r="Q8" s="103" t="s">
+      <c r="Q8" s="56" t="s">
         <v>1990</v>
       </c>
-      <c r="R8" s="103" t="s">
+      <c r="R8" s="56" t="s">
         <v>1991</v>
       </c>
-      <c r="S8" s="103" t="s">
+      <c r="S8" s="56" t="s">
         <v>1992</v>
       </c>
-      <c r="T8" s="103" t="s">
+      <c r="T8" s="56" t="s">
         <v>1993</v>
       </c>
-      <c r="U8" s="135" t="s">
+      <c r="U8" s="134" t="s">
         <v>1994</v>
       </c>
-      <c r="V8" s="103" t="s">
+      <c r="V8" s="56" t="s">
         <v>1995</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O9" s="136" t="s">
+      <c r="O9" s="135" t="s">
         <v>1996</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="56" t="s">
         <v>1997</v>
       </c>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="103" t="s">
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="56" t="s">
         <v>1998</v>
       </c>
-      <c r="U9" s="138" t="s">
+      <c r="U9" s="137" t="s">
         <v>1999</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N10" s="103"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="103" t="s">
+      <c r="N10" s="56"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="56" t="s">
         <v>2000</v>
       </c>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137" t="s">
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136" t="s">
         <v>2001</v>
       </c>
-      <c r="S10" s="137"/>
-      <c r="T10" s="103" t="s">
+      <c r="S10" s="136"/>
+      <c r="T10" s="56" t="s">
         <v>2002</v>
       </c>
-      <c r="U10" s="140"/>
-      <c r="V10" s="103"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O11" s="134" t="s">
+      <c r="O11" s="133" t="s">
         <v>2003</v>
       </c>
-      <c r="P11" s="103" t="s">
+      <c r="P11" s="56" t="s">
         <v>2004</v>
       </c>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="103" t="s">
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="56" t="s">
         <v>2005</v>
       </c>
-      <c r="U11" s="135" t="s">
+      <c r="U11" s="134" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N12" s="103" t="s">
+      <c r="N12" s="56" t="s">
         <v>2007</v>
       </c>
-      <c r="O12" s="136" t="s">
+      <c r="O12" s="135" t="s">
         <v>2008</v>
       </c>
-      <c r="P12" s="141" t="s">
+      <c r="P12" s="140" t="s">
         <v>2009</v>
       </c>
-      <c r="Q12" s="103" t="s">
+      <c r="Q12" s="56" t="s">
         <v>2010</v>
       </c>
-      <c r="R12" s="103" t="s">
+      <c r="R12" s="56" t="s">
         <v>2011</v>
       </c>
-      <c r="S12" s="103" t="s">
+      <c r="S12" s="56" t="s">
         <v>2012</v>
       </c>
-      <c r="T12" s="141" t="s">
+      <c r="T12" s="140" t="s">
         <v>2013</v>
       </c>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="137" t="s">
         <v>2014</v>
       </c>
-      <c r="V12" s="103" t="s">
+      <c r="V12" s="56" t="s">
         <v>2015</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q13" s="136" t="s">
+      <c r="Q13" s="135" t="s">
         <v>2016</v>
       </c>
-      <c r="R13" s="142"/>
-      <c r="S13" s="143" t="s">
+      <c r="R13" s="141"/>
+      <c r="S13" s="142" t="s">
         <v>2017</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R14" s="103"/>
+      <c r="R14" s="56"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28201,8 +28811,8 @@
   </sheetPr>
   <dimension ref="J3:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R5" activeCellId="2" sqref="L5:M5 L6 R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28211,79 +28821,79 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="143" t="s">
         <v>2018</v>
       </c>
-      <c r="K3" s="145" t="s">
+      <c r="K3" s="144" t="s">
         <v>2019</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="145" t="s">
         <v>2020</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="144" t="s">
         <v>2021</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="146" t="s">
         <v>2022</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J4" s="148" t="s">
+      <c r="J4" s="147" t="s">
         <v>2023</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="150" t="s">
+      <c r="K4" s="148"/>
+      <c r="L4" s="149" t="s">
         <v>2024</v>
       </c>
-      <c r="M4" s="149"/>
-      <c r="N4" s="150" t="s">
+      <c r="M4" s="148"/>
+      <c r="N4" s="149" t="s">
         <v>2025</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>2026</v>
       </c>
-      <c r="K5" s="152" t="s">
+      <c r="K5" s="151" t="s">
         <v>2027</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="56" t="s">
         <v>2028</v>
       </c>
-      <c r="M5" s="152" t="s">
+      <c r="M5" s="151" t="s">
         <v>2029</v>
       </c>
-      <c r="N5" s="153" t="s">
+      <c r="N5" s="152" t="s">
         <v>2030</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="147" t="s">
         <v>2031</v>
       </c>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155" t="s">
+      <c r="K6" s="153"/>
+      <c r="L6" s="154" t="s">
         <v>2032</v>
       </c>
-      <c r="M6" s="112"/>
-      <c r="N6" s="150" t="s">
+      <c r="M6" s="111"/>
+      <c r="N6" s="149" t="s">
         <v>2033</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J7" s="156" t="s">
+      <c r="J7" s="155" t="s">
         <v>2034</v>
       </c>
-      <c r="K7" s="157" t="s">
+      <c r="K7" s="156" t="s">
         <v>2035</v>
       </c>
-      <c r="L7" s="146" t="s">
+      <c r="L7" s="145" t="s">
         <v>2036</v>
       </c>
-      <c r="M7" s="157" t="s">
+      <c r="M7" s="156" t="s">
         <v>2037</v>
       </c>
-      <c r="N7" s="158" t="s">
+      <c r="N7" s="157" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -28305,8 +28915,8 @@
   </sheetPr>
   <dimension ref="B1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="2" sqref="L5:M5 L6 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28318,19 +28928,19 @@
       <c r="D1" s="53" t="s">
         <v>2039</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="158" t="s">
         <v>2040</v>
       </c>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="159" t="s">
         <v>2041</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="160" t="s">
         <v>2042</v>
       </c>
       <c r="I1" s="53" t="s">
         <v>2043</v>
       </c>
-      <c r="L1" s="103"/>
+      <c r="L1" s="56"/>
       <c r="N1" s="53" t="s">
         <v>2044</v>
       </c>
@@ -28339,157 +28949,157 @@
       <c r="B2" s="53" t="s">
         <v>2045</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="161" t="s">
         <v>2046</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="162" t="s">
         <v>2047</v>
       </c>
-      <c r="E2" s="162" t="s">
+      <c r="E2" s="161" t="s">
         <v>2048</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="163" t="s">
         <v>2049</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="164" t="s">
         <v>2050</v>
       </c>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>2051</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="166" t="s">
         <v>2052</v>
       </c>
-      <c r="K2" s="168" t="s">
+      <c r="K2" s="167" t="s">
         <v>2053</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="56" t="s">
         <v>2054</v>
       </c>
-      <c r="N2" s="169" t="s">
+      <c r="N2" s="168" t="s">
         <v>2055</v>
       </c>
-      <c r="O2" s="170" t="s">
+      <c r="O2" s="169" t="s">
         <v>2056</v>
       </c>
-      <c r="P2" s="171" t="s">
+      <c r="P2" s="170" t="s">
         <v>2057</v>
       </c>
-      <c r="Q2" s="170" t="s">
+      <c r="Q2" s="169" t="s">
         <v>2058</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="171" t="s">
         <v>2059</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="56" t="s">
         <v>2060</v>
       </c>
-      <c r="E3" s="173" t="s">
+      <c r="E3" s="172" t="s">
         <v>2061</v>
       </c>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="173" t="s">
         <v>2062</v>
       </c>
-      <c r="H3" s="175" t="s">
+      <c r="H3" s="174" t="s">
         <v>2063</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="56" t="s">
         <v>2064</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="175" t="s">
         <v>2065</v>
       </c>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="176" t="s">
         <v>2066</v>
       </c>
-      <c r="N3" s="178" t="s">
+      <c r="N3" s="177" t="s">
         <v>2067</v>
       </c>
-      <c r="O3" s="170" t="s">
+      <c r="O3" s="169" t="s">
         <v>2068</v>
       </c>
-      <c r="P3" s="179" t="s">
+      <c r="P3" s="178" t="s">
         <v>2069</v>
       </c>
-      <c r="Q3" s="180" t="s">
+      <c r="Q3" s="179" t="s">
         <v>2070</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>2071</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="180" t="s">
         <v>2072</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="56" t="s">
         <v>2073</v>
       </c>
-      <c r="F4" s="174" t="s">
+      <c r="F4" s="173" t="s">
         <v>2074</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="164" t="s">
         <v>2075</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="56" t="s">
         <v>2076</v>
       </c>
-      <c r="J4" s="182" t="s">
+      <c r="J4" s="181" t="s">
         <v>2077</v>
       </c>
-      <c r="K4" s="174" t="s">
+      <c r="K4" s="173" t="s">
         <v>2078</v>
       </c>
-      <c r="N4" s="183" t="s">
+      <c r="N4" s="182" t="s">
         <v>2079</v>
       </c>
-      <c r="O4" s="184" t="s">
+      <c r="O4" s="183" t="s">
         <v>2080</v>
       </c>
-      <c r="P4" s="173" t="s">
+      <c r="P4" s="172" t="s">
         <v>2081</v>
       </c>
-      <c r="Q4" s="170" t="s">
+      <c r="Q4" s="169" t="s">
         <v>2082</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="171" t="s">
         <v>2083</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="184" t="s">
         <v>2084</v>
       </c>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="171" t="s">
         <v>2085</v>
       </c>
-      <c r="F5" s="181" t="s">
+      <c r="F5" s="180" t="s">
         <v>2086</v>
       </c>
-      <c r="H5" s="176" t="s">
+      <c r="H5" s="175" t="s">
         <v>2087</v>
       </c>
-      <c r="I5" s="186" t="s">
+      <c r="I5" s="185" t="s">
         <v>2088</v>
       </c>
-      <c r="J5" s="187" t="s">
+      <c r="J5" s="186" t="s">
         <v>2089</v>
       </c>
-      <c r="K5" s="188" t="s">
+      <c r="K5" s="187" t="s">
         <v>2090</v>
       </c>
-      <c r="N5" s="172" t="s">
+      <c r="N5" s="171" t="s">
         <v>2091</v>
       </c>
-      <c r="O5" s="187" t="s">
+      <c r="O5" s="186" t="s">
         <v>2092</v>
       </c>
-      <c r="P5" s="181" t="s">
+      <c r="P5" s="180" t="s">
         <v>2093</v>
       </c>
-      <c r="Q5" s="176" t="s">
+      <c r="Q5" s="175" t="s">
         <v>2094</v>
       </c>
     </row>
@@ -28511,8 +29121,8 @@
   </sheetPr>
   <dimension ref="E3:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="2" sqref="L5:M5 L6 I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28521,13 +29131,13 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="56" t="s">
         <v>2095</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="56" t="s">
         <v>2096</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="56" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -28549,20 +29159,14 @@
   </sheetPr>
   <dimension ref="E1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="2" sqref="L5:M5 L6 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="79.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-    </row>
+    <row r="1" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
@@ -28583,18 +29187,9 @@
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" customFormat="false" ht="113.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" customFormat="false" ht="101" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" customFormat="false" ht="90.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-    </row>
+    <row r="5" customFormat="false" ht="113.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="101" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="90.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -28613,8 +29208,8 @@
   </sheetPr>
   <dimension ref="E3:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="2" sqref="L5:M5 L6 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.35546875" defaultRowHeight="79.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28623,39 +29218,39 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="56" t="s">
         <v>2098</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="56" t="s">
         <v>2099</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="56" t="s">
         <v>2100</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="56" t="s">
         <v>2101</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="56" t="s">
         <v>2102</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="56" t="s">
         <v>2103</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="56" t="s">
         <v>2104</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="56" t="s">
         <v>2105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="56" t="s">
         <v>2106</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="56" t="s">
         <v>2107</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="56" t="s">
         <v>2108</v>
       </c>
     </row>
@@ -28677,70 +29272,70 @@
   </sheetPr>
   <dimension ref="D4:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="2" sqref="L5:M5 L6 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.796875" defaultRowHeight="80.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="4" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="103" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
         <v>2109</v>
       </c>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="189"/>
-      <c r="E5" s="131" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="130" t="s">
         <v>2110</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="130" t="s">
         <v>2111</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="130" t="s">
         <v>2112</v>
       </c>
-      <c r="H5" s="189"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D6" s="189"/>
-      <c r="E6" s="131" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="130" t="s">
         <v>2113</v>
       </c>
-      <c r="F6" s="189"/>
-      <c r="G6" s="131" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="130" t="s">
         <v>2114</v>
       </c>
-      <c r="H6" s="189"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D7" s="189"/>
-      <c r="E7" s="131" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="130" t="s">
         <v>2115</v>
       </c>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="56" t="s">
         <v>2116</v>
       </c>
-      <c r="G7" s="131" t="s">
+      <c r="G7" s="130" t="s">
         <v>2117</v>
       </c>
-      <c r="H7" s="131" t="s">
+      <c r="H7" s="130" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="189"/>
-      <c r="E8" s="131" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="130" t="s">
         <v>2119</v>
       </c>
-      <c r="F8" s="131" t="s">
+      <c r="F8" s="130" t="s">
         <v>2120</v>
       </c>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -28761,90 +29356,90 @@
   </sheetPr>
   <dimension ref="D2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="2" sqref="L5:M5 L6 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.578125" defaultRowHeight="82.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="149" t="s">
         <v>2121</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="133" t="s">
         <v>2122</v>
       </c>
-      <c r="I2" s="190" t="s">
+      <c r="I2" s="188" t="s">
         <v>2123</v>
       </c>
       <c r="J2" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="147" t="s">
         <v>2124</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="154" t="s">
         <v>2125</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="154" t="s">
         <v>2126</v>
       </c>
-      <c r="H3" s="191" t="s">
+      <c r="H3" s="189" t="s">
         <v>2127</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="134" t="s">
         <v>2128</v>
       </c>
       <c r="J3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="147" t="s">
         <v>2129</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="188" t="s">
         <v>2130</v>
       </c>
-      <c r="G4" s="192" t="s">
+      <c r="G4" s="190" t="s">
         <v>2131</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="137" t="s">
         <v>2132</v>
       </c>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="135" t="s">
         <v>2133</v>
       </c>
-      <c r="J4" s="190" t="s">
+      <c r="J4" s="188" t="s">
         <v>2134</v>
       </c>
-      <c r="K4" s="191" t="s">
+      <c r="K4" s="189" t="s">
         <v>2135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="190" t="s">
         <v>2136</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="140" t="s">
         <v>2137</v>
       </c>
-      <c r="F5" s="191" t="s">
+      <c r="F5" s="189" t="s">
         <v>2138</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="134" t="s">
         <v>2139</v>
       </c>
-      <c r="H5" s="146"/>
+      <c r="H5" s="145"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
     </row>
     <row r="6" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="53"/>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="135" t="s">
         <v>2140</v>
       </c>
-      <c r="G6" s="193"/>
+      <c r="G6" s="191"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -28868,26 +29463,26 @@
   </sheetPr>
   <dimension ref="I3:AB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="L5:M5 L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.01953125" defaultRowHeight="71.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="138"/>
+      <c r="L4" s="137"/>
       <c r="M4" s="47" t="s">
         <v>2141</v>
       </c>
-      <c r="N4" s="136"/>
-      <c r="W4" s="194" t="s">
+      <c r="N4" s="135"/>
+      <c r="W4" s="192" t="s">
         <v>2142</v>
       </c>
-      <c r="X4" s="146" t="s">
+      <c r="X4" s="145" t="s">
         <v>2143</v>
       </c>
-      <c r="Y4" s="195" t="s">
+      <c r="Y4" s="193" t="s">
         <v>2144</v>
       </c>
     </row>
@@ -28901,13 +29496,13 @@
       <c r="N5" s="47" t="s">
         <v>2147</v>
       </c>
-      <c r="W5" s="196" t="s">
+      <c r="W5" s="194" t="s">
         <v>2148</v>
       </c>
-      <c r="X5" s="141" t="s">
+      <c r="X5" s="140" t="s">
         <v>2149</v>
       </c>
-      <c r="Y5" s="195" t="s">
+      <c r="Y5" s="193" t="s">
         <v>2150</v>
       </c>
     </row>
@@ -28918,150 +29513,150 @@
       <c r="M6" s="47" t="s">
         <v>2152</v>
       </c>
-      <c r="N6" s="197" t="s">
+      <c r="N6" s="195" t="s">
         <v>2153</v>
       </c>
-      <c r="W6" s="198" t="s">
+      <c r="W6" s="196" t="s">
         <v>2154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="198" t="s">
+      <c r="M7" s="196" t="s">
         <v>2155</v>
       </c>
-      <c r="R7" s="199" t="s">
+      <c r="R7" s="197" t="s">
         <v>2156</v>
       </c>
-      <c r="S7" s="146" t="s">
+      <c r="S7" s="145" t="s">
         <v>2157</v>
       </c>
-      <c r="T7" s="200" t="s">
+      <c r="T7" s="198" t="s">
         <v>2158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R8" s="141" t="s">
+      <c r="R8" s="140" t="s">
         <v>2159</v>
       </c>
-      <c r="S8" s="191" t="s">
+      <c r="S8" s="189" t="s">
         <v>2160</v>
       </c>
-      <c r="T8" s="141" t="s">
+      <c r="T8" s="140" t="s">
         <v>2161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R9" s="201" t="s">
+      <c r="R9" s="199" t="s">
         <v>2162</v>
       </c>
-      <c r="S9" s="141" t="s">
+      <c r="S9" s="140" t="s">
         <v>2163</v>
       </c>
-      <c r="T9" s="202" t="s">
+      <c r="T9" s="200" t="s">
         <v>2164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N10" s="203" t="s">
+      <c r="N10" s="201" t="s">
         <v>2165</v>
       </c>
-      <c r="W10" s="203" t="s">
+      <c r="W10" s="201" t="s">
         <v>2166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M11" s="192" t="s">
+      <c r="M11" s="190" t="s">
         <v>2167</v>
       </c>
-      <c r="N11" s="204" t="s">
+      <c r="N11" s="202" t="s">
         <v>2168</v>
       </c>
-      <c r="V11" s="205" t="s">
+      <c r="V11" s="203" t="s">
         <v>2169</v>
       </c>
-      <c r="W11" s="155" t="s">
+      <c r="W11" s="154" t="s">
         <v>2170</v>
       </c>
-      <c r="X11" s="206" t="s">
+      <c r="X11" s="204" t="s">
         <v>2171</v>
       </c>
-      <c r="Y11" s="135" t="s">
+      <c r="Y11" s="134" t="s">
         <v>2172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="M12" s="194" t="s">
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="M12" s="192" t="s">
         <v>2173</v>
       </c>
-      <c r="N12" s="138" t="s">
+      <c r="N12" s="137" t="s">
         <v>2174</v>
       </c>
-      <c r="V12" s="150" t="s">
+      <c r="V12" s="149" t="s">
         <v>2175</v>
       </c>
-      <c r="W12" s="134" t="s">
+      <c r="W12" s="133" t="s">
         <v>2176</v>
       </c>
-      <c r="X12" s="207" t="s">
+      <c r="X12" s="205" t="s">
         <v>2177</v>
       </c>
-      <c r="Y12" s="150" t="s">
+      <c r="Y12" s="149" t="s">
         <v>2178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I13" s="208" t="s">
+      <c r="I13" s="206" t="s">
         <v>2179</v>
       </c>
-      <c r="J13" s="132" t="s">
+      <c r="J13" s="131" t="s">
         <v>2180</v>
       </c>
-      <c r="V13" s="150" t="s">
+      <c r="V13" s="149" t="s">
         <v>2181</v>
       </c>
-      <c r="W13" s="209" t="s">
+      <c r="W13" s="207" t="s">
         <v>2182</v>
       </c>
-      <c r="X13" s="210" t="s">
+      <c r="X13" s="208" t="s">
         <v>2183</v>
       </c>
-      <c r="Y13" s="150" t="s">
+      <c r="Y13" s="149" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="211" t="s">
+      <c r="I14" s="209" t="s">
         <v>2185</v>
       </c>
-      <c r="J14" s="212" t="s">
+      <c r="J14" s="210" t="s">
         <v>2186</v>
       </c>
-      <c r="V14" s="150" t="s">
+      <c r="V14" s="149" t="s">
         <v>2187</v>
       </c>
-      <c r="W14" s="213" t="s">
+      <c r="W14" s="211" t="s">
         <v>2188</v>
       </c>
-      <c r="X14" s="214" t="s">
+      <c r="X14" s="212" t="s">
         <v>2189</v>
       </c>
-      <c r="Y14" s="150" t="s">
+      <c r="Y14" s="149" t="s">
         <v>2190</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V15" s="136" t="s">
+      <c r="V15" s="135" t="s">
         <v>2191</v>
       </c>
-      <c r="W15" s="155" t="s">
+      <c r="W15" s="154" t="s">
         <v>2192</v>
       </c>
-      <c r="X15" s="155" t="s">
+      <c r="X15" s="154" t="s">
         <v>2193</v>
       </c>
-      <c r="Y15" s="138" t="s">
+      <c r="Y15" s="137" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -29070,7 +29665,7 @@
       <c r="W16" s="55"/>
       <c r="X16" s="55"/>
       <c r="Y16" s="55"/>
-      <c r="Z16" s="215" t="s">
+      <c r="Z16" s="116" t="s">
         <v>2195</v>
       </c>
       <c r="AA16" s="55"/>
@@ -29078,70 +29673,70 @@
     </row>
     <row r="17" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V17" s="55"/>
-      <c r="W17" s="216" t="s">
+      <c r="W17" s="213" t="s">
         <v>2196</v>
       </c>
       <c r="X17" s="55"/>
-      <c r="Y17" s="217" t="s">
+      <c r="Y17" s="214" t="s">
         <v>2197</v>
       </c>
-      <c r="Z17" s="218" t="s">
+      <c r="Z17" s="215" t="s">
         <v>2198</v>
       </c>
-      <c r="AA17" s="219" t="s">
+      <c r="AA17" s="216" t="s">
         <v>2199</v>
       </c>
       <c r="AB17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V18" s="220" t="s">
+      <c r="V18" s="217" t="s">
         <v>2200</v>
       </c>
-      <c r="W18" s="221" t="s">
+      <c r="W18" s="218" t="s">
         <v>2201</v>
       </c>
       <c r="X18" s="55"/>
-      <c r="Y18" s="222" t="s">
+      <c r="Y18" s="219" t="s">
         <v>2202</v>
       </c>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="223" t="s">
+      <c r="AA18" s="220" t="s">
         <v>2203</v>
       </c>
-      <c r="AB18" s="215" t="s">
+      <c r="AB18" s="116" t="s">
         <v>2204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V19" s="55"/>
-      <c r="W19" s="224" t="s">
+      <c r="W19" s="221" t="s">
         <v>2205</v>
       </c>
-      <c r="X19" s="218" t="s">
+      <c r="X19" s="215" t="s">
         <v>2206</v>
       </c>
-      <c r="Y19" s="225" t="s">
+      <c r="Y19" s="222" t="s">
         <v>2207</v>
       </c>
-      <c r="Z19" s="218" t="s">
+      <c r="Z19" s="215" t="s">
         <v>2208</v>
       </c>
-      <c r="AA19" s="226" t="s">
+      <c r="AA19" s="223" t="s">
         <v>2209</v>
       </c>
       <c r="AB19" s="55"/>
     </row>
     <row r="20" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V20" s="55"/>
-      <c r="W20" s="227" t="s">
+      <c r="W20" s="224" t="s">
         <v>2210</v>
       </c>
       <c r="X20" s="55"/>
-      <c r="Y20" s="227" t="s">
+      <c r="Y20" s="224" t="s">
         <v>2211</v>
       </c>
       <c r="Z20" s="55"/>
-      <c r="AA20" s="227" t="s">
+      <c r="AA20" s="224" t="s">
         <v>2212</v>
       </c>
       <c r="AB20" s="55"/>
@@ -29165,8 +29760,8 @@
   </sheetPr>
   <dimension ref="M4:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U4" activeCellId="2" sqref="L5:M5 L6 U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="62.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29189,76 +29784,440 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="225"/>
+      <c r="Q5" s="225"/>
     </row>
     <row r="6" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="230" t="s">
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="226" t="s">
         <v>2217</v>
       </c>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="229"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
     </row>
     <row r="7" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="231" t="s">
+      <c r="M7" s="227" t="s">
         <v>2218</v>
       </c>
-      <c r="N7" s="232" t="s">
+      <c r="N7" s="228" t="s">
         <v>2219</v>
       </c>
-      <c r="O7" s="233" t="s">
+      <c r="O7" s="229" t="s">
         <v>2220</v>
       </c>
-      <c r="P7" s="234" t="s">
+      <c r="P7" s="230" t="s">
         <v>2221</v>
       </c>
-      <c r="Q7" s="229"/>
+      <c r="Q7" s="225"/>
     </row>
     <row r="8" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M8" s="235" t="s">
+      <c r="M8" s="231" t="s">
         <v>2222</v>
       </c>
-      <c r="N8" s="233" t="s">
+      <c r="N8" s="229" t="s">
         <v>2223</v>
       </c>
-      <c r="O8" s="233" t="s">
+      <c r="O8" s="229" t="s">
         <v>2224</v>
       </c>
-      <c r="P8" s="233" t="s">
+      <c r="P8" s="229" t="s">
         <v>2225</v>
       </c>
-      <c r="Q8" s="234" t="s">
+      <c r="Q8" s="230" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M9" s="229"/>
-      <c r="N9" s="235" t="s">
+      <c r="M9" s="225"/>
+      <c r="N9" s="231" t="s">
         <v>2227</v>
       </c>
-      <c r="O9" s="233" t="s">
+      <c r="O9" s="229" t="s">
         <v>2228</v>
       </c>
-      <c r="P9" s="236" t="s">
+      <c r="P9" s="232" t="s">
         <v>2229</v>
       </c>
-      <c r="Q9" s="237" t="s">
+      <c r="Q9" s="233" t="s">
         <v>2230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M10" s="229"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="238" t="s">
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="234" t="s">
         <v>2231</v>
       </c>
-      <c r="P10" s="229"/>
-      <c r="Q10" s="229"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="225"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="1" sqref="L5:M5 L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="235" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+    </row>
+    <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="236"/>
+      <c r="B2" s="237" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C2" s="238" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D2" s="239" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E2" s="239" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F2" s="239" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G2" s="239" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H2" s="239" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I2" s="240" t="s">
+        <v>2239</v>
+      </c>
+      <c r="J2" s="239" t="s">
+        <v>2240</v>
+      </c>
+      <c r="K2" s="240" t="s">
+        <v>2241</v>
+      </c>
+      <c r="L2" s="239" t="s">
+        <v>2242</v>
+      </c>
+      <c r="M2" s="239" t="s">
+        <v>2243</v>
+      </c>
+      <c r="N2" s="239" t="s">
+        <v>2244</v>
+      </c>
+      <c r="O2" s="239" t="s">
+        <v>2245</v>
+      </c>
+      <c r="P2" s="240" t="s">
+        <v>2246</v>
+      </c>
+      <c r="Q2" s="236"/>
+    </row>
+    <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="236"/>
+      <c r="B3" s="241" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C3" s="242" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D3" s="242" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E3" s="237" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F3" s="239" t="s">
+        <v>2251</v>
+      </c>
+      <c r="G3" s="239" t="s">
+        <v>2252</v>
+      </c>
+      <c r="H3" s="239" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I3" s="243" t="s">
+        <v>2254</v>
+      </c>
+      <c r="J3" s="242" t="s">
+        <v>2255</v>
+      </c>
+      <c r="K3" s="244" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L3" s="245" t="s">
+        <v>2257</v>
+      </c>
+      <c r="M3" s="242" t="s">
+        <v>2258</v>
+      </c>
+      <c r="N3" s="237" t="s">
+        <v>2259</v>
+      </c>
+      <c r="O3" s="240" t="s">
+        <v>2260</v>
+      </c>
+      <c r="P3" s="243" t="s">
+        <v>2261</v>
+      </c>
+      <c r="Q3" s="236"/>
+    </row>
+    <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="236"/>
+      <c r="B4" s="241" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C4" s="237" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D4" s="238" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E4" s="242" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F4" s="237" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G4" s="246" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H4" s="246" t="s">
+        <v>2268</v>
+      </c>
+      <c r="I4" s="246" t="s">
+        <v>2269</v>
+      </c>
+      <c r="J4" s="245" t="s">
+        <v>2270</v>
+      </c>
+      <c r="K4" s="242" t="s">
+        <v>2271</v>
+      </c>
+      <c r="L4" s="242" t="s">
+        <v>2272</v>
+      </c>
+      <c r="M4" s="242" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N4" s="241" t="s">
+        <v>2274</v>
+      </c>
+      <c r="O4" s="240" t="s">
+        <v>2275</v>
+      </c>
+      <c r="P4" s="243" t="s">
+        <v>2276</v>
+      </c>
+      <c r="Q4" s="236"/>
+    </row>
+    <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="236"/>
+      <c r="B5" s="241" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C5" s="241" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D5" s="242" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E5" s="244" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F5" s="245" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G5" s="247" t="s">
+        <v>2282</v>
+      </c>
+      <c r="H5" s="242" t="s">
+        <v>2283</v>
+      </c>
+      <c r="I5" s="248" t="s">
+        <v>2284</v>
+      </c>
+      <c r="J5" s="248" t="s">
+        <v>2285</v>
+      </c>
+      <c r="K5" s="248" t="s">
+        <v>2286</v>
+      </c>
+      <c r="L5" s="237" t="s">
+        <v>2287</v>
+      </c>
+      <c r="M5" s="239" t="s">
+        <v>2288</v>
+      </c>
+      <c r="N5" s="240" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O5" s="248" t="s">
+        <v>2290</v>
+      </c>
+      <c r="P5" s="245" t="s">
+        <v>2291</v>
+      </c>
+      <c r="Q5" s="236"/>
+    </row>
+    <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="236"/>
+      <c r="B6" s="241" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C6" s="249" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D6" s="242" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E6" s="242" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F6" s="242" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G6" s="247" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H6" s="242" t="s">
+        <v>2298</v>
+      </c>
+      <c r="I6" s="242" t="s">
+        <v>2299</v>
+      </c>
+      <c r="J6" s="242" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K6" s="250" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L6" s="245" t="s">
+        <v>2302</v>
+      </c>
+      <c r="M6" s="251" t="s">
+        <v>2303</v>
+      </c>
+      <c r="N6" s="248" t="s">
+        <v>2304</v>
+      </c>
+      <c r="O6" s="248" t="s">
+        <v>2305</v>
+      </c>
+      <c r="P6" s="243" t="s">
+        <v>2306</v>
+      </c>
+      <c r="Q6" s="236"/>
+    </row>
+    <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="236"/>
+      <c r="B7" s="244" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C7" s="248" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D7" s="248" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E7" s="252" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F7" s="248" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G7" s="248" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H7" s="246" t="s">
+        <v>2313</v>
+      </c>
+      <c r="I7" s="253" t="s">
+        <v>2314</v>
+      </c>
+      <c r="J7" s="248" t="s">
+        <v>2315</v>
+      </c>
+      <c r="K7" s="248" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L7" s="248" t="s">
+        <v>2317</v>
+      </c>
+      <c r="M7" s="248" t="s">
+        <v>2318</v>
+      </c>
+      <c r="N7" s="248" t="s">
+        <v>2319</v>
+      </c>
+      <c r="O7" s="248" t="s">
+        <v>2320</v>
+      </c>
+      <c r="P7" s="245" t="s">
+        <v>2321</v>
+      </c>
+      <c r="Q7" s="236"/>
+    </row>
+    <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="236"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
+      <c r="O8" s="236"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="236"/>
+    </row>
+    <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H9" s="254" t="s">
+        <v>2322</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -29278,8 +30237,8 @@
   </sheetPr>
   <dimension ref="E4:AD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z13" activeCellId="2" sqref="L5:M5 L6 Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30102,8 +31061,8 @@
   </sheetPr>
   <dimension ref="I14:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="2" sqref="L5:M5 L6 I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30112,7 +31071,7 @@
   </cols>
   <sheetData>
     <row r="14" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="56" t="s">
         <v>1695</v>
       </c>
       <c r="J14" s="47" t="s">
@@ -30153,8 +31112,8 @@
   </sheetPr>
   <dimension ref="L3:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="2" sqref="L5:M5 L6 N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30168,30 +31127,30 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="103" t="s">
         <v>1699</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="103" t="s">
         <v>1700</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="103" t="s">
         <v>1701</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="104" t="s">
         <v>1702</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="103" t="s">
         <v>1703</v>
       </c>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="104" t="s">
         <v>1704</v>
       </c>
-      <c r="O5" s="104" t="s">
+      <c r="O5" s="103" t="s">
         <v>1705</v>
       </c>
-      <c r="P5" s="106" t="s">
+      <c r="P5" s="105" t="s">
         <v>1706</v>
       </c>
       <c r="Q5" s="33" t="s">
@@ -30199,11 +31158,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
     </row>
     <row r="7" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -30224,8 +31183,8 @@
   </sheetPr>
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="2" sqref="L5:M5 L6 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30242,47 +31201,47 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="56" t="s">
         <v>1708</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="107" t="s">
         <v>1709</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="56" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="107" t="s">
         <v>1711</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>1712</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>1713</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>1714</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="107" t="s">
         <v>1715</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="107" t="s">
         <v>1716</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="107" t="s">
         <v>1717</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="56" t="s">
         <v>1718</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="56" t="s">
         <v>1719</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="107" t="s">
         <v>1720</v>
       </c>
     </row>
@@ -30309,8 +31268,8 @@
   </sheetPr>
   <dimension ref="E1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="2" sqref="L5:M5 L6 O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30333,12 +31292,12 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J4" s="103" t="s">
+      <c r="J4" s="56" t="s">
         <v>1724</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="47" t="s">
@@ -30350,7 +31309,7 @@
       <c r="L5" s="47" t="s">
         <v>1727</v>
       </c>
-      <c r="M5" s="103"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="47" t="s">
         <v>1728</v>
       </c>
@@ -30383,19 +31342,19 @@
       <c r="L6" s="47" t="s">
         <v>1736</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="108" t="s">
         <v>1737</v>
       </c>
-      <c r="N6" s="110" t="s">
+      <c r="N6" s="109" t="s">
         <v>1738</v>
       </c>
-      <c r="O6" s="110" t="s">
+      <c r="O6" s="109" t="s">
         <v>1739</v>
       </c>
-      <c r="P6" s="110" t="s">
+      <c r="P6" s="109" t="s">
         <v>1740</v>
       </c>
-      <c r="Q6" s="110" t="s">
+      <c r="Q6" s="109" t="s">
         <v>1741</v>
       </c>
       <c r="R6" s="49" t="s">
@@ -30412,7 +31371,7 @@
       <c r="L7" s="47" t="s">
         <v>1744</v>
       </c>
-      <c r="M7" s="103"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="47" t="s">
         <v>1745</v>
       </c>
@@ -30427,13 +31386,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="56" t="s">
         <v>1749</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="O8" s="103" t="s">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="O8" s="56" t="s">
         <v>1750</v>
       </c>
     </row>
@@ -30447,53 +31406,53 @@
       <c r="L9" s="53" t="s">
         <v>1751</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="56" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="56" t="s">
         <v>1752</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="56" t="s">
         <v>1753</v>
       </c>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="110" t="s">
         <v>1754</v>
       </c>
-      <c r="K10" s="111" t="s">
+      <c r="K10" s="110" t="s">
         <v>1755</v>
       </c>
-      <c r="L10" s="111" t="s">
+      <c r="L10" s="110" t="s">
         <v>1756</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="56" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="56" t="s">
         <v>1757</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="56" t="s">
         <v>1758</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="G11" s="56" t="s">
         <v>1759</v>
       </c>
-      <c r="H11" s="103" t="s">
+      <c r="H11" s="56" t="s">
         <v>1760</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>1723</v>
       </c>
-      <c r="J11" s="111" t="s">
+      <c r="J11" s="110" t="s">
         <v>1761</v>
       </c>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="110" t="s">
         <v>1762</v>
       </c>
-      <c r="L11" s="111" t="s">
+      <c r="L11" s="110" t="s">
         <v>1763</v>
       </c>
       <c r="M11" s="53" t="s">
@@ -30501,13 +31460,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="110" t="s">
         <v>1764</v>
       </c>
-      <c r="K12" s="111" t="s">
+      <c r="K12" s="110" t="s">
         <v>1765</v>
       </c>
-      <c r="L12" s="111" t="s">
+      <c r="L12" s="110" t="s">
         <v>1766</v>
       </c>
     </row>
@@ -30529,8 +31488,8 @@
   </sheetPr>
   <dimension ref="C3:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="2" sqref="L5:M5 L6 I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30539,28 +31498,28 @@
       <c r="C3" s="47" t="s">
         <v>1295</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="56" t="s">
         <v>1767</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="56" t="s">
         <v>1768</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="56" t="s">
         <v>1769</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="56" t="s">
         <v>1770</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="56" t="s">
         <v>1771</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="56" t="s">
         <v>1772</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="56" t="s">
         <v>1773</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="56" t="s">
         <v>1774</v>
       </c>
       <c r="L3" s="53"/>
@@ -30583,8 +31542,8 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="2" sqref="L5:M5 L6 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30593,67 +31552,67 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="56" t="s">
         <v>1775</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="56" t="s">
         <v>1776</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="56" t="s">
         <v>1777</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="56" t="s">
         <v>1778</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="56" t="s">
         <v>1779</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="56" t="s">
         <v>1780</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="56" t="s">
         <v>1781</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="56" t="s">
         <v>1782</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="56" t="s">
         <v>1783</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="56" t="s">
         <v>1784</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="56" t="s">
         <v>1785</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="56" t="s">
         <v>1786</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="56" t="s">
         <v>1787</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="N1" s="56" t="s">
         <v>1788</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="56" t="s">
         <v>1789</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="P1" s="56" t="s">
         <v>1790</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="Q1" s="56" t="s">
         <v>1791</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="R1" s="56" t="s">
         <v>1792</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="S1" s="56" t="s">
         <v>1793</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="T1" s="56" t="s">
         <v>1794</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="U1" s="56" t="s">
         <v>1795</v>
       </c>
     </row>

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,8 @@
     <sheet name="Lumakesi" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="Boars Snout" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="Echohaven" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Island of the Mad" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Sheet27" sheetId="27" state="visible" r:id="rId28"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4496" uniqueCount="2323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="2524">
   <si>
     <t xml:space="preserve">Panahon</t>
   </si>
@@ -14330,6 +14332,1099 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start
+#10490
+South 10493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10506
+South 10510
+East 10508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10491
+North 10493
+South 10495
+East 10536
+West 10507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10535
+South 10539
+West 10537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10527
+East 10529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10524
+South 10531
+East 10526
+West 10528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10509
+North 10511
+South 10513
+East 10522
+West 10525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10494
+North 10496
+South 10498
+East 10555
+West 10523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10538
+North 10540
+South 10542
+East 10557
+West 10554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10556
+South 10559
+East 10562
+West 10558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10561
+West 10563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10594
+South 10598
+East 10596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10591
+South 10593
+West 10595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10530
+North 10532
+East 10533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10512
+North 10514
+South 10516
+East 10502
+West 10534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10497
+North 10499
+South 10501
+East 10550
+West 10521
+Whispering Arch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10541
+North 10543
+South 10545
+East 10552
+West 10549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10551
+North 10560
+West 10553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10800
+South 10956
+East 10960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10959
+East 10962
+West 10961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10801
+East 10965
+West 10963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10964
+South 10968
+West 10966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10605
+South 10609
+East 10607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10597
+North 10599
+South 10603
+East 10600
+West 10606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10588
+North 10592
+South 10590
+West 10601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10585
+South 10587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10515
+North 10517
+East 10518
+Veiled Statue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10500
+North 10502
+South 10504
+East 10548
+West 10519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10544
+North 10546
+West 10547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10949
+South 10951
+East 10953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10952
+North 10955
+South 0957
+West 10954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10981
+East 10983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10978
+South 10980
+West 10982
+Clocktower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10967
+North 10969
+South 10970
+East 10973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10972
+West 10974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10613
+East 10615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10608
+North 10610
+South 10617
+East 10611
+West 10614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10602
+North 10604
+West 10611
+Sepulchral Idol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10582
+North 10589
+East 10584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10579
+North 10586
+East 10581
+West 10583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10576
+South 10578
+West 10580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10503
+North 10505
+South 10565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10946
+East 10948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10799
+North 10950
+East 10945
+West 10947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10937
+North 10958
+South 10939
+East 10942
+West 10944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10798
+West 10943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10975
+North 10979
+South 10985
+East 10977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10797
+North 10971
+West 10976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10990
+South 10995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11008
+South 11010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10625
+South 10627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10616
+North 10618
+South 10620
+East 10638
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10634
+South 10636
+East 10640
+West 10637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10639
+South 10643
+West 10641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10668
+South 10670
+East 10671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10573
+North 10577
+South 10575
+East 10673
+West 10672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10564
+North 10566
+South 10568
+East 10676
+West 10674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10675
+South 10682
+East 10679
+West 10677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10678
+West 10680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10934
+North 10938
+South 10936
+East 10940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10719
+South 10721
+West 10941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10984
+North 10986
+East 10988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10987
+East 10991
+West 10989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10990
+North 10994
+South 10997
+West 10992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10796
+North 11009
+South 11005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10622
+North 10626
+South 10629
+East 10624
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10619
+North 10621
+East 10632
+West 10623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10631
+North 10635
+South 10652
+West 10633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10642
+North 10644
+South 10646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10665
+North 10669
+South 10667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10570
+North 10574
+East 10572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10567
+North 10569 
+East 10685
+West 10571
+The Abysmal Towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10681
+North 10683
+South 1068
+West 10684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10790
+South 10925
+East 10931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10918
+North 10935
+South 10920
+East 10932
+West 10930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10716
+North 10720
+South 10718
+West 10933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10791
+South 11023
+East 11025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11024
+West 11026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10996
+North 10998
+South 11000
+East 11002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10795
+North 11004
+South 11006
+West 11003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10628
+North 10630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10779
+South 10816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10648
+North 10651
+East 10650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10645
+North 10647
+South 10824
+East 10654
+West 10650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10653
+North 10666
+East 10657
+West 10655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10656
+South 10703
+East 10660
+West 10658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10659
+South 10698
+East 10663
+West 10661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10662
+North 10690
+South 10692
+East 10927
+West 10664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10921
+North 10924
+South 10982
+East 10923
+West 10926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10710
+North 10919
+South 10712
+East 10714
+West 10922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10713
+North 10717
+South 10723
+West 10715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11019
+North 11022
+East 11021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11016
+East 11018
+West 11020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10999
+North 11001
+East 11012
+West 11017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10794
+North 11007
+South 11028
+East 11014
+West 11011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11013
+South 11033
+West 11015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10780
+East 10814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10810
+North 10815
+South 10812
+East 10818
+West 10813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10187
+East 10821
+West 10819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10820
+North 10823
+South 10825
+West 10822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10781
+South 10831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10699
+North 10702
+East 10701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10694
+North 20697
+South 10740
+East 10696
+West 10700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10691
+North 10693
+East 10705
+West 10965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10704
+North 10983
+East 10708
+West 10706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10707
+North 10711
+West 10709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10722
+North 10724
+South 10726
+East 10738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10734
+South 10736
+East 10917
+West 10737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10911
+South 10913
+East 10914
+West 10916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10792
+West 10915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11027
+North 11029
+South 11044
+East 11030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10793
+North 11032
+South 11035
+West 11031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1087
+North 10811
+South 10809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House of R’leyh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10782
+North 10826
+East 10828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10827
+North 10830
+South 10835
+East 10833
+West 10829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10832
+West 10834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10739
+North 10741
+South 10743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10861
+South 10863
+East 10865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10864
+South 10867
+West 10866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10872
+South 10874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10725
+North 10727
+South 10729
+East 10732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10731
+North 10735
+East 10910
+West 10733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10906
+North 10912
+South 10908
+West 10909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11046
+South 11050
+East 11048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11043
+North 11045
+West 11047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11034
+North11036
+South 11038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10783
+North 10808
+South 10806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10757
+North 
+South 10761
+East 10759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10754
+East 10756
+West 10758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10751
+North 10836
+East 10753
+West 10755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10748
+South 10764
+East 10750
+West 10752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10742
+North 10744
+South 10857
+East 10746
+West 10749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10745
+North 10862
+South 10854
+East 10853
+West 10747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10787
+North 10868
+East 10870
+West 10853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10869
+North 10873
+South 10876
+West 10871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10728
+North 10730
+South 10985
+East 10899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10898
+South 10901
+East 10904
+West 10900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10903
+North 10907
+West 10905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11049
+North 11051
+South 11053
+East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11058
+South 11060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11037
+North 11039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10802
+North 10805
+East 10804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10760
+North 10762
+East 10837
+West 10803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10784
+South 10843
+East 10840
+West 10838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10839
+South 10850
+West 10841
+Cryptic Observatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10763
+North 10765
+South 10767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10856
+North 10858
+East 10859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10786
+North 10855
+East 10887
+West 10860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10883
+South 10885
+West 10886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10875
+North 10877
+South 10878
+East 10892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10891
+North 10894
+East 10896
+West 10893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10789
+North 10902
+West 10897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11064
+South 11068
+East 11066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11052
+North 11054
+East 11056
+West 11065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11055
+North 11059
+South 11062
+West 11057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10845
+East 10847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10842
+North 10844
+East 10848
+West 10846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10785
+North 10851
+West 10849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10766
+North 10768
+East 10770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10769
+East 10773
+West 10771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10772
+West 10774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10880
+North 10884
+East 10882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10788
+North 10879
+West 10881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11073
+East 11075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11070
+East 11072
+West 11074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11067
+North 11069
+East 11083
+West 11071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Vtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11061
+North 11063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To City Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 11082
+South 11086
+West 11084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11162
+South 11164
+East 11166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11165
+East 11169
+West 11167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11168
+East 11172
+West 11170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11171
+South 11175
+West 11173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11085
+North 11087
+South 11089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11159
+North 11163
+South 11161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11174
+North 11176
+Building 11179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11178
+Building
+Leave 11180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11088
+North 11090
+East 11092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11091
+South 11149
+East 11095
+West 11093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11094
+North 11160
+South 11156
+East 11098
+West 11096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11097
+South 11101
+West 11099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11145
+North 11148
+South 11147
+East 11151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11150
+North 11155
+South 11153
+East 11157
+West 11152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11100
+North 11102
+South 11104
+West 11158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11133
+South 11137
+East 11135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11130
+North 11146
+East 11132
+West 11134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11127
+North 11154
+East 11129
+West 11131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11103
+North 11105
+South 11107
+East 11122
+West 11128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11121
+East 11125
+West 11123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11124
+West 11126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11136
+North 11138
+South 11140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11106
+North 11108
+South 11110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11139
+North 11141
+East 11143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11142
+West 11144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11109
+North 11111
+East 11113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11112
+East 11116
+West 11114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11115
+South 11119
+West 11117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11118
+North 11120
+South 11183
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11181
+Enigma’s House
+Leave 11183</t>
   </si>
 </sst>
 </file>
@@ -14546,7 +15641,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="63">
+  <fills count="66">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14580,7 +15675,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFAB0033"/>
       </patternFill>
     </fill>
     <fill>
@@ -14596,9 +15691,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
+      <patternFill patternType="solid">
         <fgColor rgb="FFAF5602"/>
-        <bgColor rgb="FFE94504"/>
+        <bgColor rgb="FF843C0B"/>
       </patternFill>
     </fill>
     <fill>
@@ -14651,8 +15746,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFE94504"/>
+        <fgColor rgb="FFFC4201"/>
+        <bgColor rgb="FFAF5602"/>
       </patternFill>
     </fill>
     <fill>
@@ -14688,7 +15783,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -14706,7 +15801,7 @@
     <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FFDDE106"/>
-        <bgColor rgb="FFCCE84C"/>
+        <bgColor rgb="FFFFBF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -14730,19 +15825,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF009669"/>
-        <bgColor rgb="FF00770C"/>
+        <bgColor rgb="FF00A933"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF86D215"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCE84C"/>
-        <bgColor rgb="FFD3EB62"/>
+        <fgColor rgb="FFD1EA57"/>
+        <bgColor rgb="FFDDE106"/>
       </patternFill>
     </fill>
     <fill>
@@ -14794,15 +15889,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE94504"/>
-        <bgColor rgb="FFFF4000"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFFC4201"/>
+        <bgColor rgb="FFAF5602"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF10D0C"/>
-        <bgColor rgb="FFFF0000"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -14814,7 +15909,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DE"/>
-        <bgColor rgb="FFB7CFEB"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -14837,14 +15932,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DE"/>
-        <bgColor rgb="FFB7CFEB"/>
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB4C7DE"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3EB62"/>
-        <bgColor rgb="FFCCE84C"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFD1EA57"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -14896,15 +15991,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
+      <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DE"/>
-        <bgColor rgb="FFB7CFEB"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B3CA"/>
-        <bgColor rgb="FFB4C7DE"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -14919,8 +16014,26 @@
         <bgColor rgb="FFF7D1D5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB4C7DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF009669"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF86D215"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="68">
+  <borders count="104">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -15405,6 +16518,258 @@
       <bottom style="mediumDashDotDot"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right/>
+      <top style="dashed"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="dashed"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="dashed"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right/>
+      <top/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="mediumDashDot"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -15581,7 +16946,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="365">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -16434,6 +17799,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="61" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -16600,6 +17969,442 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="79" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="80" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="81" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="82" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="83" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="84" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="85" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="87" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="88" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="89" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="72" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="90" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="91" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="92" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="87" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="93" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="94" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="95" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="96" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="95" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="97" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="98" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="96" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="85" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="99" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="100" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="101" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="102" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="48" borderId="103" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="48" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -16666,11 +18471,11 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FFCCE84C"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FF1A00D2"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF4000"/>
-      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFAB0033"/>
       <rgbColor rgb="FF00770C"/>
       <rgbColor rgb="FFFFF5CE"/>
@@ -16685,17 +18490,17 @@
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FFFFB66C"/>
-      <rgbColor rgb="FFFFDBB6"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FFB7CFEB"/>
       <rgbColor rgb="FFFFFFD7"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FFDDE106"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFC4201"/>
       <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FFD3EB62"/>
+      <rgbColor rgb="FFD1EA57"/>
       <rgbColor rgb="FFF6F9D4"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFDEE7E5"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFA6"/>
@@ -16703,7 +18508,7 @@
       <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FFF7D1D5"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF86D215"/>
       <rgbColor rgb="FFFFBF00"/>
@@ -16712,11 +18517,11 @@
       <rgbColor rgb="FF5776B6"/>
       <rgbColor rgb="FF828187"/>
       <rgbColor rgb="FFE8F2A1"/>
-      <rgbColor rgb="FF7D7C7F"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FF843C0B"/>
-      <rgbColor rgb="FFE94504"/>
+      <rgbColor rgb="FF7D7C7F"/>
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3F3249"/>
     </indexedColors>
@@ -16731,8 +18536,8 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R18" activeCellId="2" sqref="L5:M5 L6 R18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V47" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R18" activeCellId="0" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27820,8 +29625,8 @@
   </sheetPr>
   <dimension ref="D3:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="2" sqref="L5:M5 L6 E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27879,8 +29684,8 @@
   </sheetPr>
   <dimension ref="C2:P11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="2" sqref="L5:M5 L6 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28070,8 +29875,8 @@
   </sheetPr>
   <dimension ref="E2:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U5" activeCellId="2" sqref="L5:M5 L6 U5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28243,8 +30048,8 @@
   </sheetPr>
   <dimension ref="C1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="2" sqref="L5:M5 L6 F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28429,8 +30234,8 @@
   </sheetPr>
   <dimension ref="D3:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="2" sqref="L5:M5 L6 G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28558,8 +30363,8 @@
   </sheetPr>
   <dimension ref="F2:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="2" sqref="L5:M5 L6 G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28639,8 +30444,8 @@
   </sheetPr>
   <dimension ref="L5:V14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="2" sqref="L5:M5 L6 N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28811,8 +30616,8 @@
   </sheetPr>
   <dimension ref="J3:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="2" sqref="L5:M5 L6 R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28915,8 +30720,8 @@
   </sheetPr>
   <dimension ref="B1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="2" sqref="L5:M5 L6 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29121,8 +30926,8 @@
   </sheetPr>
   <dimension ref="E3:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="2" sqref="L5:M5 L6 I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29159,8 +30964,8 @@
   </sheetPr>
   <dimension ref="E1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="2" sqref="L5:M5 L6 G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="79.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29208,8 +31013,8 @@
   </sheetPr>
   <dimension ref="E3:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="2" sqref="L5:M5 L6 E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.35546875" defaultRowHeight="79.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29272,8 +31077,8 @@
   </sheetPr>
   <dimension ref="D4:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="2" sqref="L5:M5 L6 G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.796875" defaultRowHeight="80.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29356,8 +31161,8 @@
   </sheetPr>
   <dimension ref="D2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="2" sqref="L5:M5 L6 H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.578125" defaultRowHeight="82.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29463,8 +31268,8 @@
   </sheetPr>
   <dimension ref="I3:AB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="L5:M5 L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.01953125" defaultRowHeight="71.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29665,7 +31470,7 @@
       <c r="W16" s="55"/>
       <c r="X16" s="55"/>
       <c r="Y16" s="55"/>
-      <c r="Z16" s="116" t="s">
+      <c r="Z16" s="213" t="s">
         <v>2195</v>
       </c>
       <c r="AA16" s="55"/>
@@ -29673,70 +31478,70 @@
     </row>
     <row r="17" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V17" s="55"/>
-      <c r="W17" s="213" t="s">
+      <c r="W17" s="214" t="s">
         <v>2196</v>
       </c>
       <c r="X17" s="55"/>
-      <c r="Y17" s="214" t="s">
+      <c r="Y17" s="215" t="s">
         <v>2197</v>
       </c>
-      <c r="Z17" s="215" t="s">
+      <c r="Z17" s="216" t="s">
         <v>2198</v>
       </c>
-      <c r="AA17" s="216" t="s">
+      <c r="AA17" s="217" t="s">
         <v>2199</v>
       </c>
       <c r="AB17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V18" s="217" t="s">
+      <c r="V18" s="218" t="s">
         <v>2200</v>
       </c>
-      <c r="W18" s="218" t="s">
+      <c r="W18" s="219" t="s">
         <v>2201</v>
       </c>
       <c r="X18" s="55"/>
-      <c r="Y18" s="219" t="s">
+      <c r="Y18" s="220" t="s">
         <v>2202</v>
       </c>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="220" t="s">
+      <c r="AA18" s="221" t="s">
         <v>2203</v>
       </c>
-      <c r="AB18" s="116" t="s">
+      <c r="AB18" s="213" t="s">
         <v>2204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V19" s="55"/>
-      <c r="W19" s="221" t="s">
+      <c r="W19" s="222" t="s">
         <v>2205</v>
       </c>
-      <c r="X19" s="215" t="s">
+      <c r="X19" s="216" t="s">
         <v>2206</v>
       </c>
-      <c r="Y19" s="222" t="s">
+      <c r="Y19" s="223" t="s">
         <v>2207</v>
       </c>
-      <c r="Z19" s="215" t="s">
+      <c r="Z19" s="216" t="s">
         <v>2208</v>
       </c>
-      <c r="AA19" s="223" t="s">
+      <c r="AA19" s="224" t="s">
         <v>2209</v>
       </c>
       <c r="AB19" s="55"/>
     </row>
     <row r="20" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V20" s="55"/>
-      <c r="W20" s="224" t="s">
+      <c r="W20" s="225" t="s">
         <v>2210</v>
       </c>
       <c r="X20" s="55"/>
-      <c r="Y20" s="224" t="s">
+      <c r="Y20" s="225" t="s">
         <v>2211</v>
       </c>
       <c r="Z20" s="55"/>
-      <c r="AA20" s="224" t="s">
+      <c r="AA20" s="225" t="s">
         <v>2212</v>
       </c>
       <c r="AB20" s="55"/>
@@ -29760,8 +31565,8 @@
   </sheetPr>
   <dimension ref="M4:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U4" activeCellId="2" sqref="L5:M5 L6 U4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="62.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29784,76 +31589,76 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="225"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="226"/>
+      <c r="O5" s="226"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
     </row>
     <row r="6" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="226" t="s">
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="227" t="s">
         <v>2217</v>
       </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
     </row>
     <row r="7" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="227" t="s">
+      <c r="M7" s="228" t="s">
         <v>2218</v>
       </c>
-      <c r="N7" s="228" t="s">
+      <c r="N7" s="229" t="s">
         <v>2219</v>
       </c>
-      <c r="O7" s="229" t="s">
+      <c r="O7" s="230" t="s">
         <v>2220</v>
       </c>
-      <c r="P7" s="230" t="s">
+      <c r="P7" s="231" t="s">
         <v>2221</v>
       </c>
-      <c r="Q7" s="225"/>
+      <c r="Q7" s="226"/>
     </row>
     <row r="8" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M8" s="231" t="s">
+      <c r="M8" s="232" t="s">
         <v>2222</v>
       </c>
-      <c r="N8" s="229" t="s">
+      <c r="N8" s="230" t="s">
         <v>2223</v>
       </c>
-      <c r="O8" s="229" t="s">
+      <c r="O8" s="230" t="s">
         <v>2224</v>
       </c>
-      <c r="P8" s="229" t="s">
+      <c r="P8" s="230" t="s">
         <v>2225</v>
       </c>
-      <c r="Q8" s="230" t="s">
+      <c r="Q8" s="231" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M9" s="225"/>
-      <c r="N9" s="231" t="s">
+      <c r="M9" s="226"/>
+      <c r="N9" s="232" t="s">
         <v>2227</v>
       </c>
-      <c r="O9" s="229" t="s">
+      <c r="O9" s="230" t="s">
         <v>2228</v>
       </c>
-      <c r="P9" s="232" t="s">
+      <c r="P9" s="233" t="s">
         <v>2229</v>
       </c>
-      <c r="Q9" s="233" t="s">
+      <c r="Q9" s="234" t="s">
         <v>2230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M10" s="225"/>
-      <c r="N10" s="225"/>
-      <c r="O10" s="234" t="s">
+      <c r="M10" s="226"/>
+      <c r="N10" s="226"/>
+      <c r="O10" s="235" t="s">
         <v>2231</v>
       </c>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="225"/>
+      <c r="P10" s="226"/>
+      <c r="Q10" s="226"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -29873,351 +31678,1208 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="1" sqref="L5:M5 L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="235" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="236" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
+      <c r="A1" s="237"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
     </row>
     <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="236"/>
-      <c r="B2" s="237" t="s">
+      <c r="A2" s="237"/>
+      <c r="B2" s="238" t="s">
         <v>2232</v>
       </c>
-      <c r="C2" s="238" t="s">
+      <c r="C2" s="239" t="s">
         <v>2233</v>
       </c>
-      <c r="D2" s="239" t="s">
+      <c r="D2" s="240" t="s">
         <v>2234</v>
       </c>
-      <c r="E2" s="239" t="s">
+      <c r="E2" s="240" t="s">
         <v>2235</v>
       </c>
-      <c r="F2" s="239" t="s">
+      <c r="F2" s="240" t="s">
         <v>2236</v>
       </c>
-      <c r="G2" s="239" t="s">
+      <c r="G2" s="240" t="s">
         <v>2237</v>
       </c>
-      <c r="H2" s="239" t="s">
+      <c r="H2" s="240" t="s">
         <v>2238</v>
       </c>
-      <c r="I2" s="240" t="s">
+      <c r="I2" s="241" t="s">
         <v>2239</v>
       </c>
-      <c r="J2" s="239" t="s">
+      <c r="J2" s="240" t="s">
         <v>2240</v>
       </c>
-      <c r="K2" s="240" t="s">
+      <c r="K2" s="241" t="s">
         <v>2241</v>
       </c>
-      <c r="L2" s="239" t="s">
+      <c r="L2" s="240" t="s">
         <v>2242</v>
       </c>
-      <c r="M2" s="239" t="s">
+      <c r="M2" s="240" t="s">
         <v>2243</v>
       </c>
-      <c r="N2" s="239" t="s">
+      <c r="N2" s="240" t="s">
         <v>2244</v>
       </c>
-      <c r="O2" s="239" t="s">
+      <c r="O2" s="240" t="s">
         <v>2245</v>
       </c>
-      <c r="P2" s="240" t="s">
+      <c r="P2" s="241" t="s">
         <v>2246</v>
       </c>
-      <c r="Q2" s="236"/>
+      <c r="Q2" s="237"/>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="236"/>
-      <c r="B3" s="241" t="s">
+      <c r="A3" s="237"/>
+      <c r="B3" s="242" t="s">
         <v>2247</v>
       </c>
-      <c r="C3" s="242" t="s">
+      <c r="C3" s="243" t="s">
         <v>2248</v>
       </c>
-      <c r="D3" s="242" t="s">
+      <c r="D3" s="243" t="s">
         <v>2249</v>
       </c>
-      <c r="E3" s="237" t="s">
+      <c r="E3" s="238" t="s">
         <v>2250</v>
       </c>
-      <c r="F3" s="239" t="s">
+      <c r="F3" s="240" t="s">
         <v>2251</v>
       </c>
-      <c r="G3" s="239" t="s">
+      <c r="G3" s="240" t="s">
         <v>2252</v>
       </c>
-      <c r="H3" s="239" t="s">
+      <c r="H3" s="240" t="s">
         <v>2253</v>
       </c>
-      <c r="I3" s="243" t="s">
+      <c r="I3" s="244" t="s">
         <v>2254</v>
       </c>
-      <c r="J3" s="242" t="s">
+      <c r="J3" s="243" t="s">
         <v>2255</v>
       </c>
-      <c r="K3" s="244" t="s">
+      <c r="K3" s="245" t="s">
         <v>2256</v>
       </c>
-      <c r="L3" s="245" t="s">
+      <c r="L3" s="246" t="s">
         <v>2257</v>
       </c>
-      <c r="M3" s="242" t="s">
+      <c r="M3" s="243" t="s">
         <v>2258</v>
       </c>
-      <c r="N3" s="237" t="s">
+      <c r="N3" s="238" t="s">
         <v>2259</v>
       </c>
-      <c r="O3" s="240" t="s">
+      <c r="O3" s="241" t="s">
         <v>2260</v>
       </c>
-      <c r="P3" s="243" t="s">
+      <c r="P3" s="244" t="s">
         <v>2261</v>
       </c>
-      <c r="Q3" s="236"/>
+      <c r="Q3" s="237"/>
     </row>
     <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="236"/>
-      <c r="B4" s="241" t="s">
+      <c r="A4" s="237"/>
+      <c r="B4" s="242" t="s">
         <v>2262</v>
       </c>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="238" t="s">
         <v>2263</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="239" t="s">
         <v>2264</v>
       </c>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="243" t="s">
         <v>2265</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="F4" s="238" t="s">
         <v>2266</v>
       </c>
-      <c r="G4" s="246" t="s">
+      <c r="G4" s="247" t="s">
         <v>2267</v>
       </c>
-      <c r="H4" s="246" t="s">
+      <c r="H4" s="247" t="s">
         <v>2268</v>
       </c>
-      <c r="I4" s="246" t="s">
+      <c r="I4" s="247" t="s">
         <v>2269</v>
       </c>
-      <c r="J4" s="245" t="s">
+      <c r="J4" s="246" t="s">
         <v>2270</v>
       </c>
-      <c r="K4" s="242" t="s">
+      <c r="K4" s="243" t="s">
         <v>2271</v>
       </c>
-      <c r="L4" s="242" t="s">
+      <c r="L4" s="243" t="s">
         <v>2272</v>
       </c>
-      <c r="M4" s="242" t="s">
+      <c r="M4" s="243" t="s">
         <v>2273</v>
       </c>
-      <c r="N4" s="241" t="s">
+      <c r="N4" s="242" t="s">
         <v>2274</v>
       </c>
-      <c r="O4" s="240" t="s">
+      <c r="O4" s="241" t="s">
         <v>2275</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="244" t="s">
         <v>2276</v>
       </c>
-      <c r="Q4" s="236"/>
+      <c r="Q4" s="237"/>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="236"/>
-      <c r="B5" s="241" t="s">
+      <c r="A5" s="237"/>
+      <c r="B5" s="242" t="s">
         <v>2277</v>
       </c>
-      <c r="C5" s="241" t="s">
+      <c r="C5" s="242" t="s">
         <v>2278</v>
       </c>
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="243" t="s">
         <v>2279</v>
       </c>
-      <c r="E5" s="244" t="s">
+      <c r="E5" s="245" t="s">
         <v>2280</v>
       </c>
-      <c r="F5" s="245" t="s">
+      <c r="F5" s="246" t="s">
         <v>2281</v>
       </c>
-      <c r="G5" s="247" t="s">
+      <c r="G5" s="248" t="s">
         <v>2282</v>
       </c>
-      <c r="H5" s="242" t="s">
+      <c r="H5" s="243" t="s">
         <v>2283</v>
       </c>
-      <c r="I5" s="248" t="s">
+      <c r="I5" s="249" t="s">
         <v>2284</v>
       </c>
-      <c r="J5" s="248" t="s">
+      <c r="J5" s="249" t="s">
         <v>2285</v>
       </c>
-      <c r="K5" s="248" t="s">
+      <c r="K5" s="249" t="s">
         <v>2286</v>
       </c>
-      <c r="L5" s="237" t="s">
+      <c r="L5" s="238" t="s">
         <v>2287</v>
       </c>
-      <c r="M5" s="239" t="s">
+      <c r="M5" s="240" t="s">
         <v>2288</v>
       </c>
-      <c r="N5" s="240" t="s">
+      <c r="N5" s="241" t="s">
         <v>2289</v>
       </c>
-      <c r="O5" s="248" t="s">
+      <c r="O5" s="249" t="s">
         <v>2290</v>
       </c>
-      <c r="P5" s="245" t="s">
+      <c r="P5" s="246" t="s">
         <v>2291</v>
       </c>
-      <c r="Q5" s="236"/>
+      <c r="Q5" s="237"/>
     </row>
     <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="236"/>
-      <c r="B6" s="241" t="s">
+      <c r="A6" s="237"/>
+      <c r="B6" s="242" t="s">
         <v>2292</v>
       </c>
-      <c r="C6" s="249" t="s">
+      <c r="C6" s="250" t="s">
         <v>2293</v>
       </c>
-      <c r="D6" s="242" t="s">
+      <c r="D6" s="243" t="s">
         <v>2294</v>
       </c>
-      <c r="E6" s="242" t="s">
+      <c r="E6" s="243" t="s">
         <v>2295</v>
       </c>
-      <c r="F6" s="242" t="s">
+      <c r="F6" s="243" t="s">
         <v>2296</v>
       </c>
-      <c r="G6" s="247" t="s">
+      <c r="G6" s="248" t="s">
         <v>2297</v>
       </c>
-      <c r="H6" s="242" t="s">
+      <c r="H6" s="243" t="s">
         <v>2298</v>
       </c>
-      <c r="I6" s="242" t="s">
+      <c r="I6" s="243" t="s">
         <v>2299</v>
       </c>
-      <c r="J6" s="242" t="s">
+      <c r="J6" s="243" t="s">
         <v>2300</v>
       </c>
-      <c r="K6" s="250" t="s">
+      <c r="K6" s="251" t="s">
         <v>2301</v>
       </c>
-      <c r="L6" s="245" t="s">
+      <c r="L6" s="246" t="s">
         <v>2302</v>
       </c>
-      <c r="M6" s="251" t="s">
+      <c r="M6" s="252" t="s">
         <v>2303</v>
       </c>
-      <c r="N6" s="248" t="s">
+      <c r="N6" s="249" t="s">
         <v>2304</v>
       </c>
-      <c r="O6" s="248" t="s">
+      <c r="O6" s="249" t="s">
         <v>2305</v>
       </c>
-      <c r="P6" s="243" t="s">
+      <c r="P6" s="244" t="s">
         <v>2306</v>
       </c>
-      <c r="Q6" s="236"/>
+      <c r="Q6" s="237"/>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="236"/>
-      <c r="B7" s="244" t="s">
+      <c r="A7" s="237"/>
+      <c r="B7" s="245" t="s">
         <v>2307</v>
       </c>
-      <c r="C7" s="248" t="s">
+      <c r="C7" s="249" t="s">
         <v>2308</v>
       </c>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="249" t="s">
         <v>2309</v>
       </c>
-      <c r="E7" s="252" t="s">
+      <c r="E7" s="253" t="s">
         <v>2310</v>
       </c>
-      <c r="F7" s="248" t="s">
+      <c r="F7" s="249" t="s">
         <v>2311</v>
       </c>
-      <c r="G7" s="248" t="s">
+      <c r="G7" s="249" t="s">
         <v>2312</v>
       </c>
-      <c r="H7" s="246" t="s">
+      <c r="H7" s="247" t="s">
         <v>2313</v>
       </c>
-      <c r="I7" s="253" t="s">
+      <c r="I7" s="254" t="s">
         <v>2314</v>
       </c>
-      <c r="J7" s="248" t="s">
+      <c r="J7" s="249" t="s">
         <v>2315</v>
       </c>
-      <c r="K7" s="248" t="s">
+      <c r="K7" s="249" t="s">
         <v>2316</v>
       </c>
-      <c r="L7" s="248" t="s">
+      <c r="L7" s="249" t="s">
         <v>2317</v>
       </c>
-      <c r="M7" s="248" t="s">
+      <c r="M7" s="249" t="s">
         <v>2318</v>
       </c>
-      <c r="N7" s="248" t="s">
+      <c r="N7" s="249" t="s">
         <v>2319</v>
       </c>
-      <c r="O7" s="248" t="s">
+      <c r="O7" s="249" t="s">
         <v>2320</v>
       </c>
-      <c r="P7" s="245" t="s">
+      <c r="P7" s="246" t="s">
         <v>2321</v>
       </c>
-      <c r="Q7" s="236"/>
+      <c r="Q7" s="237"/>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="236"/>
-      <c r="B8" s="236"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="236"/>
-      <c r="I8" s="236"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
-      <c r="O8" s="236"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="236"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="237"/>
+      <c r="O8" s="237"/>
+      <c r="P8" s="237"/>
+      <c r="Q8" s="237"/>
     </row>
     <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="254" t="s">
+      <c r="H9" s="255" t="s">
         <v>2322</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="H3:AA18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W17" activeCellId="0" sqref="W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.31640625" defaultRowHeight="66.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="236" width="13.32"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I3" s="256"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="260"/>
+    </row>
+    <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I4" s="261"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="263" t="s">
+        <v>2323</v>
+      </c>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="AA4" s="264"/>
+    </row>
+    <row r="5" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I5" s="261"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="263" t="s">
+        <v>2324</v>
+      </c>
+      <c r="Q5" s="263" t="s">
+        <v>2325</v>
+      </c>
+      <c r="R5" s="263" t="s">
+        <v>2326</v>
+      </c>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
+      <c r="U5" s="262"/>
+      <c r="AA5" s="264"/>
+    </row>
+    <row r="6" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I6" s="261"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="265" t="s">
+        <v>2327</v>
+      </c>
+      <c r="O6" s="263" t="s">
+        <v>2328</v>
+      </c>
+      <c r="P6" s="263" t="s">
+        <v>2329</v>
+      </c>
+      <c r="Q6" s="263" t="s">
+        <v>2330</v>
+      </c>
+      <c r="R6" s="263" t="s">
+        <v>2331</v>
+      </c>
+      <c r="S6" s="263" t="s">
+        <v>2332</v>
+      </c>
+      <c r="T6" s="265" t="s">
+        <v>2333</v>
+      </c>
+      <c r="U6" s="262"/>
+      <c r="V6" s="262"/>
+      <c r="W6" s="262"/>
+      <c r="AA6" s="264"/>
+    </row>
+    <row r="7" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I7" s="261"/>
+      <c r="L7" s="262"/>
+      <c r="M7" s="266" t="s">
+        <v>2334</v>
+      </c>
+      <c r="N7" s="267" t="s">
+        <v>2335</v>
+      </c>
+      <c r="O7" s="265" t="s">
+        <v>2336</v>
+      </c>
+      <c r="P7" s="263" t="s">
+        <v>2337</v>
+      </c>
+      <c r="Q7" s="263" t="s">
+        <v>2338</v>
+      </c>
+      <c r="R7" s="263" t="s">
+        <v>2339</v>
+      </c>
+      <c r="S7" s="265" t="s">
+        <v>2340</v>
+      </c>
+      <c r="T7" s="268" t="s">
+        <v>2341</v>
+      </c>
+      <c r="U7" s="269" t="s">
+        <v>2342</v>
+      </c>
+      <c r="V7" s="270" t="s">
+        <v>2343</v>
+      </c>
+      <c r="W7" s="271" t="s">
+        <v>2344</v>
+      </c>
+      <c r="X7" s="262"/>
+      <c r="AA7" s="264"/>
+    </row>
+    <row r="8" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I8" s="261"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="266" t="s">
+        <v>2345</v>
+      </c>
+      <c r="M8" s="266" t="s">
+        <v>2346</v>
+      </c>
+      <c r="N8" s="272" t="s">
+        <v>2347</v>
+      </c>
+      <c r="O8" s="267" t="s">
+        <v>2348</v>
+      </c>
+      <c r="P8" s="265" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Q8" s="263" t="s">
+        <v>2350</v>
+      </c>
+      <c r="R8" s="265" t="s">
+        <v>2351</v>
+      </c>
+      <c r="S8" s="273" t="s">
+        <v>2352</v>
+      </c>
+      <c r="T8" s="274" t="s">
+        <v>2353</v>
+      </c>
+      <c r="U8" s="275" t="s">
+        <v>2354</v>
+      </c>
+      <c r="V8" s="276" t="s">
+        <v>2355</v>
+      </c>
+      <c r="W8" s="277" t="s">
+        <v>2356</v>
+      </c>
+      <c r="X8" s="278" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Y8" s="262"/>
+      <c r="AA8" s="264"/>
+    </row>
+    <row r="9" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="279" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L9" s="266" t="s">
+        <v>2359</v>
+      </c>
+      <c r="M9" s="280" t="s">
+        <v>2360</v>
+      </c>
+      <c r="N9" s="281" t="s">
+        <v>2361</v>
+      </c>
+      <c r="O9" s="282" t="s">
+        <v>2362</v>
+      </c>
+      <c r="P9" s="267" t="s">
+        <v>2363</v>
+      </c>
+      <c r="Q9" s="283" t="s">
+        <v>2364</v>
+      </c>
+      <c r="R9" s="284" t="s">
+        <v>2365</v>
+      </c>
+      <c r="S9" s="270" t="s">
+        <v>2366</v>
+      </c>
+      <c r="T9" s="269" t="s">
+        <v>2367</v>
+      </c>
+      <c r="U9" s="285" t="s">
+        <v>2368</v>
+      </c>
+      <c r="V9" s="286" t="s">
+        <v>2369</v>
+      </c>
+      <c r="W9" s="287" t="s">
+        <v>2370</v>
+      </c>
+      <c r="X9" s="288" t="s">
+        <v>2371</v>
+      </c>
+      <c r="Y9" s="289" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="264"/>
+    </row>
+    <row r="10" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H10" s="237"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="267" t="s">
+        <v>2373</v>
+      </c>
+      <c r="L10" s="279" t="s">
+        <v>2374</v>
+      </c>
+      <c r="M10" s="290" t="s">
+        <v>2375</v>
+      </c>
+      <c r="N10" s="291" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O10" s="292" t="s">
+        <v>2377</v>
+      </c>
+      <c r="P10" s="266" t="s">
+        <v>2378</v>
+      </c>
+      <c r="Q10" s="266" t="s">
+        <v>2379</v>
+      </c>
+      <c r="R10" s="293" t="s">
+        <v>2380</v>
+      </c>
+      <c r="S10" s="280" t="s">
+        <v>2381</v>
+      </c>
+      <c r="T10" s="294" t="s">
+        <v>2382</v>
+      </c>
+      <c r="U10" s="295" t="s">
+        <v>2383</v>
+      </c>
+      <c r="V10" s="278" t="s">
+        <v>2384</v>
+      </c>
+      <c r="W10" s="269" t="s">
+        <v>2385</v>
+      </c>
+      <c r="X10" s="296" t="s">
+        <v>2386</v>
+      </c>
+      <c r="Y10" s="297" t="s">
+        <v>2387</v>
+      </c>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="264"/>
+    </row>
+    <row r="11" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="298" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L11" s="299" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M11" s="300" t="s">
+        <v>2390</v>
+      </c>
+      <c r="N11" s="301" t="s">
+        <v>2391</v>
+      </c>
+      <c r="O11" s="298" t="s">
+        <v>2392</v>
+      </c>
+      <c r="P11" s="302" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Q11" s="279" t="s">
+        <v>2394</v>
+      </c>
+      <c r="R11" s="266" t="s">
+        <v>2395</v>
+      </c>
+      <c r="S11" s="303" t="s">
+        <v>2396</v>
+      </c>
+      <c r="T11" s="294" t="s">
+        <v>2397</v>
+      </c>
+      <c r="U11" s="298" t="s">
+        <v>2398</v>
+      </c>
+      <c r="V11" s="304" t="s">
+        <v>2399</v>
+      </c>
+      <c r="W11" s="305" t="s">
+        <v>2400</v>
+      </c>
+      <c r="X11" s="306" t="s">
+        <v>2401</v>
+      </c>
+      <c r="Y11" s="307" t="s">
+        <v>2402</v>
+      </c>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="264"/>
+    </row>
+    <row r="12" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="279" t="s">
+        <v>2403</v>
+      </c>
+      <c r="L12" s="308" t="s">
+        <v>2404</v>
+      </c>
+      <c r="M12" s="279" t="s">
+        <v>2405</v>
+      </c>
+      <c r="N12" s="266" t="s">
+        <v>2406</v>
+      </c>
+      <c r="O12" s="309" t="s">
+        <v>2407</v>
+      </c>
+      <c r="P12" s="290" t="s">
+        <v>2408</v>
+      </c>
+      <c r="Q12" s="310" t="s">
+        <v>2409</v>
+      </c>
+      <c r="R12" s="290" t="s">
+        <v>2410</v>
+      </c>
+      <c r="S12" s="294" t="s">
+        <v>2411</v>
+      </c>
+      <c r="T12" s="293" t="s">
+        <v>2412</v>
+      </c>
+      <c r="U12" s="311" t="s">
+        <v>2413</v>
+      </c>
+      <c r="V12" s="312" t="s">
+        <v>2414</v>
+      </c>
+      <c r="W12" s="269" t="s">
+        <v>2415</v>
+      </c>
+      <c r="X12" s="313" t="s">
+        <v>2416</v>
+      </c>
+      <c r="Y12" s="314" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Z12" s="294" t="s">
+        <v>2418</v>
+      </c>
+      <c r="AA12" s="315"/>
+    </row>
+    <row r="13" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I13" s="261"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="316" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L13" s="294" t="s">
+        <v>2420</v>
+      </c>
+      <c r="M13" s="317" t="s">
+        <v>2421</v>
+      </c>
+      <c r="N13" s="318" t="s">
+        <v>2422</v>
+      </c>
+      <c r="O13" s="319" t="s">
+        <v>2423</v>
+      </c>
+      <c r="P13" s="293" t="s">
+        <v>2424</v>
+      </c>
+      <c r="Q13" s="320" t="s">
+        <v>2425</v>
+      </c>
+      <c r="R13" s="320" t="s">
+        <v>2426</v>
+      </c>
+      <c r="S13" s="320" t="s">
+        <v>2427</v>
+      </c>
+      <c r="T13" s="301" t="s">
+        <v>2428</v>
+      </c>
+      <c r="U13" s="298" t="s">
+        <v>2429</v>
+      </c>
+      <c r="V13" s="290" t="s">
+        <v>2430</v>
+      </c>
+      <c r="W13" s="321" t="s">
+        <v>2431</v>
+      </c>
+      <c r="X13" s="322" t="s">
+        <v>2432</v>
+      </c>
+      <c r="Y13" s="296" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Z13" s="314" t="s">
+        <v>2434</v>
+      </c>
+      <c r="AA13" s="315"/>
+    </row>
+    <row r="14" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I14" s="261"/>
+      <c r="K14" s="262"/>
+      <c r="L14" s="289" t="s">
+        <v>2435</v>
+      </c>
+      <c r="M14" s="323" t="s">
+        <v>2436</v>
+      </c>
+      <c r="N14" s="324" t="s">
+        <v>2437</v>
+      </c>
+      <c r="O14" s="325" t="s">
+        <v>2438</v>
+      </c>
+      <c r="P14" s="305" t="s">
+        <v>2439</v>
+      </c>
+      <c r="Q14" s="298" t="s">
+        <v>2440</v>
+      </c>
+      <c r="R14" s="326" t="s">
+        <v>2441</v>
+      </c>
+      <c r="S14" s="327" t="s">
+        <v>2442</v>
+      </c>
+      <c r="T14" s="328" t="s">
+        <v>2443</v>
+      </c>
+      <c r="U14" s="298" t="s">
+        <v>2444</v>
+      </c>
+      <c r="V14" s="320" t="s">
+        <v>2445</v>
+      </c>
+      <c r="W14" s="329" t="s">
+        <v>2446</v>
+      </c>
+      <c r="X14" s="330" t="s">
+        <v>2447</v>
+      </c>
+      <c r="Y14" s="331" t="s">
+        <v>2448</v>
+      </c>
+      <c r="Z14" s="332" t="s">
+        <v>2449</v>
+      </c>
+      <c r="AA14" s="315"/>
+    </row>
+    <row r="15" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I15" s="261"/>
+      <c r="K15" s="262"/>
+      <c r="L15" s="333" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M15" s="334" t="s">
+        <v>2451</v>
+      </c>
+      <c r="N15" s="320" t="s">
+        <v>2452</v>
+      </c>
+      <c r="O15" s="282" t="s">
+        <v>2453</v>
+      </c>
+      <c r="P15" s="290" t="s">
+        <v>2454</v>
+      </c>
+      <c r="Q15" s="320" t="s">
+        <v>2455</v>
+      </c>
+      <c r="R15" s="335" t="s">
+        <v>2456</v>
+      </c>
+      <c r="S15" s="336" t="s">
+        <v>2457</v>
+      </c>
+      <c r="T15" s="337" t="s">
+        <v>2458</v>
+      </c>
+      <c r="U15" s="338" t="s">
+        <v>2459</v>
+      </c>
+      <c r="V15" s="339" t="s">
+        <v>2460</v>
+      </c>
+      <c r="W15" s="340" t="s">
+        <v>2461</v>
+      </c>
+      <c r="X15" s="341" t="s">
+        <v>2462</v>
+      </c>
+      <c r="Y15" s="342" t="s">
+        <v>2463</v>
+      </c>
+      <c r="Z15" s="332" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AA15" s="315"/>
+    </row>
+    <row r="16" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I16" s="261"/>
+      <c r="K16" s="262"/>
+      <c r="L16" s="343" t="s">
+        <v>2465</v>
+      </c>
+      <c r="M16" s="298" t="s">
+        <v>2466</v>
+      </c>
+      <c r="N16" s="344" t="s">
+        <v>2467</v>
+      </c>
+      <c r="O16" s="328" t="s">
+        <v>2468</v>
+      </c>
+      <c r="P16" s="298" t="s">
+        <v>2469</v>
+      </c>
+      <c r="Q16" s="312" t="s">
+        <v>2470</v>
+      </c>
+      <c r="R16" s="270" t="s">
+        <v>2471</v>
+      </c>
+      <c r="S16" s="345" t="s">
+        <v>2472</v>
+      </c>
+      <c r="T16" s="325" t="s">
+        <v>2473</v>
+      </c>
+      <c r="U16" s="346" t="s">
+        <v>2474</v>
+      </c>
+      <c r="V16" s="347" t="s">
+        <v>2475</v>
+      </c>
+      <c r="W16" s="348" t="s">
+        <v>2476</v>
+      </c>
+      <c r="X16" s="349" t="s">
+        <v>2477</v>
+      </c>
+      <c r="Y16" s="331" t="s">
+        <v>2478</v>
+      </c>
+      <c r="Z16" s="262"/>
+      <c r="AA16" s="264"/>
+    </row>
+    <row r="17" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I17" s="261"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="317" t="s">
+        <v>2479</v>
+      </c>
+      <c r="N17" s="294" t="s">
+        <v>2480</v>
+      </c>
+      <c r="O17" s="350" t="s">
+        <v>2481</v>
+      </c>
+      <c r="P17" s="309" t="s">
+        <v>2482</v>
+      </c>
+      <c r="Q17" s="335" t="s">
+        <v>2483</v>
+      </c>
+      <c r="R17" s="311" t="s">
+        <v>2484</v>
+      </c>
+      <c r="S17" s="351" t="s">
+        <v>2485</v>
+      </c>
+      <c r="T17" s="352" t="s">
+        <v>2486</v>
+      </c>
+      <c r="U17" s="348" t="s">
+        <v>2487</v>
+      </c>
+      <c r="V17" s="353" t="s">
+        <v>2488</v>
+      </c>
+      <c r="W17" s="354" t="s">
+        <v>2489</v>
+      </c>
+      <c r="X17" s="355" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Y17" s="356" t="s">
+        <v>2491</v>
+      </c>
+      <c r="Z17" s="262"/>
+      <c r="AA17" s="264"/>
+    </row>
+    <row r="18" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I18" s="357"/>
+      <c r="J18" s="358"/>
+      <c r="K18" s="358"/>
+      <c r="L18" s="358"/>
+      <c r="M18" s="359"/>
+      <c r="N18" s="359"/>
+      <c r="O18" s="359"/>
+      <c r="P18" s="359"/>
+      <c r="Q18" s="359"/>
+      <c r="R18" s="359"/>
+      <c r="S18" s="359"/>
+      <c r="T18" s="359"/>
+      <c r="U18" s="359"/>
+      <c r="V18" s="359"/>
+      <c r="W18" s="359"/>
+      <c r="X18" s="359"/>
+      <c r="Y18" s="359"/>
+      <c r="Z18" s="358"/>
+      <c r="AA18" s="360"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="H3:P12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="60.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+    </row>
+    <row r="4" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H4" s="236" t="s">
+        <v>2492</v>
+      </c>
+      <c r="I4" s="361" t="s">
+        <v>2493</v>
+      </c>
+      <c r="J4" s="236"/>
+      <c r="K4" s="362" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L4" s="362" t="s">
+        <v>2495</v>
+      </c>
+      <c r="M4" s="362" t="s">
+        <v>2496</v>
+      </c>
+      <c r="N4" s="362" t="s">
+        <v>2497</v>
+      </c>
+      <c r="O4" s="236"/>
+      <c r="P4" s="236"/>
+    </row>
+    <row r="5" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H5" s="236"/>
+      <c r="I5" s="362" t="s">
+        <v>2498</v>
+      </c>
+      <c r="J5" s="236"/>
+      <c r="K5" s="362" t="s">
+        <v>2499</v>
+      </c>
+      <c r="L5" s="236"/>
+      <c r="M5" s="236"/>
+      <c r="N5" s="362" t="s">
+        <v>2500</v>
+      </c>
+      <c r="O5" s="255" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P5" s="236"/>
+    </row>
+    <row r="6" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H6" s="236"/>
+      <c r="I6" s="362" t="s">
+        <v>2502</v>
+      </c>
+      <c r="J6" s="362" t="s">
+        <v>2503</v>
+      </c>
+      <c r="K6" s="362" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L6" s="362" t="s">
+        <v>2505</v>
+      </c>
+      <c r="M6" s="236"/>
+      <c r="N6" s="236"/>
+      <c r="O6" s="236"/>
+      <c r="P6" s="236"/>
+    </row>
+    <row r="7" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="362" t="s">
+        <v>2506</v>
+      </c>
+      <c r="K7" s="362" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L7" s="362" t="s">
+        <v>2508</v>
+      </c>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="363"/>
+      <c r="P7" s="364"/>
+    </row>
+    <row r="8" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H8" s="236"/>
+      <c r="I8" s="362" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J8" s="362" t="s">
+        <v>2510</v>
+      </c>
+      <c r="K8" s="362" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L8" s="362" t="s">
+        <v>2512</v>
+      </c>
+      <c r="M8" s="362" t="s">
+        <v>2513</v>
+      </c>
+      <c r="N8" s="362" t="s">
+        <v>2514</v>
+      </c>
+      <c r="O8" s="363"/>
+      <c r="P8" s="236"/>
+    </row>
+    <row r="9" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H9" s="236"/>
+      <c r="I9" s="362" t="s">
+        <v>2515</v>
+      </c>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="362" t="s">
+        <v>2516</v>
+      </c>
+      <c r="M9" s="236"/>
+      <c r="N9" s="236"/>
+      <c r="O9" s="236"/>
+      <c r="P9" s="236"/>
+    </row>
+    <row r="10" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H10" s="236"/>
+      <c r="I10" s="362" t="s">
+        <v>2517</v>
+      </c>
+      <c r="J10" s="362" t="s">
+        <v>2518</v>
+      </c>
+      <c r="K10" s="236"/>
+      <c r="L10" s="362" t="s">
+        <v>2519</v>
+      </c>
+      <c r="M10" s="362" t="s">
+        <v>2520</v>
+      </c>
+      <c r="N10" s="362" t="s">
+        <v>2521</v>
+      </c>
+      <c r="O10" s="236"/>
+      <c r="P10" s="236"/>
+    </row>
+    <row r="11" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="236"/>
+      <c r="N11" s="362" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O11" s="236"/>
+      <c r="P11" s="236"/>
+    </row>
+    <row r="12" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H12" s="236"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="236"/>
+      <c r="N12" s="255" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O12" s="236"/>
+      <c r="P12" s="236"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -30237,8 +32899,8 @@
   </sheetPr>
   <dimension ref="E4:AD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z13" activeCellId="2" sqref="L5:M5 L6 Z13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31061,8 +33723,8 @@
   </sheetPr>
   <dimension ref="I14:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="2" sqref="L5:M5 L6 I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31112,8 +33774,8 @@
   </sheetPr>
   <dimension ref="L3:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="2" sqref="L5:M5 L6 N5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31183,8 +33845,8 @@
   </sheetPr>
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="2" sqref="L5:M5 L6 C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31268,8 +33930,8 @@
   </sheetPr>
   <dimension ref="E1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="2" sqref="L5:M5 L6 O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31488,8 +34150,8 @@
   </sheetPr>
   <dimension ref="C3:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="2" sqref="L5:M5 L6 I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31542,8 +34204,8 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="2" sqref="L5:M5 L6 I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,11 @@
     <sheet name="Boars Snout" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="Echohaven" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="Island of the Mad" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Sheet27" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Vtu" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Sands" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Forest" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Market" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Bathhouse" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="2524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="2526">
   <si>
     <t xml:space="preserve">Panahon</t>
   </si>
@@ -14964,7 +14968,9 @@
 South 10809</t>
   </si>
   <si>
-    <t xml:space="preserve">House of R’leyh</t>
+    <t xml:space="preserve">House of R’leyh
+#11191
+Leave 11193</t>
   </si>
   <si>
     <t xml:space="preserve">#10782
@@ -15041,7 +15047,7 @@
   </si>
   <si>
     <t xml:space="preserve">#10757
-North 
+North (Underground Passage) 11192
 South 10761
 East 10759</t>
   </si>
@@ -15416,6 +15422,9 @@
 West 11117</t>
   </si>
   <si>
+    <t xml:space="preserve">Pit of bones</t>
+  </si>
+  <si>
     <t xml:space="preserve">#11118
 North 11120
 South 11183
@@ -15424,7 +15433,13 @@
   <si>
     <t xml:space="preserve">#11181
 Enigma’s House
-Leave 11183</t>
+Leave 11183
+Secret Entrance 11186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room of Secrets
+#11185
+Leave 11187</t>
   </si>
 </sst>
 </file>
@@ -15641,7 +15656,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="66">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15662,7 +15677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFDDDDE0"/>
         <bgColor rgb="FFDEE7E5"/>
       </patternFill>
     </fill>
@@ -16030,6 +16045,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF86D215"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDE0"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
   </fills>
@@ -16946,7 +16967,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="365">
+  <cellXfs count="368">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18240,7 +18261,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="44" borderId="92" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -18405,6 +18426,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -18508,7 +18541,7 @@
       <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFDDDDE0"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF86D215"/>
       <rgbColor rgb="FFFFBF00"/>
@@ -18536,7 +18569,7 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V47" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V47" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R18" activeCellId="0" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -29625,7 +29658,7 @@
   </sheetPr>
   <dimension ref="D3:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -29684,7 +29717,7 @@
   </sheetPr>
   <dimension ref="C2:P11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -29875,7 +29908,7 @@
   </sheetPr>
   <dimension ref="E2:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -30048,7 +30081,7 @@
   </sheetPr>
   <dimension ref="C1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -30234,7 +30267,7 @@
   </sheetPr>
   <dimension ref="D3:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -30363,7 +30396,7 @@
   </sheetPr>
   <dimension ref="F2:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -30444,7 +30477,7 @@
   </sheetPr>
   <dimension ref="L5:V14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -30616,7 +30649,7 @@
   </sheetPr>
   <dimension ref="J3:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -30720,7 +30753,7 @@
   </sheetPr>
   <dimension ref="B1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -30926,7 +30959,7 @@
   </sheetPr>
   <dimension ref="E3:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -30964,7 +30997,7 @@
   </sheetPr>
   <dimension ref="E1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -31013,7 +31046,7 @@
   </sheetPr>
   <dimension ref="E3:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -31077,7 +31110,7 @@
   </sheetPr>
   <dimension ref="D4:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -31161,7 +31194,7 @@
   </sheetPr>
   <dimension ref="D2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -31268,7 +31301,7 @@
   </sheetPr>
   <dimension ref="I3:AB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -31565,7 +31598,7 @@
   </sheetPr>
   <dimension ref="M4:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -31678,7 +31711,7 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -32042,8 +32075,8 @@
   </sheetPr>
   <dimension ref="H3:AA18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W17" activeCellId="0" sqref="W17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.31640625" defaultRowHeight="66.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32708,8 +32741,8 @@
   </sheetPr>
   <dimension ref="H3:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="60.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32858,12 +32891,14 @@
     <row r="11" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H11" s="236"/>
       <c r="I11" s="236"/>
-      <c r="J11" s="236"/>
+      <c r="J11" s="236" t="s">
+        <v>2522</v>
+      </c>
       <c r="K11" s="236"/>
       <c r="L11" s="236"/>
       <c r="M11" s="236"/>
       <c r="N11" s="362" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="O11" s="236"/>
       <c r="P11" s="236"/>
@@ -32876,12 +32911,142 @@
       <c r="L12" s="236"/>
       <c r="M12" s="236"/>
       <c r="N12" s="255" t="s">
-        <v>2523</v>
-      </c>
-      <c r="O12" s="236"/>
+        <v>2524</v>
+      </c>
+      <c r="O12" s="255" t="s">
+        <v>2525</v>
+      </c>
       <c r="P12" s="236"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:K25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.046875" defaultRowHeight="63.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="4" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E4" s="365"/>
+    </row>
+    <row r="5" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5" s="365"/>
+    </row>
+    <row r="6" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E6" s="365"/>
+    </row>
+    <row r="7" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="365"/>
+    </row>
+    <row r="8" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E8" s="365"/>
+    </row>
+    <row r="13" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="365"/>
+      <c r="D13" s="365"/>
+      <c r="E13" s="365"/>
+      <c r="F13" s="365"/>
+      <c r="G13" s="365"/>
+      <c r="H13" s="365"/>
+    </row>
+    <row r="15" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="365"/>
+    </row>
+    <row r="16" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="365"/>
+      <c r="B16" s="365"/>
+      <c r="C16" s="365"/>
+      <c r="D16" s="365"/>
+      <c r="E16" s="365"/>
+      <c r="F16" s="365"/>
+      <c r="G16" s="366"/>
+      <c r="H16" s="365"/>
+      <c r="I16" s="365"/>
+      <c r="J16" s="365"/>
+      <c r="K16" s="365"/>
+    </row>
+    <row r="19" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D19" s="365"/>
+      <c r="E19" s="365"/>
+      <c r="F19" s="365"/>
+      <c r="G19" s="365"/>
+    </row>
+    <row r="20" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D20" s="365"/>
+      <c r="E20" s="366"/>
+      <c r="F20" s="366"/>
+      <c r="G20" s="366"/>
+    </row>
+    <row r="21" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D21" s="365"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="365"/>
+    </row>
+    <row r="22" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D22" s="365"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="365"/>
+    </row>
+    <row r="23" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D23" s="365"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="366"/>
+      <c r="G23" s="365"/>
+    </row>
+    <row r="24" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D24" s="365"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="365"/>
+    </row>
+    <row r="25" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D25" s="365"/>
+      <c r="E25" s="365"/>
+      <c r="F25" s="365"/>
+      <c r="G25" s="365"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="62.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -32899,7 +33064,7 @@
   </sheetPr>
   <dimension ref="E4:AD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
     </sheetView>
   </sheetViews>
@@ -33716,6 +33881,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.4453125" defaultRowHeight="62.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6796875" defaultRowHeight="63.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+    </row>
+    <row r="5" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="365"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="365"/>
+      <c r="G5" s="366"/>
+    </row>
+    <row r="6" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="365"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="366"/>
+    </row>
+    <row r="7" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="365"/>
+      <c r="D7" s="365"/>
+      <c r="E7" s="365"/>
+      <c r="F7" s="365"/>
+      <c r="G7" s="365"/>
+      <c r="H7" s="365"/>
+      <c r="I7" s="365"/>
+    </row>
+    <row r="10" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="365"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
+      <c r="G10" s="365"/>
+      <c r="H10" s="365"/>
+      <c r="I10" s="365"/>
+      <c r="J10" s="365"/>
+      <c r="K10" s="365"/>
+    </row>
+    <row r="11" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D11" s="367"/>
+      <c r="E11" s="367"/>
+    </row>
+    <row r="12" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="365"/>
+      <c r="C12" s="365"/>
+      <c r="D12" s="365"/>
+      <c r="E12" s="365"/>
+    </row>
+    <row r="13" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="365"/>
+    </row>
+    <row r="15" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D15" s="365"/>
+    </row>
+    <row r="16" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D16" s="365"/>
+      <c r="G16" s="365"/>
+    </row>
+    <row r="17" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="365"/>
+      <c r="C17" s="365"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
+      <c r="G17" s="365"/>
+    </row>
+    <row r="21" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="365"/>
+      <c r="C21" s="365"/>
+      <c r="D21" s="365"/>
+      <c r="E21" s="365"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+    </row>
+    <row r="22" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="365"/>
+      <c r="E22" s="365"/>
+    </row>
+    <row r="23" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="365"/>
+      <c r="B23" s="365"/>
+      <c r="C23" s="365"/>
+      <c r="E23" s="365"/>
+      <c r="F23" s="366"/>
+      <c r="G23" s="366"/>
+    </row>
+    <row r="24" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="365"/>
+      <c r="C24" s="365"/>
+      <c r="E24" s="365"/>
+      <c r="F24" s="365"/>
+    </row>
+    <row r="25" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="365"/>
+      <c r="C25" s="365"/>
+    </row>
+    <row r="26" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="365"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -33723,7 +34040,7 @@
   </sheetPr>
   <dimension ref="I14:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -33774,7 +34091,7 @@
   </sheetPr>
   <dimension ref="L3:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -33845,7 +34162,7 @@
   </sheetPr>
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -33930,7 +34247,7 @@
   </sheetPr>
   <dimension ref="E1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -34150,7 +34467,7 @@
   </sheetPr>
   <dimension ref="C3:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -34204,7 +34521,7 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="30"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="2632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4912" uniqueCount="2740">
   <si>
     <t xml:space="preserve">Panahon</t>
   </si>
@@ -15449,6 +15449,570 @@
     <t xml:space="preserve">Room of Secrets
 #11185
 Leave 11187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11532
+South 11534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11533
+North 11535
+South 11543
+East 11537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11536
+East 115400
+West 11538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11539
+West 11541
+HINT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11542
+North 11544
+South 11546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11673
+South 11675
+East 11677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11676
+East 11679
+West 11678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11545
+North 11547
+South 11549
+East 11682
+West 11680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11681
+East 11685
+West 11683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11684
+South 11688
+West 11686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11670
+North 11674
+South 11672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11548
+North 11550
+South 11552
+East 
+West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11687
+North 11689
+South 11691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11667
+North 11671
+South 11719
+East 11669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11664
+East 11666
+West 11668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11551
+North 11553
+South 11555
+East 11697
+West 11665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11693
+East 11695
+West 11696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11690
+North 11692
+South 11699
+West 11694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11715
+North 11718
+South 11717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11554
+North 11556
+South 11558
+East 
+West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11698
+North 11700
+South 11702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11712
+North 11716
+East 11713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11709
+East 11711
+West 11713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11557
+North 11559
+South 11561
+East 11708
+West 11710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11704
+East 11706
+West 11707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11701
+North 11703
+West 11705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11560
+North 11562
+South 11564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11661
+South 11663
+HINT 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11563
+North 11565
+South 11567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11658
+North 11662
+East 11660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11655
+East 11657
+West 11659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11566
+North 11568
+South 11570
+West 11656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11652
+South 11654
+HINT 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11569
+North 11571
+South 11573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11649
+North 11653
+East 11651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11646
+East 11648
+West 11650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11643
+East 11645
+West 11647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11640
+East 11642
+West 11644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11572
+North 11574
+South 11576
+East 11632
+West 11641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11631
+East 11635
+West 11633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11634
+East 11638
+West 11636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11637
+West 11639
+HINT 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11575
+North 11577
+South 11579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11628
+South 11630
+HINT 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11608
+South 11610
+East 11611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11578
+North 11580
+East 11582
+West 11612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11581
+South 11585
+West 11583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11625
+North 11629
+East 11627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11622
+East 11624
+West 11626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11619
+East 11621
+West 11623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11616
+East 11618
+West 11620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11613
+East 11615
+West 11617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11605
+North 11609
+South 11607
+West 11614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11584
+North 11586
+South 11597
+East 11588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11587
+East 11591
+West 11589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11590
+East 11584
+West 11592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11593
+West 11595
+HINT 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11602
+North 11606
+East 11604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11599
+South 11721
+East 11601
+West 11603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11596
+North 11598
+West 11600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11720
+North 11722
+South 11724
+HINT 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11786
+South 11788
+East 11790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11789
+East 11793
+West 11791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11792
+East 11795
+West 11794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11723
+North 11725
+East 11727
+West 11796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11726
+East 11730
+West 11728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11729
+East 11733
+West 11731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11732
+South 11736
+West 11734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11783
+North 11787
+South 11785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11842
+South 11844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11881
+East 11883
+South 11885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11878
+East 11880
+West 11882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11875
+South 11877
+West 11879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11735
+North 11737
+South 11739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11780
+North 11784
+South 11782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11839
+South 11841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11823
+North 11843
+South 11825
+East 11826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11884
+North 11886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11815
+South 11817
+West 11822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11872
+North 11876
+South 11874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11738
+North 11740
+South 11742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11777
+North 11778
+South 11779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11836
+East 11838
+North 11840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11809
+North 11824
+East 11811
+West 11837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11803
+North 11821
+South 11805
+East 11807
+West 11810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11806
+North 11816
+West 11808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11869
+North 11873
+South 11871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11741
+North 11743
+South 11745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11774
+North 11778
+South 11776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11833
+East 11835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11800
+North 11804
+South 11802
+East 11858
+West 11834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11857
+South 11861
+West 11859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11866
+North 11870
+South 11868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11744
+North 11746
+South 11748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11771
+North 11775
+South 11773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11830
+East 11832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11827
+East 11829
+West 11831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11797
+North 11801
+South 11799
+West 11828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11860
+North 11862
+East 11864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11863
+North 11867
+West 11865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11747
+North 11749
+South 11751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11768
+North 11772
+East 11770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11765
+East 11767
+West 11769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11762
+East 11764
+West 11766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11759
+North 11798
+East 11761
+West 11763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11756
+East 11758
+West 11760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11753
+East 11755
+West 11757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11750
+North 11752
+West 11754</t>
   </si>
   <si>
     <t xml:space="preserve">#11512
@@ -16209,7 +16773,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="68">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16606,8 +17170,14 @@
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF3F3249"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="104">
+  <borders count="110">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -17344,6 +17914,48 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="dashed"/>
+      <top style="thin"/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="dashed"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="thin"/>
+      <top style="dashed"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -17520,7 +18132,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="383">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18985,12 +19597,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="66" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -19001,7 +19609,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="104" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="105" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="106" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="107" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="108" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="105" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="109" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -33499,94 +34159,408 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:K25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.046875" defaultRowHeight="63.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="237" width="13.04"/>
+  </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G1" s="366" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G2" s="367" t="s">
+        <v>2528</v>
+      </c>
+      <c r="H2" s="367" t="s">
+        <v>2529</v>
+      </c>
+      <c r="I2" s="367" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G3" s="367" t="s">
+        <v>2531</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="366"/>
+      <c r="E4" s="367" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F4" s="367" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G4" s="367" t="s">
+        <v>2534</v>
+      </c>
+      <c r="H4" s="367" t="s">
+        <v>2535</v>
+      </c>
+      <c r="I4" s="367" t="s">
+        <v>2536</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="366"/>
+      <c r="E5" s="367" t="s">
+        <v>2537</v>
+      </c>
+      <c r="F5" s="368"/>
+      <c r="G5" s="367" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H5" s="368"/>
+      <c r="I5" s="367" t="s">
+        <v>2539</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="366"/>
+      <c r="E6" s="367" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F6" s="367" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G6" s="367" t="s">
+        <v>2542</v>
+      </c>
+      <c r="H6" s="367" t="s">
+        <v>2543</v>
+      </c>
+      <c r="I6" s="367" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="366"/>
+      <c r="E7" s="367" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F7" s="368"/>
+      <c r="G7" s="367" t="s">
+        <v>2546</v>
+      </c>
+      <c r="H7" s="368"/>
+      <c r="I7" s="367" t="s">
+        <v>2547</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="366"/>
+      <c r="E8" s="367" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F8" s="367" t="s">
+        <v>2549</v>
+      </c>
+      <c r="G8" s="367" t="s">
+        <v>2550</v>
+      </c>
+      <c r="H8" s="367" t="s">
+        <v>2551</v>
+      </c>
+      <c r="I8" s="367" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G9" s="367" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E10" s="367" t="s">
+        <v>2554</v>
+      </c>
+      <c r="G10" s="367" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E11" s="367" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F11" s="367" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G11" s="367" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="367" t="s">
+        <v>2559</v>
+      </c>
+      <c r="G12" s="367" t="s">
+        <v>2560</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="366"/>
-      <c r="D13" s="366"/>
-      <c r="E13" s="366"/>
-      <c r="F13" s="366"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="366"/>
+      <c r="C13" s="367" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D13" s="367" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E13" s="367" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F13" s="367" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G13" s="367" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H13" s="367" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I13" s="367" t="s">
+        <v>2567</v>
+      </c>
+      <c r="J13" s="367" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G14" s="367" t="s">
+        <v>2569</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="366"/>
+      <c r="A15" s="367" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F15" s="367" t="s">
+        <v>2571</v>
+      </c>
+      <c r="G15" s="367" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H15" s="367" t="s">
+        <v>2573</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="366"/>
-      <c r="B16" s="366"/>
-      <c r="C16" s="366"/>
-      <c r="D16" s="366"/>
-      <c r="E16" s="366"/>
-      <c r="F16" s="366"/>
-      <c r="G16" s="367"/>
-      <c r="H16" s="366"/>
-      <c r="I16" s="366"/>
-      <c r="J16" s="366"/>
-      <c r="K16" s="366"/>
+      <c r="A16" s="367" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B16" s="367" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C16" s="367" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D16" s="367" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E16" s="367" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F16" s="367" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G16" s="368"/>
+      <c r="H16" s="369" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I16" s="367" t="s">
+        <v>2581</v>
+      </c>
+      <c r="J16" s="367" t="s">
+        <v>2582</v>
+      </c>
+      <c r="K16" s="367" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F17" s="367" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G17" s="367" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H17" s="367" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="367" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="366"/>
-      <c r="E19" s="366"/>
-      <c r="F19" s="366"/>
-      <c r="G19" s="366"/>
+      <c r="D19" s="367" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E19" s="367" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F19" s="367" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G19" s="367" t="s">
+        <v>2591</v>
+      </c>
+      <c r="H19" s="367" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I19" s="367" t="s">
+        <v>2593</v>
+      </c>
+      <c r="J19" s="367" t="s">
+        <v>2594</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="366"/>
-      <c r="E20" s="367"/>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
+      <c r="D20" s="367" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E20" s="370"/>
+      <c r="F20" s="371" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G20" s="372" t="s">
+        <v>2597</v>
+      </c>
+      <c r="H20" s="373" t="s">
+        <v>2598</v>
+      </c>
+      <c r="I20" s="374" t="s">
+        <v>2599</v>
+      </c>
+      <c r="J20" s="367" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L20" s="375"/>
+      <c r="M20" s="375"/>
+      <c r="N20" s="375"/>
     </row>
     <row r="21" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="366"/>
-      <c r="E21" s="367"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
+      <c r="D21" s="367" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E21" s="371" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F21" s="376" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G21" s="376" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H21" s="367" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I21" s="377" t="s">
+        <v>2606</v>
+      </c>
+      <c r="J21" s="367" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L21" s="375"/>
+      <c r="N21" s="375"/>
     </row>
     <row r="22" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="366"/>
-      <c r="E22" s="367"/>
-      <c r="F22" s="366"/>
-      <c r="G22" s="366"/>
+      <c r="D22" s="367" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E22" s="378" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F22" s="379" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G22" s="367" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H22" s="367" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I22" s="377" t="s">
+        <v>2613</v>
+      </c>
+      <c r="J22" s="367" t="s">
+        <v>2614</v>
+      </c>
+      <c r="N22" s="375"/>
     </row>
     <row r="23" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="366"/>
-      <c r="E23" s="367"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="366"/>
+      <c r="D23" s="367" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E23" s="370"/>
+      <c r="F23" s="380" t="s">
+        <v>2616</v>
+      </c>
+      <c r="G23" s="381" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H23" s="374" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I23" s="377" t="s">
+        <v>2619</v>
+      </c>
+      <c r="J23" s="367" t="s">
+        <v>2620</v>
+      </c>
+      <c r="L23" s="375"/>
+      <c r="M23" s="375"/>
+      <c r="N23" s="375"/>
     </row>
     <row r="24" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D24" s="366"/>
-      <c r="E24" s="367"/>
-      <c r="F24" s="367"/>
-      <c r="G24" s="366"/>
+      <c r="D24" s="367" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E24" s="380" t="s">
+        <v>2622</v>
+      </c>
+      <c r="F24" s="373" t="s">
+        <v>2623</v>
+      </c>
+      <c r="G24" s="379" t="s">
+        <v>2624</v>
+      </c>
+      <c r="H24" s="378" t="s">
+        <v>2625</v>
+      </c>
+      <c r="I24" s="382" t="s">
+        <v>2626</v>
+      </c>
+      <c r="J24" s="367" t="s">
+        <v>2627</v>
+      </c>
+      <c r="M24" s="375"/>
+      <c r="N24" s="375"/>
     </row>
     <row r="25" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D25" s="366"/>
-      <c r="E25" s="366"/>
-      <c r="F25" s="366"/>
-      <c r="G25" s="366"/>
+      <c r="D25" s="367" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E25" s="367" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F25" s="367" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G25" s="367" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H25" s="367" t="s">
+        <v>2632</v>
+      </c>
+      <c r="I25" s="367" t="s">
+        <v>2633</v>
+      </c>
+      <c r="J25" s="367" t="s">
+        <v>2634</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34476,7 +35450,7 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -34489,382 +35463,382 @@
     <row r="2" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="368" t="s">
-        <v>2527</v>
-      </c>
-      <c r="D4" s="368" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E4" s="368" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F4" s="368" t="s">
-        <v>2530</v>
-      </c>
-      <c r="G4" s="368" t="s">
-        <v>2531</v>
-      </c>
-      <c r="H4" s="368" t="s">
-        <v>2532</v>
-      </c>
-      <c r="I4" s="368" t="s">
-        <v>2533</v>
+      <c r="C4" s="367" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D4" s="367" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E4" s="367" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F4" s="367" t="s">
+        <v>2638</v>
+      </c>
+      <c r="G4" s="367" t="s">
+        <v>2639</v>
+      </c>
+      <c r="H4" s="367" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I4" s="367" t="s">
+        <v>2641</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="368" t="s">
-        <v>2534</v>
-      </c>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="368" t="s">
-        <v>2535</v>
-      </c>
-      <c r="G5" s="369"/>
-      <c r="H5" s="369"/>
-      <c r="I5" s="368" t="s">
-        <v>2536</v>
+      <c r="C5" s="367" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D5" s="368"/>
+      <c r="E5" s="368"/>
+      <c r="F5" s="367" t="s">
+        <v>2643</v>
+      </c>
+      <c r="G5" s="368"/>
+      <c r="H5" s="368"/>
+      <c r="I5" s="367" t="s">
+        <v>2644</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="368" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369"/>
-      <c r="I6" s="368" t="s">
-        <v>2538</v>
+      <c r="C6" s="367" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D6" s="368"/>
+      <c r="E6" s="368"/>
+      <c r="F6" s="368"/>
+      <c r="G6" s="368"/>
+      <c r="H6" s="368"/>
+      <c r="I6" s="367" t="s">
+        <v>2646</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="368" t="s">
-        <v>2539</v>
-      </c>
-      <c r="D7" s="368" t="s">
-        <v>2540</v>
-      </c>
-      <c r="E7" s="368" t="s">
-        <v>2541</v>
-      </c>
-      <c r="F7" s="368" t="s">
-        <v>2542</v>
-      </c>
-      <c r="G7" s="368" t="s">
-        <v>2543</v>
-      </c>
-      <c r="H7" s="368" t="s">
-        <v>2544</v>
-      </c>
-      <c r="I7" s="368" t="s">
-        <v>2545</v>
-      </c>
-      <c r="K7" s="368" t="s">
-        <v>2546</v>
-      </c>
-      <c r="L7" s="368" t="s">
-        <v>2547</v>
+      <c r="C7" s="367" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D7" s="367" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E7" s="367" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F7" s="367" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G7" s="367" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H7" s="367" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I7" s="367" t="s">
+        <v>2653</v>
+      </c>
+      <c r="K7" s="367" t="s">
+        <v>2654</v>
+      </c>
+      <c r="L7" s="367" t="s">
+        <v>2655</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="368" t="s">
-        <v>2548</v>
-      </c>
-      <c r="J8" s="368" t="s">
-        <v>2549</v>
-      </c>
-      <c r="K8" s="368" t="s">
-        <v>2550</v>
-      </c>
-      <c r="L8" s="368" t="s">
-        <v>2551</v>
+      <c r="F8" s="367" t="s">
+        <v>2656</v>
+      </c>
+      <c r="J8" s="367" t="s">
+        <v>2657</v>
+      </c>
+      <c r="K8" s="367" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L8" s="367" t="s">
+        <v>2659</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F9" s="368" t="s">
-        <v>2552</v>
-      </c>
-      <c r="J9" s="368" t="s">
-        <v>2553</v>
+      <c r="F9" s="367" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J9" s="367" t="s">
+        <v>2661</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="368" t="s">
-        <v>2554</v>
-      </c>
-      <c r="D10" s="368" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E10" s="368" t="s">
-        <v>2556</v>
-      </c>
-      <c r="F10" s="368" t="s">
-        <v>2557</v>
-      </c>
-      <c r="G10" s="368" t="s">
-        <v>2558</v>
-      </c>
-      <c r="H10" s="368" t="s">
-        <v>2559</v>
-      </c>
-      <c r="I10" s="368" t="s">
-        <v>2560</v>
-      </c>
-      <c r="J10" s="368" t="s">
-        <v>2561</v>
-      </c>
-      <c r="K10" s="368" t="s">
-        <v>2562</v>
-      </c>
-      <c r="L10" s="368" t="s">
-        <v>2563</v>
-      </c>
-      <c r="M10" s="368" t="s">
-        <v>2564</v>
+      <c r="C10" s="367" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D10" s="367" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E10" s="367" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F10" s="367" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G10" s="367" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H10" s="367" t="s">
+        <v>2667</v>
+      </c>
+      <c r="I10" s="367" t="s">
+        <v>2668</v>
+      </c>
+      <c r="J10" s="367" t="s">
+        <v>2669</v>
+      </c>
+      <c r="K10" s="367" t="s">
+        <v>2670</v>
+      </c>
+      <c r="L10" s="367" t="s">
+        <v>2671</v>
+      </c>
+      <c r="M10" s="367" t="s">
+        <v>2672</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D11" s="365"/>
       <c r="E11" s="365"/>
-      <c r="F11" s="368" t="s">
-        <v>2565</v>
-      </c>
-      <c r="L11" s="368" t="s">
-        <v>2566</v>
-      </c>
-      <c r="M11" s="368" t="s">
-        <v>2567</v>
+      <c r="F11" s="367" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L11" s="367" t="s">
+        <v>2674</v>
+      </c>
+      <c r="M11" s="367" t="s">
+        <v>2675</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="368" t="s">
-        <v>2568</v>
-      </c>
-      <c r="C12" s="368" t="s">
-        <v>2569</v>
-      </c>
-      <c r="D12" s="368" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E12" s="368" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F12" s="368" t="s">
-        <v>2572</v>
+      <c r="B12" s="367" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C12" s="367" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D12" s="367" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E12" s="367" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F12" s="367" t="s">
+        <v>2680</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="368" t="s">
-        <v>2573</v>
-      </c>
-      <c r="D13" s="368" t="s">
-        <v>2574</v>
+      <c r="B13" s="367" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D13" s="367" t="s">
+        <v>2682</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D14" s="368" t="s">
-        <v>2575</v>
+      <c r="D14" s="367" t="s">
+        <v>2683</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D15" s="368" t="s">
-        <v>2576</v>
-      </c>
-      <c r="J15" s="368" t="s">
-        <v>2577</v>
-      </c>
-      <c r="K15" s="368" t="s">
-        <v>2578</v>
-      </c>
-      <c r="L15" s="368" t="s">
-        <v>2579</v>
+      <c r="D15" s="367" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J15" s="367" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K15" s="367" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L15" s="367" t="s">
+        <v>2687</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="368" t="s">
-        <v>2580</v>
-      </c>
-      <c r="G16" s="368" t="s">
-        <v>2581</v>
-      </c>
-      <c r="H16" s="368" t="s">
-        <v>2582</v>
-      </c>
-      <c r="I16" s="368" t="s">
-        <v>2583</v>
-      </c>
-      <c r="J16" s="368" t="s">
-        <v>2584</v>
-      </c>
-      <c r="K16" s="368" t="s">
-        <v>2585</v>
-      </c>
-      <c r="L16" s="368" t="s">
-        <v>2586</v>
+      <c r="D16" s="367" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G16" s="367" t="s">
+        <v>2689</v>
+      </c>
+      <c r="H16" s="367" t="s">
+        <v>2690</v>
+      </c>
+      <c r="I16" s="367" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J16" s="367" t="s">
+        <v>2692</v>
+      </c>
+      <c r="K16" s="367" t="s">
+        <v>2693</v>
+      </c>
+      <c r="L16" s="367" t="s">
+        <v>2694</v>
       </c>
       <c r="Q16" s="256" t="s">
-        <v>2587</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="370" t="s">
-        <v>2588</v>
-      </c>
-      <c r="C17" s="368" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D17" s="368" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E17" s="368" t="s">
-        <v>2591</v>
-      </c>
-      <c r="F17" s="368" t="s">
-        <v>2592</v>
-      </c>
-      <c r="G17" s="368" t="s">
-        <v>2593</v>
-      </c>
-      <c r="J17" s="368" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K17" s="368" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L17" s="368" t="s">
-        <v>2596</v>
+      <c r="B17" s="366" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C17" s="367" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D17" s="367" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E17" s="367" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F17" s="367" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G17" s="367" t="s">
+        <v>2701</v>
+      </c>
+      <c r="J17" s="367" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K17" s="367" t="s">
+        <v>2703</v>
+      </c>
+      <c r="L17" s="367" t="s">
+        <v>2704</v>
       </c>
       <c r="Q17" s="256" t="s">
-        <v>2597</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F18" s="368" t="s">
-        <v>2598</v>
+      <c r="F18" s="367" t="s">
+        <v>2706</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F19" s="368" t="s">
-        <v>2599</v>
+      <c r="F19" s="367" t="s">
+        <v>2707</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="368" t="s">
-        <v>2600</v>
-      </c>
-      <c r="F20" s="368" t="s">
-        <v>2601</v>
-      </c>
-      <c r="G20" s="368" t="s">
-        <v>2602</v>
-      </c>
-      <c r="H20" s="368" t="s">
-        <v>2603</v>
+      <c r="E20" s="367" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F20" s="367" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G20" s="367" t="s">
+        <v>2710</v>
+      </c>
+      <c r="H20" s="367" t="s">
+        <v>2711</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="368" t="s">
-        <v>2604</v>
-      </c>
-      <c r="C21" s="368" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D21" s="368" t="s">
-        <v>2606</v>
-      </c>
-      <c r="E21" s="368" t="s">
-        <v>2607</v>
-      </c>
-      <c r="F21" s="369"/>
-      <c r="G21" s="369"/>
-      <c r="H21" s="368" t="s">
-        <v>2608</v>
+      <c r="B21" s="367" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C21" s="367" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D21" s="367" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E21" s="367" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F21" s="368"/>
+      <c r="G21" s="368"/>
+      <c r="H21" s="367" t="s">
+        <v>2716</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="368" t="s">
-        <v>2609</v>
-      </c>
-      <c r="E22" s="368" t="s">
-        <v>2610</v>
-      </c>
-      <c r="F22" s="369"/>
-      <c r="G22" s="368" t="s">
-        <v>2611</v>
-      </c>
-      <c r="H22" s="368" t="s">
-        <v>2612</v>
+      <c r="B22" s="367" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E22" s="367" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F22" s="368"/>
+      <c r="G22" s="367" t="s">
+        <v>2719</v>
+      </c>
+      <c r="H22" s="367" t="s">
+        <v>2720</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="368" t="s">
-        <v>2613</v>
-      </c>
-      <c r="B23" s="368" t="s">
-        <v>2614</v>
-      </c>
-      <c r="C23" s="368" t="s">
-        <v>2615</v>
-      </c>
-      <c r="E23" s="368" t="s">
-        <v>2616</v>
-      </c>
-      <c r="F23" s="369"/>
-      <c r="G23" s="369"/>
-      <c r="H23" s="368" t="s">
-        <v>2617</v>
+      <c r="A23" s="367" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B23" s="367" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C23" s="367" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E23" s="367" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F23" s="368"/>
+      <c r="G23" s="368"/>
+      <c r="H23" s="367" t="s">
+        <v>2725</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="368" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C24" s="368" t="s">
-        <v>2619</v>
-      </c>
-      <c r="E24" s="368" t="s">
-        <v>2620</v>
-      </c>
-      <c r="F24" s="368" t="s">
-        <v>2621</v>
-      </c>
-      <c r="G24" s="368" t="s">
-        <v>2622</v>
-      </c>
-      <c r="H24" s="368" t="s">
-        <v>2623</v>
+      <c r="B24" s="367" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C24" s="367" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E24" s="367" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F24" s="367" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G24" s="367" t="s">
+        <v>2730</v>
+      </c>
+      <c r="H24" s="367" t="s">
+        <v>2731</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="368" t="s">
-        <v>2624</v>
-      </c>
-      <c r="C25" s="368" t="s">
-        <v>2625</v>
-      </c>
-      <c r="F25" s="368" t="s">
-        <v>2626</v>
+      <c r="B25" s="367" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C25" s="367" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F25" s="367" t="s">
+        <v>2734</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="368" t="s">
-        <v>2627</v>
-      </c>
-      <c r="F26" s="368" t="s">
-        <v>2628</v>
-      </c>
-      <c r="G26" s="368" t="s">
-        <v>2629</v>
+      <c r="C26" s="367" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F26" s="367" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G26" s="367" t="s">
+        <v>2737</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F27" s="368" t="s">
-        <v>2630</v>
-      </c>
-      <c r="G27" s="368" t="s">
-        <v>2631</v>
+      <c r="F27" s="367" t="s">
+        <v>2738</v>
+      </c>
+      <c r="G27" s="367" t="s">
+        <v>2739</v>
       </c>
     </row>
   </sheetData>

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4912" uniqueCount="2740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="2887">
   <si>
     <t xml:space="preserve">Panahon</t>
   </si>
@@ -8185,11 +8185,30 @@
 West 1613</t>
   </si>
   <si>
-    <t xml:space="preserve"># 1617
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># 1617
 North 1653
 South 1621
 East 1624
-West 1619</t>
+West 1619
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The Whispering Glade</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"># 1623
@@ -16015,6 +16034,739 @@
 West 11754</t>
   </si>
   <si>
+    <t xml:space="preserve">#12125
+South 12127
+East 12126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12128
+East 12132
+West 12130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12131
+East 12135
+West 12133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12134
+South 12138
+West 12136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12122
+East 12124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12119
+North 12126
+South 12121
+West 12123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12137
+North 12139
+South 12141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12248
+South 12250
+East 12252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12251
+West 12253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12101
+East 12103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12098
+East 12100
+West 12102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12095
+South 12097
+East 12105
+West 12099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12104
+East 12108
+West 12106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12107
+East 12111
+West 12109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12110
+East 12114
+West 12112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12113
+East 12117
+West 12115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12116
+North 12120
+West 12118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12140
+North 12142
+South 12144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12245
+North 12249
+East 12247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12242
+South 12244
+West  12246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12059
+South 12064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12056
+South 12058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12068
+South 12073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12092
+North 12096
+South 12094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12146
+South 12150
+East 12148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12143
+North 12145
+South 12153
+West 12147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12158
+South 12160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12239
+North 12243
+South 12241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12059
+North 12063
+South 12066
+East 12061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12053
+North 12057
+South 12055
+East 12069
+West 12060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12068
+North 12072
+South 12075
+West 12070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12089
+North 12093
+South 12091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12149
+North 12151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12152
+North 12154
+East 12156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12155
+North 12159
+West 12157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12236
+North 12240
+South 12238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12065
+North 12067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12050
+North 12054
+South 12052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12074
+North 12076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12086
+North 12090
+South 12088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12218
+South 12220
+East 12222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12221
+South 12225
+West 12223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12233
+North 12237
+South 12235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12047
+North 12051
+East 12049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12044
+East 12046
+West 12048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12041
+South 12043
+West 12045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12083
+North 12087
+South 12085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12206
+South 12208
+East 12210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12209
+East 12213
+West 12211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12212
+East 12217
+West 12214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12215
+North 12219
+West 12217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12224
+North 12226
+East 12228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12227
+South 12255
+East 12231
+West 12229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12230
+North 12234
+West 12232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12038
+North 12042
+East 12040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12035
+South 12037
+West 12039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12080
+North 12084
+South 12082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11978
+South 11980
+East 11982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11981
+East 11985
+West 11983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11984
+West 11986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12200
+South 12204
+East 12202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12197
+North 12206
+South 12199
+West 12201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12254
+North 12256
+South 12258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12032
+North 12036
+East 12034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12029
+South 12031
+West 12033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12077
+North 12081
+South 12079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11975
+North 11979
+East 11977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11972
+South 11974
+West 11976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12203
+North 12205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12194
+North 12198
+East 12196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12191
+South 12193
+West 12195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12257
+North 12259
+South 12261 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12026
+North 12030
+East 12028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12023
+East 12025
+West 12027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12020
+North 12078
+South 12022
+West 12024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11969
+North 11973
+South 11971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12188
+North 12192
+South 12190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12260
+North 12262
+South 12264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12017
+North 12021
+South 12019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11966
+North 11970
+South 11968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12167
+South 12169
+East 12171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12170
+South 12174
+West 12172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12185
+North 12189
+South 12187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12263
+North 12265
+South 12267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11996
+North 12018
+South 12000
+East 11998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11993
+East 11995
+West 11997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11990
+East 11992
+West 11994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11987
+East 11989
+West 11991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11963
+North 11967
+South 11965
+West 11988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12164
+North 12168
+South 12166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12173
+North 12175
+East 12177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12176
+East 12180
+West 12178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12179
+East 12183
+West 12181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12182
+North 12186
+West 12184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12266
+North 12268
+South 12270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11999
+North 12001
+South 12003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11921
+North 11964
+South 11925
+East 11923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11918
+East 11920
+West 11922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11915
+East 11917
+West 11919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11912
+South 11914
+East 12162
+West 11916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12161
+North 12165
+West 12163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12269
+North 12271
+South 12273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12008
+South 12012
+East 12010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12005
+East 12007
+West 12009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12002
+North 12004
+West 12006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11924
+North 11926
+South 11928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11909
+North 11913
+South 11911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12272
+North 12274
+South 12276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12011
+North 12013
+South 12015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11927
+North 11929
+South 11931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11906
+North 11910
+South 11908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12278
+South 12282
+East 12280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12275
+North 12277
+West 12279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12014
+North 12016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11930
+North 11932
+South 11934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11903
+North 11907
+East 11905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11901
+West 11904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12281
+North 12283
+South 12285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11933
+North 11935
+South 11937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12287
+South 12291
+East 12289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12284
+North 12286
+West 12288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11939
+South 11943
+East 11941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11936
+North 11938
+West 11940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11957
+South 11959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12296
+South 12300
+East 12298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12295
+East 12295
+West 12297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12290
+North 12292
+West 12294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11942
+North 11944
+South 11946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11960
+East 11962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11954
+North 11958
+South 11956
+West 11961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12299
+North 12301
+South 12303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11945
+North 11947
+East 11949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11948
+East 11952
+West 11950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11951
+North 11955
+West 11953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12302
+North 12304
+South 12303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12311
+East 12313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12305
+North 12307
+South 12315
+East 12309
+West 12312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12308
+West 12310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12314
+North 12316
+South 12318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12323
+East 12325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12317
+North 12319
+South 12327
+East 12321
+West 12324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12320
+West 12322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12326
+North 12328
+South 12330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12338
+East 12340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12329
+North 12331
+South 12333
+East 12336
+West 12339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12335
+West 12337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12332
+North 12334</t>
+  </si>
+  <si>
     <t xml:space="preserve">#11512
 South 11516
 East 11514</t>
@@ -16566,7 +17318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -16753,6 +17505,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -16806,7 +17565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
+        <fgColor rgb="FFCC0101"/>
         <bgColor rgb="FFAB0033"/>
       </patternFill>
     </fill>
@@ -16853,9 +17612,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="darkGray">
         <fgColor rgb="FFFFE584"/>
-        <bgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFD1EA57"/>
       </patternFill>
     </fill>
     <fill>
@@ -16867,13 +17626,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFA2"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFFFFFA6"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFFFFFA2"/>
+        <bgColor rgb="FFFFE584"/>
       </patternFill>
     </fill>
     <fill>
@@ -16884,7 +17643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA6"/>
+        <fgColor rgb="FFFFFFA2"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -16915,7 +17674,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0101"/>
       </patternFill>
     </fill>
     <fill>
@@ -16927,7 +17686,7 @@
     <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FFAB0033"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0101"/>
       </patternFill>
     </fill>
     <fill>
@@ -17027,9 +17786,15 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF86D215"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0101"/>
       </patternFill>
     </fill>
     <fill>
@@ -17143,7 +17908,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0C2CD"/>
-        <bgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -17160,20 +17925,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF86D215"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEDCE6"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF3F3249"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -18132,7 +18891,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="399">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18341,6 +19100,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18353,7 +19116,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="43" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18373,11 +19136,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18405,7 +19168,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18413,7 +19176,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18421,7 +19184,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18453,7 +19216,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18501,7 +19264,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18513,7 +19276,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18541,7 +19304,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18565,22 +19328,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="47" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="48" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18601,7 +19364,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18609,11 +19372,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="48" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18621,23 +19384,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18645,11 +19400,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18657,7 +19420,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18773,23 +19536,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="55" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18797,11 +19560,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="57" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18809,7 +19572,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18817,7 +19580,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="57" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18825,7 +19588,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18841,7 +19604,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18853,7 +19616,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18865,19 +19628,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="59" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="59" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18917,7 +19680,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18925,7 +19688,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18937,7 +19700,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18949,7 +19712,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18989,31 +19752,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19021,63 +19784,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19089,55 +19852,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19145,15 +19908,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19173,7 +19936,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="63" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19185,7 +19948,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="63" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19201,15 +19964,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19217,7 +19980,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19225,7 +19988,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19253,19 +20016,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19277,7 +20040,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="79" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="79" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19285,7 +20048,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19297,19 +20060,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="81" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="81" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19317,7 +20080,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="82" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="82" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19325,35 +20088,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="83" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="83" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="84" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="84" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="85" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="85" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="87" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="87" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19365,23 +20128,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="88" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="88" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19393,15 +20156,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="63" borderId="72" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="72" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19413,11 +20176,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19425,7 +20188,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19433,7 +20196,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="92" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="92" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19457,31 +20220,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="65" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19489,7 +20252,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19501,11 +20264,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19513,7 +20276,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="95" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="95" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19525,19 +20288,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="96" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="96" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="85" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="85" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19545,15 +20308,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="100" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="100" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19561,7 +20324,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19573,7 +20336,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="63" borderId="102" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="102" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19581,11 +20344,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="48" borderId="103" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="103" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="48" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19597,7 +20360,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19613,6 +20376,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -19633,10 +20400,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="67" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="66" borderId="107" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -19662,6 +20425,66 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="109" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19746,7 +20569,7 @@
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFDEE6EF"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFE584"/>
       <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFB7CFEB"/>
@@ -19755,18 +20578,18 @@
       <rgbColor rgb="FFDDE106"/>
       <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFC4201"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFCC0101"/>
       <rgbColor rgb="FFD1EA57"/>
       <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFDEE7E5"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFFA6"/>
+      <rgbColor rgb="FFFFFFA2"/>
       <rgbColor rgb="FFB4C7DE"/>
       <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FFDEDCE6"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF86D215"/>
       <rgbColor rgb="FFFFBF00"/>
@@ -19776,11 +20599,11 @@
       <rgbColor rgb="FF828187"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF00A933"/>
-      <rgbColor rgb="FFFFFF6D"/>
-      <rgbColor rgb="FFFFE584"/>
+      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF7D7C7F"/>
-      <rgbColor rgb="FFFFDBB6"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF3F3249"/>
     </indexedColors>
   </colors>
@@ -19794,8 +20617,8 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D29" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y47" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB52" activeCellId="0" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27411,7 +28234,7 @@
       <c r="AA52" s="44" t="s">
         <v>1258</v>
       </c>
-      <c r="AB52" s="44" t="s">
+      <c r="AB52" s="52" t="s">
         <v>1259</v>
       </c>
       <c r="AC52" s="44" t="s">
@@ -28584,7 +29407,7 @@
       <c r="AJ58" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AK58" s="52" t="s">
+      <c r="AK58" s="53" t="s">
         <v>1390</v>
       </c>
       <c r="AL58" s="37" t="s">
@@ -28969,7 +29792,7 @@
       <c r="AK60" s="34" t="s">
         <v>1422</v>
       </c>
-      <c r="AL60" s="53" t="s">
+      <c r="AL60" s="54" t="s">
         <v>1423</v>
       </c>
       <c r="AM60" s="3" t="s">
@@ -29157,7 +29980,7 @@
       <c r="AJ61" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AK61" s="54" t="s">
+      <c r="AK61" s="55" t="s">
         <v>1433</v>
       </c>
       <c r="AM61" s="3" t="s">
@@ -29724,9 +30547,9 @@
       <c r="AI64" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AJ64" s="55"/>
-      <c r="AK64" s="55"/>
-      <c r="AL64" s="55"/>
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="56"/>
+      <c r="AL64" s="56"/>
       <c r="AM64" s="3" t="s">
         <v>1241</v>
       </c>
@@ -29900,13 +30723,13 @@
       <c r="AF65" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="55"/>
-      <c r="AI65" s="55"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="56"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="56"/>
+      <c r="AL65" s="56"/>
+      <c r="AM65" s="56"/>
       <c r="AN65" s="3" t="s">
         <v>1241</v>
       </c>
@@ -30074,15 +30897,15 @@
       <c r="AE66" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="55"/>
-      <c r="AI66" s="55"/>
-      <c r="AJ66" s="55"/>
-      <c r="AK66" s="55"/>
-      <c r="AL66" s="55"/>
-      <c r="AM66" s="55"/>
-      <c r="AN66" s="55"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="56"/>
+      <c r="AH66" s="56"/>
+      <c r="AI66" s="56"/>
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="56"/>
+      <c r="AL66" s="56"/>
+      <c r="AM66" s="56"/>
+      <c r="AN66" s="56"/>
       <c r="AO66" s="3" t="s">
         <v>1241</v>
       </c>
@@ -30247,18 +31070,18 @@
       <c r="AE67" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AF67" s="55"/>
-      <c r="AG67" s="55"/>
-      <c r="AH67" s="55"/>
-      <c r="AI67" s="55"/>
-      <c r="AJ67" s="55"/>
+      <c r="AF67" s="56"/>
+      <c r="AG67" s="56"/>
+      <c r="AH67" s="56"/>
+      <c r="AI67" s="56"/>
+      <c r="AJ67" s="56"/>
       <c r="AK67" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="AL67" s="55"/>
-      <c r="AM67" s="55"/>
-      <c r="AN67" s="55"/>
-      <c r="AO67" s="55"/>
+      <c r="AL67" s="56"/>
+      <c r="AM67" s="56"/>
+      <c r="AN67" s="56"/>
+      <c r="AO67" s="56"/>
       <c r="AP67" s="3" t="s">
         <v>1241</v>
       </c>
@@ -30423,15 +31246,15 @@
       <c r="AF68" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AG68" s="55"/>
-      <c r="AH68" s="55"/>
-      <c r="AI68" s="55"/>
-      <c r="AJ68" s="55"/>
-      <c r="AK68" s="55"/>
-      <c r="AL68" s="55"/>
-      <c r="AM68" s="55"/>
-      <c r="AN68" s="55"/>
-      <c r="AO68" s="55"/>
+      <c r="AG68" s="56"/>
+      <c r="AH68" s="56"/>
+      <c r="AI68" s="56"/>
+      <c r="AJ68" s="56"/>
+      <c r="AK68" s="56"/>
+      <c r="AL68" s="56"/>
+      <c r="AM68" s="56"/>
+      <c r="AN68" s="56"/>
+      <c r="AO68" s="56"/>
       <c r="AP68" s="3" t="s">
         <v>1241</v>
       </c>
@@ -30599,15 +31422,15 @@
       <c r="AG69" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AH69" s="55"/>
-      <c r="AI69" s="55"/>
-      <c r="AJ69" s="55"/>
-      <c r="AK69" s="55"/>
+      <c r="AH69" s="56"/>
+      <c r="AI69" s="56"/>
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="56"/>
       <c r="AL69" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AM69" s="55"/>
-      <c r="AN69" s="55"/>
+      <c r="AM69" s="56"/>
+      <c r="AN69" s="56"/>
       <c r="AO69" s="3" t="s">
         <v>1241</v>
       </c>
@@ -30784,8 +31607,8 @@
       <c r="AI70" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="AJ70" s="55"/>
-      <c r="AK70" s="55"/>
+      <c r="AJ70" s="56"/>
+      <c r="AK70" s="56"/>
       <c r="AL70" s="3" t="s">
         <v>1241</v>
       </c>
@@ -30883,44 +31706,44 @@
   </sheetPr>
   <dimension ref="D3:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="13.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="13.22"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>1797</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>1798</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>1799</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="113" t="s">
         <v>1801</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="58" t="s">
         <v>1802</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="58" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -30942,176 +31765,176 @@
   </sheetPr>
   <dimension ref="C2:P11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="11.56"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="43" t="s">
         <v>1194</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>1805</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="114" t="s">
         <v>1806</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="114" t="s">
         <v>1807</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="115" t="s">
         <v>1808</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="115" t="s">
         <v>1809</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="115" t="s">
         <v>1810</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="115" t="s">
         <v>1811</v>
       </c>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="115" t="s">
         <v>1812</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="115" t="s">
         <v>1813</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="114" t="s">
         <v>1814</v>
       </c>
-      <c r="N3" s="103" t="s">
+      <c r="N3" s="104" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>1816</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="114" t="s">
         <v>1817</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="115" t="s">
         <v>1818</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="115" t="s">
         <v>1819</v>
       </c>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="115" t="s">
         <v>1820</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="115" t="s">
         <v>1821</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="115" t="s">
         <v>1822</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="115" t="s">
         <v>1823</v>
       </c>
-      <c r="P4" s="113" t="s">
+      <c r="P4" s="114" t="s">
         <v>1824</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="115" t="s">
         <v>1825</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="115" t="s">
         <v>1826</v>
       </c>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="115" t="s">
         <v>1827</v>
       </c>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="115" t="s">
         <v>1828</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="115" t="s">
         <v>1829</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="114" t="s">
         <v>1830</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="115" t="s">
         <v>1831</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="115" t="s">
         <v>1832</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="114" t="s">
         <v>1833</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="115" t="s">
         <v>1834</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="115" t="s">
         <v>1835</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="K7" s="115" t="s">
         <v>1836</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="115" t="s">
         <v>1837</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="115" t="s">
         <v>1838</v>
       </c>
-      <c r="N7" s="113" t="s">
+      <c r="N7" s="114" t="s">
         <v>1839</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="114" t="s">
         <v>1840</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="115" t="s">
         <v>1841</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="115" t="s">
         <v>1842</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="115" t="s">
         <v>1843</v>
       </c>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="115" t="s">
         <v>1844</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="115" t="s">
         <v>1845</v>
       </c>
-      <c r="L9" s="114" t="s">
+      <c r="L9" s="115" t="s">
         <v>1846</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="104" t="s">
         <v>1847</v>
       </c>
-      <c r="K10" s="114" t="s">
+      <c r="K10" s="115" t="s">
         <v>1848</v>
       </c>
-      <c r="L10" s="114" t="s">
+      <c r="L10" s="115" t="s">
         <v>1849</v>
       </c>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="114" t="s">
         <v>1850</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K11" s="103" t="s">
+      <c r="K11" s="104" t="s">
         <v>1851</v>
       </c>
     </row>
@@ -31133,43 +31956,43 @@
   </sheetPr>
   <dimension ref="E2:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="12.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="12.89"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="116" t="s">
         <v>1852</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="116" t="s">
         <v>1853</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>1854</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T3" s="116"/>
-      <c r="U3" s="116" t="s">
+      <c r="T3" s="117"/>
+      <c r="U3" s="117" t="s">
         <v>1855</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="115" t="s">
+      <c r="L4" s="116" t="s">
         <v>1856</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="118" t="s">
         <v>1857</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="118" t="s">
         <v>1858</v>
       </c>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="118" t="s">
         <v>1859</v>
       </c>
       <c r="R4" s="49" t="s">
@@ -31178,17 +32001,17 @@
       <c r="S4" s="49" t="s">
         <v>1861</v>
       </c>
-      <c r="T4" s="118"/>
-      <c r="U4" s="116"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="117"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O5" s="117" t="s">
+      <c r="O5" s="118" t="s">
         <v>1862</v>
       </c>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="118" t="s">
         <v>1863</v>
       </c>
-      <c r="Q5" s="117" t="s">
+      <c r="Q5" s="118" t="s">
         <v>1864</v>
       </c>
       <c r="R5" s="49" t="s">
@@ -31205,10 +32028,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O6" s="117" t="s">
+      <c r="O6" s="118" t="s">
         <v>1869</v>
       </c>
-      <c r="P6" s="117" t="s">
+      <c r="P6" s="118" t="s">
         <v>1870</v>
       </c>
       <c r="Q6" s="4" t="s">
@@ -31228,10 +32051,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="58" t="s">
         <v>1876</v>
       </c>
-      <c r="N7" s="119" t="s">
+      <c r="N7" s="120" t="s">
         <v>1877</v>
       </c>
       <c r="O7" s="4" t="s">
@@ -31257,17 +32080,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="57"/>
-      <c r="O8" s="120" t="s">
+      <c r="E8" s="58"/>
+      <c r="O8" s="121" t="s">
         <v>1885</v>
       </c>
-      <c r="P8" s="120" t="s">
+      <c r="P8" s="121" t="s">
         <v>1886</v>
       </c>
-      <c r="Q8" s="120" t="s">
+      <c r="Q8" s="121" t="s">
         <v>1887</v>
       </c>
-      <c r="R8" s="120" t="s">
+      <c r="R8" s="121" t="s">
         <v>1888</v>
       </c>
       <c r="S8" s="6" t="s">
@@ -31279,12 +32102,12 @@
       <c r="U8" s="6" t="s">
         <v>1891</v>
       </c>
-      <c r="W8" s="57" t="s">
+      <c r="W8" s="58" t="s">
         <v>1892</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="57"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -31306,13 +32129,13 @@
   </sheetPr>
   <dimension ref="C1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="15.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="15.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31382,7 +32205,7 @@
       <c r="D4" s="31" t="s">
         <v>1912</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>1913</v>
       </c>
       <c r="G4" s="31" t="s">
@@ -31405,7 +32228,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>1920</v>
       </c>
       <c r="D5" s="31" t="s">
@@ -31492,114 +32315,114 @@
   </sheetPr>
   <dimension ref="D3:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="15.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="15.11"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="122" t="s">
         <v>1940</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="122" t="s">
         <v>1941</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="122" t="s">
         <v>1942</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="122" t="s">
         <v>1943</v>
       </c>
-      <c r="I3" s="121" t="s">
+      <c r="I3" s="122" t="s">
         <v>1944</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="122" t="s">
         <v>1945</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="123" t="s">
         <v>1946</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="124" t="s">
         <v>1947</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="122" t="s">
         <v>1948</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="122" t="s">
         <v>1949</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="125" t="s">
         <v>1950</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="123" t="s">
         <v>1951</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="122" t="s">
         <v>1952</v>
       </c>
-      <c r="L5" s="125" t="s">
+      <c r="L5" s="126" t="s">
         <v>1953</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="122" t="s">
         <v>1954</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="122" t="s">
         <v>1955</v>
       </c>
-      <c r="G6" s="126" t="s">
+      <c r="G6" s="127" t="s">
         <v>1956</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="123" t="s">
         <v>1957</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="122" t="s">
         <v>1958</v>
       </c>
-      <c r="L6" s="127" t="s">
+      <c r="L6" s="128" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="129" t="s">
         <v>1960</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="130" t="s">
         <v>1961</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="123" t="s">
         <v>1962</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="122" t="s">
         <v>1963</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="122" t="s">
         <v>1964</v>
       </c>
-      <c r="L7" s="130" t="s">
+      <c r="L7" s="131" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="122" t="s">
         <v>1966</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="122" t="s">
         <v>1967</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="122" t="s">
         <v>1968</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="122" t="s">
         <v>1969</v>
       </c>
     </row>
@@ -31621,66 +32444,66 @@
   </sheetPr>
   <dimension ref="F2:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="17.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="17.11"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>1970</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>1971</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="132" t="s">
         <v>1972</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="132" t="s">
         <v>1973</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="132" t="s">
         <v>1974</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="132" t="s">
         <v>1975</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="132" t="s">
         <v>1976</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="132" t="s">
         <v>1977</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="58" t="s">
         <v>1978</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="132" t="s">
         <v>1979</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="132" t="s">
         <v>1980</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="132" t="s">
         <v>1981</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="58" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="58" t="s">
         <v>1983</v>
       </c>
     </row>
@@ -31702,159 +32525,159 @@
   </sheetPr>
   <dimension ref="L5:V14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="14.44"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R5" s="132" t="s">
+      <c r="R5" s="133" t="s">
         <v>1984</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="58" t="s">
         <v>1985</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="57" t="s">
+      <c r="Q6" s="134"/>
+      <c r="R6" s="58" t="s">
         <v>1986</v>
       </c>
-      <c r="S6" s="133"/>
+      <c r="S6" s="134"/>
     </row>
     <row r="7" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="57" t="s">
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="58" t="s">
         <v>1987</v>
       </c>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
     </row>
     <row r="8" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="58" t="s">
         <v>1988</v>
       </c>
-      <c r="O8" s="134" t="s">
+      <c r="O8" s="135" t="s">
         <v>1989</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="58" t="s">
         <v>1990</v>
       </c>
-      <c r="Q8" s="57" t="s">
+      <c r="Q8" s="58" t="s">
         <v>1991</v>
       </c>
-      <c r="R8" s="57" t="s">
+      <c r="R8" s="58" t="s">
         <v>1992</v>
       </c>
-      <c r="S8" s="57" t="s">
+      <c r="S8" s="58" t="s">
         <v>1993</v>
       </c>
-      <c r="T8" s="57" t="s">
+      <c r="T8" s="58" t="s">
         <v>1994</v>
       </c>
-      <c r="U8" s="135" t="s">
+      <c r="U8" s="136" t="s">
         <v>1995</v>
       </c>
-      <c r="V8" s="57" t="s">
+      <c r="V8" s="58" t="s">
         <v>1996</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O9" s="136" t="s">
+      <c r="O9" s="137" t="s">
         <v>1997</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="58" t="s">
         <v>1998</v>
       </c>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="57" t="s">
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="58" t="s">
         <v>1999</v>
       </c>
-      <c r="U9" s="138" t="s">
+      <c r="U9" s="139" t="s">
         <v>2000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N10" s="57"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="57" t="s">
+      <c r="N10" s="58"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="58" t="s">
         <v>2001</v>
       </c>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137" t="s">
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138" t="s">
         <v>2002</v>
       </c>
-      <c r="S10" s="137"/>
-      <c r="T10" s="57" t="s">
+      <c r="S10" s="138"/>
+      <c r="T10" s="58" t="s">
         <v>2003</v>
       </c>
-      <c r="U10" s="140"/>
-      <c r="V10" s="57"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O11" s="134" t="s">
+      <c r="O11" s="135" t="s">
         <v>2004</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="58" t="s">
         <v>2005</v>
       </c>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="57" t="s">
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="58" t="s">
         <v>2006</v>
       </c>
-      <c r="U11" s="135" t="s">
+      <c r="U11" s="136" t="s">
         <v>2007</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="58" t="s">
         <v>2008</v>
       </c>
-      <c r="O12" s="136" t="s">
+      <c r="O12" s="137" t="s">
         <v>2009</v>
       </c>
-      <c r="P12" s="141" t="s">
+      <c r="P12" s="142" t="s">
         <v>2010</v>
       </c>
-      <c r="Q12" s="57" t="s">
+      <c r="Q12" s="58" t="s">
         <v>2011</v>
       </c>
-      <c r="R12" s="57" t="s">
+      <c r="R12" s="58" t="s">
         <v>2012</v>
       </c>
-      <c r="S12" s="57" t="s">
+      <c r="S12" s="58" t="s">
         <v>2013</v>
       </c>
-      <c r="T12" s="141" t="s">
+      <c r="T12" s="142" t="s">
         <v>2014</v>
       </c>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="139" t="s">
         <v>2015</v>
       </c>
-      <c r="V12" s="57" t="s">
+      <c r="V12" s="58" t="s">
         <v>2016</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q13" s="136" t="s">
+      <c r="Q13" s="137" t="s">
         <v>2017</v>
       </c>
-      <c r="R13" s="142"/>
-      <c r="S13" s="143" t="s">
+      <c r="R13" s="143"/>
+      <c r="S13" s="144" t="s">
         <v>2018</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R14" s="57"/>
+      <c r="R14" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -31874,89 +32697,89 @@
   </sheetPr>
   <dimension ref="J3:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="18"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="145" t="s">
         <v>2019</v>
       </c>
-      <c r="K3" s="145" t="s">
+      <c r="K3" s="146" t="s">
         <v>2020</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="147" t="s">
         <v>2021</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="146" t="s">
         <v>2022</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="148" t="s">
         <v>2023</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J4" s="148" t="s">
+      <c r="J4" s="149" t="s">
         <v>2024</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="150" t="s">
+      <c r="K4" s="150"/>
+      <c r="L4" s="151" t="s">
         <v>2025</v>
       </c>
-      <c r="M4" s="149"/>
-      <c r="N4" s="150" t="s">
+      <c r="M4" s="150"/>
+      <c r="N4" s="151" t="s">
         <v>2026</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="152" t="s">
         <v>2027</v>
       </c>
-      <c r="K5" s="152" t="s">
+      <c r="K5" s="153" t="s">
         <v>2028</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="58" t="s">
         <v>2029</v>
       </c>
-      <c r="M5" s="152" t="s">
+      <c r="M5" s="153" t="s">
         <v>2030</v>
       </c>
-      <c r="N5" s="153" t="s">
+      <c r="N5" s="154" t="s">
         <v>2031</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="149" t="s">
         <v>2032</v>
       </c>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155" t="s">
+      <c r="K6" s="155"/>
+      <c r="L6" s="156" t="s">
         <v>2033</v>
       </c>
-      <c r="M6" s="112"/>
-      <c r="N6" s="150" t="s">
+      <c r="M6" s="113"/>
+      <c r="N6" s="151" t="s">
         <v>2034</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J7" s="156" t="s">
+      <c r="J7" s="157" t="s">
         <v>2035</v>
       </c>
-      <c r="K7" s="157" t="s">
+      <c r="K7" s="158" t="s">
         <v>2036</v>
       </c>
-      <c r="L7" s="146" t="s">
+      <c r="L7" s="147" t="s">
         <v>2037</v>
       </c>
-      <c r="M7" s="157" t="s">
+      <c r="M7" s="158" t="s">
         <v>2038</v>
       </c>
-      <c r="N7" s="158" t="s">
+      <c r="N7" s="159" t="s">
         <v>2039</v>
       </c>
     </row>
@@ -31978,191 +32801,191 @@
   </sheetPr>
   <dimension ref="B1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="13.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>2040</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="160" t="s">
         <v>2041</v>
       </c>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="161" t="s">
         <v>2042</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="162" t="s">
         <v>2043</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="55" t="s">
         <v>2044</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="58"/>
+      <c r="N1" s="55" t="s">
         <v>2045</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>2046</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="163" t="s">
         <v>2047</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="164" t="s">
         <v>2048</v>
       </c>
-      <c r="E2" s="162" t="s">
+      <c r="E2" s="163" t="s">
         <v>2049</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="165" t="s">
         <v>2050</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="166" t="s">
         <v>2051</v>
       </c>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="167" t="s">
         <v>2052</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="168" t="s">
         <v>2053</v>
       </c>
-      <c r="K2" s="168" t="s">
+      <c r="K2" s="169" t="s">
         <v>2054</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="58" t="s">
         <v>2055</v>
       </c>
-      <c r="N2" s="169" t="s">
+      <c r="N2" s="170" t="s">
         <v>2056</v>
       </c>
-      <c r="O2" s="170" t="s">
+      <c r="O2" s="171" t="s">
         <v>2057</v>
       </c>
-      <c r="P2" s="171" t="s">
+      <c r="P2" s="172" t="s">
         <v>2058</v>
       </c>
-      <c r="Q2" s="170" t="s">
+      <c r="Q2" s="171" t="s">
         <v>2059</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="173" t="s">
         <v>2060</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>2061</v>
       </c>
-      <c r="E3" s="173" t="s">
+      <c r="E3" s="174" t="s">
         <v>2062</v>
       </c>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="175" t="s">
         <v>2063</v>
       </c>
-      <c r="H3" s="175" t="s">
+      <c r="H3" s="176" t="s">
         <v>2064</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="58" t="s">
         <v>2065</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="177" t="s">
         <v>2066</v>
       </c>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="178" t="s">
         <v>2067</v>
       </c>
-      <c r="N3" s="178" t="s">
+      <c r="N3" s="179" t="s">
         <v>2068</v>
       </c>
-      <c r="O3" s="170" t="s">
+      <c r="O3" s="171" t="s">
         <v>2069</v>
       </c>
-      <c r="P3" s="179" t="s">
+      <c r="P3" s="180" t="s">
         <v>2070</v>
       </c>
-      <c r="Q3" s="180" t="s">
+      <c r="Q3" s="181" t="s">
         <v>2071</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="166" t="s">
         <v>2072</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="182" t="s">
         <v>2073</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>2074</v>
       </c>
-      <c r="F4" s="174" t="s">
+      <c r="F4" s="175" t="s">
         <v>2075</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="166" t="s">
         <v>2076</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>2077</v>
       </c>
-      <c r="J4" s="182" t="s">
+      <c r="J4" s="183" t="s">
         <v>2078</v>
       </c>
-      <c r="K4" s="174" t="s">
+      <c r="K4" s="175" t="s">
         <v>2079</v>
       </c>
-      <c r="N4" s="183" t="s">
+      <c r="N4" s="184" t="s">
         <v>2080</v>
       </c>
-      <c r="O4" s="184" t="s">
+      <c r="O4" s="185" t="s">
         <v>2081</v>
       </c>
-      <c r="P4" s="173" t="s">
+      <c r="P4" s="174" t="s">
         <v>2082</v>
       </c>
-      <c r="Q4" s="170" t="s">
+      <c r="Q4" s="171" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="173" t="s">
         <v>2084</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="186" t="s">
         <v>2085</v>
       </c>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="173" t="s">
         <v>2086</v>
       </c>
-      <c r="F5" s="181" t="s">
+      <c r="F5" s="182" t="s">
         <v>2087</v>
       </c>
-      <c r="H5" s="176" t="s">
+      <c r="H5" s="177" t="s">
         <v>2088</v>
       </c>
-      <c r="I5" s="186" t="s">
+      <c r="I5" s="187" t="s">
         <v>2089</v>
       </c>
-      <c r="J5" s="187" t="s">
+      <c r="J5" s="188" t="s">
         <v>2090</v>
       </c>
-      <c r="K5" s="188" t="s">
+      <c r="K5" s="189" t="s">
         <v>2091</v>
       </c>
-      <c r="N5" s="172" t="s">
+      <c r="N5" s="173" t="s">
         <v>2092</v>
       </c>
-      <c r="O5" s="187" t="s">
+      <c r="O5" s="188" t="s">
         <v>2093</v>
       </c>
-      <c r="P5" s="181" t="s">
+      <c r="P5" s="182" t="s">
         <v>2094</v>
       </c>
-      <c r="Q5" s="176" t="s">
+      <c r="Q5" s="177" t="s">
         <v>2095</v>
       </c>
     </row>
@@ -32184,23 +33007,23 @@
   </sheetPr>
   <dimension ref="E3:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="18.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="18.11"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="58" t="s">
         <v>2096</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="58" t="s">
         <v>2097</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="58" t="s">
         <v>2098</v>
       </c>
     </row>
@@ -32222,7 +33045,7 @@
   </sheetPr>
   <dimension ref="E1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -32231,24 +33054,24 @@
     <row r="1" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58" t="s">
         <v>1441</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
         <v>1442</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="113.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="101" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32271,49 +33094,49 @@
   </sheetPr>
   <dimension ref="E3:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.35546875" defaultRowHeight="79.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="17.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="17.33"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="58" t="s">
         <v>2099</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="58" t="s">
         <v>2100</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>2101</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="58" t="s">
         <v>2102</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="58" t="s">
         <v>2103</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="58" t="s">
         <v>2104</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="58" t="s">
         <v>2105</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="58" t="s">
         <v>2106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>2107</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="58" t="s">
         <v>2108</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="58" t="s">
         <v>2109</v>
       </c>
     </row>
@@ -32335,70 +33158,70 @@
   </sheetPr>
   <dimension ref="D4:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.796875" defaultRowHeight="80.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="4" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58" t="s">
         <v>2110</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="56"/>
-      <c r="E5" s="131" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="132" t="s">
         <v>2111</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="132" t="s">
         <v>2112</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="132" t="s">
         <v>2113</v>
       </c>
-      <c r="H5" s="56"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D6" s="56"/>
-      <c r="E6" s="131" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="132" t="s">
         <v>2114</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="131" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="132" t="s">
         <v>2115</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D7" s="56"/>
-      <c r="E7" s="131" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="132" t="s">
         <v>2116</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="58" t="s">
         <v>2117</v>
       </c>
-      <c r="G7" s="131" t="s">
+      <c r="G7" s="132" t="s">
         <v>2118</v>
       </c>
-      <c r="H7" s="131" t="s">
+      <c r="H7" s="132" t="s">
         <v>2119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="56"/>
-      <c r="E8" s="131" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="132" t="s">
         <v>2120</v>
       </c>
-      <c r="F8" s="131" t="s">
+      <c r="F8" s="132" t="s">
         <v>2121</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -32419,93 +33242,93 @@
   </sheetPr>
   <dimension ref="D2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.578125" defaultRowHeight="82.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="151" t="s">
         <v>2122</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="134" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="135" t="s">
         <v>2123</v>
       </c>
-      <c r="I2" s="189" t="s">
+      <c r="I2" s="190" t="s">
         <v>2124</v>
       </c>
-      <c r="J2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="149" t="s">
         <v>2125</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="156" t="s">
         <v>2126</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="156" t="s">
         <v>2127</v>
       </c>
-      <c r="H3" s="190" t="s">
+      <c r="H3" s="191" t="s">
         <v>2128</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="136" t="s">
         <v>2129</v>
       </c>
-      <c r="J3" s="54"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="149" t="s">
         <v>2130</v>
       </c>
-      <c r="F4" s="189" t="s">
+      <c r="F4" s="190" t="s">
         <v>2131</v>
       </c>
-      <c r="G4" s="191" t="s">
+      <c r="G4" s="192" t="s">
         <v>2132</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="139" t="s">
         <v>2133</v>
       </c>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="137" t="s">
         <v>2134</v>
       </c>
-      <c r="J4" s="189" t="s">
+      <c r="J4" s="190" t="s">
         <v>2135</v>
       </c>
-      <c r="K4" s="190" t="s">
+      <c r="K4" s="191" t="s">
         <v>2136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="191" t="s">
+      <c r="D5" s="192" t="s">
         <v>2137</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="142" t="s">
         <v>2138</v>
       </c>
-      <c r="F5" s="190" t="s">
+      <c r="F5" s="191" t="s">
         <v>2139</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="136" t="s">
         <v>2140</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="54"/>
-      <c r="F6" s="136" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="137" t="s">
         <v>2141</v>
       </c>
-      <c r="G6" s="192"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -32526,7 +33349,7 @@
   </sheetPr>
   <dimension ref="I3:AB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -32534,18 +33357,18 @@
   <sheetData>
     <row r="3" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="138"/>
+      <c r="L4" s="139"/>
       <c r="M4" s="31" t="s">
         <v>2142</v>
       </c>
-      <c r="N4" s="136"/>
-      <c r="W4" s="193" t="s">
+      <c r="N4" s="137"/>
+      <c r="W4" s="194" t="s">
         <v>2143</v>
       </c>
-      <c r="X4" s="146" t="s">
+      <c r="X4" s="147" t="s">
         <v>2144</v>
       </c>
-      <c r="Y4" s="194" t="s">
+      <c r="Y4" s="195" t="s">
         <v>2145</v>
       </c>
     </row>
@@ -32559,13 +33382,13 @@
       <c r="N5" s="31" t="s">
         <v>2148</v>
       </c>
-      <c r="W5" s="195" t="s">
+      <c r="W5" s="196" t="s">
         <v>2149</v>
       </c>
-      <c r="X5" s="141" t="s">
+      <c r="X5" s="142" t="s">
         <v>2150</v>
       </c>
-      <c r="Y5" s="194" t="s">
+      <c r="Y5" s="195" t="s">
         <v>2151</v>
       </c>
     </row>
@@ -32576,233 +33399,233 @@
       <c r="M6" s="31" t="s">
         <v>2153</v>
       </c>
-      <c r="N6" s="196" t="s">
+      <c r="N6" s="197" t="s">
         <v>2154</v>
       </c>
-      <c r="W6" s="197" t="s">
+      <c r="W6" s="198" t="s">
         <v>2155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="197" t="s">
+      <c r="M7" s="198" t="s">
         <v>2156</v>
       </c>
-      <c r="R7" s="198" t="s">
+      <c r="R7" s="199" t="s">
         <v>2157</v>
       </c>
-      <c r="S7" s="146" t="s">
+      <c r="S7" s="147" t="s">
         <v>2158</v>
       </c>
-      <c r="T7" s="199" t="s">
+      <c r="T7" s="200" t="s">
         <v>2159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R8" s="141" t="s">
+      <c r="R8" s="142" t="s">
         <v>2160</v>
       </c>
-      <c r="S8" s="190" t="s">
+      <c r="S8" s="191" t="s">
         <v>2161</v>
       </c>
-      <c r="T8" s="141" t="s">
+      <c r="T8" s="142" t="s">
         <v>2162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R9" s="200" t="s">
+      <c r="R9" s="201" t="s">
         <v>2163</v>
       </c>
-      <c r="S9" s="141" t="s">
+      <c r="S9" s="142" t="s">
         <v>2164</v>
       </c>
-      <c r="T9" s="201" t="s">
+      <c r="T9" s="202" t="s">
         <v>2165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N10" s="202" t="s">
+      <c r="N10" s="203" t="s">
         <v>2166</v>
       </c>
-      <c r="W10" s="202" t="s">
+      <c r="W10" s="203" t="s">
         <v>2167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M11" s="191" t="s">
+      <c r="M11" s="192" t="s">
         <v>2168</v>
       </c>
-      <c r="N11" s="203" t="s">
+      <c r="N11" s="204" t="s">
         <v>2169</v>
       </c>
-      <c r="V11" s="204" t="s">
+      <c r="V11" s="205" t="s">
         <v>2170</v>
       </c>
-      <c r="W11" s="155" t="s">
+      <c r="W11" s="156" t="s">
         <v>2171</v>
       </c>
-      <c r="X11" s="205" t="s">
+      <c r="X11" s="206" t="s">
         <v>2172</v>
       </c>
-      <c r="Y11" s="135" t="s">
+      <c r="Y11" s="136" t="s">
         <v>2173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="M12" s="193" t="s">
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="M12" s="194" t="s">
         <v>2174</v>
       </c>
-      <c r="N12" s="138" t="s">
+      <c r="N12" s="139" t="s">
         <v>2175</v>
       </c>
-      <c r="V12" s="150" t="s">
+      <c r="V12" s="151" t="s">
         <v>2176</v>
       </c>
-      <c r="W12" s="134" t="s">
+      <c r="W12" s="135" t="s">
         <v>2177</v>
       </c>
-      <c r="X12" s="206" t="s">
+      <c r="X12" s="207" t="s">
         <v>2178</v>
       </c>
-      <c r="Y12" s="150" t="s">
+      <c r="Y12" s="151" t="s">
         <v>2179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I13" s="207" t="s">
+      <c r="I13" s="208" t="s">
         <v>2180</v>
       </c>
-      <c r="J13" s="132" t="s">
+      <c r="J13" s="133" t="s">
         <v>2181</v>
       </c>
-      <c r="V13" s="150" t="s">
+      <c r="V13" s="151" t="s">
         <v>2182</v>
       </c>
-      <c r="W13" s="208" t="s">
+      <c r="W13" s="209" t="s">
         <v>2183</v>
       </c>
-      <c r="X13" s="209" t="s">
+      <c r="X13" s="210" t="s">
         <v>2184</v>
       </c>
-      <c r="Y13" s="150" t="s">
+      <c r="Y13" s="151" t="s">
         <v>2185</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="210" t="s">
+      <c r="I14" s="211" t="s">
         <v>2186</v>
       </c>
-      <c r="J14" s="211" t="s">
+      <c r="J14" s="212" t="s">
         <v>2187</v>
       </c>
-      <c r="V14" s="150" t="s">
+      <c r="V14" s="151" t="s">
         <v>2188</v>
       </c>
-      <c r="W14" s="212" t="s">
+      <c r="W14" s="213" t="s">
         <v>2189</v>
       </c>
-      <c r="X14" s="213" t="s">
+      <c r="X14" s="214" t="s">
         <v>2190</v>
       </c>
-      <c r="Y14" s="150" t="s">
+      <c r="Y14" s="151" t="s">
         <v>2191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V15" s="136" t="s">
+      <c r="V15" s="137" t="s">
         <v>2192</v>
       </c>
-      <c r="W15" s="155" t="s">
+      <c r="W15" s="156" t="s">
         <v>2193</v>
       </c>
-      <c r="X15" s="155" t="s">
+      <c r="X15" s="156" t="s">
         <v>2194</v>
       </c>
-      <c r="Y15" s="138" t="s">
+      <c r="Y15" s="139" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="86.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="214" t="s">
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="215" t="s">
         <v>2196</v>
       </c>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V17" s="56"/>
-      <c r="W17" s="215" t="s">
+      <c r="V17" s="57"/>
+      <c r="W17" s="216" t="s">
         <v>2197</v>
       </c>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="216" t="s">
+      <c r="X17" s="57"/>
+      <c r="Y17" s="217" t="s">
         <v>2198</v>
       </c>
-      <c r="Z17" s="217" t="s">
+      <c r="Z17" s="218" t="s">
         <v>2199</v>
       </c>
-      <c r="AA17" s="218" t="s">
+      <c r="AA17" s="219" t="s">
         <v>2200</v>
       </c>
-      <c r="AB17" s="56"/>
+      <c r="AB17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V18" s="219" t="s">
+      <c r="V18" s="220" t="s">
         <v>2201</v>
       </c>
-      <c r="W18" s="220" t="s">
+      <c r="W18" s="221" t="s">
         <v>2202</v>
       </c>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="221" t="s">
+      <c r="X18" s="57"/>
+      <c r="Y18" s="222" t="s">
         <v>2203</v>
       </c>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="222" t="s">
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="223" t="s">
         <v>2204</v>
       </c>
-      <c r="AB18" s="214" t="s">
+      <c r="AB18" s="215" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V19" s="56"/>
-      <c r="W19" s="223" t="s">
+      <c r="V19" s="57"/>
+      <c r="W19" s="224" t="s">
         <v>2206</v>
       </c>
-      <c r="X19" s="217" t="s">
+      <c r="X19" s="218" t="s">
         <v>2207</v>
       </c>
-      <c r="Y19" s="224" t="s">
+      <c r="Y19" s="225" t="s">
         <v>2208</v>
       </c>
-      <c r="Z19" s="217" t="s">
+      <c r="Z19" s="218" t="s">
         <v>2209</v>
       </c>
-      <c r="AA19" s="225" t="s">
+      <c r="AA19" s="226" t="s">
         <v>2210</v>
       </c>
-      <c r="AB19" s="56"/>
+      <c r="AB19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V20" s="56"/>
-      <c r="W20" s="226" t="s">
+      <c r="V20" s="57"/>
+      <c r="W20" s="227" t="s">
         <v>2211</v>
       </c>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="226" t="s">
+      <c r="X20" s="57"/>
+      <c r="Y20" s="227" t="s">
         <v>2212</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="226" t="s">
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="227" t="s">
         <v>2213</v>
       </c>
-      <c r="AB20" s="56"/>
+      <c r="AB20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -32823,100 +33646,100 @@
   </sheetPr>
   <dimension ref="M4:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="62.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="56" width="12.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="57" width="12.93"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="58" t="s">
         <v>2214</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="58" t="s">
         <v>2215</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="58" t="s">
         <v>2216</v>
       </c>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="58" t="s">
         <v>2217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M5" s="227"/>
-      <c r="N5" s="227"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="227"/>
-      <c r="Q5" s="227"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
     </row>
     <row r="6" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228" t="s">
+      <c r="M6" s="228"/>
+      <c r="N6" s="228"/>
+      <c r="O6" s="229" t="s">
         <v>2218</v>
       </c>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="227"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
     </row>
     <row r="7" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="229" t="s">
+      <c r="M7" s="230" t="s">
         <v>2219</v>
       </c>
-      <c r="N7" s="230" t="s">
+      <c r="N7" s="231" t="s">
         <v>2220</v>
       </c>
-      <c r="O7" s="231" t="s">
+      <c r="O7" s="232" t="s">
         <v>2221</v>
       </c>
-      <c r="P7" s="232" t="s">
+      <c r="P7" s="233" t="s">
         <v>2222</v>
       </c>
-      <c r="Q7" s="227"/>
+      <c r="Q7" s="228"/>
     </row>
     <row r="8" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M8" s="233" t="s">
+      <c r="M8" s="234" t="s">
         <v>2223</v>
       </c>
-      <c r="N8" s="231" t="s">
+      <c r="N8" s="232" t="s">
         <v>2224</v>
       </c>
-      <c r="O8" s="231" t="s">
+      <c r="O8" s="232" t="s">
         <v>2225</v>
       </c>
-      <c r="P8" s="231" t="s">
+      <c r="P8" s="232" t="s">
         <v>2226</v>
       </c>
-      <c r="Q8" s="232" t="s">
+      <c r="Q8" s="233" t="s">
         <v>2227</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M9" s="227"/>
-      <c r="N9" s="233" t="s">
+      <c r="M9" s="228"/>
+      <c r="N9" s="234" t="s">
         <v>2228</v>
       </c>
-      <c r="O9" s="231" t="s">
+      <c r="O9" s="232" t="s">
         <v>2229</v>
       </c>
-      <c r="P9" s="234" t="s">
+      <c r="P9" s="235" t="s">
         <v>2230</v>
       </c>
-      <c r="Q9" s="235" t="s">
+      <c r="Q9" s="236" t="s">
         <v>2231</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M10" s="227"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="236" t="s">
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="237" t="s">
         <v>2232</v>
       </c>
-      <c r="P10" s="227"/>
-      <c r="Q10" s="227"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="228"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -32936,349 +33759,349 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="237" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="238" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="238"/>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
     </row>
     <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="238"/>
-      <c r="B2" s="239" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240" t="s">
         <v>2233</v>
       </c>
-      <c r="C2" s="240" t="s">
+      <c r="C2" s="241" t="s">
         <v>2234</v>
       </c>
-      <c r="D2" s="241" t="s">
+      <c r="D2" s="242" t="s">
         <v>2235</v>
       </c>
-      <c r="E2" s="241" t="s">
+      <c r="E2" s="242" t="s">
         <v>2236</v>
       </c>
-      <c r="F2" s="241" t="s">
+      <c r="F2" s="242" t="s">
         <v>2237</v>
       </c>
-      <c r="G2" s="241" t="s">
+      <c r="G2" s="242" t="s">
         <v>2238</v>
       </c>
-      <c r="H2" s="241" t="s">
+      <c r="H2" s="242" t="s">
         <v>2239</v>
       </c>
-      <c r="I2" s="242" t="s">
+      <c r="I2" s="243" t="s">
         <v>2240</v>
       </c>
-      <c r="J2" s="241" t="s">
+      <c r="J2" s="242" t="s">
         <v>2241</v>
       </c>
-      <c r="K2" s="242" t="s">
+      <c r="K2" s="243" t="s">
         <v>2242</v>
       </c>
-      <c r="L2" s="241" t="s">
+      <c r="L2" s="242" t="s">
         <v>2243</v>
       </c>
-      <c r="M2" s="241" t="s">
+      <c r="M2" s="242" t="s">
         <v>2244</v>
       </c>
-      <c r="N2" s="241" t="s">
+      <c r="N2" s="242" t="s">
         <v>2245</v>
       </c>
-      <c r="O2" s="241" t="s">
+      <c r="O2" s="242" t="s">
         <v>2246</v>
       </c>
-      <c r="P2" s="242" t="s">
+      <c r="P2" s="243" t="s">
         <v>2247</v>
       </c>
-      <c r="Q2" s="238"/>
+      <c r="Q2" s="239"/>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="238"/>
-      <c r="B3" s="243" t="s">
+      <c r="A3" s="239"/>
+      <c r="B3" s="244" t="s">
         <v>2248</v>
       </c>
-      <c r="C3" s="244" t="s">
+      <c r="C3" s="245" t="s">
         <v>2249</v>
       </c>
-      <c r="D3" s="244" t="s">
+      <c r="D3" s="245" t="s">
         <v>2250</v>
       </c>
-      <c r="E3" s="239" t="s">
+      <c r="E3" s="240" t="s">
         <v>2251</v>
       </c>
-      <c r="F3" s="241" t="s">
+      <c r="F3" s="242" t="s">
         <v>2252</v>
       </c>
-      <c r="G3" s="241" t="s">
+      <c r="G3" s="242" t="s">
         <v>2253</v>
       </c>
-      <c r="H3" s="241" t="s">
+      <c r="H3" s="242" t="s">
         <v>2254</v>
       </c>
-      <c r="I3" s="245" t="s">
+      <c r="I3" s="246" t="s">
         <v>2255</v>
       </c>
-      <c r="J3" s="244" t="s">
+      <c r="J3" s="245" t="s">
         <v>2256</v>
       </c>
-      <c r="K3" s="246" t="s">
+      <c r="K3" s="247" t="s">
         <v>2257</v>
       </c>
-      <c r="L3" s="247" t="s">
+      <c r="L3" s="248" t="s">
         <v>2258</v>
       </c>
-      <c r="M3" s="244" t="s">
+      <c r="M3" s="245" t="s">
         <v>2259</v>
       </c>
-      <c r="N3" s="239" t="s">
+      <c r="N3" s="240" t="s">
         <v>2260</v>
       </c>
-      <c r="O3" s="242" t="s">
+      <c r="O3" s="243" t="s">
         <v>2261</v>
       </c>
-      <c r="P3" s="245" t="s">
+      <c r="P3" s="246" t="s">
         <v>2262</v>
       </c>
-      <c r="Q3" s="238"/>
+      <c r="Q3" s="239"/>
     </row>
     <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="238"/>
-      <c r="B4" s="243" t="s">
+      <c r="A4" s="239"/>
+      <c r="B4" s="244" t="s">
         <v>2263</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="240" t="s">
         <v>2264</v>
       </c>
-      <c r="D4" s="240" t="s">
+      <c r="D4" s="241" t="s">
         <v>2265</v>
       </c>
-      <c r="E4" s="244" t="s">
+      <c r="E4" s="245" t="s">
         <v>2266</v>
       </c>
-      <c r="F4" s="239" t="s">
+      <c r="F4" s="240" t="s">
         <v>2267</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="249" t="s">
         <v>2268</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="249" t="s">
         <v>2269</v>
       </c>
-      <c r="I4" s="248" t="s">
+      <c r="I4" s="249" t="s">
         <v>2270</v>
       </c>
-      <c r="J4" s="247" t="s">
+      <c r="J4" s="248" t="s">
         <v>2271</v>
       </c>
-      <c r="K4" s="244" t="s">
+      <c r="K4" s="245" t="s">
         <v>2272</v>
       </c>
-      <c r="L4" s="244" t="s">
+      <c r="L4" s="245" t="s">
         <v>2273</v>
       </c>
-      <c r="M4" s="244" t="s">
+      <c r="M4" s="245" t="s">
         <v>2274</v>
       </c>
-      <c r="N4" s="243" t="s">
+      <c r="N4" s="244" t="s">
         <v>2275</v>
       </c>
-      <c r="O4" s="242" t="s">
+      <c r="O4" s="243" t="s">
         <v>2276</v>
       </c>
-      <c r="P4" s="245" t="s">
+      <c r="P4" s="246" t="s">
         <v>2277</v>
       </c>
-      <c r="Q4" s="238"/>
+      <c r="Q4" s="239"/>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="238"/>
-      <c r="B5" s="243" t="s">
+      <c r="A5" s="239"/>
+      <c r="B5" s="244" t="s">
         <v>2278</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>2279</v>
       </c>
-      <c r="D5" s="244" t="s">
+      <c r="D5" s="245" t="s">
         <v>2280</v>
       </c>
-      <c r="E5" s="246" t="s">
+      <c r="E5" s="247" t="s">
         <v>2281</v>
       </c>
-      <c r="F5" s="247" t="s">
+      <c r="F5" s="248" t="s">
         <v>2282</v>
       </c>
-      <c r="G5" s="249" t="s">
+      <c r="G5" s="250" t="s">
         <v>2283</v>
       </c>
-      <c r="H5" s="244" t="s">
+      <c r="H5" s="245" t="s">
         <v>2284</v>
       </c>
-      <c r="I5" s="250" t="s">
+      <c r="I5" s="251" t="s">
         <v>2285</v>
       </c>
-      <c r="J5" s="250" t="s">
+      <c r="J5" s="251" t="s">
         <v>2286</v>
       </c>
-      <c r="K5" s="250" t="s">
+      <c r="K5" s="251" t="s">
         <v>2287</v>
       </c>
-      <c r="L5" s="239" t="s">
+      <c r="L5" s="240" t="s">
         <v>2288</v>
       </c>
-      <c r="M5" s="241" t="s">
+      <c r="M5" s="242" t="s">
         <v>2289</v>
       </c>
-      <c r="N5" s="242" t="s">
+      <c r="N5" s="243" t="s">
         <v>2290</v>
       </c>
-      <c r="O5" s="250" t="s">
+      <c r="O5" s="251" t="s">
         <v>2291</v>
       </c>
-      <c r="P5" s="247" t="s">
+      <c r="P5" s="248" t="s">
         <v>2292</v>
       </c>
-      <c r="Q5" s="238"/>
+      <c r="Q5" s="239"/>
     </row>
     <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="238"/>
-      <c r="B6" s="243" t="s">
+      <c r="A6" s="239"/>
+      <c r="B6" s="244" t="s">
         <v>2293</v>
       </c>
-      <c r="C6" s="251" t="s">
+      <c r="C6" s="252" t="s">
         <v>2294</v>
       </c>
-      <c r="D6" s="244" t="s">
+      <c r="D6" s="245" t="s">
         <v>2295</v>
       </c>
-      <c r="E6" s="244" t="s">
+      <c r="E6" s="245" t="s">
         <v>2296</v>
       </c>
-      <c r="F6" s="244" t="s">
+      <c r="F6" s="245" t="s">
         <v>2297</v>
       </c>
-      <c r="G6" s="249" t="s">
+      <c r="G6" s="250" t="s">
         <v>2298</v>
       </c>
-      <c r="H6" s="244" t="s">
+      <c r="H6" s="245" t="s">
         <v>2299</v>
       </c>
-      <c r="I6" s="244" t="s">
+      <c r="I6" s="245" t="s">
         <v>2300</v>
       </c>
-      <c r="J6" s="244" t="s">
+      <c r="J6" s="245" t="s">
         <v>2301</v>
       </c>
-      <c r="K6" s="252" t="s">
+      <c r="K6" s="253" t="s">
         <v>2302</v>
       </c>
-      <c r="L6" s="247" t="s">
+      <c r="L6" s="248" t="s">
         <v>2303</v>
       </c>
-      <c r="M6" s="253" t="s">
+      <c r="M6" s="254" t="s">
         <v>2304</v>
       </c>
-      <c r="N6" s="250" t="s">
+      <c r="N6" s="251" t="s">
         <v>2305</v>
       </c>
-      <c r="O6" s="250" t="s">
+      <c r="O6" s="251" t="s">
         <v>2306</v>
       </c>
-      <c r="P6" s="245" t="s">
+      <c r="P6" s="246" t="s">
         <v>2307</v>
       </c>
-      <c r="Q6" s="238"/>
+      <c r="Q6" s="239"/>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="238"/>
-      <c r="B7" s="246" t="s">
+      <c r="A7" s="239"/>
+      <c r="B7" s="247" t="s">
         <v>2308</v>
       </c>
-      <c r="C7" s="250" t="s">
+      <c r="C7" s="251" t="s">
         <v>2309</v>
       </c>
-      <c r="D7" s="250" t="s">
+      <c r="D7" s="251" t="s">
         <v>2310</v>
       </c>
-      <c r="E7" s="254" t="s">
+      <c r="E7" s="255" t="s">
         <v>2311</v>
       </c>
-      <c r="F7" s="250" t="s">
+      <c r="F7" s="251" t="s">
         <v>2312</v>
       </c>
-      <c r="G7" s="250" t="s">
+      <c r="G7" s="251" t="s">
         <v>2313</v>
       </c>
-      <c r="H7" s="248" t="s">
+      <c r="H7" s="249" t="s">
         <v>2314</v>
       </c>
-      <c r="I7" s="255" t="s">
+      <c r="I7" s="256" t="s">
         <v>2315</v>
       </c>
-      <c r="J7" s="250" t="s">
+      <c r="J7" s="251" t="s">
         <v>2316</v>
       </c>
-      <c r="K7" s="250" t="s">
+      <c r="K7" s="251" t="s">
         <v>2317</v>
       </c>
-      <c r="L7" s="250" t="s">
+      <c r="L7" s="251" t="s">
         <v>2318</v>
       </c>
-      <c r="M7" s="250" t="s">
+      <c r="M7" s="251" t="s">
         <v>2319</v>
       </c>
-      <c r="N7" s="250" t="s">
+      <c r="N7" s="251" t="s">
         <v>2320</v>
       </c>
-      <c r="O7" s="250" t="s">
+      <c r="O7" s="251" t="s">
         <v>2321</v>
       </c>
-      <c r="P7" s="247" t="s">
+      <c r="P7" s="248" t="s">
         <v>2322</v>
       </c>
-      <c r="Q7" s="238"/>
+      <c r="Q7" s="239"/>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="238"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
-      <c r="M8" s="238"/>
-      <c r="N8" s="238"/>
-      <c r="O8" s="238"/>
-      <c r="P8" s="238"/>
-      <c r="Q8" s="238"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="239"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="239"/>
+      <c r="M8" s="239"/>
+      <c r="N8" s="239"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="239"/>
+      <c r="Q8" s="239"/>
     </row>
     <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="256" t="s">
+      <c r="H9" s="257" t="s">
         <v>2323</v>
       </c>
     </row>
@@ -33300,653 +34123,653 @@
   </sheetPr>
   <dimension ref="H3:AA18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.31640625" defaultRowHeight="66.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="237" width="13.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="238" width="13.32"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I3" s="257"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="259"/>
-      <c r="M3" s="259"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="260"/>
-      <c r="S3" s="260"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="261"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="260"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="260"/>
+      <c r="AA3" s="262"/>
     </row>
     <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I4" s="262"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="264" t="s">
+      <c r="I4" s="263"/>
+      <c r="O4" s="264"/>
+      <c r="P4" s="264"/>
+      <c r="Q4" s="265" t="s">
         <v>2324</v>
       </c>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
-      <c r="AA4" s="265"/>
+      <c r="R4" s="264"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="264"/>
+      <c r="AA4" s="266"/>
     </row>
     <row r="5" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I5" s="262"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="264" t="s">
+      <c r="I5" s="263"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="265" t="s">
         <v>2325</v>
       </c>
-      <c r="Q5" s="264" t="s">
+      <c r="Q5" s="265" t="s">
         <v>2326</v>
       </c>
-      <c r="R5" s="264" t="s">
+      <c r="R5" s="265" t="s">
         <v>2327</v>
       </c>
-      <c r="S5" s="263"/>
-      <c r="T5" s="263"/>
-      <c r="U5" s="263"/>
-      <c r="AA5" s="265"/>
+      <c r="S5" s="264"/>
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="AA5" s="266"/>
     </row>
     <row r="6" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I6" s="262"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="266" t="s">
+      <c r="I6" s="263"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="267" t="s">
         <v>2328</v>
       </c>
-      <c r="O6" s="264" t="s">
+      <c r="O6" s="265" t="s">
         <v>2329</v>
       </c>
-      <c r="P6" s="264" t="s">
+      <c r="P6" s="265" t="s">
         <v>2330</v>
       </c>
-      <c r="Q6" s="264" t="s">
+      <c r="Q6" s="265" t="s">
         <v>2331</v>
       </c>
-      <c r="R6" s="264" t="s">
+      <c r="R6" s="265" t="s">
         <v>2332</v>
       </c>
-      <c r="S6" s="264" t="s">
+      <c r="S6" s="265" t="s">
         <v>2333</v>
       </c>
-      <c r="T6" s="266" t="s">
+      <c r="T6" s="267" t="s">
         <v>2334</v>
       </c>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="AA6" s="265"/>
+      <c r="U6" s="264"/>
+      <c r="V6" s="264"/>
+      <c r="W6" s="264"/>
+      <c r="AA6" s="266"/>
     </row>
     <row r="7" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I7" s="262"/>
-      <c r="L7" s="263"/>
-      <c r="M7" s="267" t="s">
+      <c r="I7" s="263"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="268" t="s">
         <v>2335</v>
       </c>
-      <c r="N7" s="268" t="s">
+      <c r="N7" s="269" t="s">
         <v>2336</v>
       </c>
-      <c r="O7" s="266" t="s">
+      <c r="O7" s="267" t="s">
         <v>2337</v>
       </c>
-      <c r="P7" s="264" t="s">
+      <c r="P7" s="265" t="s">
         <v>2338</v>
       </c>
-      <c r="Q7" s="264" t="s">
+      <c r="Q7" s="265" t="s">
         <v>2339</v>
       </c>
-      <c r="R7" s="264" t="s">
+      <c r="R7" s="265" t="s">
         <v>2340</v>
       </c>
-      <c r="S7" s="266" t="s">
+      <c r="S7" s="267" t="s">
         <v>2341</v>
       </c>
-      <c r="T7" s="269" t="s">
+      <c r="T7" s="270" t="s">
         <v>2342</v>
       </c>
-      <c r="U7" s="270" t="s">
+      <c r="U7" s="271" t="s">
         <v>2343</v>
       </c>
-      <c r="V7" s="271" t="s">
+      <c r="V7" s="272" t="s">
         <v>2344</v>
       </c>
-      <c r="W7" s="272" t="s">
+      <c r="W7" s="273" t="s">
         <v>2345</v>
       </c>
-      <c r="X7" s="263"/>
-      <c r="AA7" s="265"/>
+      <c r="X7" s="264"/>
+      <c r="AA7" s="266"/>
     </row>
     <row r="8" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I8" s="262"/>
-      <c r="K8" s="263"/>
-      <c r="L8" s="267" t="s">
+      <c r="I8" s="263"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="268" t="s">
         <v>2346</v>
       </c>
-      <c r="M8" s="267" t="s">
+      <c r="M8" s="268" t="s">
         <v>2347</v>
       </c>
-      <c r="N8" s="273" t="s">
+      <c r="N8" s="274" t="s">
         <v>2348</v>
       </c>
-      <c r="O8" s="268" t="s">
+      <c r="O8" s="269" t="s">
         <v>2349</v>
       </c>
-      <c r="P8" s="266" t="s">
+      <c r="P8" s="267" t="s">
         <v>2350</v>
       </c>
-      <c r="Q8" s="264" t="s">
+      <c r="Q8" s="265" t="s">
         <v>2351</v>
       </c>
-      <c r="R8" s="266" t="s">
+      <c r="R8" s="267" t="s">
         <v>2352</v>
       </c>
-      <c r="S8" s="274" t="s">
+      <c r="S8" s="275" t="s">
         <v>2353</v>
       </c>
-      <c r="T8" s="275" t="s">
+      <c r="T8" s="276" t="s">
         <v>2354</v>
       </c>
-      <c r="U8" s="276" t="s">
+      <c r="U8" s="277" t="s">
         <v>2355</v>
       </c>
-      <c r="V8" s="277" t="s">
+      <c r="V8" s="278" t="s">
         <v>2356</v>
       </c>
-      <c r="W8" s="278" t="s">
+      <c r="W8" s="279" t="s">
         <v>2357</v>
       </c>
-      <c r="X8" s="279" t="s">
+      <c r="X8" s="280" t="s">
         <v>2358</v>
       </c>
-      <c r="Y8" s="263"/>
-      <c r="AA8" s="265"/>
+      <c r="Y8" s="264"/>
+      <c r="AA8" s="266"/>
     </row>
     <row r="9" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I9" s="262"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="280" t="s">
+      <c r="I9" s="263"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="281" t="s">
         <v>2359</v>
       </c>
-      <c r="L9" s="267" t="s">
+      <c r="L9" s="268" t="s">
         <v>2360</v>
       </c>
-      <c r="M9" s="281" t="s">
+      <c r="M9" s="282" t="s">
         <v>2361</v>
       </c>
-      <c r="N9" s="282" t="s">
+      <c r="N9" s="283" t="s">
         <v>2362</v>
       </c>
-      <c r="O9" s="283" t="s">
+      <c r="O9" s="284" t="s">
         <v>2363</v>
       </c>
-      <c r="P9" s="268" t="s">
+      <c r="P9" s="269" t="s">
         <v>2364</v>
       </c>
-      <c r="Q9" s="284" t="s">
+      <c r="Q9" s="285" t="s">
         <v>2365</v>
       </c>
-      <c r="R9" s="285" t="s">
+      <c r="R9" s="286" t="s">
         <v>2366</v>
       </c>
-      <c r="S9" s="271" t="s">
+      <c r="S9" s="272" t="s">
         <v>2367</v>
       </c>
-      <c r="T9" s="270" t="s">
+      <c r="T9" s="271" t="s">
         <v>2368</v>
       </c>
-      <c r="U9" s="286" t="s">
+      <c r="U9" s="287" t="s">
         <v>2369</v>
       </c>
-      <c r="V9" s="287" t="s">
+      <c r="V9" s="288" t="s">
         <v>2370</v>
       </c>
-      <c r="W9" s="288" t="s">
+      <c r="W9" s="289" t="s">
         <v>2371</v>
       </c>
-      <c r="X9" s="289" t="s">
+      <c r="X9" s="290" t="s">
         <v>2372</v>
       </c>
-      <c r="Y9" s="290" t="s">
+      <c r="Y9" s="291" t="s">
         <v>2373</v>
       </c>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="265"/>
+      <c r="Z9" s="264"/>
+      <c r="AA9" s="266"/>
     </row>
     <row r="10" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="238"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="268" t="s">
+      <c r="H10" s="239"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="264"/>
+      <c r="K10" s="269" t="s">
         <v>2374</v>
       </c>
-      <c r="L10" s="280" t="s">
+      <c r="L10" s="281" t="s">
         <v>2375</v>
       </c>
-      <c r="M10" s="291" t="s">
+      <c r="M10" s="292" t="s">
         <v>2376</v>
       </c>
-      <c r="N10" s="292" t="s">
+      <c r="N10" s="293" t="s">
         <v>2377</v>
       </c>
-      <c r="O10" s="293" t="s">
+      <c r="O10" s="294" t="s">
         <v>2378</v>
       </c>
-      <c r="P10" s="267" t="s">
+      <c r="P10" s="268" t="s">
         <v>2379</v>
       </c>
-      <c r="Q10" s="267" t="s">
+      <c r="Q10" s="268" t="s">
         <v>2380</v>
       </c>
-      <c r="R10" s="294" t="s">
+      <c r="R10" s="295" t="s">
         <v>2381</v>
       </c>
-      <c r="S10" s="281" t="s">
+      <c r="S10" s="282" t="s">
         <v>2382</v>
       </c>
-      <c r="T10" s="295" t="s">
+      <c r="T10" s="296" t="s">
         <v>2383</v>
       </c>
-      <c r="U10" s="296" t="s">
+      <c r="U10" s="297" t="s">
         <v>2384</v>
       </c>
-      <c r="V10" s="279" t="s">
+      <c r="V10" s="280" t="s">
         <v>2385</v>
       </c>
-      <c r="W10" s="270" t="s">
+      <c r="W10" s="271" t="s">
         <v>2386</v>
       </c>
-      <c r="X10" s="297" t="s">
+      <c r="X10" s="298" t="s">
         <v>2387</v>
       </c>
-      <c r="Y10" s="298" t="s">
+      <c r="Y10" s="299" t="s">
         <v>2388</v>
       </c>
-      <c r="Z10" s="263"/>
-      <c r="AA10" s="265"/>
+      <c r="Z10" s="264"/>
+      <c r="AA10" s="266"/>
     </row>
     <row r="11" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I11" s="262"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="299" t="s">
+      <c r="I11" s="263"/>
+      <c r="J11" s="264"/>
+      <c r="K11" s="300" t="s">
         <v>2389</v>
       </c>
-      <c r="L11" s="300" t="s">
+      <c r="L11" s="301" t="s">
         <v>2390</v>
       </c>
-      <c r="M11" s="301" t="s">
+      <c r="M11" s="302" t="s">
         <v>2391</v>
       </c>
-      <c r="N11" s="302" t="s">
+      <c r="N11" s="303" t="s">
         <v>2392</v>
       </c>
-      <c r="O11" s="299" t="s">
+      <c r="O11" s="300" t="s">
         <v>2393</v>
       </c>
-      <c r="P11" s="303" t="s">
+      <c r="P11" s="304" t="s">
         <v>2394</v>
       </c>
-      <c r="Q11" s="280" t="s">
+      <c r="Q11" s="281" t="s">
         <v>2395</v>
       </c>
-      <c r="R11" s="267" t="s">
+      <c r="R11" s="268" t="s">
         <v>2396</v>
       </c>
-      <c r="S11" s="304" t="s">
+      <c r="S11" s="305" t="s">
         <v>2397</v>
       </c>
-      <c r="T11" s="295" t="s">
+      <c r="T11" s="296" t="s">
         <v>2398</v>
       </c>
-      <c r="U11" s="299" t="s">
+      <c r="U11" s="300" t="s">
         <v>2399</v>
       </c>
-      <c r="V11" s="305" t="s">
+      <c r="V11" s="306" t="s">
         <v>2400</v>
       </c>
-      <c r="W11" s="306" t="s">
+      <c r="W11" s="307" t="s">
         <v>2401</v>
       </c>
-      <c r="X11" s="307" t="s">
+      <c r="X11" s="308" t="s">
         <v>2402</v>
       </c>
-      <c r="Y11" s="308" t="s">
+      <c r="Y11" s="309" t="s">
         <v>2403</v>
       </c>
-      <c r="Z11" s="263"/>
-      <c r="AA11" s="265"/>
+      <c r="Z11" s="264"/>
+      <c r="AA11" s="266"/>
     </row>
     <row r="12" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I12" s="262"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="280" t="s">
+      <c r="I12" s="263"/>
+      <c r="J12" s="264"/>
+      <c r="K12" s="281" t="s">
         <v>2404</v>
       </c>
-      <c r="L12" s="309" t="s">
+      <c r="L12" s="310" t="s">
         <v>2405</v>
       </c>
-      <c r="M12" s="280" t="s">
+      <c r="M12" s="281" t="s">
         <v>2406</v>
       </c>
-      <c r="N12" s="267" t="s">
+      <c r="N12" s="268" t="s">
         <v>2407</v>
       </c>
-      <c r="O12" s="310" t="s">
+      <c r="O12" s="311" t="s">
         <v>2408</v>
       </c>
-      <c r="P12" s="291" t="s">
+      <c r="P12" s="292" t="s">
         <v>2409</v>
       </c>
-      <c r="Q12" s="311" t="s">
+      <c r="Q12" s="312" t="s">
         <v>2410</v>
       </c>
-      <c r="R12" s="291" t="s">
+      <c r="R12" s="292" t="s">
         <v>2411</v>
       </c>
-      <c r="S12" s="295" t="s">
+      <c r="S12" s="296" t="s">
         <v>2412</v>
       </c>
-      <c r="T12" s="294" t="s">
+      <c r="T12" s="295" t="s">
         <v>2413</v>
       </c>
-      <c r="U12" s="312" t="s">
+      <c r="U12" s="313" t="s">
         <v>2414</v>
       </c>
-      <c r="V12" s="313" t="s">
+      <c r="V12" s="314" t="s">
         <v>2415</v>
       </c>
-      <c r="W12" s="270" t="s">
+      <c r="W12" s="271" t="s">
         <v>2416</v>
       </c>
-      <c r="X12" s="314" t="s">
+      <c r="X12" s="315" t="s">
         <v>2417</v>
       </c>
-      <c r="Y12" s="315" t="s">
+      <c r="Y12" s="316" t="s">
         <v>2418</v>
       </c>
-      <c r="Z12" s="295" t="s">
+      <c r="Z12" s="296" t="s">
         <v>2419</v>
       </c>
-      <c r="AA12" s="316"/>
+      <c r="AA12" s="317"/>
     </row>
     <row r="13" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I13" s="262"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="317" t="s">
+      <c r="I13" s="263"/>
+      <c r="J13" s="264"/>
+      <c r="K13" s="318" t="s">
         <v>2420</v>
       </c>
-      <c r="L13" s="295" t="s">
+      <c r="L13" s="296" t="s">
         <v>2421</v>
       </c>
-      <c r="M13" s="318" t="s">
+      <c r="M13" s="319" t="s">
         <v>2422</v>
       </c>
-      <c r="N13" s="319" t="s">
+      <c r="N13" s="320" t="s">
         <v>2423</v>
       </c>
-      <c r="O13" s="320" t="s">
+      <c r="O13" s="321" t="s">
         <v>2424</v>
       </c>
-      <c r="P13" s="294" t="s">
+      <c r="P13" s="295" t="s">
         <v>2425</v>
       </c>
-      <c r="Q13" s="321" t="s">
+      <c r="Q13" s="322" t="s">
         <v>2426</v>
       </c>
-      <c r="R13" s="321" t="s">
+      <c r="R13" s="322" t="s">
         <v>2427</v>
       </c>
-      <c r="S13" s="321" t="s">
+      <c r="S13" s="322" t="s">
         <v>2428</v>
       </c>
-      <c r="T13" s="302" t="s">
+      <c r="T13" s="303" t="s">
         <v>2429</v>
       </c>
-      <c r="U13" s="299" t="s">
+      <c r="U13" s="300" t="s">
         <v>2430</v>
       </c>
-      <c r="V13" s="291" t="s">
+      <c r="V13" s="292" t="s">
         <v>2431</v>
       </c>
-      <c r="W13" s="322" t="s">
+      <c r="W13" s="323" t="s">
         <v>2432</v>
       </c>
-      <c r="X13" s="323" t="s">
+      <c r="X13" s="324" t="s">
         <v>2433</v>
       </c>
-      <c r="Y13" s="297" t="s">
+      <c r="Y13" s="298" t="s">
         <v>2434</v>
       </c>
-      <c r="Z13" s="315" t="s">
+      <c r="Z13" s="316" t="s">
         <v>2435</v>
       </c>
-      <c r="AA13" s="316"/>
+      <c r="AA13" s="317"/>
     </row>
     <row r="14" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="262"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="290" t="s">
+      <c r="I14" s="263"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="291" t="s">
         <v>2436</v>
       </c>
-      <c r="M14" s="324" t="s">
+      <c r="M14" s="325" t="s">
         <v>2437</v>
       </c>
-      <c r="N14" s="325" t="s">
+      <c r="N14" s="326" t="s">
         <v>2438</v>
       </c>
-      <c r="O14" s="326" t="s">
+      <c r="O14" s="327" t="s">
         <v>2439</v>
       </c>
-      <c r="P14" s="306" t="s">
+      <c r="P14" s="307" t="s">
         <v>2440</v>
       </c>
-      <c r="Q14" s="299" t="s">
+      <c r="Q14" s="300" t="s">
         <v>2441</v>
       </c>
-      <c r="R14" s="327" t="s">
+      <c r="R14" s="328" t="s">
         <v>2442</v>
       </c>
-      <c r="S14" s="328" t="s">
+      <c r="S14" s="329" t="s">
         <v>2443</v>
       </c>
-      <c r="T14" s="329" t="s">
+      <c r="T14" s="330" t="s">
         <v>2444</v>
       </c>
-      <c r="U14" s="299" t="s">
+      <c r="U14" s="300" t="s">
         <v>2445</v>
       </c>
-      <c r="V14" s="321" t="s">
+      <c r="V14" s="322" t="s">
         <v>2446</v>
       </c>
-      <c r="W14" s="330" t="s">
+      <c r="W14" s="331" t="s">
         <v>2447</v>
       </c>
-      <c r="X14" s="331" t="s">
+      <c r="X14" s="332" t="s">
         <v>2448</v>
       </c>
-      <c r="Y14" s="332" t="s">
+      <c r="Y14" s="333" t="s">
         <v>2449</v>
       </c>
-      <c r="Z14" s="333" t="s">
+      <c r="Z14" s="334" t="s">
         <v>2450</v>
       </c>
-      <c r="AA14" s="316"/>
+      <c r="AA14" s="317"/>
     </row>
     <row r="15" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I15" s="262"/>
-      <c r="K15" s="263"/>
-      <c r="L15" s="334" t="s">
+      <c r="I15" s="263"/>
+      <c r="K15" s="264"/>
+      <c r="L15" s="335" t="s">
         <v>2451</v>
       </c>
-      <c r="M15" s="335" t="s">
+      <c r="M15" s="336" t="s">
         <v>2452</v>
       </c>
-      <c r="N15" s="321" t="s">
+      <c r="N15" s="322" t="s">
         <v>2453</v>
       </c>
-      <c r="O15" s="283" t="s">
+      <c r="O15" s="284" t="s">
         <v>2454</v>
       </c>
-      <c r="P15" s="291" t="s">
+      <c r="P15" s="292" t="s">
         <v>2455</v>
       </c>
-      <c r="Q15" s="321" t="s">
+      <c r="Q15" s="322" t="s">
         <v>2456</v>
       </c>
-      <c r="R15" s="336" t="s">
+      <c r="R15" s="337" t="s">
         <v>2457</v>
       </c>
-      <c r="S15" s="337" t="s">
+      <c r="S15" s="338" t="s">
         <v>2458</v>
       </c>
-      <c r="T15" s="338" t="s">
+      <c r="T15" s="339" t="s">
         <v>2459</v>
       </c>
-      <c r="U15" s="339" t="s">
+      <c r="U15" s="340" t="s">
         <v>2460</v>
       </c>
-      <c r="V15" s="340" t="s">
+      <c r="V15" s="341" t="s">
         <v>2461</v>
       </c>
-      <c r="W15" s="341" t="s">
+      <c r="W15" s="342" t="s">
         <v>2462</v>
       </c>
-      <c r="X15" s="342" t="s">
+      <c r="X15" s="343" t="s">
         <v>2463</v>
       </c>
-      <c r="Y15" s="343" t="s">
+      <c r="Y15" s="344" t="s">
         <v>2464</v>
       </c>
-      <c r="Z15" s="333" t="s">
+      <c r="Z15" s="334" t="s">
         <v>2465</v>
       </c>
-      <c r="AA15" s="316"/>
+      <c r="AA15" s="317"/>
     </row>
     <row r="16" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I16" s="262"/>
-      <c r="K16" s="263"/>
-      <c r="L16" s="344" t="s">
+      <c r="I16" s="263"/>
+      <c r="K16" s="264"/>
+      <c r="L16" s="345" t="s">
         <v>2466</v>
       </c>
-      <c r="M16" s="299" t="s">
+      <c r="M16" s="300" t="s">
         <v>2467</v>
       </c>
-      <c r="N16" s="345" t="s">
+      <c r="N16" s="346" t="s">
         <v>2468</v>
       </c>
-      <c r="O16" s="329" t="s">
+      <c r="O16" s="330" t="s">
         <v>2469</v>
       </c>
-      <c r="P16" s="299" t="s">
+      <c r="P16" s="300" t="s">
         <v>2470</v>
       </c>
-      <c r="Q16" s="313" t="s">
+      <c r="Q16" s="314" t="s">
         <v>2471</v>
       </c>
-      <c r="R16" s="271" t="s">
+      <c r="R16" s="272" t="s">
         <v>2472</v>
       </c>
-      <c r="S16" s="346" t="s">
+      <c r="S16" s="347" t="s">
         <v>2473</v>
       </c>
-      <c r="T16" s="326" t="s">
+      <c r="T16" s="327" t="s">
         <v>2474</v>
       </c>
-      <c r="U16" s="347" t="s">
+      <c r="U16" s="348" t="s">
         <v>2475</v>
       </c>
-      <c r="V16" s="348" t="s">
+      <c r="V16" s="349" t="s">
         <v>2476</v>
       </c>
-      <c r="W16" s="349" t="s">
+      <c r="W16" s="350" t="s">
         <v>2477</v>
       </c>
-      <c r="X16" s="350" t="s">
+      <c r="X16" s="351" t="s">
         <v>2478</v>
       </c>
-      <c r="Y16" s="332" t="s">
+      <c r="Y16" s="333" t="s">
         <v>2479</v>
       </c>
-      <c r="Z16" s="263"/>
-      <c r="AA16" s="265"/>
+      <c r="Z16" s="264"/>
+      <c r="AA16" s="266"/>
     </row>
     <row r="17" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I17" s="262"/>
-      <c r="L17" s="263"/>
-      <c r="M17" s="318" t="s">
+      <c r="I17" s="263"/>
+      <c r="L17" s="264"/>
+      <c r="M17" s="319" t="s">
         <v>2480</v>
       </c>
-      <c r="N17" s="295" t="s">
+      <c r="N17" s="296" t="s">
         <v>2481</v>
       </c>
-      <c r="O17" s="351" t="s">
+      <c r="O17" s="352" t="s">
         <v>2482</v>
       </c>
-      <c r="P17" s="310" t="s">
+      <c r="P17" s="311" t="s">
         <v>2483</v>
       </c>
-      <c r="Q17" s="336" t="s">
+      <c r="Q17" s="337" t="s">
         <v>2484</v>
       </c>
-      <c r="R17" s="312" t="s">
+      <c r="R17" s="313" t="s">
         <v>2485</v>
       </c>
-      <c r="S17" s="352" t="s">
+      <c r="S17" s="353" t="s">
         <v>2486</v>
       </c>
-      <c r="T17" s="353" t="s">
+      <c r="T17" s="354" t="s">
         <v>2487</v>
       </c>
-      <c r="U17" s="349" t="s">
+      <c r="U17" s="350" t="s">
         <v>2488</v>
       </c>
-      <c r="V17" s="354" t="s">
+      <c r="V17" s="355" t="s">
         <v>2489</v>
       </c>
-      <c r="W17" s="355" t="s">
+      <c r="W17" s="356" t="s">
         <v>2490</v>
       </c>
-      <c r="X17" s="356" t="s">
+      <c r="X17" s="357" t="s">
         <v>2491</v>
       </c>
-      <c r="Y17" s="357" t="s">
+      <c r="Y17" s="358" t="s">
         <v>2492</v>
       </c>
-      <c r="Z17" s="263"/>
-      <c r="AA17" s="265"/>
+      <c r="Z17" s="264"/>
+      <c r="AA17" s="266"/>
     </row>
     <row r="18" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I18" s="358"/>
-      <c r="J18" s="359"/>
-      <c r="K18" s="359"/>
-      <c r="L18" s="359"/>
-      <c r="M18" s="360"/>
-      <c r="N18" s="360"/>
-      <c r="O18" s="360"/>
-      <c r="P18" s="360"/>
-      <c r="Q18" s="360"/>
-      <c r="R18" s="360"/>
-      <c r="S18" s="360"/>
-      <c r="T18" s="360"/>
-      <c r="U18" s="360"/>
-      <c r="V18" s="360"/>
-      <c r="W18" s="360"/>
-      <c r="X18" s="360"/>
-      <c r="Y18" s="360"/>
-      <c r="Z18" s="359"/>
-      <c r="AA18" s="361"/>
+      <c r="I18" s="359"/>
+      <c r="J18" s="360"/>
+      <c r="K18" s="360"/>
+      <c r="L18" s="360"/>
+      <c r="M18" s="361"/>
+      <c r="N18" s="361"/>
+      <c r="O18" s="361"/>
+      <c r="P18" s="361"/>
+      <c r="Q18" s="361"/>
+      <c r="R18" s="361"/>
+      <c r="S18" s="361"/>
+      <c r="T18" s="361"/>
+      <c r="U18" s="361"/>
+      <c r="V18" s="361"/>
+      <c r="W18" s="361"/>
+      <c r="X18" s="361"/>
+      <c r="Y18" s="361"/>
+      <c r="Z18" s="360"/>
+      <c r="AA18" s="362"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -33966,182 +34789,182 @@
   </sheetPr>
   <dimension ref="H3:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="60.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
     </row>
     <row r="4" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H4" s="237" t="s">
+      <c r="H4" s="238" t="s">
         <v>2493</v>
       </c>
-      <c r="I4" s="362" t="s">
+      <c r="I4" s="363" t="s">
         <v>2494</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="363" t="s">
+      <c r="J4" s="238"/>
+      <c r="K4" s="364" t="s">
         <v>2495</v>
       </c>
-      <c r="L4" s="363" t="s">
+      <c r="L4" s="364" t="s">
         <v>2496</v>
       </c>
-      <c r="M4" s="363" t="s">
+      <c r="M4" s="364" t="s">
         <v>2497</v>
       </c>
-      <c r="N4" s="363" t="s">
+      <c r="N4" s="364" t="s">
         <v>2498</v>
       </c>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
     </row>
     <row r="5" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="237"/>
-      <c r="I5" s="363" t="s">
+      <c r="H5" s="238"/>
+      <c r="I5" s="364" t="s">
         <v>2499</v>
       </c>
-      <c r="J5" s="237"/>
-      <c r="K5" s="363" t="s">
+      <c r="J5" s="238"/>
+      <c r="K5" s="364" t="s">
         <v>2500</v>
       </c>
-      <c r="L5" s="237"/>
-      <c r="M5" s="237"/>
-      <c r="N5" s="363" t="s">
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="364" t="s">
         <v>2501</v>
       </c>
-      <c r="O5" s="256" t="s">
+      <c r="O5" s="257" t="s">
         <v>2502</v>
       </c>
-      <c r="P5" s="237"/>
+      <c r="P5" s="238"/>
     </row>
     <row r="6" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H6" s="237"/>
-      <c r="I6" s="363" t="s">
+      <c r="H6" s="238"/>
+      <c r="I6" s="364" t="s">
         <v>2503</v>
       </c>
-      <c r="J6" s="363" t="s">
+      <c r="J6" s="364" t="s">
         <v>2504</v>
       </c>
-      <c r="K6" s="363" t="s">
+      <c r="K6" s="364" t="s">
         <v>2505</v>
       </c>
-      <c r="L6" s="363" t="s">
+      <c r="L6" s="364" t="s">
         <v>2506</v>
       </c>
-      <c r="M6" s="237"/>
-      <c r="N6" s="237"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
     </row>
     <row r="7" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="363" t="s">
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="364" t="s">
         <v>2507</v>
       </c>
-      <c r="K7" s="363" t="s">
+      <c r="K7" s="364" t="s">
         <v>2508</v>
       </c>
-      <c r="L7" s="363" t="s">
+      <c r="L7" s="364" t="s">
         <v>2509</v>
       </c>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
-      <c r="O7" s="364"/>
-      <c r="P7" s="365"/>
+      <c r="M7" s="238"/>
+      <c r="N7" s="238"/>
+      <c r="O7" s="365"/>
+      <c r="P7" s="366"/>
     </row>
     <row r="8" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="237"/>
-      <c r="I8" s="363" t="s">
+      <c r="H8" s="238"/>
+      <c r="I8" s="364" t="s">
         <v>2510</v>
       </c>
-      <c r="J8" s="363" t="s">
+      <c r="J8" s="364" t="s">
         <v>2511</v>
       </c>
-      <c r="K8" s="363" t="s">
+      <c r="K8" s="364" t="s">
         <v>2512</v>
       </c>
-      <c r="L8" s="363" t="s">
+      <c r="L8" s="364" t="s">
         <v>2513</v>
       </c>
-      <c r="M8" s="363" t="s">
+      <c r="M8" s="364" t="s">
         <v>2514</v>
       </c>
-      <c r="N8" s="363" t="s">
+      <c r="N8" s="364" t="s">
         <v>2515</v>
       </c>
-      <c r="O8" s="364"/>
-      <c r="P8" s="237"/>
+      <c r="O8" s="365"/>
+      <c r="P8" s="238"/>
     </row>
     <row r="9" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="237"/>
-      <c r="I9" s="363" t="s">
+      <c r="H9" s="238"/>
+      <c r="I9" s="364" t="s">
         <v>2516</v>
       </c>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="363" t="s">
+      <c r="J9" s="238"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="364" t="s">
         <v>2517</v>
       </c>
-      <c r="M9" s="237"/>
-      <c r="N9" s="237"/>
-      <c r="O9" s="237"/>
-      <c r="P9" s="237"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="238"/>
     </row>
     <row r="10" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="237"/>
-      <c r="I10" s="363" t="s">
+      <c r="H10" s="238"/>
+      <c r="I10" s="364" t="s">
         <v>2518</v>
       </c>
-      <c r="J10" s="363" t="s">
+      <c r="J10" s="364" t="s">
         <v>2519</v>
       </c>
-      <c r="K10" s="237"/>
-      <c r="L10" s="363" t="s">
+      <c r="K10" s="238"/>
+      <c r="L10" s="364" t="s">
         <v>2520</v>
       </c>
-      <c r="M10" s="363" t="s">
+      <c r="M10" s="364" t="s">
         <v>2521</v>
       </c>
-      <c r="N10" s="363" t="s">
+      <c r="N10" s="364" t="s">
         <v>2522</v>
       </c>
-      <c r="O10" s="237"/>
-      <c r="P10" s="237"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="238"/>
     </row>
     <row r="11" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237" t="s">
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238" t="s">
         <v>2523</v>
       </c>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="363" t="s">
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="364" t="s">
         <v>2524</v>
       </c>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
     </row>
     <row r="12" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="256" t="s">
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="257" t="s">
         <v>2525</v>
       </c>
-      <c r="O12" s="256" t="s">
+      <c r="O12" s="257" t="s">
         <v>2526</v>
       </c>
-      <c r="P12" s="237"/>
+      <c r="P12" s="238"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34161,406 +34984,413 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.046875" defaultRowHeight="63.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="237" width="13.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="238" width="13.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G1" s="366" t="s">
+      <c r="G1" s="367" t="s">
         <v>2527</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G2" s="367" t="s">
+      <c r="G2" s="368" t="s">
         <v>2528</v>
       </c>
-      <c r="H2" s="367" t="s">
+      <c r="H2" s="368" t="s">
         <v>2529</v>
       </c>
-      <c r="I2" s="367" t="s">
+      <c r="I2" s="368" t="s">
         <v>2530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G3" s="367" t="s">
+      <c r="G3" s="368" t="s">
         <v>2531</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="367" t="s">
+      <c r="E4" s="368" t="s">
         <v>2532</v>
       </c>
-      <c r="F4" s="367" t="s">
+      <c r="F4" s="368" t="s">
         <v>2533</v>
       </c>
-      <c r="G4" s="367" t="s">
+      <c r="G4" s="368" t="s">
         <v>2534</v>
       </c>
-      <c r="H4" s="367" t="s">
+      <c r="H4" s="368" t="s">
         <v>2535</v>
       </c>
-      <c r="I4" s="367" t="s">
+      <c r="I4" s="368" t="s">
         <v>2536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="367" t="s">
+      <c r="E5" s="368" t="s">
         <v>2537</v>
       </c>
-      <c r="F5" s="368"/>
-      <c r="G5" s="367" t="s">
+      <c r="F5" s="369"/>
+      <c r="G5" s="368" t="s">
         <v>2538</v>
       </c>
-      <c r="H5" s="368"/>
-      <c r="I5" s="367" t="s">
+      <c r="H5" s="369"/>
+      <c r="I5" s="368" t="s">
         <v>2539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="367" t="s">
+      <c r="E6" s="368" t="s">
         <v>2540</v>
       </c>
-      <c r="F6" s="367" t="s">
+      <c r="F6" s="368" t="s">
         <v>2541</v>
       </c>
-      <c r="G6" s="367" t="s">
+      <c r="G6" s="370" t="s">
         <v>2542</v>
       </c>
-      <c r="H6" s="367" t="s">
+      <c r="H6" s="368" t="s">
         <v>2543</v>
       </c>
-      <c r="I6" s="367" t="s">
+      <c r="I6" s="368" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="367" t="s">
+      <c r="E7" s="368" t="s">
         <v>2545</v>
       </c>
-      <c r="F7" s="368"/>
-      <c r="G7" s="367" t="s">
+      <c r="F7" s="369"/>
+      <c r="G7" s="368" t="s">
         <v>2546</v>
       </c>
-      <c r="H7" s="368"/>
-      <c r="I7" s="367" t="s">
+      <c r="H7" s="369"/>
+      <c r="I7" s="368" t="s">
         <v>2547</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="367" t="s">
+      <c r="E8" s="368" t="s">
         <v>2548</v>
       </c>
-      <c r="F8" s="367" t="s">
+      <c r="F8" s="368" t="s">
         <v>2549</v>
       </c>
-      <c r="G8" s="367" t="s">
+      <c r="G8" s="368" t="s">
         <v>2550</v>
       </c>
-      <c r="H8" s="367" t="s">
+      <c r="H8" s="368" t="s">
         <v>2551</v>
       </c>
-      <c r="I8" s="367" t="s">
+      <c r="I8" s="368" t="s">
         <v>2552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="367" t="s">
+      <c r="G9" s="368" t="s">
         <v>2553</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="367" t="s">
+      <c r="E10" s="368" t="s">
         <v>2554</v>
       </c>
-      <c r="G10" s="367" t="s">
+      <c r="G10" s="368" t="s">
         <v>2555</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="367" t="s">
+      <c r="E11" s="368" t="s">
         <v>2556</v>
       </c>
-      <c r="F11" s="367" t="s">
+      <c r="F11" s="368" t="s">
         <v>2557</v>
       </c>
-      <c r="G11" s="367" t="s">
+      <c r="G11" s="368" t="s">
         <v>2558</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="367" t="s">
+      <c r="C12" s="368" t="s">
         <v>2559</v>
       </c>
-      <c r="G12" s="367" t="s">
+      <c r="G12" s="368" t="s">
         <v>2560</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="367" t="s">
+      <c r="C13" s="368" t="s">
         <v>2561</v>
       </c>
-      <c r="D13" s="367" t="s">
+      <c r="D13" s="368" t="s">
         <v>2562</v>
       </c>
-      <c r="E13" s="367" t="s">
+      <c r="E13" s="368" t="s">
         <v>2563</v>
       </c>
-      <c r="F13" s="367" t="s">
+      <c r="F13" s="368" t="s">
         <v>2564</v>
       </c>
-      <c r="G13" s="367" t="s">
+      <c r="G13" s="368" t="s">
         <v>2565</v>
       </c>
-      <c r="H13" s="367" t="s">
+      <c r="H13" s="368" t="s">
         <v>2566</v>
       </c>
-      <c r="I13" s="367" t="s">
+      <c r="I13" s="368" t="s">
         <v>2567</v>
       </c>
-      <c r="J13" s="367" t="s">
+      <c r="J13" s="368" t="s">
         <v>2568</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="367" t="s">
+      <c r="G14" s="368" t="s">
         <v>2569</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="367" t="s">
+      <c r="A15" s="368" t="s">
         <v>2570</v>
       </c>
-      <c r="F15" s="367" t="s">
+      <c r="F15" s="368" t="s">
         <v>2571</v>
       </c>
-      <c r="G15" s="367" t="s">
+      <c r="G15" s="368" t="s">
         <v>2572</v>
       </c>
-      <c r="H15" s="367" t="s">
+      <c r="H15" s="368" t="s">
         <v>2573</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="367" t="s">
+      <c r="A16" s="368" t="s">
         <v>2574</v>
       </c>
-      <c r="B16" s="367" t="s">
+      <c r="B16" s="368" t="s">
         <v>2575</v>
       </c>
-      <c r="C16" s="367" t="s">
+      <c r="C16" s="368" t="s">
         <v>2576</v>
       </c>
-      <c r="D16" s="367" t="s">
+      <c r="D16" s="368" t="s">
         <v>2577</v>
       </c>
-      <c r="E16" s="367" t="s">
+      <c r="E16" s="368" t="s">
         <v>2578</v>
       </c>
-      <c r="F16" s="367" t="s">
+      <c r="F16" s="368" t="s">
         <v>2579</v>
       </c>
-      <c r="G16" s="368"/>
-      <c r="H16" s="369" t="s">
+      <c r="G16" s="369"/>
+      <c r="H16" s="370" t="s">
         <v>2580</v>
       </c>
-      <c r="I16" s="367" t="s">
+      <c r="I16" s="368" t="s">
         <v>2581</v>
       </c>
-      <c r="J16" s="367" t="s">
+      <c r="J16" s="368" t="s">
         <v>2582</v>
       </c>
-      <c r="K16" s="367" t="s">
+      <c r="K16" s="368" t="s">
         <v>2583</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F17" s="367" t="s">
+      <c r="F17" s="368" t="s">
         <v>2584</v>
       </c>
-      <c r="G17" s="367" t="s">
+      <c r="G17" s="368" t="s">
         <v>2585</v>
       </c>
-      <c r="H17" s="367" t="s">
+      <c r="H17" s="368" t="s">
         <v>2586</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="367" t="s">
+      <c r="G18" s="368" t="s">
         <v>2587</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="367" t="s">
+      <c r="D19" s="371" t="s">
         <v>2588</v>
       </c>
-      <c r="E19" s="367" t="s">
+      <c r="E19" s="371" t="s">
         <v>2589</v>
       </c>
-      <c r="F19" s="367" t="s">
+      <c r="F19" s="371" t="s">
         <v>2590</v>
       </c>
-      <c r="G19" s="367" t="s">
+      <c r="G19" s="371" t="s">
         <v>2591</v>
       </c>
-      <c r="H19" s="367" t="s">
+      <c r="H19" s="371" t="s">
         <v>2592</v>
       </c>
-      <c r="I19" s="367" t="s">
+      <c r="I19" s="371" t="s">
         <v>2593</v>
       </c>
-      <c r="J19" s="367" t="s">
+      <c r="J19" s="371" t="s">
         <v>2594</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="367" t="s">
+      <c r="D20" s="371" t="s">
         <v>2595</v>
       </c>
-      <c r="E20" s="370"/>
-      <c r="F20" s="371" t="s">
+      <c r="E20" s="372"/>
+      <c r="F20" s="373" t="s">
         <v>2596</v>
       </c>
-      <c r="G20" s="372" t="s">
+      <c r="G20" s="374" t="s">
         <v>2597</v>
       </c>
-      <c r="H20" s="373" t="s">
+      <c r="H20" s="375" t="s">
         <v>2598</v>
       </c>
-      <c r="I20" s="374" t="s">
+      <c r="I20" s="376" t="s">
         <v>2599</v>
       </c>
-      <c r="J20" s="367" t="s">
+      <c r="J20" s="371" t="s">
         <v>2600</v>
       </c>
-      <c r="L20" s="375"/>
-      <c r="M20" s="375"/>
-      <c r="N20" s="375"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="239"/>
     </row>
     <row r="21" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="367" t="s">
+      <c r="D21" s="371" t="s">
         <v>2601</v>
       </c>
-      <c r="E21" s="371" t="s">
+      <c r="E21" s="373" t="s">
         <v>2602</v>
       </c>
-      <c r="F21" s="376" t="s">
+      <c r="F21" s="377" t="s">
         <v>2603</v>
       </c>
-      <c r="G21" s="376" t="s">
+      <c r="G21" s="377" t="s">
         <v>2604</v>
       </c>
-      <c r="H21" s="367" t="s">
+      <c r="H21" s="368" t="s">
         <v>2605</v>
       </c>
-      <c r="I21" s="377" t="s">
+      <c r="I21" s="378" t="s">
         <v>2606</v>
       </c>
-      <c r="J21" s="367" t="s">
+      <c r="J21" s="371" t="s">
         <v>2607</v>
       </c>
-      <c r="L21" s="375"/>
-      <c r="N21" s="375"/>
+      <c r="L21" s="239"/>
+      <c r="M21" s="239"/>
+      <c r="N21" s="239"/>
     </row>
     <row r="22" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="367" t="s">
+      <c r="D22" s="371" t="s">
         <v>2608</v>
       </c>
-      <c r="E22" s="378" t="s">
+      <c r="E22" s="379" t="s">
         <v>2609</v>
       </c>
-      <c r="F22" s="379" t="s">
+      <c r="F22" s="380" t="s">
         <v>2610</v>
       </c>
-      <c r="G22" s="367" t="s">
+      <c r="G22" s="368" t="s">
         <v>2611</v>
       </c>
-      <c r="H22" s="367" t="s">
+      <c r="H22" s="368" t="s">
         <v>2612</v>
       </c>
-      <c r="I22" s="377" t="s">
+      <c r="I22" s="378" t="s">
         <v>2613</v>
       </c>
-      <c r="J22" s="367" t="s">
+      <c r="J22" s="371" t="s">
         <v>2614</v>
       </c>
-      <c r="N22" s="375"/>
+      <c r="L22" s="239"/>
+      <c r="M22" s="239"/>
+      <c r="N22" s="239"/>
     </row>
     <row r="23" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="367" t="s">
+      <c r="D23" s="371" t="s">
         <v>2615</v>
       </c>
-      <c r="E23" s="370"/>
-      <c r="F23" s="380" t="s">
+      <c r="E23" s="372"/>
+      <c r="F23" s="381" t="s">
         <v>2616</v>
       </c>
-      <c r="G23" s="381" t="s">
+      <c r="G23" s="382" t="s">
         <v>2617</v>
       </c>
-      <c r="H23" s="374" t="s">
+      <c r="H23" s="376" t="s">
         <v>2618</v>
       </c>
-      <c r="I23" s="377" t="s">
+      <c r="I23" s="378" t="s">
         <v>2619</v>
       </c>
-      <c r="J23" s="367" t="s">
+      <c r="J23" s="371" t="s">
         <v>2620</v>
       </c>
-      <c r="L23" s="375"/>
-      <c r="M23" s="375"/>
-      <c r="N23" s="375"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="239"/>
+      <c r="N23" s="239"/>
     </row>
     <row r="24" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D24" s="367" t="s">
+      <c r="D24" s="371" t="s">
         <v>2621</v>
       </c>
-      <c r="E24" s="380" t="s">
+      <c r="E24" s="381" t="s">
         <v>2622</v>
       </c>
-      <c r="F24" s="373" t="s">
+      <c r="F24" s="375" t="s">
         <v>2623</v>
       </c>
-      <c r="G24" s="379" t="s">
+      <c r="G24" s="380" t="s">
         <v>2624</v>
       </c>
-      <c r="H24" s="378" t="s">
+      <c r="H24" s="379" t="s">
         <v>2625</v>
       </c>
-      <c r="I24" s="382" t="s">
+      <c r="I24" s="383" t="s">
         <v>2626</v>
       </c>
-      <c r="J24" s="367" t="s">
+      <c r="J24" s="371" t="s">
         <v>2627</v>
       </c>
-      <c r="M24" s="375"/>
-      <c r="N24" s="375"/>
+      <c r="L24" s="239"/>
+      <c r="M24" s="239"/>
+      <c r="N24" s="239"/>
     </row>
     <row r="25" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D25" s="367" t="s">
+      <c r="D25" s="371" t="s">
         <v>2628</v>
       </c>
-      <c r="E25" s="367" t="s">
+      <c r="E25" s="371" t="s">
         <v>2629</v>
       </c>
-      <c r="F25" s="367" t="s">
+      <c r="F25" s="371" t="s">
         <v>2630</v>
       </c>
-      <c r="G25" s="367" t="s">
+      <c r="G25" s="371" t="s">
         <v>2631</v>
       </c>
-      <c r="H25" s="367" t="s">
+      <c r="H25" s="371" t="s">
         <v>2632</v>
       </c>
-      <c r="I25" s="367" t="s">
+      <c r="I25" s="371" t="s">
         <v>2633</v>
       </c>
-      <c r="J25" s="367" t="s">
+      <c r="J25" s="371" t="s">
         <v>2634</v>
       </c>
+      <c r="L25" s="239"/>
+      <c r="M25" s="239"/>
+      <c r="N25" s="239"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34578,14 +35408,513 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C3:AA28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V28" activeCellId="0" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="62.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="238" width="12.97"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O3" s="384" t="s">
+        <v>2635</v>
+      </c>
+      <c r="P3" s="384" t="s">
+        <v>2636</v>
+      </c>
+      <c r="Q3" s="384" t="s">
+        <v>2637</v>
+      </c>
+      <c r="R3" s="384" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N4" s="384" t="s">
+        <v>2639</v>
+      </c>
+      <c r="O4" s="384" t="s">
+        <v>2640</v>
+      </c>
+      <c r="R4" s="384" t="s">
+        <v>2641</v>
+      </c>
+      <c r="Z4" s="385" t="s">
+        <v>2642</v>
+      </c>
+      <c r="AA4" s="386" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H5" s="384" t="s">
+        <v>2644</v>
+      </c>
+      <c r="I5" s="384" t="s">
+        <v>2645</v>
+      </c>
+      <c r="J5" s="384" t="s">
+        <v>2646</v>
+      </c>
+      <c r="K5" s="384" t="s">
+        <v>2647</v>
+      </c>
+      <c r="L5" s="384" t="s">
+        <v>2648</v>
+      </c>
+      <c r="M5" s="384" t="s">
+        <v>2649</v>
+      </c>
+      <c r="N5" s="384" t="s">
+        <v>2650</v>
+      </c>
+      <c r="O5" s="384" t="s">
+        <v>2651</v>
+      </c>
+      <c r="R5" s="384" t="s">
+        <v>2652</v>
+      </c>
+      <c r="Z5" s="387" t="s">
+        <v>2653</v>
+      </c>
+      <c r="AA5" s="386" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="388" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D6" s="388" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E6" s="388" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J6" s="384" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q6" s="385" t="s">
+        <v>2659</v>
+      </c>
+      <c r="R6" s="389" t="s">
+        <v>2660</v>
+      </c>
+      <c r="S6" s="388" t="s">
+        <v>2661</v>
+      </c>
+      <c r="AA6" s="384" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="390" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D7" s="391" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E7" s="392" t="s">
+        <v>2665</v>
+      </c>
+      <c r="J7" s="384" t="s">
+        <v>2666</v>
+      </c>
+      <c r="Q7" s="387" t="s">
+        <v>2667</v>
+      </c>
+      <c r="R7" s="387" t="s">
+        <v>2668</v>
+      </c>
+      <c r="S7" s="393" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AA7" s="384" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="394" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D8" s="395" t="s">
+        <v>2672</v>
+      </c>
+      <c r="E8" s="394" t="s">
+        <v>2673</v>
+      </c>
+      <c r="J8" s="384" t="s">
+        <v>2674</v>
+      </c>
+      <c r="X8" s="384" t="s">
+        <v>2675</v>
+      </c>
+      <c r="Y8" s="384" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AA8" s="384" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="394" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E9" s="384" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F9" s="384" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J9" s="384" t="s">
+        <v>2681</v>
+      </c>
+      <c r="U9" s="384" t="s">
+        <v>2682</v>
+      </c>
+      <c r="V9" s="384" t="s">
+        <v>2683</v>
+      </c>
+      <c r="W9" s="384" t="s">
+        <v>2684</v>
+      </c>
+      <c r="X9" s="384" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y9" s="384" t="s">
+        <v>2686</v>
+      </c>
+      <c r="Z9" s="384" t="s">
+        <v>2687</v>
+      </c>
+      <c r="AA9" s="384" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10" s="384" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G10" s="384" t="s">
+        <v>2690</v>
+      </c>
+      <c r="J10" s="384" t="s">
+        <v>2691</v>
+      </c>
+      <c r="M10" s="385" t="s">
+        <v>2692</v>
+      </c>
+      <c r="N10" s="396" t="s">
+        <v>2693</v>
+      </c>
+      <c r="O10" s="386" t="s">
+        <v>2694</v>
+      </c>
+      <c r="T10" s="384" t="s">
+        <v>2695</v>
+      </c>
+      <c r="U10" s="384" t="s">
+        <v>2696</v>
+      </c>
+      <c r="Z10" s="384" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G11" s="384" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H11" s="384" t="s">
+        <v>2699</v>
+      </c>
+      <c r="J11" s="384" t="s">
+        <v>2700</v>
+      </c>
+      <c r="M11" s="387" t="s">
+        <v>2701</v>
+      </c>
+      <c r="N11" s="386" t="s">
+        <v>2702</v>
+      </c>
+      <c r="O11" s="366"/>
+      <c r="T11" s="384" t="s">
+        <v>2703</v>
+      </c>
+      <c r="U11" s="384" t="s">
+        <v>2704</v>
+      </c>
+      <c r="V11" s="384" t="s">
+        <v>2705</v>
+      </c>
+      <c r="Z11" s="384" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H12" s="384" t="s">
+        <v>2707</v>
+      </c>
+      <c r="I12" s="384" t="s">
+        <v>2708</v>
+      </c>
+      <c r="J12" s="384" t="s">
+        <v>2709</v>
+      </c>
+      <c r="N12" s="384" t="s">
+        <v>2710</v>
+      </c>
+      <c r="V12" s="384" t="s">
+        <v>2711</v>
+      </c>
+      <c r="Z12" s="384" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J13" s="384" t="s">
+        <v>2713</v>
+      </c>
+      <c r="N13" s="384" t="s">
+        <v>2714</v>
+      </c>
+      <c r="R13" s="384" t="s">
+        <v>2715</v>
+      </c>
+      <c r="S13" s="384" t="s">
+        <v>2716</v>
+      </c>
+      <c r="V13" s="384" t="s">
+        <v>2717</v>
+      </c>
+      <c r="Z13" s="384" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J14" s="384" t="s">
+        <v>2719</v>
+      </c>
+      <c r="K14" s="384" t="s">
+        <v>2720</v>
+      </c>
+      <c r="L14" s="384" t="s">
+        <v>2721</v>
+      </c>
+      <c r="M14" s="384" t="s">
+        <v>2722</v>
+      </c>
+      <c r="N14" s="384" t="s">
+        <v>2723</v>
+      </c>
+      <c r="R14" s="384" t="s">
+        <v>2724</v>
+      </c>
+      <c r="S14" s="384" t="s">
+        <v>2725</v>
+      </c>
+      <c r="T14" s="384" t="s">
+        <v>2726</v>
+      </c>
+      <c r="U14" s="384" t="s">
+        <v>2727</v>
+      </c>
+      <c r="V14" s="384" t="s">
+        <v>2728</v>
+      </c>
+      <c r="Z14" s="384" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J15" s="384" t="s">
+        <v>2730</v>
+      </c>
+      <c r="N15" s="384" t="s">
+        <v>2731</v>
+      </c>
+      <c r="O15" s="384" t="s">
+        <v>2732</v>
+      </c>
+      <c r="P15" s="384" t="s">
+        <v>2733</v>
+      </c>
+      <c r="Q15" s="384" t="s">
+        <v>2734</v>
+      </c>
+      <c r="R15" s="384" t="s">
+        <v>2735</v>
+      </c>
+      <c r="Z15" s="384" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H16" s="384" t="s">
+        <v>2737</v>
+      </c>
+      <c r="I16" s="384" t="s">
+        <v>2738</v>
+      </c>
+      <c r="J16" s="384" t="s">
+        <v>2739</v>
+      </c>
+      <c r="N16" s="384" t="s">
+        <v>2740</v>
+      </c>
+      <c r="Q16" s="384" t="s">
+        <v>2741</v>
+      </c>
+      <c r="Z16" s="384" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H17" s="384" t="s">
+        <v>2743</v>
+      </c>
+      <c r="N17" s="384" t="s">
+        <v>2744</v>
+      </c>
+      <c r="Q17" s="384" t="s">
+        <v>2745</v>
+      </c>
+      <c r="Y17" s="384" t="s">
+        <v>2746</v>
+      </c>
+      <c r="Z17" s="384" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H18" s="384" t="s">
+        <v>2748</v>
+      </c>
+      <c r="N18" s="384" t="s">
+        <v>2749</v>
+      </c>
+      <c r="Q18" s="384" t="s">
+        <v>2750</v>
+      </c>
+      <c r="R18" s="351" t="s">
+        <v>2751</v>
+      </c>
+      <c r="Y18" s="384" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N19" s="384" t="s">
+        <v>2753</v>
+      </c>
+      <c r="X19" s="384" t="s">
+        <v>2754</v>
+      </c>
+      <c r="Y19" s="384" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M20" s="390" t="s">
+        <v>2756</v>
+      </c>
+      <c r="N20" s="386" t="s">
+        <v>2757</v>
+      </c>
+      <c r="O20" s="388" t="s">
+        <v>2758</v>
+      </c>
+      <c r="V20" s="384" t="s">
+        <v>2759</v>
+      </c>
+      <c r="W20" s="384" t="s">
+        <v>2760</v>
+      </c>
+      <c r="X20" s="384" t="s">
+        <v>2761</v>
+      </c>
+      <c r="Y20" s="397"/>
+    </row>
+    <row r="21" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M21" s="395" t="s">
+        <v>2762</v>
+      </c>
+      <c r="N21" s="398" t="s">
+        <v>2763</v>
+      </c>
+      <c r="O21" s="392" t="s">
+        <v>2764</v>
+      </c>
+      <c r="V21" s="384" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M22" s="387" t="s">
+        <v>2766</v>
+      </c>
+      <c r="N22" s="396" t="s">
+        <v>2767</v>
+      </c>
+      <c r="O22" s="393" t="s">
+        <v>2768</v>
+      </c>
+      <c r="V22" s="384" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U23" s="384" t="s">
+        <v>2770</v>
+      </c>
+      <c r="V23" s="384" t="s">
+        <v>2771</v>
+      </c>
+      <c r="W23" s="384" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V24" s="384" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U25" s="384" t="s">
+        <v>2774</v>
+      </c>
+      <c r="V25" s="384" t="s">
+        <v>2775</v>
+      </c>
+      <c r="W25" s="384" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V26" s="384" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U27" s="384" t="s">
+        <v>2778</v>
+      </c>
+      <c r="V27" s="384" t="s">
+        <v>2779</v>
+      </c>
+      <c r="W27" s="384" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V28" s="384" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -34603,811 +35932,811 @@
   </sheetPr>
   <dimension ref="E4:AD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="16.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="16.78"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>1443</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="60" t="s">
         <v>1444</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="60" t="s">
         <v>1445</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="61" t="s">
         <v>1446</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="60" t="s">
         <v>1447</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="60" t="s">
         <v>1448</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="62" t="s">
         <v>1449</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="60" t="s">
         <v>1450</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="60" t="s">
         <v>1452</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="60" t="s">
         <v>1453</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="60" t="s">
         <v>1454</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="63" t="s">
         <v>1455</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="64" t="s">
         <v>1456</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="64" t="s">
         <v>1457</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="64" t="s">
         <v>1458</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="65" t="s">
         <v>1459</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="60" t="s">
         <v>1460</v>
       </c>
-      <c r="X4" s="59" t="s">
+      <c r="X4" s="60" t="s">
         <v>1461</v>
       </c>
-      <c r="Y4" s="62" t="s">
+      <c r="Y4" s="63" t="s">
         <v>1462</v>
       </c>
-      <c r="Z4" s="62" t="s">
+      <c r="Z4" s="63" t="s">
         <v>1463</v>
       </c>
-      <c r="AA4" s="62" t="s">
+      <c r="AA4" s="63" t="s">
         <v>1464</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="66" t="s">
         <v>1465</v>
       </c>
-      <c r="AC4" s="58" t="s">
+      <c r="AC4" s="59" t="s">
         <v>1466</v>
       </c>
-      <c r="AD4" s="66" t="s">
+      <c r="AD4" s="67" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="68" t="s">
         <v>1468</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="69" t="s">
         <v>1469</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="70" t="s">
         <v>1470</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="67" t="s">
         <v>1471</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="70" t="s">
         <v>1472</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="68" t="s">
         <v>1473</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="59" t="s">
         <v>1474</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="70" t="s">
         <v>1475</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="71" t="s">
         <v>1476</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="59" t="s">
         <v>1477</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="60" t="s">
         <v>1478</v>
       </c>
-      <c r="Q5" s="71" t="s">
+      <c r="Q5" s="72" t="s">
         <v>1479</v>
       </c>
-      <c r="R5" s="72" t="s">
+      <c r="R5" s="73" t="s">
         <v>1480</v>
       </c>
-      <c r="S5" s="67" t="s">
+      <c r="S5" s="68" t="s">
         <v>1481</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="70" t="s">
         <v>1482</v>
       </c>
-      <c r="U5" s="67" t="s">
+      <c r="U5" s="68" t="s">
         <v>1483</v>
       </c>
-      <c r="V5" s="69" t="s">
+      <c r="V5" s="70" t="s">
         <v>1484</v>
       </c>
-      <c r="W5" s="69" t="s">
+      <c r="W5" s="70" t="s">
         <v>1485</v>
       </c>
-      <c r="X5" s="67" t="s">
+      <c r="X5" s="68" t="s">
         <v>1486</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Y5" s="60" t="s">
         <v>1487</v>
       </c>
-      <c r="Z5" s="58" t="s">
+      <c r="Z5" s="59" t="s">
         <v>1488</v>
       </c>
-      <c r="AA5" s="59" t="s">
+      <c r="AA5" s="60" t="s">
         <v>1489</v>
       </c>
-      <c r="AB5" s="59" t="s">
+      <c r="AB5" s="60" t="s">
         <v>1490</v>
       </c>
-      <c r="AC5" s="69" t="s">
+      <c r="AC5" s="70" t="s">
         <v>1491</v>
       </c>
-      <c r="AD5" s="73" t="s">
+      <c r="AD5" s="74" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="68" t="s">
         <v>1493</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="75" t="s">
         <v>1494</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="76" t="s">
         <v>1495</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="72" t="s">
         <v>1496</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="72" t="s">
         <v>1497</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="77" t="s">
         <v>1498</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="72" t="s">
         <v>1499</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="78" t="s">
         <v>1500</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="79" t="s">
         <v>1501</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="68" t="s">
         <v>1502</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="P6" s="59" t="s">
         <v>1503</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q6" s="70" t="s">
         <v>1504</v>
       </c>
-      <c r="R6" s="69" t="s">
+      <c r="R6" s="70" t="s">
         <v>1505</v>
       </c>
-      <c r="S6" s="67" t="s">
+      <c r="S6" s="68" t="s">
         <v>1506</v>
       </c>
-      <c r="T6" s="76" t="s">
+      <c r="T6" s="77" t="s">
         <v>1507</v>
       </c>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="72" t="s">
         <v>1508</v>
       </c>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="80" t="s">
         <v>1509</v>
       </c>
-      <c r="W6" s="63" t="s">
+      <c r="W6" s="64" t="s">
         <v>1510</v>
       </c>
-      <c r="X6" s="80" t="s">
+      <c r="X6" s="81" t="s">
         <v>1511</v>
       </c>
-      <c r="Y6" s="69" t="s">
+      <c r="Y6" s="70" t="s">
         <v>1512</v>
       </c>
-      <c r="Z6" s="67" t="s">
+      <c r="Z6" s="68" t="s">
         <v>1513</v>
       </c>
-      <c r="AA6" s="66" t="s">
+      <c r="AA6" s="67" t="s">
         <v>1514</v>
       </c>
-      <c r="AB6" s="58" t="s">
+      <c r="AB6" s="59" t="s">
         <v>1515</v>
       </c>
-      <c r="AC6" s="59" t="s">
+      <c r="AC6" s="60" t="s">
         <v>1516</v>
       </c>
-      <c r="AD6" s="81" t="s">
+      <c r="AD6" s="82" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="68" t="s">
         <v>1518</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="68" t="s">
         <v>1519</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="70" t="s">
         <v>1520</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="70" t="s">
         <v>1521</v>
       </c>
-      <c r="J7" s="82" t="s">
+      <c r="J7" s="83" t="s">
         <v>1522</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="69" t="s">
         <v>1523</v>
       </c>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="84" t="s">
         <v>1524</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="84" t="s">
         <v>1525</v>
       </c>
-      <c r="N7" s="84" t="s">
+      <c r="N7" s="85" t="s">
         <v>1526</v>
       </c>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="77" t="s">
         <v>1527</v>
       </c>
-      <c r="P7" s="71" t="s">
+      <c r="P7" s="72" t="s">
         <v>1528</v>
       </c>
-      <c r="Q7" s="68" t="s">
+      <c r="Q7" s="69" t="s">
         <v>1529</v>
       </c>
-      <c r="R7" s="71" t="s">
+      <c r="R7" s="72" t="s">
         <v>1530</v>
       </c>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="86" t="s">
         <v>1531</v>
       </c>
-      <c r="T7" s="83" t="s">
+      <c r="T7" s="84" t="s">
         <v>1532</v>
       </c>
-      <c r="U7" s="83" t="s">
+      <c r="U7" s="84" t="s">
         <v>1533</v>
       </c>
-      <c r="V7" s="86" t="s">
+      <c r="V7" s="87" t="s">
         <v>1534</v>
       </c>
-      <c r="W7" s="69" t="s">
+      <c r="W7" s="70" t="s">
         <v>1535</v>
       </c>
-      <c r="X7" s="69" t="s">
+      <c r="X7" s="70" t="s">
         <v>1536</v>
       </c>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="70" t="s">
         <v>1537</v>
       </c>
-      <c r="Z7" s="67" t="s">
+      <c r="Z7" s="68" t="s">
         <v>1538</v>
       </c>
-      <c r="AA7" s="69" t="s">
+      <c r="AA7" s="70" t="s">
         <v>1539</v>
       </c>
-      <c r="AB7" s="67" t="s">
+      <c r="AB7" s="68" t="s">
         <v>1540</v>
       </c>
-      <c r="AC7" s="59" t="s">
+      <c r="AC7" s="60" t="s">
         <v>1541</v>
       </c>
-      <c r="AD7" s="66" t="s">
+      <c r="AD7" s="67" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="68" t="s">
         <v>1543</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="70" t="s">
         <v>1544</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="86" t="s">
         <v>1546</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J8" s="84" t="s">
         <v>1547</v>
       </c>
-      <c r="K8" s="87" t="s">
+      <c r="K8" s="88" t="s">
         <v>1548</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="79" t="s">
         <v>1549</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="88" t="s">
         <v>1550</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="85" t="s">
         <v>1551</v>
       </c>
-      <c r="O8" s="88" t="s">
+      <c r="O8" s="89" t="s">
         <v>1552</v>
       </c>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="84" t="s">
         <v>1553</v>
       </c>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="84" t="s">
         <v>1554</v>
       </c>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="84" t="s">
         <v>1555</v>
       </c>
-      <c r="S8" s="83" t="s">
+      <c r="S8" s="84" t="s">
         <v>1556</v>
       </c>
-      <c r="T8" s="83" t="s">
+      <c r="T8" s="84" t="s">
         <v>1557</v>
       </c>
-      <c r="U8" s="89" t="s">
+      <c r="U8" s="90" t="s">
         <v>1558</v>
       </c>
-      <c r="V8" s="69" t="s">
+      <c r="V8" s="70" t="s">
         <v>1559</v>
       </c>
-      <c r="W8" s="69" t="s">
+      <c r="W8" s="70" t="s">
         <v>1560</v>
       </c>
-      <c r="X8" s="70" t="s">
+      <c r="X8" s="71" t="s">
         <v>1561</v>
       </c>
-      <c r="Y8" s="83" t="s">
+      <c r="Y8" s="84" t="s">
         <v>1562</v>
       </c>
-      <c r="Z8" s="67" t="s">
+      <c r="Z8" s="68" t="s">
         <v>1563</v>
       </c>
-      <c r="AA8" s="70" t="s">
+      <c r="AA8" s="71" t="s">
         <v>1564</v>
       </c>
-      <c r="AB8" s="90" t="s">
+      <c r="AB8" s="91" t="s">
         <v>1565</v>
       </c>
-      <c r="AC8" s="75" t="s">
+      <c r="AC8" s="76" t="s">
         <v>1566</v>
       </c>
-      <c r="AD8" s="67" t="s">
+      <c r="AD8" s="68" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="60" t="s">
         <v>1568</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>1569</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="67" t="s">
         <v>1570</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="77" t="s">
         <v>1571</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="70" t="s">
         <v>1572</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="92" t="s">
         <v>1573</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="87" t="s">
         <v>1574</v>
       </c>
-      <c r="L9" s="84" t="s">
+      <c r="L9" s="85" t="s">
         <v>1575</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="61" t="s">
         <v>1576</v>
       </c>
-      <c r="N9" s="69" t="s">
+      <c r="N9" s="70" t="s">
         <v>1577</v>
       </c>
-      <c r="O9" s="69" t="s">
+      <c r="O9" s="70" t="s">
         <v>1578</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="67" t="s">
         <v>1579</v>
       </c>
-      <c r="Q9" s="92" t="s">
+      <c r="Q9" s="93" t="s">
         <v>1580</v>
       </c>
-      <c r="R9" s="84" t="s">
+      <c r="R9" s="85" t="s">
         <v>1581</v>
       </c>
-      <c r="S9" s="93" t="s">
+      <c r="S9" s="94" t="s">
         <v>1582</v>
       </c>
-      <c r="T9" s="87" t="s">
+      <c r="T9" s="88" t="s">
         <v>1583</v>
       </c>
-      <c r="U9" s="67" t="s">
+      <c r="U9" s="68" t="s">
         <v>1584</v>
       </c>
-      <c r="V9" s="81" t="s">
+      <c r="V9" s="82" t="s">
         <v>1585</v>
       </c>
-      <c r="W9" s="83" t="s">
+      <c r="W9" s="84" t="s">
         <v>1586</v>
       </c>
-      <c r="X9" s="58" t="s">
+      <c r="X9" s="59" t="s">
         <v>1587</v>
       </c>
-      <c r="Y9" s="59" t="s">
+      <c r="Y9" s="60" t="s">
         <v>1588</v>
       </c>
-      <c r="Z9" s="69" t="s">
+      <c r="Z9" s="70" t="s">
         <v>1589</v>
       </c>
-      <c r="AA9" s="74" t="s">
+      <c r="AA9" s="75" t="s">
         <v>1590</v>
       </c>
-      <c r="AB9" s="83" t="s">
+      <c r="AB9" s="84" t="s">
         <v>1591</v>
       </c>
-      <c r="AC9" s="87" t="s">
+      <c r="AC9" s="88" t="s">
         <v>1592</v>
       </c>
-      <c r="AD9" s="75" t="s">
+      <c r="AD9" s="76" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="95" t="s">
         <v>1594</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="68" t="s">
         <v>1595</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="96" t="s">
         <v>1596</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="72" t="s">
         <v>1597</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="72" t="s">
         <v>1598</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="72" t="s">
         <v>1599</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="72" t="s">
         <v>1600</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="70" t="s">
         <v>1601</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="70" t="s">
         <v>1602</v>
       </c>
-      <c r="O10" s="96" t="s">
+      <c r="O10" s="97" t="s">
         <v>1603</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="70" t="s">
         <v>1604</v>
       </c>
-      <c r="Q10" s="69" t="s">
+      <c r="Q10" s="70" t="s">
         <v>1605</v>
       </c>
-      <c r="R10" s="87" t="s">
+      <c r="R10" s="88" t="s">
         <v>1606</v>
       </c>
-      <c r="S10" s="83" t="s">
+      <c r="S10" s="84" t="s">
         <v>1607</v>
       </c>
-      <c r="T10" s="87" t="s">
+      <c r="T10" s="88" t="s">
         <v>1608</v>
       </c>
-      <c r="U10" s="67" t="s">
+      <c r="U10" s="68" t="s">
         <v>1609</v>
       </c>
-      <c r="V10" s="90" t="s">
+      <c r="V10" s="91" t="s">
         <v>1610</v>
       </c>
-      <c r="W10" s="83" t="s">
+      <c r="W10" s="84" t="s">
         <v>1611</v>
       </c>
-      <c r="X10" s="67" t="s">
+      <c r="X10" s="68" t="s">
         <v>1612</v>
       </c>
-      <c r="Y10" s="77" t="s">
+      <c r="Y10" s="78" t="s">
         <v>1613</v>
       </c>
-      <c r="Z10" s="59" t="s">
+      <c r="Z10" s="60" t="s">
         <v>1614</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="82" t="s">
         <v>1615</v>
       </c>
-      <c r="AB10" s="83" t="s">
+      <c r="AB10" s="84" t="s">
         <v>1616</v>
       </c>
-      <c r="AC10" s="87" t="s">
+      <c r="AC10" s="88" t="s">
         <v>1617</v>
       </c>
-      <c r="AD10" s="97" t="s">
+      <c r="AD10" s="98" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="95" t="s">
         <v>1619</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="77" t="s">
         <v>1620</v>
       </c>
-      <c r="H11" s="98" t="s">
+      <c r="H11" s="99" t="s">
         <v>1621</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="60" t="s">
         <v>1622</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="76" t="s">
         <v>1623</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="59" t="s">
         <v>1624</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="67" t="s">
         <v>1625</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="60" t="s">
         <v>1626</v>
       </c>
-      <c r="N11" s="66" t="s">
+      <c r="N11" s="67" t="s">
         <v>1627</v>
       </c>
-      <c r="O11" s="84" t="s">
+      <c r="O11" s="85" t="s">
         <v>1628</v>
       </c>
-      <c r="P11" s="75" t="s">
+      <c r="P11" s="76" t="s">
         <v>1629</v>
       </c>
-      <c r="Q11" s="81" t="s">
+      <c r="Q11" s="82" t="s">
         <v>1630</v>
       </c>
-      <c r="R11" s="83" t="s">
+      <c r="R11" s="84" t="s">
         <v>1631</v>
       </c>
-      <c r="S11" s="62" t="s">
+      <c r="S11" s="63" t="s">
         <v>1632</v>
       </c>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="88" t="s">
         <v>1633</v>
       </c>
-      <c r="U11" s="67" t="s">
+      <c r="U11" s="68" t="s">
         <v>1634</v>
       </c>
-      <c r="V11" s="74" t="s">
+      <c r="V11" s="75" t="s">
         <v>1635</v>
       </c>
-      <c r="W11" s="60" t="s">
+      <c r="W11" s="61" t="s">
         <v>1636</v>
       </c>
-      <c r="X11" s="76" t="s">
+      <c r="X11" s="77" t="s">
         <v>1637</v>
       </c>
-      <c r="Y11" s="71" t="s">
+      <c r="Y11" s="72" t="s">
         <v>1638</v>
       </c>
-      <c r="Z11" s="85" t="s">
+      <c r="Z11" s="86" t="s">
         <v>1639</v>
       </c>
-      <c r="AA11" s="73" t="s">
+      <c r="AA11" s="74" t="s">
         <v>1640</v>
       </c>
-      <c r="AB11" s="83" t="s">
+      <c r="AB11" s="84" t="s">
         <v>1641</v>
       </c>
-      <c r="AC11" s="87" t="s">
+      <c r="AC11" s="88" t="s">
         <v>1642</v>
       </c>
-      <c r="AD11" s="99" t="s">
+      <c r="AD11" s="100" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="95" t="s">
         <v>1644</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="69" t="s">
         <v>1645</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="59" t="s">
         <v>1646</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="86" t="s">
         <v>1647</v>
       </c>
-      <c r="J12" s="95" t="s">
+      <c r="J12" s="96" t="s">
         <v>1596</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="74" t="s">
         <v>1648</v>
       </c>
-      <c r="L12" s="76" t="s">
+      <c r="L12" s="77" t="s">
         <v>1649</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="70" t="s">
         <v>1650</v>
       </c>
-      <c r="N12" s="76" t="s">
+      <c r="N12" s="77" t="s">
         <v>1651</v>
       </c>
-      <c r="O12" s="71" t="s">
+      <c r="O12" s="72" t="s">
         <v>1652</v>
       </c>
-      <c r="P12" s="81" t="s">
+      <c r="P12" s="82" t="s">
         <v>1653</v>
       </c>
-      <c r="Q12" s="69" t="s">
+      <c r="Q12" s="70" t="s">
         <v>1654</v>
       </c>
-      <c r="R12" s="66" t="s">
+      <c r="R12" s="67" t="s">
         <v>1655</v>
       </c>
-      <c r="S12" s="84" t="s">
+      <c r="S12" s="85" t="s">
         <v>1656</v>
       </c>
-      <c r="T12" s="75" t="s">
+      <c r="T12" s="76" t="s">
         <v>1657</v>
       </c>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="70" t="s">
         <v>1658</v>
       </c>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="82" t="s">
         <v>1659</v>
       </c>
-      <c r="W12" s="69" t="s">
+      <c r="W12" s="70" t="s">
         <v>1660</v>
       </c>
-      <c r="X12" s="69" t="s">
+      <c r="X12" s="70" t="s">
         <v>1661</v>
       </c>
-      <c r="Y12" s="69" t="s">
+      <c r="Y12" s="70" t="s">
         <v>1662</v>
       </c>
-      <c r="Z12" s="69" t="s">
+      <c r="Z12" s="70" t="s">
         <v>1663</v>
       </c>
-      <c r="AA12" s="67" t="s">
+      <c r="AA12" s="68" t="s">
         <v>1664</v>
       </c>
-      <c r="AB12" s="59" t="s">
+      <c r="AB12" s="60" t="s">
         <v>1665</v>
       </c>
-      <c r="AC12" s="66" t="s">
+      <c r="AC12" s="67" t="s">
         <v>1666</v>
       </c>
-      <c r="AD12" s="99" t="s">
+      <c r="AD12" s="100" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="75" t="s">
         <v>1668</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="87" t="s">
         <v>1669</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="77" t="s">
         <v>1670</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="99" t="s">
         <v>1671</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="99" t="s">
         <v>1672</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="72" t="s">
         <v>1673</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="61" t="s">
         <v>1674</v>
       </c>
-      <c r="M13" s="84" t="s">
+      <c r="M13" s="85" t="s">
         <v>1675</v>
       </c>
-      <c r="N13" s="84" t="s">
+      <c r="N13" s="85" t="s">
         <v>1676</v>
       </c>
-      <c r="O13" s="86" t="s">
+      <c r="O13" s="87" t="s">
         <v>1677</v>
       </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="72" t="s">
         <v>1678</v>
       </c>
-      <c r="Q13" s="98" t="s">
+      <c r="Q13" s="99" t="s">
         <v>1679</v>
       </c>
-      <c r="R13" s="71" t="s">
+      <c r="R13" s="72" t="s">
         <v>1680</v>
       </c>
-      <c r="S13" s="84" t="s">
+      <c r="S13" s="85" t="s">
         <v>1681</v>
       </c>
-      <c r="T13" s="84" t="s">
+      <c r="T13" s="85" t="s">
         <v>1682</v>
       </c>
-      <c r="U13" s="64" t="s">
+      <c r="U13" s="65" t="s">
         <v>1683</v>
       </c>
-      <c r="V13" s="71" t="s">
+      <c r="V13" s="72" t="s">
         <v>1684</v>
       </c>
-      <c r="W13" s="71" t="s">
+      <c r="W13" s="72" t="s">
         <v>1685</v>
       </c>
-      <c r="X13" s="63" t="s">
+      <c r="X13" s="64" t="s">
         <v>1686</v>
       </c>
-      <c r="Y13" s="60" t="s">
+      <c r="Y13" s="61" t="s">
         <v>1687</v>
       </c>
-      <c r="Z13" s="71" t="s">
+      <c r="Z13" s="72" t="s">
         <v>1688</v>
       </c>
-      <c r="AA13" s="98" t="s">
+      <c r="AA13" s="99" t="s">
         <v>1689</v>
       </c>
-      <c r="AB13" s="98" t="s">
+      <c r="AB13" s="99" t="s">
         <v>1690</v>
       </c>
-      <c r="AC13" s="71" t="s">
+      <c r="AC13" s="72" t="s">
         <v>1691</v>
       </c>
-      <c r="AD13" s="86" t="s">
+      <c r="AD13" s="87" t="s">
         <v>1692</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="100"/>
-      <c r="G15" s="101" t="s">
+      <c r="E15" s="101"/>
+      <c r="G15" s="102" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="100"/>
-      <c r="G16" s="102" t="s">
+      <c r="E16" s="101"/>
+      <c r="G16" s="103" t="s">
         <v>1694</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="100"/>
-      <c r="G17" s="103" t="s">
+      <c r="E17" s="101"/>
+      <c r="G17" s="104" t="s">
         <v>1695</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
     <row r="19" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="100"/>
+      <c r="E19" s="101"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -35427,7 +36756,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -35450,395 +36779,395 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6796875" defaultRowHeight="63.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="237" width="13.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="238" width="13.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="367" t="s">
-        <v>2635</v>
-      </c>
-      <c r="D4" s="367" t="s">
-        <v>2636</v>
-      </c>
-      <c r="E4" s="367" t="s">
-        <v>2637</v>
-      </c>
-      <c r="F4" s="367" t="s">
-        <v>2638</v>
-      </c>
-      <c r="G4" s="367" t="s">
-        <v>2639</v>
-      </c>
-      <c r="H4" s="367" t="s">
-        <v>2640</v>
-      </c>
-      <c r="I4" s="367" t="s">
-        <v>2641</v>
+      <c r="C4" s="368" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D4" s="368" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E4" s="368" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F4" s="368" t="s">
+        <v>2785</v>
+      </c>
+      <c r="G4" s="368" t="s">
+        <v>2786</v>
+      </c>
+      <c r="H4" s="368" t="s">
+        <v>2787</v>
+      </c>
+      <c r="I4" s="368" t="s">
+        <v>2788</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="367" t="s">
-        <v>2642</v>
-      </c>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="367" t="s">
-        <v>2643</v>
-      </c>
-      <c r="G5" s="368"/>
-      <c r="H5" s="368"/>
-      <c r="I5" s="367" t="s">
-        <v>2644</v>
+      <c r="C5" s="368" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="368" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="368" t="s">
+        <v>2791</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="367" t="s">
-        <v>2645</v>
-      </c>
-      <c r="D6" s="368"/>
-      <c r="E6" s="368"/>
-      <c r="F6" s="368"/>
-      <c r="G6" s="368"/>
-      <c r="H6" s="368"/>
-      <c r="I6" s="367" t="s">
-        <v>2646</v>
+      <c r="C6" s="368" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
+      <c r="G6" s="369"/>
+      <c r="H6" s="369"/>
+      <c r="I6" s="368" t="s">
+        <v>2793</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="367" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D7" s="367" t="s">
-        <v>2648</v>
-      </c>
-      <c r="E7" s="367" t="s">
-        <v>2649</v>
-      </c>
-      <c r="F7" s="367" t="s">
-        <v>2650</v>
-      </c>
-      <c r="G7" s="367" t="s">
-        <v>2651</v>
-      </c>
-      <c r="H7" s="367" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I7" s="367" t="s">
-        <v>2653</v>
-      </c>
-      <c r="K7" s="367" t="s">
-        <v>2654</v>
-      </c>
-      <c r="L7" s="367" t="s">
-        <v>2655</v>
+      <c r="C7" s="368" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D7" s="368" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E7" s="368" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F7" s="368" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G7" s="368" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H7" s="368" t="s">
+        <v>2799</v>
+      </c>
+      <c r="I7" s="368" t="s">
+        <v>2800</v>
+      </c>
+      <c r="K7" s="368" t="s">
+        <v>2801</v>
+      </c>
+      <c r="L7" s="368" t="s">
+        <v>2802</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="367" t="s">
-        <v>2656</v>
-      </c>
-      <c r="J8" s="367" t="s">
-        <v>2657</v>
-      </c>
-      <c r="K8" s="367" t="s">
-        <v>2658</v>
-      </c>
-      <c r="L8" s="367" t="s">
-        <v>2659</v>
+      <c r="F8" s="368" t="s">
+        <v>2803</v>
+      </c>
+      <c r="J8" s="368" t="s">
+        <v>2804</v>
+      </c>
+      <c r="K8" s="368" t="s">
+        <v>2805</v>
+      </c>
+      <c r="L8" s="368" t="s">
+        <v>2806</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F9" s="367" t="s">
-        <v>2660</v>
-      </c>
-      <c r="J9" s="367" t="s">
-        <v>2661</v>
+      <c r="F9" s="368" t="s">
+        <v>2807</v>
+      </c>
+      <c r="J9" s="368" t="s">
+        <v>2808</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="367" t="s">
-        <v>2662</v>
-      </c>
-      <c r="D10" s="367" t="s">
-        <v>2663</v>
-      </c>
-      <c r="E10" s="367" t="s">
-        <v>2664</v>
-      </c>
-      <c r="F10" s="367" t="s">
-        <v>2665</v>
-      </c>
-      <c r="G10" s="367" t="s">
-        <v>2666</v>
-      </c>
-      <c r="H10" s="367" t="s">
-        <v>2667</v>
-      </c>
-      <c r="I10" s="367" t="s">
-        <v>2668</v>
-      </c>
-      <c r="J10" s="367" t="s">
-        <v>2669</v>
-      </c>
-      <c r="K10" s="367" t="s">
-        <v>2670</v>
-      </c>
-      <c r="L10" s="367" t="s">
-        <v>2671</v>
-      </c>
-      <c r="M10" s="367" t="s">
-        <v>2672</v>
+      <c r="C10" s="368" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D10" s="368" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E10" s="368" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F10" s="368" t="s">
+        <v>2812</v>
+      </c>
+      <c r="G10" s="368" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H10" s="368" t="s">
+        <v>2814</v>
+      </c>
+      <c r="I10" s="368" t="s">
+        <v>2815</v>
+      </c>
+      <c r="J10" s="368" t="s">
+        <v>2816</v>
+      </c>
+      <c r="K10" s="368" t="s">
+        <v>2817</v>
+      </c>
+      <c r="L10" s="368" t="s">
+        <v>2818</v>
+      </c>
+      <c r="M10" s="368" t="s">
+        <v>2819</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
-      <c r="F11" s="367" t="s">
-        <v>2673</v>
-      </c>
-      <c r="L11" s="367" t="s">
-        <v>2674</v>
-      </c>
-      <c r="M11" s="367" t="s">
-        <v>2675</v>
+      <c r="D11" s="366"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="368" t="s">
+        <v>2820</v>
+      </c>
+      <c r="L11" s="368" t="s">
+        <v>2821</v>
+      </c>
+      <c r="M11" s="368" t="s">
+        <v>2822</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="367" t="s">
-        <v>2676</v>
-      </c>
-      <c r="C12" s="367" t="s">
-        <v>2677</v>
-      </c>
-      <c r="D12" s="367" t="s">
-        <v>2678</v>
-      </c>
-      <c r="E12" s="367" t="s">
-        <v>2679</v>
-      </c>
-      <c r="F12" s="367" t="s">
-        <v>2680</v>
+      <c r="B12" s="368" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C12" s="368" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D12" s="368" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E12" s="368" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F12" s="368" t="s">
+        <v>2827</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="367" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D13" s="367" t="s">
-        <v>2682</v>
+      <c r="B13" s="368" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D13" s="368" t="s">
+        <v>2829</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D14" s="367" t="s">
-        <v>2683</v>
+      <c r="D14" s="368" t="s">
+        <v>2830</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D15" s="367" t="s">
-        <v>2684</v>
-      </c>
-      <c r="J15" s="367" t="s">
-        <v>2685</v>
-      </c>
-      <c r="K15" s="367" t="s">
-        <v>2686</v>
-      </c>
-      <c r="L15" s="367" t="s">
-        <v>2687</v>
+      <c r="D15" s="368" t="s">
+        <v>2831</v>
+      </c>
+      <c r="J15" s="368" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K15" s="368" t="s">
+        <v>2833</v>
+      </c>
+      <c r="L15" s="368" t="s">
+        <v>2834</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="367" t="s">
-        <v>2688</v>
-      </c>
-      <c r="G16" s="367" t="s">
-        <v>2689</v>
-      </c>
-      <c r="H16" s="367" t="s">
-        <v>2690</v>
-      </c>
-      <c r="I16" s="367" t="s">
-        <v>2691</v>
-      </c>
-      <c r="J16" s="367" t="s">
-        <v>2692</v>
-      </c>
-      <c r="K16" s="367" t="s">
-        <v>2693</v>
-      </c>
-      <c r="L16" s="367" t="s">
-        <v>2694</v>
-      </c>
-      <c r="Q16" s="256" t="s">
-        <v>2695</v>
+      <c r="D16" s="368" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G16" s="368" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H16" s="368" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I16" s="368" t="s">
+        <v>2838</v>
+      </c>
+      <c r="J16" s="368" t="s">
+        <v>2839</v>
+      </c>
+      <c r="K16" s="368" t="s">
+        <v>2840</v>
+      </c>
+      <c r="L16" s="368" t="s">
+        <v>2841</v>
+      </c>
+      <c r="Q16" s="257" t="s">
+        <v>2842</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="366" t="s">
-        <v>2696</v>
-      </c>
-      <c r="C17" s="367" t="s">
-        <v>2697</v>
-      </c>
-      <c r="D17" s="367" t="s">
-        <v>2698</v>
-      </c>
-      <c r="E17" s="367" t="s">
-        <v>2699</v>
-      </c>
-      <c r="F17" s="367" t="s">
-        <v>2700</v>
-      </c>
-      <c r="G17" s="367" t="s">
-        <v>2701</v>
-      </c>
-      <c r="J17" s="367" t="s">
-        <v>2702</v>
-      </c>
-      <c r="K17" s="367" t="s">
-        <v>2703</v>
-      </c>
-      <c r="L17" s="367" t="s">
-        <v>2704</v>
-      </c>
-      <c r="Q17" s="256" t="s">
-        <v>2705</v>
+      <c r="B17" s="367" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C17" s="368" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D17" s="368" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E17" s="368" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F17" s="368" t="s">
+        <v>2847</v>
+      </c>
+      <c r="G17" s="368" t="s">
+        <v>2848</v>
+      </c>
+      <c r="J17" s="368" t="s">
+        <v>2849</v>
+      </c>
+      <c r="K17" s="368" t="s">
+        <v>2850</v>
+      </c>
+      <c r="L17" s="368" t="s">
+        <v>2851</v>
+      </c>
+      <c r="Q17" s="257" t="s">
+        <v>2852</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F18" s="367" t="s">
-        <v>2706</v>
+      <c r="F18" s="368" t="s">
+        <v>2853</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F19" s="367" t="s">
-        <v>2707</v>
+      <c r="F19" s="368" t="s">
+        <v>2854</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="367" t="s">
-        <v>2708</v>
-      </c>
-      <c r="F20" s="367" t="s">
-        <v>2709</v>
-      </c>
-      <c r="G20" s="367" t="s">
-        <v>2710</v>
-      </c>
-      <c r="H20" s="367" t="s">
-        <v>2711</v>
+      <c r="E20" s="368" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F20" s="368" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G20" s="368" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H20" s="368" t="s">
+        <v>2858</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="367" t="s">
-        <v>2712</v>
-      </c>
-      <c r="C21" s="367" t="s">
-        <v>2713</v>
-      </c>
-      <c r="D21" s="367" t="s">
-        <v>2714</v>
-      </c>
-      <c r="E21" s="367" t="s">
-        <v>2715</v>
-      </c>
-      <c r="F21" s="368"/>
-      <c r="G21" s="368"/>
-      <c r="H21" s="367" t="s">
-        <v>2716</v>
+      <c r="B21" s="368" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C21" s="368" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D21" s="368" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E21" s="368" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F21" s="369"/>
+      <c r="G21" s="369"/>
+      <c r="H21" s="368" t="s">
+        <v>2863</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="367" t="s">
-        <v>2717</v>
-      </c>
-      <c r="E22" s="367" t="s">
-        <v>2718</v>
-      </c>
-      <c r="F22" s="368"/>
-      <c r="G22" s="367" t="s">
-        <v>2719</v>
-      </c>
-      <c r="H22" s="367" t="s">
-        <v>2720</v>
+      <c r="B22" s="368" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E22" s="368" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F22" s="369"/>
+      <c r="G22" s="368" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H22" s="368" t="s">
+        <v>2867</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="367" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B23" s="367" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C23" s="367" t="s">
-        <v>2723</v>
-      </c>
-      <c r="E23" s="367" t="s">
-        <v>2724</v>
-      </c>
-      <c r="F23" s="368"/>
-      <c r="G23" s="368"/>
-      <c r="H23" s="367" t="s">
-        <v>2725</v>
+      <c r="A23" s="368" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B23" s="368" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C23" s="368" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E23" s="368" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F23" s="369"/>
+      <c r="G23" s="369"/>
+      <c r="H23" s="368" t="s">
+        <v>2872</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="367" t="s">
-        <v>2726</v>
-      </c>
-      <c r="C24" s="367" t="s">
-        <v>2727</v>
-      </c>
-      <c r="E24" s="367" t="s">
-        <v>2728</v>
-      </c>
-      <c r="F24" s="367" t="s">
-        <v>2729</v>
-      </c>
-      <c r="G24" s="367" t="s">
-        <v>2730</v>
-      </c>
-      <c r="H24" s="367" t="s">
-        <v>2731</v>
+      <c r="B24" s="368" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C24" s="368" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E24" s="368" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F24" s="368" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G24" s="368" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H24" s="368" t="s">
+        <v>2878</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="367" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C25" s="367" t="s">
-        <v>2733</v>
-      </c>
-      <c r="F25" s="367" t="s">
-        <v>2734</v>
+      <c r="B25" s="368" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C25" s="368" t="s">
+        <v>2880</v>
+      </c>
+      <c r="F25" s="368" t="s">
+        <v>2881</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="367" t="s">
-        <v>2735</v>
-      </c>
-      <c r="F26" s="367" t="s">
-        <v>2736</v>
-      </c>
-      <c r="G26" s="367" t="s">
-        <v>2737</v>
+      <c r="C26" s="368" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F26" s="368" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G26" s="368" t="s">
+        <v>2884</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F27" s="367" t="s">
-        <v>2738</v>
-      </c>
-      <c r="G27" s="367" t="s">
-        <v>2739</v>
+      <c r="F27" s="368" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G27" s="368" t="s">
+        <v>2886</v>
       </c>
     </row>
   </sheetData>
@@ -35859,17 +37188,17 @@
   </sheetPr>
   <dimension ref="I14:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="11.56"/>
   </cols>
   <sheetData>
     <row r="14" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="58" t="s">
         <v>1696</v>
       </c>
       <c r="J14" s="31" t="s">
@@ -35910,13 +37239,13 @@
   </sheetPr>
   <dimension ref="L3:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="13.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="13.44"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35925,30 +37254,30 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="105" t="s">
         <v>1700</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="105" t="s">
         <v>1701</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="105" t="s">
         <v>1702</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="106" t="s">
         <v>1703</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="105" t="s">
         <v>1704</v>
       </c>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="106" t="s">
         <v>1705</v>
       </c>
-      <c r="O5" s="104" t="s">
+      <c r="O5" s="105" t="s">
         <v>1706</v>
       </c>
-      <c r="P5" s="106" t="s">
+      <c r="P5" s="107" t="s">
         <v>1707</v>
       </c>
       <c r="Q5" s="34" t="s">
@@ -35956,11 +37285,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
     </row>
     <row r="7" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -35981,13 +37310,13 @@
   </sheetPr>
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="11.56"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35999,47 +37328,47 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>1709</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="109" t="s">
         <v>1710</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>1711</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="109" t="s">
         <v>1712</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>1713</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="109" t="s">
         <v>1714</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="109" t="s">
         <v>1715</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="109" t="s">
         <v>1716</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="109" t="s">
         <v>1717</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="109" t="s">
         <v>1718</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>1719</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>1720</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="109" t="s">
         <v>1721</v>
       </c>
     </row>
@@ -36066,13 +37395,13 @@
   </sheetPr>
   <dimension ref="E1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="12.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="12.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -36085,17 +37414,17 @@
       <c r="I3" s="31" t="s">
         <v>1723</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="55" t="s">
         <v>1724</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="58" t="s">
         <v>1725</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="31" t="s">
@@ -36107,7 +37436,7 @@
       <c r="L5" s="31" t="s">
         <v>1728</v>
       </c>
-      <c r="M5" s="57"/>
+      <c r="M5" s="58"/>
       <c r="N5" s="31" t="s">
         <v>1729</v>
       </c>
@@ -36128,7 +37457,7 @@
       <c r="H6" s="31" t="s">
         <v>1734</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="55" t="s">
         <v>1724</v>
       </c>
       <c r="J6" s="31" t="s">
@@ -36140,19 +37469,19 @@
       <c r="L6" s="31" t="s">
         <v>1737</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="110" t="s">
         <v>1738</v>
       </c>
-      <c r="N6" s="110" t="s">
+      <c r="N6" s="111" t="s">
         <v>1739</v>
       </c>
-      <c r="O6" s="110" t="s">
+      <c r="O6" s="111" t="s">
         <v>1740</v>
       </c>
-      <c r="P6" s="110" t="s">
+      <c r="P6" s="111" t="s">
         <v>1741</v>
       </c>
-      <c r="Q6" s="110" t="s">
+      <c r="Q6" s="111" t="s">
         <v>1742</v>
       </c>
       <c r="R6" s="50" t="s">
@@ -36169,7 +37498,7 @@
       <c r="L7" s="31" t="s">
         <v>1745</v>
       </c>
-      <c r="M7" s="57"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="31" t="s">
         <v>1746</v>
       </c>
@@ -36184,87 +37513,87 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="58" t="s">
         <v>1750</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="O8" s="57" t="s">
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="O8" s="58" t="s">
         <v>1751</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="55" t="s">
         <v>1752</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="55" t="s">
         <v>1752</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="55" t="s">
         <v>1752</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="58" t="s">
         <v>1750</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="58" t="s">
         <v>1753</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="58" t="s">
         <v>1754</v>
       </c>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="112" t="s">
         <v>1755</v>
       </c>
-      <c r="K10" s="111" t="s">
+      <c r="K10" s="112" t="s">
         <v>1756</v>
       </c>
-      <c r="L10" s="111" t="s">
+      <c r="L10" s="112" t="s">
         <v>1757</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="58" t="s">
         <v>1750</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="58" t="s">
         <v>1758</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="58" t="s">
         <v>1759</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="58" t="s">
         <v>1760</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="58" t="s">
         <v>1761</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="55" t="s">
         <v>1724</v>
       </c>
-      <c r="J11" s="111" t="s">
+      <c r="J11" s="112" t="s">
         <v>1762</v>
       </c>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="112" t="s">
         <v>1763</v>
       </c>
-      <c r="L11" s="111" t="s">
+      <c r="L11" s="112" t="s">
         <v>1764</v>
       </c>
-      <c r="M11" s="54" t="s">
+      <c r="M11" s="55" t="s">
         <v>1724</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="112" t="s">
         <v>1765</v>
       </c>
-      <c r="K12" s="111" t="s">
+      <c r="K12" s="112" t="s">
         <v>1766</v>
       </c>
-      <c r="L12" s="111" t="s">
+      <c r="L12" s="112" t="s">
         <v>1767</v>
       </c>
     </row>
@@ -36286,7 +37615,7 @@
   </sheetPr>
   <dimension ref="C3:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -36296,31 +37625,31 @@
       <c r="C3" s="31" t="s">
         <v>1296</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>1768</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="58" t="s">
         <v>1770</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>1771</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="58" t="s">
         <v>1772</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="58" t="s">
         <v>1773</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="58" t="s">
         <v>1774</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="58" t="s">
         <v>1775</v>
       </c>
-      <c r="L3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -36340,77 +37669,77 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="54" width="19.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="55" width="19.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>1776</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1777</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>1778</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>1779</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>1780</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>1781</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>1782</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>1783</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>1784</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>1785</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="58" t="s">
         <v>1786</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>1787</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>1788</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="58" t="s">
         <v>1789</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="58" t="s">
         <v>1790</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="58" t="s">
         <v>1791</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="58" t="s">
         <v>1792</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="58" t="s">
         <v>1793</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="58" t="s">
         <v>1794</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="58" t="s">
         <v>1795</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="58" t="s">
         <v>1796</v>
       </c>
     </row>

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5197" uniqueCount="2986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="3024">
   <si>
     <t xml:space="preserve">#12528
 South 12532
@@ -11181,6 +11181,11 @@
 South (Enter Fennimore) 7466</t>
   </si>
   <si>
+    <t xml:space="preserve">Merchant Tent #12877
+Leave 12879
+Alleyway to Market 12880</t>
+  </si>
+  <si>
     <t xml:space="preserve"># 7465
 North (Leave Fennimore) 7467
 South 7469</t>
@@ -11193,7 +11198,8 @@
   <si>
     <t xml:space="preserve">Market
 # 7483
-South 7485</t>
+South 7485
+Tent 12878</t>
   </si>
   <si>
     <t xml:space="preserve"># 7468
@@ -17296,50 +17302,242 @@
 North 12334</t>
   </si>
   <si>
-    <t xml:space="preserve">Merchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-South 
-East 
-West </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-North 
-East 
-West </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-East 
-West </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-North 
-South </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-South 
-East </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-South 
-West </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-North 
-East </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#
-North 
-South 
-West </t>
+    <t xml:space="preserve">Merchant
+Aurelia 12857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Gideon 12859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Balthazar 12860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Evangeline
+12861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12766
+South 12768
+East 12770
+West 12785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12769
+North 12820
+East 12773
+West 12771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12772
+East 12776
+West 12774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12775
+East 12779
+West 12777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12778
+North 12810
+East 12782
+West 12780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12781
+South 12787
+East 12784
+West 12783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12763
+North 12767
+South 12765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Quincy
+12863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant #12846
+Lucille
+12876
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Xander
+12862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12786
+North 12788
+South 12790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Thaddeus
+12864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12760
+North 12764
+South 12762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant #12849
+Greta
+12875
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12830
+South 12832
+East 12834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12833
+South 12836
+East 12853
+West 12835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirgus
+#12852
+West 12854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12789
+North 12791
+South 12793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Fergus
+12872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Cassandra
+12865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12757
+North 12761
+South 12759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Silas
+12874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12827
+North 12831
+East 12829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12824
+North 12837
+East 12826
+West 12828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#128221
+East 12823
+West 12825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12792
+North 12794
+South 12796
+West 12822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Sylvia
+12871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12754
+North 12758
+South 12756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Capsian
+12873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Irina
+12869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12795
+North 12797
+South 12799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12752
+North 12755
+East 12818
+West 12802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12814
+South 12819
+East 12816
+West 12817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12811
+East 12813
+West 12815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12806
+East 12808
+West 12812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12803
+South 12809
+East 12805
+West 12807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12798
+North 12800
+East 12801
+West 12804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Magnus
+12866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Elara
+12867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Mortimer
+12868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant
+Casper
+12870</t>
   </si>
   <si>
     <t xml:space="preserve">#11512
@@ -19503,7 +19701,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="447">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -21189,7 +21387,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="52" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -21217,15 +21415,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="52" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="52" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="52" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="52" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -21233,15 +21435,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="52" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="31" fillId="52" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -21249,13 +21451,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="52" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="72" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -21265,7 +21471,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="52" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="73" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -21413,7 +21619,7 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -32724,34 +32930,34 @@
   <sheetData>
     <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="80" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D4" s="80" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D5" s="135" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="80" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
   </sheetData>
@@ -32786,163 +32992,163 @@
         <v>1287</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="G2" s="136" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="K2" s="136" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F3" s="137" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="G3" s="137" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="H3" s="137" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="I3" s="137" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J3" s="137" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="K3" s="137" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="L3" s="136" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="N3" s="126" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="77" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E4" s="136" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F4" s="137" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="I4" s="137" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="K4" s="137" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="M4" s="137" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="N4" s="137" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="O4" s="137" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="P4" s="136" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F5" s="137" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="I5" s="137" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="K5" s="137" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="L5" s="137" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="M5" s="137" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="136" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="F6" s="137" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="I6" s="137" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G7" s="136" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="I7" s="137" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="J7" s="137" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="K7" s="137" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="L7" s="137" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="M7" s="137" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="N7" s="136" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="136" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="G8" s="137" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="H8" s="137" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="I8" s="137" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="L8" s="137" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G9" s="137" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="L9" s="137" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G10" s="126" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="K10" s="137" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="L10" s="137" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="M10" s="136" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K11" s="126" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
   </sheetData>
@@ -32974,143 +33180,143 @@
   <sheetData>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O2" s="138" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="P2" s="138" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="Q2" s="77" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T3" s="139"/>
       <c r="U3" s="139" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L4" s="138" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="O4" s="140" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="P4" s="140" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="Q4" s="140" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="R4" s="71" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="S4" s="71" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="T4" s="141"/>
       <c r="U4" s="139"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O5" s="140" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="P5" s="140" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="Q5" s="140" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="R5" s="71" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="S5" s="71" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="T5" s="71" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="U5" s="71" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O6" s="140" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="P6" s="140" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="S6" s="71" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="T6" s="71" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="U6" s="71" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M7" s="80" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="N7" s="142" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="80"/>
       <c r="O8" s="143" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="P8" s="143" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="Q8" s="143" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="R8" s="143" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="W8" s="80" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33147,161 +33353,161 @@
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I1" s="54" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="M1" s="54" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I2" s="54" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="P2" s="54" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="54" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="I3" s="54" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="M3" s="54" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="N3" s="54" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O3" s="54" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="P3" s="54" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="Q3" s="54" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="54" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="80" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K6" s="54" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K7" s="54" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="O7" s="54" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J8" s="54" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="L8" s="54" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O8" s="54" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K9" s="54" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
   </sheetData>
@@ -33333,104 +33539,104 @@
   <sheetData>
     <row r="3" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="144" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F3" s="144" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G3" s="144" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="H3" s="144" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="I3" s="144" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="144" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="G4" s="145" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="H4" s="146" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="I4" s="144" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E5" s="144" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="G5" s="147" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="H5" s="145" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="I5" s="144" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="L5" s="148" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="144" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="F6" s="144" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="G6" s="149" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="H6" s="145" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="I6" s="144" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="L6" s="150" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="151" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="G7" s="152" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="H7" s="145" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="I7" s="144" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="J7" s="144" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="L7" s="153" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="144" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="E8" s="144" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F8" s="144" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="G8" s="144" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
   </sheetData>
@@ -33462,56 +33668,56 @@
   <sheetData>
     <row r="2" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G2" s="80" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G3" s="80" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="154" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="G4" s="154" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="H4" s="154" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F5" s="154" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="G5" s="154" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="H5" s="154" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F6" s="154" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="G6" s="154" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="H6" s="154" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G7" s="80" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
   </sheetData>
@@ -33543,16 +33749,16 @@
   <sheetData>
     <row r="5" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="R5" s="155" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L6" s="80" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="Q6" s="156"/>
       <c r="R6" s="80" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="S6" s="156"/>
     </row>
@@ -33560,127 +33766,127 @@
       <c r="P7" s="156"/>
       <c r="Q7" s="156"/>
       <c r="R7" s="80" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="S7" s="156"/>
       <c r="T7" s="156"/>
     </row>
     <row r="8" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N8" s="80" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O8" s="157" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="P8" s="80" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="Q8" s="80" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="R8" s="80" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="S8" s="80" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="T8" s="80" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="U8" s="158" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="V8" s="80" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O9" s="159" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="Q9" s="160"/>
       <c r="R9" s="160"/>
       <c r="S9" s="160"/>
       <c r="T9" s="80" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="U9" s="161" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N10" s="80"/>
       <c r="O10" s="162"/>
       <c r="P10" s="80" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="Q10" s="160"/>
       <c r="R10" s="160" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="S10" s="160"/>
       <c r="T10" s="80" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="U10" s="163"/>
       <c r="V10" s="80"/>
     </row>
     <row r="11" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O11" s="157" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="P11" s="80" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="Q11" s="160"/>
       <c r="R11" s="160"/>
       <c r="S11" s="160"/>
       <c r="T11" s="80" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="U11" s="158" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N12" s="80" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="O12" s="159" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="P12" s="164" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="Q12" s="80" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="R12" s="80" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="S12" s="80" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="T12" s="164" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="U12" s="161" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="V12" s="80" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Q13" s="159" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="R13" s="165"/>
       <c r="S13" s="166" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33715,79 +33921,79 @@
   <sheetData>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J3" s="167" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="K3" s="168" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="L3" s="169" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="M3" s="168" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="N3" s="170" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J4" s="171" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="K4" s="172"/>
       <c r="L4" s="173" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="M4" s="172"/>
       <c r="N4" s="173" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="174" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="K5" s="175" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="M5" s="175" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="N5" s="176" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J6" s="171" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="K6" s="177"/>
       <c r="L6" s="178" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="M6" s="135"/>
       <c r="N6" s="173" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J7" s="179" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="K7" s="180" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="L7" s="169" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="M7" s="180" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="N7" s="181" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
   </sheetData>
@@ -33819,181 +34025,181 @@
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D1" s="77" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="F1" s="182" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="G1" s="183" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="H1" s="184" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="I1" s="77" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="L1" s="80"/>
       <c r="N1" s="77" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="77" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C2" s="185" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D2" s="186" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="E2" s="185" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="F2" s="187" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="H2" s="188" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="I2" s="189" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="J2" s="190" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="K2" s="191" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="L2" s="80" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="N2" s="192" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="O2" s="193" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="P2" s="194" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="Q2" s="193" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="195" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="E3" s="196" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="F3" s="197" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="H3" s="198" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I3" s="80" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="J3" s="199" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="K3" s="200" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N3" s="201" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="O3" s="193" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="P3" s="202" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="Q3" s="203" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="188" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="D4" s="204" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="F4" s="197" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="H4" s="188" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="J4" s="205" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="K4" s="197" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="N4" s="206" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="O4" s="207" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="P4" s="196" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="Q4" s="193" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="195" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="D5" s="208" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="E5" s="195" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="F5" s="204" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="H5" s="199" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="I5" s="209" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="J5" s="210" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="K5" s="211" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N5" s="195" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="O5" s="210" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="P5" s="204" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="Q5" s="199" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
   </sheetData>
@@ -34025,13 +34231,13 @@
   <sheetData>
     <row r="3" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="80" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="I3" s="80" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
   </sheetData>
@@ -34112,39 +34318,39 @@
   <sheetData>
     <row r="3" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="80" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="H3" s="80" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="I3" s="80" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="K3" s="80" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="L3" s="80" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F5" s="80" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
   </sheetData>
@@ -34175,7 +34381,7 @@
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
       <c r="F4" s="80" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
@@ -34183,49 +34389,49 @@
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D5" s="79"/>
       <c r="E5" s="154" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="F5" s="154" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="G5" s="154" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="H5" s="79"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D6" s="79"/>
       <c r="E6" s="154" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="154" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="H6" s="79"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="79"/>
       <c r="E7" s="154" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="G7" s="154" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="H7" s="154" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="79"/>
       <c r="E8" s="154" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="F8" s="154" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="G8" s="79"/>
       <c r="H8" s="79"/>
@@ -34257,71 +34463,71 @@
   <sheetData>
     <row r="2" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E2" s="173" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
       <c r="H2" s="157" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="I2" s="212" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="J2" s="77"/>
     </row>
     <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="171" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="F3" s="178" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="G3" s="178" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="H3" s="213" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="I3" s="158" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="J3" s="77"/>
     </row>
     <row r="4" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="171" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="F4" s="212" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="G4" s="214" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="H4" s="161" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="I4" s="159" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="J4" s="212" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="K4" s="213" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D5" s="214" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="E5" s="164" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="F5" s="213" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="G5" s="158" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="H5" s="169"/>
       <c r="I5" s="77"/>
@@ -34330,7 +34536,7 @@
     <row r="6" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="77"/>
       <c r="F6" s="159" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="G6" s="215"/>
       <c r="H6" s="77"/>
@@ -34366,191 +34572,191 @@
     <row r="4" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L4" s="161"/>
       <c r="M4" s="54" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="N4" s="159"/>
       <c r="W4" s="216" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="X4" s="169" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="Y4" s="217" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L5" s="54" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="N5" s="54" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="W5" s="218" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="X5" s="164" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="Y5" s="217" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L6" s="54" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="N6" s="219" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="W6" s="220" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M7" s="220" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="R7" s="221" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="S7" s="169" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="T7" s="222" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="R8" s="164" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="S8" s="213" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="T8" s="164" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="R9" s="223" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="S9" s="164" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="T9" s="224" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N10" s="225" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="W10" s="225" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M11" s="214" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="N11" s="226" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="V11" s="227" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="W11" s="178" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="X11" s="228" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="Y11" s="158" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
       <c r="M12" s="216" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="N12" s="161" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="V12" s="173" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="W12" s="157" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="X12" s="229" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="Y12" s="173" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I13" s="230" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="J13" s="155" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="V13" s="173" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="W13" s="231" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="X13" s="232" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="Y13" s="173" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I14" s="233" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="J14" s="234" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="V14" s="173" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="W14" s="235" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="X14" s="236" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="Y14" s="173" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V15" s="159" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="W15" s="178" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="X15" s="178" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="Y15" s="161" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="86.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34559,7 +34765,7 @@
       <c r="X16" s="79"/>
       <c r="Y16" s="79"/>
       <c r="Z16" s="140" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="AA16" s="79"/>
       <c r="AB16" s="79"/>
@@ -34567,70 +34773,70 @@
     <row r="17" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V17" s="79"/>
       <c r="W17" s="237" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="X17" s="79"/>
       <c r="Y17" s="238" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="Z17" s="239" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="AA17" s="240" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="AB17" s="79"/>
     </row>
     <row r="18" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V18" s="241" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="W18" s="242" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="X18" s="79"/>
       <c r="Y18" s="243" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="Z18" s="79"/>
       <c r="AA18" s="244" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="AB18" s="140" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V19" s="79"/>
       <c r="W19" s="245" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="X19" s="239" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="Y19" s="246" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="Z19" s="239" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="AA19" s="247" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="AB19" s="79"/>
     </row>
     <row r="20" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V20" s="79"/>
       <c r="W20" s="248" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="X20" s="79"/>
       <c r="Y20" s="248" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="248" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="AB20" s="79"/>
     </row>
@@ -34664,16 +34870,16 @@
   <sheetData>
     <row r="4" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O4" s="80" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q4" s="80" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="S4" s="80" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="U4" s="80" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34687,63 +34893,63 @@
       <c r="M6" s="249"/>
       <c r="N6" s="249"/>
       <c r="O6" s="250" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="P6" s="249"/>
       <c r="Q6" s="249"/>
     </row>
     <row r="7" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M7" s="251" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="N7" s="252" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="O7" s="253" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P7" s="254" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="Q7" s="249"/>
     </row>
     <row r="8" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M8" s="255" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="N8" s="253" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="O8" s="253" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P8" s="253" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="Q8" s="254" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M9" s="249"/>
       <c r="N9" s="255" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="O9" s="253" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="P9" s="256" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="Q9" s="257" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M10" s="249"/>
       <c r="N10" s="249"/>
       <c r="O10" s="258" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="P10" s="249"/>
       <c r="Q10" s="249"/>
@@ -34797,294 +35003,294 @@
     <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="260"/>
       <c r="B2" s="261" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="C2" s="262" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="D2" s="263" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="E2" s="263" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F2" s="263" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G2" s="263" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="H2" s="263" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="I2" s="264" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="J2" s="263" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="K2" s="264" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="L2" s="263" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="M2" s="263" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="N2" s="263" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="O2" s="263" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="P2" s="264" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="Q2" s="260"/>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="260"/>
       <c r="B3" s="265" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="C3" s="266" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="D3" s="266" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="E3" s="261" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="F3" s="263" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G3" s="263" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="H3" s="263" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="I3" s="267" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="J3" s="266" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="K3" s="268" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="L3" s="269" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="M3" s="266" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="N3" s="261" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="O3" s="264" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="P3" s="267" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="Q3" s="260"/>
     </row>
     <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="260"/>
       <c r="B4" s="265" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="C4" s="261" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="D4" s="262" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="E4" s="266" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="F4" s="261" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="G4" s="270" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="H4" s="270" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="I4" s="270" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="J4" s="269" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="K4" s="266" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="L4" s="266" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="M4" s="266" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="N4" s="265" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="O4" s="264" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="P4" s="267" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q4" s="260"/>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="260"/>
       <c r="B5" s="265" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C5" s="265" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="D5" s="266" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="E5" s="268" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="F5" s="269" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="G5" s="271" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="H5" s="266" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="I5" s="272" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="J5" s="272" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="K5" s="272" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="L5" s="261" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="M5" s="263" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="N5" s="264" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O5" s="272" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="P5" s="269" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="Q5" s="260"/>
     </row>
     <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="260"/>
       <c r="B6" s="265" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="C6" s="273" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="D6" s="266" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="E6" s="266" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="F6" s="266" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="G6" s="271" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="H6" s="266" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="I6" s="266" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="J6" s="266" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="K6" s="274" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L6" s="269" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="M6" s="275" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="N6" s="272" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="O6" s="272" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="P6" s="267" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="Q6" s="260"/>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="260"/>
       <c r="B7" s="268" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C7" s="272" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="D7" s="272" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="E7" s="276" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F7" s="272" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="G7" s="272" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="H7" s="270" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="I7" s="277" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="J7" s="272" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K7" s="272" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="L7" s="272" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="M7" s="272" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="N7" s="272" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="O7" s="272" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="P7" s="269" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="Q7" s="260"/>
     </row>
@@ -35109,7 +35315,7 @@
     </row>
     <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H9" s="278" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
   </sheetData>
@@ -35165,7 +35371,7 @@
       <c r="O4" s="285"/>
       <c r="P4" s="285"/>
       <c r="Q4" s="286" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="R4" s="285"/>
       <c r="S4" s="285"/>
@@ -35178,13 +35384,13 @@
       <c r="N5" s="285"/>
       <c r="O5" s="285"/>
       <c r="P5" s="286" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="Q5" s="286" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="R5" s="286" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="S5" s="285"/>
       <c r="T5" s="285"/>
@@ -35195,25 +35401,25 @@
       <c r="I6" s="284"/>
       <c r="M6" s="285"/>
       <c r="N6" s="288" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="O6" s="286" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="P6" s="286" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="Q6" s="286" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="R6" s="286" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="S6" s="286" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="T6" s="288" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="U6" s="285"/>
       <c r="V6" s="285"/>
@@ -35224,37 +35430,37 @@
       <c r="I7" s="284"/>
       <c r="L7" s="285"/>
       <c r="M7" s="289" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="N7" s="290" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="O7" s="288" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="P7" s="286" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="Q7" s="286" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="R7" s="286" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="S7" s="288" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="T7" s="291" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="U7" s="292" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="V7" s="293" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="W7" s="294" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="X7" s="285"/>
       <c r="AA7" s="287"/>
@@ -35263,43 +35469,43 @@
       <c r="I8" s="284"/>
       <c r="K8" s="285"/>
       <c r="L8" s="289" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="M8" s="289" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="N8" s="295" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="O8" s="290" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="P8" s="288" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="Q8" s="286" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="R8" s="288" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="S8" s="296" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="T8" s="297" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="U8" s="298" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="V8" s="299" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="W8" s="300" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="X8" s="301" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="Y8" s="285"/>
       <c r="AA8" s="287"/>
@@ -35308,49 +35514,49 @@
       <c r="I9" s="284"/>
       <c r="J9" s="285"/>
       <c r="K9" s="302" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="L9" s="289" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="M9" s="303" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="N9" s="304" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="O9" s="305" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="P9" s="290" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="Q9" s="306" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="R9" s="307" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="S9" s="293" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="T9" s="292" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="U9" s="308" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="V9" s="309" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="W9" s="310" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="X9" s="311" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="Y9" s="312" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="Z9" s="285"/>
       <c r="AA9" s="287"/>
@@ -35360,49 +35566,49 @@
       <c r="I10" s="284"/>
       <c r="J10" s="285"/>
       <c r="K10" s="290" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="L10" s="302" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="M10" s="313" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="N10" s="314" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="O10" s="315" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="P10" s="289" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="Q10" s="289" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="R10" s="316" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="S10" s="303" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="T10" s="317" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="U10" s="318" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="V10" s="301" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="W10" s="292" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="X10" s="319" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="Y10" s="320" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="Z10" s="285"/>
       <c r="AA10" s="287"/>
@@ -35411,49 +35617,49 @@
       <c r="I11" s="284"/>
       <c r="J11" s="285"/>
       <c r="K11" s="321" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="L11" s="322" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="M11" s="323" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="N11" s="324" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="O11" s="321" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="P11" s="325" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="Q11" s="302" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="R11" s="289" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="S11" s="326" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="T11" s="317" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="U11" s="321" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="V11" s="327" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="W11" s="328" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="X11" s="329" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="Y11" s="330" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="Z11" s="285"/>
       <c r="AA11" s="287"/>
@@ -35462,52 +35668,52 @@
       <c r="I12" s="284"/>
       <c r="J12" s="285"/>
       <c r="K12" s="302" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="L12" s="331" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="M12" s="302" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="N12" s="289" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="O12" s="332" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="P12" s="313" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="Q12" s="333" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="R12" s="313" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="S12" s="317" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="T12" s="316" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="U12" s="334" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="V12" s="335" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="W12" s="292" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="X12" s="336" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="Y12" s="337" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="Z12" s="317" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="AA12" s="338"/>
     </row>
@@ -35515,52 +35721,52 @@
       <c r="I13" s="284"/>
       <c r="J13" s="285"/>
       <c r="K13" s="339" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="L13" s="317" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="M13" s="340" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="N13" s="341" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="O13" s="342" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="P13" s="316" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="Q13" s="343" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="R13" s="343" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="S13" s="343" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="T13" s="324" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="U13" s="321" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="V13" s="313" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="W13" s="344" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="X13" s="345" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="Y13" s="319" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="Z13" s="337" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="AA13" s="338"/>
     </row>
@@ -35568,49 +35774,49 @@
       <c r="I14" s="284"/>
       <c r="K14" s="285"/>
       <c r="L14" s="312" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="M14" s="346" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="N14" s="347" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="O14" s="348" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="P14" s="328" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="Q14" s="321" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="R14" s="349" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="S14" s="350" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="T14" s="351" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="U14" s="321" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="V14" s="343" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="W14" s="352" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="X14" s="353" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="Y14" s="354" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="Z14" s="355" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="AA14" s="338"/>
     </row>
@@ -35618,49 +35824,49 @@
       <c r="I15" s="284"/>
       <c r="K15" s="285"/>
       <c r="L15" s="356" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="M15" s="357" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="N15" s="343" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="O15" s="305" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="P15" s="313" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="Q15" s="343" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="R15" s="358" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="S15" s="359" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="T15" s="360" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="U15" s="361" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="V15" s="362" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="W15" s="363" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="X15" s="364" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="Y15" s="365" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="Z15" s="355" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="AA15" s="338"/>
     </row>
@@ -35668,46 +35874,46 @@
       <c r="I16" s="284"/>
       <c r="K16" s="285"/>
       <c r="L16" s="366" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="M16" s="321" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="N16" s="367" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="O16" s="351" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="P16" s="321" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="Q16" s="335" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="R16" s="293" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="S16" s="368" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="T16" s="348" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="U16" s="369" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="V16" s="370" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="W16" s="371" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="X16" s="372" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="Y16" s="354" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="Z16" s="285"/>
       <c r="AA16" s="287"/>
@@ -35716,43 +35922,43 @@
       <c r="I17" s="284"/>
       <c r="L17" s="285"/>
       <c r="M17" s="340" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="N17" s="317" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="O17" s="373" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="P17" s="332" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="Q17" s="358" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="R17" s="334" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="S17" s="374" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="T17" s="375" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="U17" s="371" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="V17" s="376" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="W17" s="377" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="X17" s="378" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="Y17" s="379" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="Z17" s="285"/>
       <c r="AA17" s="287"/>
@@ -35808,23 +36014,23 @@
     </row>
     <row r="4" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H4" s="259" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="I4" s="384" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="J4" s="259"/>
       <c r="K4" s="385" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="L4" s="385" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="M4" s="385" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="N4" s="385" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="O4" s="259"/>
       <c r="P4" s="259"/>
@@ -35832,35 +36038,35 @@
     <row r="5" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H5" s="259"/>
       <c r="I5" s="385" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="J5" s="259"/>
       <c r="K5" s="385" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="L5" s="259"/>
       <c r="M5" s="259"/>
       <c r="N5" s="385" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="O5" s="278" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="P5" s="259"/>
     </row>
     <row r="6" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H6" s="259"/>
       <c r="I6" s="385" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="J6" s="385" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="K6" s="385" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="L6" s="385" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="M6" s="259"/>
       <c r="N6" s="259"/>
@@ -35871,13 +36077,13 @@
       <c r="H7" s="259"/>
       <c r="I7" s="259"/>
       <c r="J7" s="385" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="K7" s="385" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="L7" s="385" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="M7" s="259"/>
       <c r="N7" s="259"/>
@@ -35887,22 +36093,22 @@
     <row r="8" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H8" s="259"/>
       <c r="I8" s="385" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="J8" s="385" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="K8" s="385" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="L8" s="385" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="M8" s="385" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="N8" s="385" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="O8" s="386"/>
       <c r="P8" s="259"/>
@@ -35910,12 +36116,12 @@
     <row r="9" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H9" s="259"/>
       <c r="I9" s="385" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="J9" s="259"/>
       <c r="K9" s="259"/>
       <c r="L9" s="385" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="M9" s="259"/>
       <c r="N9" s="259"/>
@@ -35925,20 +36131,20 @@
     <row r="10" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H10" s="259"/>
       <c r="I10" s="385" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="J10" s="385" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="K10" s="259"/>
       <c r="L10" s="385" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="M10" s="385" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="N10" s="385" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="O10" s="259"/>
       <c r="P10" s="259"/>
@@ -35947,13 +36153,13 @@
       <c r="H11" s="259"/>
       <c r="I11" s="259"/>
       <c r="J11" s="259" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="K11" s="259"/>
       <c r="L11" s="259"/>
       <c r="M11" s="259"/>
       <c r="N11" s="385" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="O11" s="259"/>
       <c r="P11" s="259"/>
@@ -35966,10 +36172,10 @@
       <c r="L12" s="259"/>
       <c r="M12" s="259"/>
       <c r="N12" s="278" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="O12" s="278" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="P12" s="259"/>
     </row>
@@ -36002,270 +36208,270 @@
   <sheetData>
     <row r="1" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G1" s="372" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G2" s="388" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="H2" s="388" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="I2" s="388" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G3" s="388" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="388" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="F4" s="388" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="G4" s="388" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="H4" s="388" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="I4" s="388" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E5" s="388" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="F5" s="389"/>
       <c r="G5" s="388" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="H5" s="389"/>
       <c r="I5" s="388" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="388" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="F6" s="388" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="G6" s="390" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="H6" s="388" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="I6" s="388" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="388" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="F7" s="389"/>
       <c r="G7" s="388" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="H7" s="389"/>
       <c r="I7" s="388" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="388" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="F8" s="388" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="G8" s="388" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="H8" s="388" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="I8" s="388" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G9" s="388" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="388" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="G10" s="388" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E11" s="388" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="F11" s="388" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="G11" s="388" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="388" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="G12" s="388" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="388" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="D13" s="388" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="E13" s="388" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="F13" s="388" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="G13" s="388" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="H13" s="388" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="I13" s="388" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="J13" s="388" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G14" s="388" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="388" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="F15" s="388" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="G15" s="388" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="H15" s="388" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="388" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="B16" s="388" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="C16" s="388" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="D16" s="388" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="E16" s="388" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="F16" s="388" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="G16" s="389"/>
       <c r="H16" s="390" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="I16" s="388" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="J16" s="388" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="K16" s="388" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F17" s="388" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="G17" s="388" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="H17" s="388" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G18" s="388" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D19" s="391" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="E19" s="391" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="F19" s="391" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="G19" s="391" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="H19" s="391" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="I19" s="391" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="J19" s="391" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D20" s="391" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="E20" s="392"/>
       <c r="F20" s="393" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="G20" s="394" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="H20" s="395" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="I20" s="396" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="J20" s="391" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="L20" s="260"/>
       <c r="M20" s="260"/>
@@ -36273,25 +36479,25 @@
     </row>
     <row r="21" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="391" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E21" s="393" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="F21" s="397" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="G21" s="397" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="H21" s="388" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="I21" s="398" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="J21" s="391" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="L21" s="260"/>
       <c r="M21" s="260"/>
@@ -36299,25 +36505,25 @@
     </row>
     <row r="22" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D22" s="391" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="E22" s="399" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="F22" s="400" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="G22" s="388" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="H22" s="388" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="I22" s="398" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="J22" s="391" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="L22" s="260"/>
       <c r="M22" s="260"/>
@@ -36325,23 +36531,23 @@
     </row>
     <row r="23" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D23" s="391" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="E23" s="392"/>
       <c r="F23" s="401" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="G23" s="402" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="H23" s="396" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="I23" s="398" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="J23" s="391" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="L23" s="260"/>
       <c r="M23" s="260"/>
@@ -36349,25 +36555,25 @@
     </row>
     <row r="24" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D24" s="391" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="E24" s="401" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="F24" s="395" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="G24" s="400" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="H24" s="399" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="I24" s="403" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="J24" s="391" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="L24" s="260"/>
       <c r="M24" s="260"/>
@@ -36375,25 +36581,25 @@
     </row>
     <row r="25" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D25" s="391" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="E25" s="391" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="F25" s="391" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="G25" s="391" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="H25" s="391" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="I25" s="391" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="J25" s="391" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="L25" s="260"/>
       <c r="M25" s="260"/>
@@ -36428,497 +36634,497 @@
   <sheetData>
     <row r="3" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O3" s="404" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="P3" s="404" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="Q3" s="404" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="R3" s="404" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N4" s="404" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="O4" s="404" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="R4" s="404" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="Z4" s="405" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="AA4" s="406" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H5" s="404" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="I5" s="404" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="J5" s="404" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="K5" s="404" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="L5" s="404" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="M5" s="404" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="N5" s="404" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="O5" s="404" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="R5" s="404" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="Z5" s="407" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="AA5" s="406" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="408" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="D6" s="408" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E6" s="408" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="J6" s="404" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="Q6" s="405" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="R6" s="409" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="S6" s="408" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="AA6" s="404" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="410" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="D7" s="411" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="E7" s="412" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="J7" s="404" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="Q7" s="407" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="R7" s="407" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="S7" s="413" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="AA7" s="404" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="414" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="D8" s="415" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="E8" s="414" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="J8" s="404" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="X8" s="404" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="Y8" s="404" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="AA8" s="404" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D9" s="414" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="E9" s="404" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="F9" s="404" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="J9" s="404" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="U9" s="404" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="V9" s="404" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="W9" s="404" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="X9" s="404" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="Y9" s="404" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="Z9" s="404" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="AA9" s="404" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F10" s="404" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="G10" s="404" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="J10" s="404" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="M10" s="405" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="N10" s="416" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="O10" s="406" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="T10" s="404" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="U10" s="404" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="Z10" s="404" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G11" s="404" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="H11" s="404" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="J11" s="404" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="M11" s="407" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="N11" s="406" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="O11" s="387"/>
       <c r="T11" s="404" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="U11" s="404" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="V11" s="404" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="Z11" s="404" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H12" s="404" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="I12" s="404" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="J12" s="404" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="N12" s="404" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="V12" s="404" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="Z12" s="404" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J13" s="404" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="N13" s="404" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="R13" s="404" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="S13" s="404" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="V13" s="404" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="Z13" s="404" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J14" s="404" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="K14" s="404" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="L14" s="404" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="M14" s="404" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="N14" s="404" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="R14" s="404" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="S14" s="404" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="T14" s="404" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="U14" s="404" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="V14" s="404" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="Z14" s="404" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J15" s="404" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="N15" s="404" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="O15" s="404" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="P15" s="404" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="Q15" s="404" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="R15" s="404" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="Z15" s="404" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H16" s="404" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="I16" s="404" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="J16" s="404" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="N16" s="404" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="Q16" s="404" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="Z16" s="404" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H17" s="404" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="N17" s="404" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="Q17" s="404" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="Y17" s="404" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="Z17" s="404" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H18" s="404" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="N18" s="404" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="Q18" s="404" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="R18" s="372" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="Y18" s="404" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N19" s="404" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="X19" s="404" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="Y19" s="404" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M20" s="410" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="N20" s="406" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O20" s="408" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="V20" s="404" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="W20" s="404" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="X20" s="404" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="Y20" s="417"/>
     </row>
     <row r="21" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M21" s="415" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="N21" s="418" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="O21" s="412" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="V21" s="404" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M22" s="407" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="N22" s="416" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="O22" s="413" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="V22" s="404" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U23" s="404" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="V23" s="404" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="W23" s="404" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V24" s="404" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U25" s="404" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="V25" s="404" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="W25" s="404" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V26" s="404" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U27" s="404" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="V27" s="404" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="W27" s="404" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V28" s="404" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
@@ -37763,8 +37969,8 @@
   </sheetPr>
   <dimension ref="G3:T13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4453125" defaultRowHeight="62.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37777,18 +37983,18 @@
       <c r="H3" s="419"/>
       <c r="I3" s="420"/>
       <c r="J3" s="421" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="K3" s="422"/>
       <c r="L3" s="421" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="M3" s="421" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="N3" s="423"/>
       <c r="O3" s="421" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="P3" s="420"/>
       <c r="Q3" s="419"/>
@@ -37801,22 +38007,22 @@
       <c r="H4" s="419"/>
       <c r="I4" s="424"/>
       <c r="J4" s="425" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="K4" s="425" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="L4" s="426" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="M4" s="426" t="s">
-        <v>2878</v>
+        <v>2883</v>
       </c>
       <c r="N4" s="425" t="s">
-        <v>2877</v>
+        <v>2884</v>
       </c>
       <c r="O4" s="425" t="s">
-        <v>2876</v>
+        <v>2885</v>
       </c>
       <c r="P4" s="424"/>
       <c r="Q4" s="419"/>
@@ -37829,22 +38035,20 @@
       <c r="H5" s="419"/>
       <c r="I5" s="420"/>
       <c r="J5" s="427" t="s">
-        <v>2879</v>
+        <v>2886</v>
       </c>
       <c r="K5" s="428" t="s">
-        <v>2875</v>
+        <v>2887</v>
       </c>
       <c r="L5" s="429" t="s">
-        <v>2875</v>
-      </c>
-      <c r="M5" s="429" t="s">
-        <v>2875</v>
-      </c>
+        <v>2888</v>
+      </c>
+      <c r="M5" s="430"/>
       <c r="N5" s="428" t="s">
-        <v>2875</v>
+        <v>2889</v>
       </c>
       <c r="O5" s="427" t="s">
-        <v>2879</v>
+        <v>2890</v>
       </c>
       <c r="P5" s="420"/>
       <c r="Q5" s="419"/>
@@ -37855,29 +38059,29 @@
     <row r="6" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G6" s="419"/>
       <c r="H6" s="419"/>
-      <c r="I6" s="430" t="s">
-        <v>2875</v>
-      </c>
-      <c r="J6" s="431" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K6" s="432" t="s">
-        <v>2875</v>
+      <c r="I6" s="431" t="s">
+        <v>2891</v>
+      </c>
+      <c r="J6" s="432" t="s">
+        <v>2892</v>
+      </c>
+      <c r="K6" s="433" t="s">
+        <v>2893</v>
       </c>
       <c r="L6" s="425" t="s">
-        <v>2880</v>
-      </c>
-      <c r="M6" s="433" t="s">
-        <v>2881</v>
-      </c>
-      <c r="N6" s="434" t="s">
-        <v>2875</v>
-      </c>
-      <c r="O6" s="435" t="s">
-        <v>2879</v>
-      </c>
-      <c r="P6" s="436" t="s">
-        <v>2875</v>
+        <v>2894</v>
+      </c>
+      <c r="M6" s="434" t="s">
+        <v>2895</v>
+      </c>
+      <c r="N6" s="435" t="s">
+        <v>2896</v>
+      </c>
+      <c r="O6" s="436" t="s">
+        <v>2897</v>
+      </c>
+      <c r="P6" s="437" t="s">
+        <v>2898</v>
       </c>
       <c r="Q6" s="419"/>
       <c r="R6" s="419"/>
@@ -37887,29 +38091,29 @@
     <row r="7" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G7" s="419"/>
       <c r="H7" s="419"/>
-      <c r="I7" s="430" t="s">
-        <v>2875</v>
-      </c>
-      <c r="J7" s="431" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K7" s="432" t="s">
-        <v>2875</v>
+      <c r="I7" s="431" t="s">
+        <v>2899</v>
+      </c>
+      <c r="J7" s="432" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K7" s="433" t="s">
+        <v>2901</v>
       </c>
       <c r="L7" s="425" t="s">
-        <v>2882</v>
+        <v>2902</v>
       </c>
       <c r="M7" s="425" t="s">
-        <v>2877</v>
-      </c>
-      <c r="N7" s="437" t="s">
-        <v>2878</v>
+        <v>2903</v>
+      </c>
+      <c r="N7" s="438" t="s">
+        <v>2904</v>
       </c>
       <c r="O7" s="425" t="s">
-        <v>2883</v>
-      </c>
-      <c r="P7" s="436" t="s">
-        <v>2875</v>
+        <v>2905</v>
+      </c>
+      <c r="P7" s="437" t="s">
+        <v>2906</v>
       </c>
       <c r="Q7" s="419"/>
       <c r="R7" s="419"/>
@@ -37921,22 +38125,18 @@
       <c r="H8" s="419"/>
       <c r="I8" s="420"/>
       <c r="J8" s="427" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K8" s="429" t="s">
-        <v>2875</v>
-      </c>
-      <c r="L8" s="428" t="s">
-        <v>2875</v>
-      </c>
+        <v>2907</v>
+      </c>
+      <c r="K8" s="430"/>
+      <c r="L8" s="439"/>
       <c r="M8" s="428" t="s">
-        <v>2875</v>
+        <v>2908</v>
       </c>
       <c r="N8" s="429" t="s">
-        <v>2875</v>
+        <v>2909</v>
       </c>
       <c r="O8" s="427" t="s">
-        <v>2879</v>
+        <v>2910</v>
       </c>
       <c r="P8" s="420"/>
       <c r="Q8" s="419"/>
@@ -37946,27 +38146,29 @@
     </row>
     <row r="9" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G9" s="419"/>
-      <c r="H9" s="419"/>
-      <c r="I9" s="438"/>
+      <c r="H9" s="419" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I9" s="440"/>
       <c r="J9" s="425" t="s">
-        <v>2877</v>
+        <v>2912</v>
       </c>
       <c r="K9" s="425" t="s">
-        <v>2876</v>
-      </c>
-      <c r="L9" s="439" t="s">
-        <v>2878</v>
-      </c>
-      <c r="M9" s="439" t="s">
-        <v>2878</v>
+        <v>2913</v>
+      </c>
+      <c r="L9" s="441" t="s">
+        <v>2914</v>
+      </c>
+      <c r="M9" s="441" t="s">
+        <v>2915</v>
       </c>
       <c r="N9" s="425" t="s">
-        <v>2876</v>
+        <v>2916</v>
       </c>
       <c r="O9" s="425" t="s">
-        <v>2877</v>
-      </c>
-      <c r="P9" s="438"/>
+        <v>2917</v>
+      </c>
+      <c r="P9" s="440"/>
       <c r="Q9" s="419"/>
       <c r="R9" s="419"/>
       <c r="S9" s="419"/>
@@ -37976,19 +38178,19 @@
       <c r="G10" s="419"/>
       <c r="H10" s="419"/>
       <c r="I10" s="420"/>
-      <c r="J10" s="440" t="s">
-        <v>2875</v>
+      <c r="J10" s="442" t="s">
+        <v>2918</v>
       </c>
       <c r="K10" s="422"/>
-      <c r="L10" s="440" t="s">
-        <v>2875</v>
-      </c>
-      <c r="M10" s="440" t="s">
-        <v>2875</v>
+      <c r="L10" s="442" t="s">
+        <v>2919</v>
+      </c>
+      <c r="M10" s="442" t="s">
+        <v>2920</v>
       </c>
       <c r="N10" s="423"/>
-      <c r="O10" s="440" t="s">
-        <v>2875</v>
+      <c r="O10" s="442" t="s">
+        <v>2921</v>
       </c>
       <c r="P10" s="420"/>
       <c r="Q10" s="419"/>
@@ -38076,45 +38278,45 @@
     <row r="3" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="388" t="s">
-        <v>2884</v>
+        <v>2922</v>
       </c>
       <c r="F4" s="388" t="s">
-        <v>2885</v>
+        <v>2923</v>
       </c>
       <c r="G4" s="388" t="s">
-        <v>2886</v>
+        <v>2924</v>
       </c>
       <c r="H4" s="388" t="s">
-        <v>2887</v>
+        <v>2925</v>
       </c>
       <c r="I4" s="388" t="s">
-        <v>2888</v>
+        <v>2926</v>
       </c>
       <c r="J4" s="388" t="s">
-        <v>2889</v>
+        <v>2927</v>
       </c>
       <c r="K4" s="388" t="s">
-        <v>2890</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E5" s="388" t="s">
-        <v>2891</v>
+        <v>2929</v>
       </c>
       <c r="F5" s="389"/>
       <c r="G5" s="389"/>
       <c r="H5" s="388" t="s">
-        <v>2892</v>
+        <v>2930</v>
       </c>
       <c r="I5" s="389"/>
       <c r="J5" s="389"/>
       <c r="K5" s="388" t="s">
-        <v>2893</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="388" t="s">
-        <v>2894</v>
+        <v>2932</v>
       </c>
       <c r="F6" s="389"/>
       <c r="G6" s="389"/>
@@ -38122,320 +38324,320 @@
       <c r="I6" s="389"/>
       <c r="J6" s="389"/>
       <c r="K6" s="388" t="s">
-        <v>2895</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="388" t="s">
-        <v>2896</v>
+        <v>2934</v>
       </c>
       <c r="F7" s="388" t="s">
-        <v>2897</v>
+        <v>2935</v>
       </c>
       <c r="G7" s="388" t="s">
-        <v>2898</v>
+        <v>2936</v>
       </c>
       <c r="H7" s="388" t="s">
-        <v>2899</v>
+        <v>2937</v>
       </c>
       <c r="I7" s="388" t="s">
-        <v>2900</v>
+        <v>2938</v>
       </c>
       <c r="J7" s="388" t="s">
-        <v>2901</v>
+        <v>2939</v>
       </c>
       <c r="K7" s="388" t="s">
-        <v>2902</v>
+        <v>2940</v>
       </c>
       <c r="M7" s="388" t="s">
-        <v>2903</v>
-      </c>
-      <c r="N7" s="441" t="s">
-        <v>2904</v>
+        <v>2941</v>
+      </c>
+      <c r="N7" s="443" t="s">
+        <v>2942</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="441" t="s">
-        <v>2905</v>
+      <c r="H8" s="443" t="s">
+        <v>2943</v>
       </c>
       <c r="L8" s="388" t="s">
-        <v>2906</v>
+        <v>2944</v>
       </c>
       <c r="M8" s="388" t="s">
-        <v>2907</v>
+        <v>2945</v>
       </c>
       <c r="N8" s="388" t="s">
-        <v>2908</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H9" s="388" t="s">
-        <v>2909</v>
+        <v>2947</v>
       </c>
       <c r="L9" s="388" t="s">
-        <v>2910</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="388" t="s">
-        <v>2911</v>
+        <v>2949</v>
       </c>
       <c r="F10" s="388" t="s">
-        <v>2912</v>
+        <v>2950</v>
       </c>
       <c r="G10" s="388" t="s">
-        <v>2913</v>
+        <v>2951</v>
       </c>
       <c r="H10" s="388" t="s">
-        <v>2914</v>
+        <v>2952</v>
       </c>
       <c r="I10" s="388" t="s">
-        <v>2915</v>
+        <v>2953</v>
       </c>
       <c r="J10" s="388" t="s">
-        <v>2916</v>
+        <v>2954</v>
       </c>
       <c r="K10" s="388" t="s">
-        <v>2917</v>
+        <v>2955</v>
       </c>
       <c r="L10" s="388" t="s">
-        <v>2918</v>
+        <v>2956</v>
       </c>
       <c r="M10" s="388" t="s">
-        <v>2919</v>
+        <v>2957</v>
       </c>
       <c r="N10" s="388" t="s">
-        <v>2920</v>
+        <v>2958</v>
       </c>
       <c r="O10" s="388" t="s">
-        <v>2921</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F11" s="387"/>
       <c r="G11" s="387"/>
       <c r="H11" s="388" t="s">
-        <v>2922</v>
+        <v>2960</v>
       </c>
       <c r="N11" s="388" t="s">
-        <v>2923</v>
+        <v>2961</v>
       </c>
       <c r="O11" s="388" t="s">
-        <v>2924</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D12" s="388" t="s">
-        <v>2925</v>
+        <v>2963</v>
       </c>
       <c r="E12" s="388" t="s">
-        <v>2926</v>
+        <v>2964</v>
       </c>
       <c r="F12" s="388" t="s">
-        <v>2927</v>
+        <v>2965</v>
       </c>
       <c r="G12" s="388" t="s">
-        <v>2928</v>
+        <v>2966</v>
       </c>
       <c r="H12" s="388" t="s">
-        <v>2929</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D13" s="388" t="s">
-        <v>2930</v>
+        <v>2968</v>
       </c>
       <c r="F13" s="388" t="s">
-        <v>2931</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F14" s="388" t="s">
-        <v>2932</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F15" s="388" t="s">
-        <v>2933</v>
+        <v>2971</v>
       </c>
       <c r="L15" s="388" t="s">
-        <v>2934</v>
+        <v>2972</v>
       </c>
       <c r="M15" s="388" t="s">
-        <v>2935</v>
+        <v>2973</v>
       </c>
       <c r="N15" s="388" t="s">
-        <v>2936</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F16" s="388" t="s">
-        <v>2937</v>
+        <v>2975</v>
       </c>
       <c r="I16" s="388" t="s">
-        <v>2938</v>
+        <v>2976</v>
       </c>
       <c r="J16" s="388" t="s">
-        <v>2939</v>
+        <v>2977</v>
       </c>
       <c r="K16" s="388" t="s">
-        <v>2940</v>
+        <v>2978</v>
       </c>
       <c r="L16" s="388" t="s">
-        <v>2941</v>
-      </c>
-      <c r="M16" s="441" t="s">
-        <v>2942</v>
+        <v>2979</v>
+      </c>
+      <c r="M16" s="443" t="s">
+        <v>2980</v>
       </c>
       <c r="N16" s="388" t="s">
-        <v>2943</v>
+        <v>2981</v>
       </c>
       <c r="S16" s="278" t="s">
-        <v>2944</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D17" s="372" t="s">
-        <v>2945</v>
+        <v>2983</v>
       </c>
       <c r="E17" s="388" t="s">
-        <v>2946</v>
+        <v>2984</v>
       </c>
       <c r="F17" s="388" t="s">
-        <v>2947</v>
+        <v>2985</v>
       </c>
       <c r="G17" s="388" t="s">
-        <v>2948</v>
+        <v>2986</v>
       </c>
       <c r="H17" s="388" t="s">
-        <v>2949</v>
+        <v>2987</v>
       </c>
       <c r="I17" s="388" t="s">
-        <v>2950</v>
+        <v>2988</v>
       </c>
       <c r="L17" s="388" t="s">
-        <v>2951</v>
+        <v>2989</v>
       </c>
       <c r="M17" s="388" t="s">
-        <v>2952</v>
+        <v>2990</v>
       </c>
       <c r="N17" s="388" t="s">
-        <v>2953</v>
+        <v>2991</v>
       </c>
       <c r="S17" s="278" t="s">
-        <v>2954</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H18" s="388" t="s">
-        <v>2955</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H19" s="388" t="s">
-        <v>2956</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G20" s="388" t="s">
-        <v>2957</v>
+        <v>2995</v>
       </c>
       <c r="H20" s="388" t="s">
-        <v>2958</v>
+        <v>2996</v>
       </c>
       <c r="I20" s="388" t="s">
-        <v>2959</v>
+        <v>2997</v>
       </c>
       <c r="J20" s="388" t="s">
-        <v>2960</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="388" t="s">
-        <v>2961</v>
+        <v>2999</v>
       </c>
       <c r="E21" s="388" t="s">
-        <v>2962</v>
+        <v>3000</v>
       </c>
       <c r="F21" s="388" t="s">
-        <v>2963</v>
+        <v>3001</v>
       </c>
       <c r="G21" s="388" t="s">
-        <v>2964</v>
+        <v>3002</v>
       </c>
       <c r="H21" s="389"/>
       <c r="I21" s="389"/>
       <c r="J21" s="388" t="s">
-        <v>2965</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D22" s="388" t="s">
-        <v>2966</v>
+        <v>3004</v>
       </c>
       <c r="G22" s="388" t="s">
-        <v>2967</v>
+        <v>3005</v>
       </c>
       <c r="H22" s="389"/>
-      <c r="I22" s="441" t="s">
-        <v>2968</v>
+      <c r="I22" s="443" t="s">
+        <v>3006</v>
       </c>
       <c r="J22" s="388" t="s">
-        <v>2969</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="388" t="s">
-        <v>2970</v>
+        <v>3008</v>
       </c>
       <c r="D23" s="388" t="s">
-        <v>2971</v>
+        <v>3009</v>
       </c>
       <c r="E23" s="388" t="s">
-        <v>2972</v>
+        <v>3010</v>
       </c>
       <c r="G23" s="388" t="s">
-        <v>2973</v>
+        <v>3011</v>
       </c>
       <c r="H23" s="389"/>
       <c r="I23" s="389"/>
       <c r="J23" s="388" t="s">
-        <v>2974</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D24" s="388" t="s">
-        <v>2975</v>
+        <v>3013</v>
       </c>
       <c r="E24" s="388" t="s">
-        <v>2976</v>
+        <v>3014</v>
       </c>
       <c r="G24" s="388" t="s">
-        <v>2977</v>
+        <v>3015</v>
       </c>
       <c r="H24" s="388" t="s">
-        <v>2978</v>
+        <v>3016</v>
       </c>
       <c r="I24" s="388" t="s">
-        <v>2979</v>
+        <v>3017</v>
       </c>
       <c r="J24" s="388" t="s">
-        <v>2980</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D25" s="388" t="s">
-        <v>2981</v>
+        <v>3019</v>
       </c>
       <c r="E25" s="388" t="s">
-        <v>2982</v>
+        <v>3020</v>
       </c>
       <c r="H25" s="387"/>
       <c r="I25" s="260"/>
     </row>
     <row r="26" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="441" t="s">
-        <v>2983</v>
+      <c r="E26" s="443" t="s">
+        <v>3021</v>
       </c>
       <c r="H26" s="387"/>
       <c r="I26" s="387"/>
@@ -38476,15 +38678,15 @@
     </row>
     <row r="4" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="387"/>
-      <c r="F4" s="442" t="s">
-        <v>2984</v>
+      <c r="F4" s="444" t="s">
+        <v>3022</v>
       </c>
       <c r="G4" s="387"/>
     </row>
     <row r="5" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E5" s="387"/>
-      <c r="F5" s="443" t="s">
-        <v>2985</v>
+      <c r="F5" s="445" t="s">
+        <v>3023</v>
       </c>
       <c r="G5" s="387"/>
     </row>
@@ -38493,183 +38695,183 @@
     </row>
     <row r="11" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D11" s="260"/>
-      <c r="E11" s="444"/>
-      <c r="F11" s="444"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="444"/>
-      <c r="J11" s="444"/>
-      <c r="K11" s="444"/>
-      <c r="L11" s="444"/>
-      <c r="M11" s="444"/>
-      <c r="N11" s="444"/>
-      <c r="O11" s="444"/>
-      <c r="P11" s="444"/>
-      <c r="Q11" s="444"/>
-      <c r="R11" s="444"/>
-      <c r="S11" s="444"/>
+      <c r="E11" s="446"/>
+      <c r="F11" s="446"/>
+      <c r="G11" s="446"/>
+      <c r="H11" s="446"/>
+      <c r="I11" s="446"/>
+      <c r="J11" s="446"/>
+      <c r="K11" s="446"/>
+      <c r="L11" s="446"/>
+      <c r="M11" s="446"/>
+      <c r="N11" s="446"/>
+      <c r="O11" s="446"/>
+      <c r="P11" s="446"/>
+      <c r="Q11" s="446"/>
+      <c r="R11" s="446"/>
+      <c r="S11" s="446"/>
     </row>
     <row r="12" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D12" s="260"/>
-      <c r="E12" s="444"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="444"/>
-      <c r="H12" s="444"/>
-      <c r="I12" s="444"/>
-      <c r="J12" s="444"/>
-      <c r="K12" s="444"/>
-      <c r="L12" s="444"/>
-      <c r="M12" s="444"/>
-      <c r="N12" s="444"/>
-      <c r="O12" s="444"/>
-      <c r="P12" s="444"/>
-      <c r="Q12" s="444"/>
-      <c r="R12" s="444"/>
-      <c r="S12" s="444"/>
+      <c r="E12" s="446"/>
+      <c r="F12" s="446"/>
+      <c r="G12" s="446"/>
+      <c r="H12" s="446"/>
+      <c r="I12" s="446"/>
+      <c r="J12" s="446"/>
+      <c r="K12" s="446"/>
+      <c r="L12" s="446"/>
+      <c r="M12" s="446"/>
+      <c r="N12" s="446"/>
+      <c r="O12" s="446"/>
+      <c r="P12" s="446"/>
+      <c r="Q12" s="446"/>
+      <c r="R12" s="446"/>
+      <c r="S12" s="446"/>
     </row>
     <row r="13" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D13" s="260"/>
-      <c r="E13" s="444"/>
-      <c r="F13" s="444"/>
-      <c r="G13" s="444"/>
-      <c r="H13" s="444"/>
-      <c r="I13" s="444"/>
-      <c r="J13" s="444"/>
-      <c r="K13" s="444"/>
-      <c r="L13" s="444"/>
-      <c r="M13" s="444"/>
-      <c r="N13" s="444"/>
-      <c r="O13" s="444"/>
-      <c r="P13" s="444"/>
-      <c r="Q13" s="444"/>
-      <c r="R13" s="444"/>
-      <c r="S13" s="444"/>
+      <c r="E13" s="446"/>
+      <c r="F13" s="446"/>
+      <c r="G13" s="446"/>
+      <c r="H13" s="446"/>
+      <c r="I13" s="446"/>
+      <c r="J13" s="446"/>
+      <c r="K13" s="446"/>
+      <c r="L13" s="446"/>
+      <c r="M13" s="446"/>
+      <c r="N13" s="446"/>
+      <c r="O13" s="446"/>
+      <c r="P13" s="446"/>
+      <c r="Q13" s="446"/>
+      <c r="R13" s="446"/>
+      <c r="S13" s="446"/>
     </row>
     <row r="14" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D14" s="260"/>
-      <c r="E14" s="444"/>
-      <c r="F14" s="444"/>
-      <c r="G14" s="444"/>
-      <c r="H14" s="444"/>
-      <c r="I14" s="444"/>
-      <c r="J14" s="444"/>
-      <c r="K14" s="444"/>
-      <c r="L14" s="444"/>
-      <c r="M14" s="444"/>
-      <c r="N14" s="444"/>
-      <c r="O14" s="444"/>
-      <c r="P14" s="444"/>
-      <c r="Q14" s="444"/>
-      <c r="R14" s="444"/>
-      <c r="S14" s="444"/>
+      <c r="E14" s="446"/>
+      <c r="F14" s="446"/>
+      <c r="G14" s="446"/>
+      <c r="H14" s="446"/>
+      <c r="I14" s="446"/>
+      <c r="J14" s="446"/>
+      <c r="K14" s="446"/>
+      <c r="L14" s="446"/>
+      <c r="M14" s="446"/>
+      <c r="N14" s="446"/>
+      <c r="O14" s="446"/>
+      <c r="P14" s="446"/>
+      <c r="Q14" s="446"/>
+      <c r="R14" s="446"/>
+      <c r="S14" s="446"/>
     </row>
     <row r="15" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D15" s="260"/>
-      <c r="E15" s="444"/>
-      <c r="F15" s="444"/>
-      <c r="G15" s="444"/>
-      <c r="H15" s="444"/>
-      <c r="I15" s="444"/>
-      <c r="J15" s="444"/>
-      <c r="K15" s="444"/>
-      <c r="L15" s="444"/>
-      <c r="M15" s="444"/>
-      <c r="N15" s="444"/>
-      <c r="O15" s="444"/>
-      <c r="P15" s="444"/>
-      <c r="Q15" s="444"/>
-      <c r="R15" s="444"/>
-      <c r="S15" s="444"/>
+      <c r="E15" s="446"/>
+      <c r="F15" s="446"/>
+      <c r="G15" s="446"/>
+      <c r="H15" s="446"/>
+      <c r="I15" s="446"/>
+      <c r="J15" s="446"/>
+      <c r="K15" s="446"/>
+      <c r="L15" s="446"/>
+      <c r="M15" s="446"/>
+      <c r="N15" s="446"/>
+      <c r="O15" s="446"/>
+      <c r="P15" s="446"/>
+      <c r="Q15" s="446"/>
+      <c r="R15" s="446"/>
+      <c r="S15" s="446"/>
     </row>
     <row r="16" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D16" s="260"/>
-      <c r="E16" s="444"/>
-      <c r="F16" s="444"/>
-      <c r="G16" s="444"/>
-      <c r="H16" s="444"/>
-      <c r="I16" s="444"/>
-      <c r="J16" s="444"/>
-      <c r="K16" s="444"/>
-      <c r="L16" s="444"/>
-      <c r="M16" s="444"/>
-      <c r="N16" s="444"/>
-      <c r="O16" s="444"/>
-      <c r="P16" s="444"/>
-      <c r="Q16" s="444"/>
-      <c r="R16" s="444"/>
-      <c r="S16" s="444"/>
+      <c r="E16" s="446"/>
+      <c r="F16" s="446"/>
+      <c r="G16" s="446"/>
+      <c r="H16" s="446"/>
+      <c r="I16" s="446"/>
+      <c r="J16" s="446"/>
+      <c r="K16" s="446"/>
+      <c r="L16" s="446"/>
+      <c r="M16" s="446"/>
+      <c r="N16" s="446"/>
+      <c r="O16" s="446"/>
+      <c r="P16" s="446"/>
+      <c r="Q16" s="446"/>
+      <c r="R16" s="446"/>
+      <c r="S16" s="446"/>
     </row>
     <row r="17" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D17" s="260"/>
-      <c r="E17" s="444"/>
-      <c r="F17" s="444"/>
-      <c r="G17" s="444"/>
-      <c r="H17" s="444"/>
-      <c r="I17" s="444"/>
-      <c r="J17" s="444"/>
-      <c r="K17" s="444"/>
-      <c r="L17" s="444"/>
-      <c r="M17" s="444"/>
-      <c r="N17" s="444"/>
-      <c r="O17" s="444"/>
-      <c r="P17" s="444"/>
-      <c r="Q17" s="444"/>
-      <c r="R17" s="444"/>
-      <c r="S17" s="444"/>
+      <c r="E17" s="446"/>
+      <c r="F17" s="446"/>
+      <c r="G17" s="446"/>
+      <c r="H17" s="446"/>
+      <c r="I17" s="446"/>
+      <c r="J17" s="446"/>
+      <c r="K17" s="446"/>
+      <c r="L17" s="446"/>
+      <c r="M17" s="446"/>
+      <c r="N17" s="446"/>
+      <c r="O17" s="446"/>
+      <c r="P17" s="446"/>
+      <c r="Q17" s="446"/>
+      <c r="R17" s="446"/>
+      <c r="S17" s="446"/>
     </row>
     <row r="18" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D18" s="260"/>
-      <c r="E18" s="444"/>
-      <c r="F18" s="444"/>
-      <c r="G18" s="444"/>
-      <c r="H18" s="444"/>
-      <c r="I18" s="444"/>
-      <c r="J18" s="444"/>
-      <c r="K18" s="444"/>
-      <c r="L18" s="444"/>
-      <c r="M18" s="444"/>
-      <c r="N18" s="444"/>
-      <c r="O18" s="444"/>
-      <c r="P18" s="444"/>
-      <c r="Q18" s="444"/>
-      <c r="R18" s="444"/>
-      <c r="S18" s="444"/>
+      <c r="E18" s="446"/>
+      <c r="F18" s="446"/>
+      <c r="G18" s="446"/>
+      <c r="H18" s="446"/>
+      <c r="I18" s="446"/>
+      <c r="J18" s="446"/>
+      <c r="K18" s="446"/>
+      <c r="L18" s="446"/>
+      <c r="M18" s="446"/>
+      <c r="N18" s="446"/>
+      <c r="O18" s="446"/>
+      <c r="P18" s="446"/>
+      <c r="Q18" s="446"/>
+      <c r="R18" s="446"/>
+      <c r="S18" s="446"/>
     </row>
     <row r="19" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D19" s="260"/>
-      <c r="E19" s="444"/>
-      <c r="F19" s="444"/>
-      <c r="G19" s="444"/>
-      <c r="H19" s="444"/>
-      <c r="I19" s="444"/>
-      <c r="J19" s="444"/>
-      <c r="K19" s="444"/>
-      <c r="L19" s="444"/>
-      <c r="M19" s="444"/>
-      <c r="N19" s="444"/>
-      <c r="O19" s="444"/>
-      <c r="P19" s="444"/>
-      <c r="Q19" s="444"/>
-      <c r="R19" s="444"/>
-      <c r="S19" s="444"/>
+      <c r="E19" s="446"/>
+      <c r="F19" s="446"/>
+      <c r="G19" s="446"/>
+      <c r="H19" s="446"/>
+      <c r="I19" s="446"/>
+      <c r="J19" s="446"/>
+      <c r="K19" s="446"/>
+      <c r="L19" s="446"/>
+      <c r="M19" s="446"/>
+      <c r="N19" s="446"/>
+      <c r="O19" s="446"/>
+      <c r="P19" s="446"/>
+      <c r="Q19" s="446"/>
+      <c r="R19" s="446"/>
+      <c r="S19" s="446"/>
     </row>
     <row r="20" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D20" s="260"/>
-      <c r="E20" s="444"/>
-      <c r="F20" s="444"/>
-      <c r="G20" s="444"/>
-      <c r="H20" s="444"/>
-      <c r="I20" s="444"/>
-      <c r="J20" s="444"/>
-      <c r="K20" s="444"/>
-      <c r="L20" s="444"/>
-      <c r="M20" s="444"/>
-      <c r="N20" s="444"/>
-      <c r="O20" s="444"/>
-      <c r="P20" s="444"/>
-      <c r="Q20" s="444"/>
-      <c r="R20" s="444"/>
-      <c r="S20" s="444"/>
+      <c r="E20" s="446"/>
+      <c r="F20" s="446"/>
+      <c r="G20" s="446"/>
+      <c r="H20" s="446"/>
+      <c r="I20" s="446"/>
+      <c r="J20" s="446"/>
+      <c r="K20" s="446"/>
+      <c r="L20" s="446"/>
+      <c r="M20" s="446"/>
+      <c r="N20" s="446"/>
+      <c r="O20" s="446"/>
+      <c r="P20" s="446"/>
+      <c r="Q20" s="446"/>
+      <c r="R20" s="446"/>
+      <c r="S20" s="446"/>
     </row>
     <row r="21" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="260"/>
@@ -38758,8 +38960,8 @@
   </sheetPr>
   <dimension ref="L3:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38771,36 +38973,39 @@
       <c r="L3" s="72" t="s">
         <v>1792</v>
       </c>
+      <c r="P3" s="80" t="s">
+        <v>1793</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L4" s="127" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="N4" s="127" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="P4" s="127" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L5" s="128" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="M5" s="127" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="N5" s="128" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="O5" s="127" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="P5" s="129" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="Q5" s="57" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38848,52 +39053,52 @@
     </row>
     <row r="3" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="80" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="E3" s="131" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="131" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D4" s="131" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="E4" s="131" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="F4" s="131" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="G4" s="131" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H4" s="131" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="80" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E5" s="131" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="56" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
   </sheetData>
@@ -38931,15 +39136,15 @@
     <row r="3" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H3" s="1"/>
       <c r="I3" s="54" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J4" s="80" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="K4" s="80"/>
       <c r="L4" s="80"/>
@@ -38947,61 +39152,61 @@
     </row>
     <row r="5" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="54" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="M5" s="80"/>
       <c r="N5" s="54" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="P5" s="54" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G6" s="54" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="M6" s="132" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="N6" s="133" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="O6" s="133" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="P6" s="133" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="Q6" s="133" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="R6" s="72" t="s">
         <v>1489</v>
@@ -39009,111 +39214,111 @@
     </row>
     <row r="7" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J7" s="54" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="M7" s="80"/>
       <c r="N7" s="54" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="O7" s="54" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="P7" s="54" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="Q7" s="54" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J8" s="80" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
       <c r="M8" s="80"/>
       <c r="O8" s="80" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J9" s="77" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="K9" s="77" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="L9" s="77" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="M9" s="80" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="80" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J10" s="134" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="K10" s="134" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="L10" s="134" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="M10" s="80" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E11" s="80" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="I11" s="77" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J11" s="134" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="K11" s="134" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="L11" s="134" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="M11" s="77" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J12" s="134" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="K12" s="134" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="L12" s="134" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
   </sheetData>
@@ -39145,28 +39350,28 @@
         <v>1389</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="H3" s="80" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="I3" s="80" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="K3" s="80" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="L3" s="77"/>
     </row>
@@ -39199,67 +39404,67 @@
   <sheetData>
     <row r="1" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="80" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="N1" s="80" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="P1" s="80" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="Q1" s="80" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="R1" s="80" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="S1" s="80" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="T1" s="80" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="U1" s="80" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
   </sheetData>

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,6 +40,8 @@
     <sheet name="Market" sheetId="30" state="visible" r:id="rId31"/>
     <sheet name="Bathhouse" sheetId="31" state="visible" r:id="rId32"/>
     <sheet name="The Veil of Time" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="Balheim" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="Thanks for Playing!" sheetId="34" state="visible" r:id="rId35"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="3024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="3052">
   <si>
     <t xml:space="preserve">#12528
 South 12532
@@ -5565,7 +5567,7 @@
 North 6803
 South 6801
 East 6857
-West </t>
+West 12914</t>
   </si>
   <si>
     <t xml:space="preserve"># 6849
@@ -11625,89 +11627,129 @@
   </si>
   <si>
     <t xml:space="preserve">1
-#7310</t>
+#7310
+Duck 7289
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">2
-7311</t>
+7311
+Duck 7290
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">3
-7314</t>
+7314
+Duck 7291
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">4
-7317</t>
+7317
+Duck 7292
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">5
-7320</t>
+7320
+Duck 7293
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">6
-7323</t>
+7323
+Duck 7294
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">7
-7326</t>
+7326
+Duck 7295
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">8
-7329</t>
+7329
+Duck 7296
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">9
 7332
-#7769</t>
+Duck 7297
+Duck at #7769</t>
   </si>
   <si>
     <t xml:space="preserve">10
-7335</t>
+7335
+Duck 7298
+Duck at</t>
   </si>
   <si>
     <t xml:space="preserve">11
-7338</t>
+7338
+Duck 7299
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">12
-7341</t>
+7341
+Duck 7300
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">13
-7344</t>
+7344
+Duck 7301
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">14
-7347</t>
+7347
+Duck 7302
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">15
-7350</t>
+7350
+Duck 7303
+Duck at</t>
   </si>
   <si>
     <t xml:space="preserve">16
-7353</t>
+7353
+Duck 7304
+Duck at</t>
   </si>
   <si>
     <t xml:space="preserve">17
 7356
-#7130</t>
+Duck 7305
+Duck At #7130</t>
   </si>
   <si>
     <t xml:space="preserve">18
-7359</t>
+7359
+Duck 7306
+Duck at </t>
   </si>
   <si>
     <t xml:space="preserve">19
-7362</t>
+7362
+Duck 7307
+Duck at</t>
   </si>
   <si>
     <t xml:space="preserve">20
-7368</t>
+7368
+Duck 7308
+Duck at</t>
   </si>
   <si>
     <t xml:space="preserve">21
-7371</t>
+7371
+Duck 7309
+Duck at</t>
   </si>
   <si>
     <t xml:space="preserve">Okenfen
@@ -17447,7 +17489,7 @@
 West 12828</t>
   </si>
   <si>
-    <t xml:space="preserve">#128221
+    <t xml:space="preserve">#12821
 East 12823
 West 12825</t>
   </si>
@@ -18048,7 +18090,8 @@
   <si>
     <t xml:space="preserve">#11354
 North 11356
-East 11358</t>
+East 11358
+Secret Duck 7289</t>
   </si>
   <si>
     <t xml:space="preserve">#11357
@@ -18071,6 +18114,144 @@
 East 12689
 West 12692
 Leave 12684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaleFoyr Fight
+#12987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon Plane
+#12990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyretta Fight
+#12991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal Void
+#12986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL BATTLE
+#12982
+South 12984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12979
+North 12983
+South 12981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12976
+North 12980
+South 12978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12962
+South 12964
+East 12966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12965
+North 12977
+East 12969
+West 12967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12968
+South 12972
+West 12970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12959
+North 12963
+South 12961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12971
+North 12973
+South 12974</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 12956
+North 12960
+East 12958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12950
+South 12952
+East 12954
+West 12957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12953
+North 12975
+West 12955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12947
+North 12951
+South 12949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12944
+North 12948
+South 12946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 12941
+North 12945
+South 12943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12928
+South 12930
+East 12940</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 12931
+North 
+South 12933
+East 12938
+West 12939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12934
+South 12936
+West 12937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12925
+East 12927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12922
+North 12929
+East 12924
+West 12926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12919
+North 12933
+East 12921
+West 12923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12916
+North 12935
+East 12918
+West 12920</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 12913
+East 12915
+West 12917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#12993</t>
   </si>
 </sst>
 </file>
@@ -18299,7 +18480,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="74">
+  <fills count="75">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18392,7 +18573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDE59"/>
+        <fgColor rgb="FFF6E758"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
@@ -18511,8 +18692,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1EA57"/>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FFF6E758"/>
         <bgColor rgb="FFDDE106"/>
       </patternFill>
     </fill>
@@ -18591,7 +18772,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DE"/>
-        <bgColor rgb="FFB5C4DA"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -18614,13 +18795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DE"/>
-        <bgColor rgb="FFB5C4DA"/>
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF009669"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB4C7DE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFD1EA57"/>
+        <fgColor rgb="FFF6E758"/>
         <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
@@ -18657,7 +18844,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADD192"/>
-        <bgColor rgb="FFB5C4DA"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -18675,13 +18862,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DE"/>
-        <bgColor rgb="FFB5C4DA"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB5C4DA"/>
-        <bgColor rgb="FFB4C7DE"/>
+        <fgColor rgb="FFB5B3C5"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -18698,14 +18885,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DE"/>
-        <bgColor rgb="FFB5C4DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF009669"/>
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB4C7DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -18736,6 +18917,12 @@
       <patternFill patternType="mediumGray">
         <fgColor rgb="FFE692A2"/>
         <bgColor rgb="FF828187"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5B3C5"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -19701,7 +19888,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="451">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -20242,6 +20429,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -20262,7 +20453,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20274,7 +20465,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20282,23 +20473,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20306,11 +20489,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="26" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20318,7 +20509,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="57" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20434,23 +20625,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="59" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="59" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20458,11 +20649,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20470,7 +20661,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="59" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20478,7 +20669,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20486,7 +20677,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="59" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20502,7 +20693,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20514,7 +20705,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="62" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20526,19 +20717,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="63" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="63" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20578,7 +20769,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20586,7 +20777,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="64" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20650,19 +20841,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20670,7 +20865,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20678,19 +20873,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="65" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20746,55 +20941,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20802,15 +20997,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20830,7 +21025,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="67" borderId="71" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="68" borderId="71" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20842,7 +21037,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="67" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="68" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20858,11 +21053,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20882,7 +21077,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20910,19 +21105,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20954,19 +21149,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="83" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="83" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20974,7 +21169,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="84" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="84" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20986,23 +21181,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="86" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="87" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="87" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21030,15 +21225,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="90" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="90" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21054,7 +21249,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="67" borderId="74" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="68" borderId="74" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21074,7 +21269,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21130,11 +21325,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21146,7 +21341,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="68" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21230,7 +21425,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="67" borderId="103" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="68" borderId="103" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21488,6 +21683,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="74" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -21565,7 +21768,7 @@
       <rgbColor rgb="FFAB5902"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF009669"/>
-      <rgbColor rgb="FFB5C4DA"/>
+      <rgbColor rgb="FFB5B3C5"/>
       <rgbColor rgb="FF828183"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFD62C48"/>
@@ -21581,9 +21784,9 @@
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FFD1EA57"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FFFFF5CE"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFDEE7E5"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFA6"/>
@@ -21591,7 +21794,7 @@
       <rgbColor rgb="FFE692A2"/>
       <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FFDEDCE6"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFADD192"/>
       <rgbColor rgb="FF86D215"/>
       <rgbColor rgb="FFFFBF00"/>
@@ -21606,7 +21809,7 @@
       <rgbColor rgb="FFBE480A"/>
       <rgbColor rgb="FFFE4705"/>
       <rgbColor rgb="FF3C10B9"/>
-      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FFF6E758"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -21619,8 +21822,8 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD27" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM31" activeCellId="0" sqref="AM31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32919,7 +33122,7 @@
   </sheetPr>
   <dimension ref="D3:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -32945,7 +33148,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="136" t="s">
         <v>1895</v>
       </c>
       <c r="E5" s="80" t="s">
@@ -32978,8 +33181,8 @@
   </sheetPr>
   <dimension ref="C2:P11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32994,33 +33197,33 @@
       <c r="D2" s="80" t="s">
         <v>1899</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="137" t="s">
         <v>1900</v>
       </c>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="137" t="s">
         <v>1901</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="138" t="s">
         <v>1902</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="138" t="s">
         <v>1903</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="138" t="s">
         <v>1904</v>
       </c>
-      <c r="I3" s="137" t="s">
+      <c r="I3" s="138" t="s">
         <v>1905</v>
       </c>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="138" t="s">
         <v>1906</v>
       </c>
-      <c r="K3" s="137" t="s">
+      <c r="K3" s="138" t="s">
         <v>1907</v>
       </c>
-      <c r="L3" s="136" t="s">
+      <c r="L3" s="137" t="s">
         <v>1908</v>
       </c>
       <c r="N3" s="126" t="s">
@@ -33031,104 +33234,104 @@
       <c r="C4" s="77" t="s">
         <v>1910</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="137" t="s">
         <v>1911</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="138" t="s">
         <v>1912</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="138" t="s">
         <v>1913</v>
       </c>
-      <c r="K4" s="137" t="s">
+      <c r="K4" s="138" t="s">
         <v>1914</v>
       </c>
-      <c r="M4" s="137" t="s">
+      <c r="M4" s="138" t="s">
         <v>1915</v>
       </c>
-      <c r="N4" s="137" t="s">
+      <c r="N4" s="138" t="s">
         <v>1916</v>
       </c>
-      <c r="O4" s="137" t="s">
+      <c r="O4" s="138" t="s">
         <v>1917</v>
       </c>
-      <c r="P4" s="136" t="s">
+      <c r="P4" s="137" t="s">
         <v>1918</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="138" t="s">
         <v>1919</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="138" t="s">
         <v>1920</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="138" t="s">
         <v>1921</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="138" t="s">
         <v>1922</v>
       </c>
-      <c r="M5" s="137" t="s">
+      <c r="M5" s="138" t="s">
         <v>1923</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="137" t="s">
         <v>1924</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F6" s="138" t="s">
         <v>1925</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="138" t="s">
         <v>1926</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="137" t="s">
         <v>1927</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="138" t="s">
         <v>1928</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="138" t="s">
         <v>1929</v>
       </c>
-      <c r="K7" s="137" t="s">
+      <c r="K7" s="138" t="s">
         <v>1930</v>
       </c>
-      <c r="L7" s="137" t="s">
+      <c r="L7" s="138" t="s">
         <v>1931</v>
       </c>
-      <c r="M7" s="137" t="s">
+      <c r="M7" s="138" t="s">
         <v>1932</v>
       </c>
-      <c r="N7" s="136" t="s">
+      <c r="N7" s="137" t="s">
         <v>1933</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="137" t="s">
         <v>1934</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="138" t="s">
         <v>1935</v>
       </c>
-      <c r="H8" s="137" t="s">
+      <c r="H8" s="138" t="s">
         <v>1936</v>
       </c>
-      <c r="I8" s="137" t="s">
+      <c r="I8" s="138" t="s">
         <v>1937</v>
       </c>
-      <c r="L8" s="137" t="s">
+      <c r="L8" s="138" t="s">
         <v>1938</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="138" t="s">
         <v>1939</v>
       </c>
-      <c r="L9" s="137" t="s">
+      <c r="L9" s="138" t="s">
         <v>1940</v>
       </c>
     </row>
@@ -33136,13 +33339,13 @@
       <c r="G10" s="126" t="s">
         <v>1941</v>
       </c>
-      <c r="K10" s="137" t="s">
+      <c r="K10" s="138" t="s">
         <v>1942</v>
       </c>
-      <c r="L10" s="137" t="s">
+      <c r="L10" s="138" t="s">
         <v>1943</v>
       </c>
-      <c r="M10" s="136" t="s">
+      <c r="M10" s="137" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -33169,8 +33372,8 @@
   </sheetPr>
   <dimension ref="E2:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33179,10 +33382,10 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O2" s="138" t="s">
+      <c r="O2" s="139" t="s">
         <v>1946</v>
       </c>
-      <c r="P2" s="138" t="s">
+      <c r="P2" s="139" t="s">
         <v>1947</v>
       </c>
       <c r="Q2" s="77" t="s">
@@ -33190,22 +33393,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T3" s="139"/>
-      <c r="U3" s="139" t="s">
+      <c r="T3" s="140"/>
+      <c r="U3" s="140" t="s">
         <v>1949</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="138" t="s">
+      <c r="L4" s="139" t="s">
         <v>1950</v>
       </c>
-      <c r="O4" s="140" t="s">
+      <c r="O4" s="141" t="s">
         <v>1951</v>
       </c>
-      <c r="P4" s="140" t="s">
+      <c r="P4" s="141" t="s">
         <v>1952</v>
       </c>
-      <c r="Q4" s="140" t="s">
+      <c r="Q4" s="141" t="s">
         <v>1953</v>
       </c>
       <c r="R4" s="71" t="s">
@@ -33214,17 +33417,17 @@
       <c r="S4" s="71" t="s">
         <v>1955</v>
       </c>
-      <c r="T4" s="141"/>
-      <c r="U4" s="139"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="140"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O5" s="140" t="s">
+      <c r="O5" s="141" t="s">
         <v>1956</v>
       </c>
-      <c r="P5" s="140" t="s">
+      <c r="P5" s="141" t="s">
         <v>1957</v>
       </c>
-      <c r="Q5" s="140" t="s">
+      <c r="Q5" s="141" t="s">
         <v>1958</v>
       </c>
       <c r="R5" s="71" t="s">
@@ -33241,10 +33444,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>1963</v>
       </c>
-      <c r="P6" s="140" t="s">
+      <c r="P6" s="141" t="s">
         <v>1964</v>
       </c>
       <c r="Q6" s="25" t="s">
@@ -33267,7 +33470,7 @@
       <c r="M7" s="80" t="s">
         <v>1970</v>
       </c>
-      <c r="N7" s="142" t="s">
+      <c r="N7" s="143" t="s">
         <v>1971</v>
       </c>
       <c r="O7" s="25" t="s">
@@ -33294,16 +33497,16 @@
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="80"/>
-      <c r="O8" s="143" t="s">
+      <c r="O8" s="144" t="s">
         <v>1979</v>
       </c>
-      <c r="P8" s="143" t="s">
+      <c r="P8" s="144" t="s">
         <v>1980</v>
       </c>
-      <c r="Q8" s="143" t="s">
+      <c r="Q8" s="144" t="s">
         <v>1981</v>
       </c>
-      <c r="R8" s="143" t="s">
+      <c r="R8" s="144" t="s">
         <v>1982</v>
       </c>
       <c r="S8" s="27" t="s">
@@ -33342,8 +33545,8 @@
   </sheetPr>
   <dimension ref="C1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33528,7 +33731,7 @@
   </sheetPr>
   <dimension ref="D3:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -33538,104 +33741,104 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="145" t="s">
         <v>2034</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="145" t="s">
         <v>2035</v>
       </c>
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="145" t="s">
         <v>2036</v>
       </c>
-      <c r="H3" s="144" t="s">
+      <c r="H3" s="145" t="s">
         <v>2037</v>
       </c>
-      <c r="I3" s="144" t="s">
+      <c r="I3" s="145" t="s">
         <v>2038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="145" t="s">
         <v>2039</v>
       </c>
-      <c r="G4" s="145" t="s">
+      <c r="G4" s="146" t="s">
         <v>2040</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="147" t="s">
         <v>2041</v>
       </c>
-      <c r="I4" s="144" t="s">
+      <c r="I4" s="145" t="s">
         <v>2042</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="145" t="s">
         <v>2043</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="148" t="s">
         <v>2044</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="146" t="s">
         <v>2045</v>
       </c>
-      <c r="I5" s="144" t="s">
+      <c r="I5" s="145" t="s">
         <v>2046</v>
       </c>
-      <c r="L5" s="148" t="s">
+      <c r="L5" s="149" t="s">
         <v>2047</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="145" t="s">
         <v>2048</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="145" t="s">
         <v>2049</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="150" t="s">
         <v>2050</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="146" t="s">
         <v>2051</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="145" t="s">
         <v>2052</v>
       </c>
-      <c r="L6" s="150" t="s">
+      <c r="L6" s="151" t="s">
         <v>2053</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="151" t="s">
+      <c r="E7" s="152" t="s">
         <v>2054</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="153" t="s">
         <v>2055</v>
       </c>
-      <c r="H7" s="145" t="s">
+      <c r="H7" s="146" t="s">
         <v>2056</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="145" t="s">
         <v>2057</v>
       </c>
-      <c r="J7" s="144" t="s">
+      <c r="J7" s="145" t="s">
         <v>2058</v>
       </c>
-      <c r="L7" s="153" t="s">
+      <c r="L7" s="154" t="s">
         <v>2059</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="145" t="s">
         <v>2060</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="145" t="s">
         <v>2061</v>
       </c>
-      <c r="F8" s="144" t="s">
+      <c r="F8" s="145" t="s">
         <v>2062</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="145" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -33657,8 +33860,8 @@
   </sheetPr>
   <dimension ref="F2:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33677,24 +33880,24 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="155" t="s">
         <v>2066</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="155" t="s">
         <v>2067</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="155" t="s">
         <v>2068</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="155" t="s">
         <v>2069</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="155" t="s">
         <v>2070</v>
       </c>
-      <c r="H5" s="154" t="s">
+      <c r="H5" s="155" t="s">
         <v>2071</v>
       </c>
       <c r="I5" s="80" t="s">
@@ -33702,13 +33905,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="154" t="s">
+      <c r="F6" s="155" t="s">
         <v>2073</v>
       </c>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="155" t="s">
         <v>2074</v>
       </c>
-      <c r="H6" s="154" t="s">
+      <c r="H6" s="155" t="s">
         <v>2075</v>
       </c>
       <c r="I6" s="80" t="s">
@@ -33738,7 +33941,7 @@
   </sheetPr>
   <dimension ref="L5:V14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -33748,7 +33951,7 @@
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R5" s="155" t="s">
+      <c r="R5" s="156" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -33756,26 +33959,26 @@
       <c r="L6" s="80" t="s">
         <v>2079</v>
       </c>
-      <c r="Q6" s="156"/>
+      <c r="Q6" s="157"/>
       <c r="R6" s="80" t="s">
         <v>2080</v>
       </c>
-      <c r="S6" s="156"/>
+      <c r="S6" s="157"/>
     </row>
     <row r="7" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
       <c r="R7" s="80" t="s">
         <v>2081</v>
       </c>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
     </row>
     <row r="8" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N8" s="80" t="s">
         <v>2082</v>
       </c>
-      <c r="O8" s="157" t="s">
+      <c r="O8" s="158" t="s">
         <v>2083</v>
       </c>
       <c r="P8" s="80" t="s">
@@ -33793,7 +33996,7 @@
       <c r="T8" s="80" t="s">
         <v>2088</v>
       </c>
-      <c r="U8" s="158" t="s">
+      <c r="U8" s="159" t="s">
         <v>2089</v>
       </c>
       <c r="V8" s="80" t="s">
@@ -33801,53 +34004,53 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O9" s="159" t="s">
+      <c r="O9" s="160" t="s">
         <v>2091</v>
       </c>
       <c r="P9" s="80" t="s">
         <v>2092</v>
       </c>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
       <c r="T9" s="80" t="s">
         <v>2093</v>
       </c>
-      <c r="U9" s="161" t="s">
+      <c r="U9" s="162" t="s">
         <v>2094</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N10" s="80"/>
-      <c r="O10" s="162"/>
+      <c r="O10" s="163"/>
       <c r="P10" s="80" t="s">
         <v>2095</v>
       </c>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160" t="s">
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161" t="s">
         <v>2096</v>
       </c>
-      <c r="S10" s="160"/>
+      <c r="S10" s="161"/>
       <c r="T10" s="80" t="s">
         <v>2097</v>
       </c>
-      <c r="U10" s="163"/>
+      <c r="U10" s="164"/>
       <c r="V10" s="80"/>
     </row>
     <row r="11" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O11" s="157" t="s">
+      <c r="O11" s="158" t="s">
         <v>2098</v>
       </c>
       <c r="P11" s="80" t="s">
         <v>2099</v>
       </c>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="160"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
       <c r="T11" s="80" t="s">
         <v>2100</v>
       </c>
-      <c r="U11" s="158" t="s">
+      <c r="U11" s="159" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -33855,10 +34058,10 @@
       <c r="N12" s="80" t="s">
         <v>2102</v>
       </c>
-      <c r="O12" s="159" t="s">
+      <c r="O12" s="160" t="s">
         <v>2103</v>
       </c>
-      <c r="P12" s="164" t="s">
+      <c r="P12" s="165" t="s">
         <v>2104</v>
       </c>
       <c r="Q12" s="80" t="s">
@@ -33870,10 +34073,10 @@
       <c r="S12" s="80" t="s">
         <v>2107</v>
       </c>
-      <c r="T12" s="164" t="s">
+      <c r="T12" s="165" t="s">
         <v>2108</v>
       </c>
-      <c r="U12" s="161" t="s">
+      <c r="U12" s="162" t="s">
         <v>2109</v>
       </c>
       <c r="V12" s="80" t="s">
@@ -33881,11 +34084,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q13" s="159" t="s">
+      <c r="Q13" s="160" t="s">
         <v>2111</v>
       </c>
-      <c r="R13" s="165"/>
-      <c r="S13" s="166" t="s">
+      <c r="R13" s="166"/>
+      <c r="S13" s="167" t="s">
         <v>2112</v>
       </c>
     </row>
@@ -33910,8 +34113,8 @@
   </sheetPr>
   <dimension ref="J3:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33920,79 +34123,79 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J3" s="167" t="s">
+      <c r="J3" s="168" t="s">
         <v>2113</v>
       </c>
-      <c r="K3" s="168" t="s">
+      <c r="K3" s="169" t="s">
         <v>2114</v>
       </c>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="170" t="s">
         <v>2115</v>
       </c>
-      <c r="M3" s="168" t="s">
+      <c r="M3" s="169" t="s">
         <v>2116</v>
       </c>
-      <c r="N3" s="170" t="s">
+      <c r="N3" s="171" t="s">
         <v>2117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J4" s="171" t="s">
+      <c r="J4" s="172" t="s">
         <v>2118</v>
       </c>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173" t="s">
+      <c r="K4" s="173"/>
+      <c r="L4" s="174" t="s">
         <v>2119</v>
       </c>
-      <c r="M4" s="172"/>
-      <c r="N4" s="173" t="s">
+      <c r="M4" s="173"/>
+      <c r="N4" s="174" t="s">
         <v>2120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J5" s="174" t="s">
+      <c r="J5" s="175" t="s">
         <v>2121</v>
       </c>
-      <c r="K5" s="175" t="s">
+      <c r="K5" s="176" t="s">
         <v>2122</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>2123</v>
       </c>
-      <c r="M5" s="175" t="s">
+      <c r="M5" s="176" t="s">
         <v>2124</v>
       </c>
-      <c r="N5" s="176" t="s">
+      <c r="N5" s="177" t="s">
         <v>2125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J6" s="171" t="s">
+      <c r="J6" s="172" t="s">
         <v>2126</v>
       </c>
-      <c r="K6" s="177"/>
-      <c r="L6" s="178" t="s">
+      <c r="K6" s="178"/>
+      <c r="L6" s="179" t="s">
         <v>2127</v>
       </c>
-      <c r="M6" s="135"/>
-      <c r="N6" s="173" t="s">
+      <c r="M6" s="136"/>
+      <c r="N6" s="174" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J7" s="179" t="s">
+      <c r="J7" s="180" t="s">
         <v>2129</v>
       </c>
-      <c r="K7" s="180" t="s">
+      <c r="K7" s="181" t="s">
         <v>2130</v>
       </c>
-      <c r="L7" s="169" t="s">
+      <c r="L7" s="170" t="s">
         <v>2131</v>
       </c>
-      <c r="M7" s="180" t="s">
+      <c r="M7" s="181" t="s">
         <v>2132</v>
       </c>
-      <c r="N7" s="181" t="s">
+      <c r="N7" s="182" t="s">
         <v>2133</v>
       </c>
     </row>
@@ -34014,7 +34217,7 @@
   </sheetPr>
   <dimension ref="B1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -34027,13 +34230,13 @@
       <c r="D1" s="77" t="s">
         <v>2134</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="F1" s="183" t="s">
         <v>2135</v>
       </c>
-      <c r="G1" s="183" t="s">
+      <c r="G1" s="184" t="s">
         <v>2136</v>
       </c>
-      <c r="H1" s="184" t="s">
+      <c r="H1" s="185" t="s">
         <v>2137</v>
       </c>
       <c r="I1" s="77" t="s">
@@ -34048,157 +34251,157 @@
       <c r="B2" s="77" t="s">
         <v>2140</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="186" t="s">
         <v>2141</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="187" t="s">
         <v>2142</v>
       </c>
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="186" t="s">
         <v>2143</v>
       </c>
-      <c r="F2" s="187" t="s">
+      <c r="F2" s="188" t="s">
         <v>2144</v>
       </c>
-      <c r="H2" s="188" t="s">
+      <c r="H2" s="189" t="s">
         <v>2145</v>
       </c>
-      <c r="I2" s="189" t="s">
+      <c r="I2" s="190" t="s">
         <v>2146</v>
       </c>
-      <c r="J2" s="190" t="s">
+      <c r="J2" s="191" t="s">
         <v>2147</v>
       </c>
-      <c r="K2" s="191" t="s">
+      <c r="K2" s="192" t="s">
         <v>2148</v>
       </c>
       <c r="L2" s="80" t="s">
         <v>2149</v>
       </c>
-      <c r="N2" s="192" t="s">
+      <c r="N2" s="193" t="s">
         <v>2150</v>
       </c>
-      <c r="O2" s="193" t="s">
+      <c r="O2" s="194" t="s">
         <v>2151</v>
       </c>
-      <c r="P2" s="194" t="s">
+      <c r="P2" s="195" t="s">
         <v>2152</v>
       </c>
-      <c r="Q2" s="193" t="s">
+      <c r="Q2" s="194" t="s">
         <v>2153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="195" t="s">
+      <c r="C3" s="196" t="s">
         <v>2154</v>
       </c>
       <c r="D3" s="80" t="s">
         <v>2155</v>
       </c>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="197" t="s">
         <v>2156</v>
       </c>
-      <c r="F3" s="197" t="s">
+      <c r="F3" s="198" t="s">
         <v>2157</v>
       </c>
-      <c r="H3" s="198" t="s">
+      <c r="H3" s="199" t="s">
         <v>2158</v>
       </c>
       <c r="I3" s="80" t="s">
         <v>2159</v>
       </c>
-      <c r="J3" s="199" t="s">
+      <c r="J3" s="200" t="s">
         <v>2160</v>
       </c>
-      <c r="K3" s="200" t="s">
+      <c r="K3" s="201" t="s">
         <v>2161</v>
       </c>
-      <c r="N3" s="201" t="s">
+      <c r="N3" s="202" t="s">
         <v>2162</v>
       </c>
-      <c r="O3" s="193" t="s">
+      <c r="O3" s="194" t="s">
         <v>2163</v>
       </c>
-      <c r="P3" s="202" t="s">
+      <c r="P3" s="203" t="s">
         <v>2164</v>
       </c>
-      <c r="Q3" s="203" t="s">
+      <c r="Q3" s="204" t="s">
         <v>2165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="189" t="s">
         <v>2166</v>
       </c>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="205" t="s">
         <v>2167</v>
       </c>
       <c r="E4" s="80" t="s">
         <v>2168</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="198" t="s">
         <v>2169</v>
       </c>
-      <c r="H4" s="188" t="s">
+      <c r="H4" s="189" t="s">
         <v>2170</v>
       </c>
       <c r="I4" s="80" t="s">
         <v>2171</v>
       </c>
-      <c r="J4" s="205" t="s">
+      <c r="J4" s="206" t="s">
         <v>2172</v>
       </c>
-      <c r="K4" s="197" t="s">
+      <c r="K4" s="198" t="s">
         <v>2173</v>
       </c>
-      <c r="N4" s="206" t="s">
+      <c r="N4" s="207" t="s">
         <v>2174</v>
       </c>
-      <c r="O4" s="207" t="s">
+      <c r="O4" s="208" t="s">
         <v>2175</v>
       </c>
-      <c r="P4" s="196" t="s">
+      <c r="P4" s="197" t="s">
         <v>2176</v>
       </c>
-      <c r="Q4" s="193" t="s">
+      <c r="Q4" s="194" t="s">
         <v>2177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="195" t="s">
+      <c r="C5" s="196" t="s">
         <v>2178</v>
       </c>
-      <c r="D5" s="208" t="s">
+      <c r="D5" s="209" t="s">
         <v>2179</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="196" t="s">
         <v>2180</v>
       </c>
-      <c r="F5" s="204" t="s">
+      <c r="F5" s="205" t="s">
         <v>2181</v>
       </c>
-      <c r="H5" s="199" t="s">
+      <c r="H5" s="200" t="s">
         <v>2182</v>
       </c>
-      <c r="I5" s="209" t="s">
+      <c r="I5" s="210" t="s">
         <v>2183</v>
       </c>
-      <c r="J5" s="210" t="s">
+      <c r="J5" s="211" t="s">
         <v>2184</v>
       </c>
-      <c r="K5" s="211" t="s">
+      <c r="K5" s="212" t="s">
         <v>2185</v>
       </c>
-      <c r="N5" s="195" t="s">
+      <c r="N5" s="196" t="s">
         <v>2186</v>
       </c>
-      <c r="O5" s="210" t="s">
+      <c r="O5" s="211" t="s">
         <v>2187</v>
       </c>
-      <c r="P5" s="204" t="s">
+      <c r="P5" s="205" t="s">
         <v>2188</v>
       </c>
-      <c r="Q5" s="199" t="s">
+      <c r="Q5" s="200" t="s">
         <v>2189</v>
       </c>
     </row>
@@ -34220,7 +34423,7 @@
   </sheetPr>
   <dimension ref="E3:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -34258,7 +34461,7 @@
   </sheetPr>
   <dimension ref="E1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -34307,7 +34510,7 @@
   </sheetPr>
   <dimension ref="E3:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -34371,7 +34574,7 @@
   </sheetPr>
   <dimension ref="D4:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -34388,49 +34591,49 @@
     </row>
     <row r="5" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D5" s="79"/>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="155" t="s">
         <v>2205</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="155" t="s">
         <v>2206</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="155" t="s">
         <v>2207</v>
       </c>
       <c r="H5" s="79"/>
     </row>
     <row r="6" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D6" s="79"/>
-      <c r="E6" s="154" t="s">
+      <c r="E6" s="155" t="s">
         <v>2208</v>
       </c>
       <c r="F6" s="79"/>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="155" t="s">
         <v>2209</v>
       </c>
       <c r="H6" s="79"/>
     </row>
     <row r="7" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="79"/>
-      <c r="E7" s="154" t="s">
+      <c r="E7" s="155" t="s">
         <v>2210</v>
       </c>
       <c r="F7" s="80" t="s">
         <v>2211</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="155" t="s">
         <v>2212</v>
       </c>
-      <c r="H7" s="154" t="s">
+      <c r="H7" s="155" t="s">
         <v>2213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="79"/>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="155" t="s">
         <v>2214</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="155" t="s">
         <v>2215</v>
       </c>
       <c r="G8" s="79"/>
@@ -34455,90 +34658,90 @@
   </sheetPr>
   <dimension ref="D2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.578125" defaultRowHeight="82.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="174" t="s">
         <v>2216</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="158" t="s">
         <v>2217</v>
       </c>
-      <c r="I2" s="212" t="s">
+      <c r="I2" s="213" t="s">
         <v>2218</v>
       </c>
       <c r="J2" s="77"/>
     </row>
     <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="172" t="s">
         <v>2219</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="179" t="s">
         <v>2220</v>
       </c>
-      <c r="G3" s="178" t="s">
+      <c r="G3" s="179" t="s">
         <v>2221</v>
       </c>
-      <c r="H3" s="213" t="s">
+      <c r="H3" s="214" t="s">
         <v>2222</v>
       </c>
-      <c r="I3" s="158" t="s">
+      <c r="I3" s="159" t="s">
         <v>2223</v>
       </c>
       <c r="J3" s="77"/>
     </row>
     <row r="4" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="172" t="s">
         <v>2224</v>
       </c>
-      <c r="F4" s="212" t="s">
+      <c r="F4" s="213" t="s">
         <v>2225</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>2226</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="162" t="s">
         <v>2227</v>
       </c>
-      <c r="I4" s="159" t="s">
+      <c r="I4" s="160" t="s">
         <v>2228</v>
       </c>
-      <c r="J4" s="212" t="s">
+      <c r="J4" s="213" t="s">
         <v>2229</v>
       </c>
-      <c r="K4" s="213" t="s">
+      <c r="K4" s="214" t="s">
         <v>2230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>2231</v>
       </c>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="165" t="s">
         <v>2232</v>
       </c>
-      <c r="F5" s="213" t="s">
+      <c r="F5" s="214" t="s">
         <v>2233</v>
       </c>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="159" t="s">
         <v>2234</v>
       </c>
-      <c r="H5" s="169"/>
+      <c r="H5" s="170"/>
       <c r="I5" s="77"/>
       <c r="J5" s="77"/>
     </row>
     <row r="6" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="77"/>
-      <c r="F6" s="159" t="s">
+      <c r="F6" s="160" t="s">
         <v>2235</v>
       </c>
-      <c r="G6" s="215"/>
+      <c r="G6" s="216"/>
       <c r="H6" s="77"/>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
@@ -34562,26 +34765,26 @@
   </sheetPr>
   <dimension ref="I3:AB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q10" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X14" activeCellId="0" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.01953125" defaultRowHeight="71.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L4" s="161"/>
+      <c r="L4" s="162"/>
       <c r="M4" s="54" t="s">
         <v>2236</v>
       </c>
-      <c r="N4" s="159"/>
-      <c r="W4" s="216" t="s">
+      <c r="N4" s="160"/>
+      <c r="W4" s="217" t="s">
         <v>2237</v>
       </c>
-      <c r="X4" s="169" t="s">
+      <c r="X4" s="170" t="s">
         <v>2238</v>
       </c>
-      <c r="Y4" s="217" t="s">
+      <c r="Y4" s="218" t="s">
         <v>2239</v>
       </c>
     </row>
@@ -34595,13 +34798,13 @@
       <c r="N5" s="54" t="s">
         <v>2242</v>
       </c>
-      <c r="W5" s="218" t="s">
+      <c r="W5" s="219" t="s">
         <v>2243</v>
       </c>
-      <c r="X5" s="164" t="s">
+      <c r="X5" s="165" t="s">
         <v>2244</v>
       </c>
-      <c r="Y5" s="217" t="s">
+      <c r="Y5" s="218" t="s">
         <v>2245</v>
       </c>
     </row>
@@ -34612,150 +34815,150 @@
       <c r="M6" s="54" t="s">
         <v>2247</v>
       </c>
-      <c r="N6" s="219" t="s">
+      <c r="N6" s="220" t="s">
         <v>2248</v>
       </c>
-      <c r="W6" s="220" t="s">
+      <c r="W6" s="221" t="s">
         <v>2249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="220" t="s">
+      <c r="M7" s="221" t="s">
         <v>2250</v>
       </c>
-      <c r="R7" s="221" t="s">
+      <c r="R7" s="222" t="s">
         <v>2251</v>
       </c>
-      <c r="S7" s="169" t="s">
+      <c r="S7" s="170" t="s">
         <v>2252</v>
       </c>
-      <c r="T7" s="222" t="s">
+      <c r="T7" s="223" t="s">
         <v>2253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R8" s="164" t="s">
+      <c r="R8" s="165" t="s">
         <v>2254</v>
       </c>
-      <c r="S8" s="213" t="s">
+      <c r="S8" s="214" t="s">
         <v>2255</v>
       </c>
-      <c r="T8" s="164" t="s">
+      <c r="T8" s="165" t="s">
         <v>2256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R9" s="223" t="s">
+      <c r="R9" s="224" t="s">
         <v>2257</v>
       </c>
-      <c r="S9" s="164" t="s">
+      <c r="S9" s="165" t="s">
         <v>2258</v>
       </c>
-      <c r="T9" s="224" t="s">
+      <c r="T9" s="225" t="s">
         <v>2259</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N10" s="225" t="s">
+      <c r="N10" s="226" t="s">
         <v>2260</v>
       </c>
-      <c r="W10" s="225" t="s">
+      <c r="W10" s="226" t="s">
         <v>2261</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M11" s="214" t="s">
+      <c r="M11" s="215" t="s">
         <v>2262</v>
       </c>
-      <c r="N11" s="226" t="s">
+      <c r="N11" s="227" t="s">
         <v>2263</v>
       </c>
-      <c r="V11" s="227" t="s">
+      <c r="V11" s="228" t="s">
         <v>2264</v>
       </c>
-      <c r="W11" s="178" t="s">
+      <c r="W11" s="179" t="s">
         <v>2265</v>
       </c>
-      <c r="X11" s="228" t="s">
+      <c r="X11" s="229" t="s">
         <v>2266</v>
       </c>
-      <c r="Y11" s="158" t="s">
+      <c r="Y11" s="159" t="s">
         <v>2267</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
-      <c r="M12" s="216" t="s">
+      <c r="M12" s="217" t="s">
         <v>2268</v>
       </c>
-      <c r="N12" s="161" t="s">
+      <c r="N12" s="162" t="s">
         <v>2269</v>
       </c>
-      <c r="V12" s="173" t="s">
+      <c r="V12" s="174" t="s">
         <v>2270</v>
       </c>
-      <c r="W12" s="157" t="s">
+      <c r="W12" s="158" t="s">
         <v>2271</v>
       </c>
-      <c r="X12" s="229" t="s">
+      <c r="X12" s="230" t="s">
         <v>2272</v>
       </c>
-      <c r="Y12" s="173" t="s">
+      <c r="Y12" s="174" t="s">
         <v>2273</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I13" s="230" t="s">
+      <c r="I13" s="231" t="s">
         <v>2274</v>
       </c>
-      <c r="J13" s="155" t="s">
+      <c r="J13" s="156" t="s">
         <v>2275</v>
       </c>
-      <c r="V13" s="173" t="s">
+      <c r="V13" s="174" t="s">
         <v>2276</v>
       </c>
-      <c r="W13" s="231" t="s">
+      <c r="W13" s="232" t="s">
         <v>2277</v>
       </c>
-      <c r="X13" s="232" t="s">
+      <c r="X13" s="233" t="s">
         <v>2278</v>
       </c>
-      <c r="Y13" s="173" t="s">
+      <c r="Y13" s="174" t="s">
         <v>2279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="233" t="s">
+      <c r="I14" s="234" t="s">
         <v>2280</v>
       </c>
-      <c r="J14" s="234" t="s">
+      <c r="J14" s="235" t="s">
         <v>2281</v>
       </c>
-      <c r="V14" s="173" t="s">
+      <c r="V14" s="174" t="s">
         <v>2282</v>
       </c>
-      <c r="W14" s="235" t="s">
+      <c r="W14" s="236" t="s">
         <v>2283</v>
       </c>
-      <c r="X14" s="236" t="s">
+      <c r="X14" s="237" t="s">
         <v>2284</v>
       </c>
-      <c r="Y14" s="173" t="s">
+      <c r="Y14" s="174" t="s">
         <v>2285</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V15" s="159" t="s">
+      <c r="V15" s="160" t="s">
         <v>2286</v>
       </c>
-      <c r="W15" s="178" t="s">
+      <c r="W15" s="179" t="s">
         <v>2287</v>
       </c>
-      <c r="X15" s="178" t="s">
+      <c r="X15" s="179" t="s">
         <v>2288</v>
       </c>
-      <c r="Y15" s="161" t="s">
+      <c r="Y15" s="162" t="s">
         <v>2289</v>
       </c>
     </row>
@@ -34764,7 +34967,7 @@
       <c r="W16" s="79"/>
       <c r="X16" s="79"/>
       <c r="Y16" s="79"/>
-      <c r="Z16" s="140" t="s">
+      <c r="Z16" s="238" t="s">
         <v>2290</v>
       </c>
       <c r="AA16" s="79"/>
@@ -34772,70 +34975,70 @@
     </row>
     <row r="17" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V17" s="79"/>
-      <c r="W17" s="237" t="s">
+      <c r="W17" s="239" t="s">
         <v>2291</v>
       </c>
       <c r="X17" s="79"/>
-      <c r="Y17" s="238" t="s">
+      <c r="Y17" s="240" t="s">
         <v>2292</v>
       </c>
-      <c r="Z17" s="239" t="s">
+      <c r="Z17" s="241" t="s">
         <v>2293</v>
       </c>
-      <c r="AA17" s="240" t="s">
+      <c r="AA17" s="242" t="s">
         <v>2294</v>
       </c>
       <c r="AB17" s="79"/>
     </row>
     <row r="18" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V18" s="241" t="s">
+      <c r="V18" s="243" t="s">
         <v>2295</v>
       </c>
-      <c r="W18" s="242" t="s">
+      <c r="W18" s="244" t="s">
         <v>2296</v>
       </c>
       <c r="X18" s="79"/>
-      <c r="Y18" s="243" t="s">
+      <c r="Y18" s="245" t="s">
         <v>2297</v>
       </c>
       <c r="Z18" s="79"/>
-      <c r="AA18" s="244" t="s">
+      <c r="AA18" s="246" t="s">
         <v>2298</v>
       </c>
-      <c r="AB18" s="140" t="s">
+      <c r="AB18" s="238" t="s">
         <v>2299</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V19" s="79"/>
-      <c r="W19" s="245" t="s">
+      <c r="W19" s="247" t="s">
         <v>2300</v>
       </c>
-      <c r="X19" s="239" t="s">
+      <c r="X19" s="241" t="s">
         <v>2301</v>
       </c>
-      <c r="Y19" s="246" t="s">
+      <c r="Y19" s="248" t="s">
         <v>2302</v>
       </c>
-      <c r="Z19" s="239" t="s">
+      <c r="Z19" s="241" t="s">
         <v>2303</v>
       </c>
-      <c r="AA19" s="247" t="s">
+      <c r="AA19" s="249" t="s">
         <v>2304</v>
       </c>
       <c r="AB19" s="79"/>
     </row>
     <row r="20" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V20" s="79"/>
-      <c r="W20" s="248" t="s">
+      <c r="W20" s="250" t="s">
         <v>2305</v>
       </c>
       <c r="X20" s="79"/>
-      <c r="Y20" s="248" t="s">
+      <c r="Y20" s="250" t="s">
         <v>2306</v>
       </c>
       <c r="Z20" s="79"/>
-      <c r="AA20" s="248" t="s">
+      <c r="AA20" s="250" t="s">
         <v>2307</v>
       </c>
       <c r="AB20" s="79"/>
@@ -34859,8 +35062,8 @@
   </sheetPr>
   <dimension ref="M4:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="62.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34883,76 +35086,76 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
     </row>
     <row r="6" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="250" t="s">
+      <c r="M6" s="251"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="252" t="s">
         <v>2312</v>
       </c>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="249"/>
+      <c r="P6" s="251"/>
+      <c r="Q6" s="251"/>
     </row>
     <row r="7" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M7" s="251" t="s">
+      <c r="M7" s="253" t="s">
         <v>2313</v>
       </c>
-      <c r="N7" s="252" t="s">
+      <c r="N7" s="254" t="s">
         <v>2314</v>
       </c>
-      <c r="O7" s="253" t="s">
+      <c r="O7" s="255" t="s">
         <v>2315</v>
       </c>
-      <c r="P7" s="254" t="s">
+      <c r="P7" s="256" t="s">
         <v>2316</v>
       </c>
-      <c r="Q7" s="249"/>
+      <c r="Q7" s="251"/>
     </row>
     <row r="8" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M8" s="255" t="s">
+      <c r="M8" s="257" t="s">
         <v>2317</v>
       </c>
-      <c r="N8" s="253" t="s">
+      <c r="N8" s="255" t="s">
         <v>2318</v>
       </c>
-      <c r="O8" s="253" t="s">
+      <c r="O8" s="255" t="s">
         <v>2319</v>
       </c>
-      <c r="P8" s="253" t="s">
+      <c r="P8" s="255" t="s">
         <v>2320</v>
       </c>
-      <c r="Q8" s="254" t="s">
+      <c r="Q8" s="256" t="s">
         <v>2321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M9" s="249"/>
-      <c r="N9" s="255" t="s">
+      <c r="M9" s="251"/>
+      <c r="N9" s="257" t="s">
         <v>2322</v>
       </c>
-      <c r="O9" s="253" t="s">
+      <c r="O9" s="255" t="s">
         <v>2323</v>
       </c>
-      <c r="P9" s="256" t="s">
+      <c r="P9" s="258" t="s">
         <v>2324</v>
       </c>
-      <c r="Q9" s="257" t="s">
+      <c r="Q9" s="259" t="s">
         <v>2325</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M10" s="249"/>
-      <c r="N10" s="249"/>
-      <c r="O10" s="258" t="s">
+      <c r="M10" s="251"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="260" t="s">
         <v>2326</v>
       </c>
-      <c r="P10" s="249"/>
-      <c r="Q10" s="249"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34972,349 +35175,349 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="259" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
     </row>
     <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="260"/>
-      <c r="B2" s="261" t="s">
+      <c r="A2" s="262"/>
+      <c r="B2" s="263" t="s">
         <v>2327</v>
       </c>
-      <c r="C2" s="262" t="s">
+      <c r="C2" s="264" t="s">
         <v>2328</v>
       </c>
-      <c r="D2" s="263" t="s">
+      <c r="D2" s="265" t="s">
         <v>2329</v>
       </c>
-      <c r="E2" s="263" t="s">
+      <c r="E2" s="265" t="s">
         <v>2330</v>
       </c>
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="265" t="s">
         <v>2331</v>
       </c>
-      <c r="G2" s="263" t="s">
+      <c r="G2" s="265" t="s">
         <v>2332</v>
       </c>
-      <c r="H2" s="263" t="s">
+      <c r="H2" s="265" t="s">
         <v>2333</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="266" t="s">
         <v>2334</v>
       </c>
-      <c r="J2" s="263" t="s">
+      <c r="J2" s="265" t="s">
         <v>2335</v>
       </c>
-      <c r="K2" s="264" t="s">
+      <c r="K2" s="266" t="s">
         <v>2336</v>
       </c>
-      <c r="L2" s="263" t="s">
+      <c r="L2" s="265" t="s">
         <v>2337</v>
       </c>
-      <c r="M2" s="263" t="s">
+      <c r="M2" s="265" t="s">
         <v>2338</v>
       </c>
-      <c r="N2" s="263" t="s">
+      <c r="N2" s="265" t="s">
         <v>2339</v>
       </c>
-      <c r="O2" s="263" t="s">
+      <c r="O2" s="265" t="s">
         <v>2340</v>
       </c>
-      <c r="P2" s="264" t="s">
+      <c r="P2" s="266" t="s">
         <v>2341</v>
       </c>
-      <c r="Q2" s="260"/>
+      <c r="Q2" s="262"/>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="260"/>
-      <c r="B3" s="265" t="s">
+      <c r="A3" s="262"/>
+      <c r="B3" s="267" t="s">
         <v>2342</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="268" t="s">
         <v>2343</v>
       </c>
-      <c r="D3" s="266" t="s">
+      <c r="D3" s="268" t="s">
         <v>2344</v>
       </c>
-      <c r="E3" s="261" t="s">
+      <c r="E3" s="263" t="s">
         <v>2345</v>
       </c>
-      <c r="F3" s="263" t="s">
+      <c r="F3" s="265" t="s">
         <v>2346</v>
       </c>
-      <c r="G3" s="263" t="s">
+      <c r="G3" s="265" t="s">
         <v>2347</v>
       </c>
-      <c r="H3" s="263" t="s">
+      <c r="H3" s="265" t="s">
         <v>2348</v>
       </c>
-      <c r="I3" s="267" t="s">
+      <c r="I3" s="269" t="s">
         <v>2349</v>
       </c>
-      <c r="J3" s="266" t="s">
+      <c r="J3" s="268" t="s">
         <v>2350</v>
       </c>
-      <c r="K3" s="268" t="s">
+      <c r="K3" s="270" t="s">
         <v>2351</v>
       </c>
-      <c r="L3" s="269" t="s">
+      <c r="L3" s="271" t="s">
         <v>2352</v>
       </c>
-      <c r="M3" s="266" t="s">
+      <c r="M3" s="268" t="s">
         <v>2353</v>
       </c>
-      <c r="N3" s="261" t="s">
+      <c r="N3" s="263" t="s">
         <v>2354</v>
       </c>
-      <c r="O3" s="264" t="s">
+      <c r="O3" s="266" t="s">
         <v>2355</v>
       </c>
-      <c r="P3" s="267" t="s">
+      <c r="P3" s="269" t="s">
         <v>2356</v>
       </c>
-      <c r="Q3" s="260"/>
+      <c r="Q3" s="262"/>
     </row>
     <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="260"/>
-      <c r="B4" s="265" t="s">
+      <c r="A4" s="262"/>
+      <c r="B4" s="267" t="s">
         <v>2357</v>
       </c>
-      <c r="C4" s="261" t="s">
+      <c r="C4" s="263" t="s">
         <v>2358</v>
       </c>
-      <c r="D4" s="262" t="s">
+      <c r="D4" s="264" t="s">
         <v>2359</v>
       </c>
-      <c r="E4" s="266" t="s">
+      <c r="E4" s="268" t="s">
         <v>2360</v>
       </c>
-      <c r="F4" s="261" t="s">
+      <c r="F4" s="263" t="s">
         <v>2361</v>
       </c>
-      <c r="G4" s="270" t="s">
+      <c r="G4" s="272" t="s">
         <v>2362</v>
       </c>
-      <c r="H4" s="270" t="s">
+      <c r="H4" s="272" t="s">
         <v>2363</v>
       </c>
-      <c r="I4" s="270" t="s">
+      <c r="I4" s="272" t="s">
         <v>2364</v>
       </c>
-      <c r="J4" s="269" t="s">
+      <c r="J4" s="271" t="s">
         <v>2365</v>
       </c>
-      <c r="K4" s="266" t="s">
+      <c r="K4" s="268" t="s">
         <v>2366</v>
       </c>
-      <c r="L4" s="266" t="s">
+      <c r="L4" s="268" t="s">
         <v>2367</v>
       </c>
-      <c r="M4" s="266" t="s">
+      <c r="M4" s="268" t="s">
         <v>2368</v>
       </c>
-      <c r="N4" s="265" t="s">
+      <c r="N4" s="267" t="s">
         <v>2369</v>
       </c>
-      <c r="O4" s="264" t="s">
+      <c r="O4" s="266" t="s">
         <v>2370</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="269" t="s">
         <v>2371</v>
       </c>
-      <c r="Q4" s="260"/>
+      <c r="Q4" s="262"/>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="260"/>
-      <c r="B5" s="265" t="s">
+      <c r="A5" s="262"/>
+      <c r="B5" s="267" t="s">
         <v>2372</v>
       </c>
-      <c r="C5" s="265" t="s">
+      <c r="C5" s="267" t="s">
         <v>2373</v>
       </c>
-      <c r="D5" s="266" t="s">
+      <c r="D5" s="268" t="s">
         <v>2374</v>
       </c>
-      <c r="E5" s="268" t="s">
+      <c r="E5" s="270" t="s">
         <v>2375</v>
       </c>
-      <c r="F5" s="269" t="s">
+      <c r="F5" s="271" t="s">
         <v>2376</v>
       </c>
-      <c r="G5" s="271" t="s">
+      <c r="G5" s="273" t="s">
         <v>2377</v>
       </c>
-      <c r="H5" s="266" t="s">
+      <c r="H5" s="268" t="s">
         <v>2378</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="I5" s="274" t="s">
         <v>2379</v>
       </c>
-      <c r="J5" s="272" t="s">
+      <c r="J5" s="274" t="s">
         <v>2380</v>
       </c>
-      <c r="K5" s="272" t="s">
+      <c r="K5" s="274" t="s">
         <v>2381</v>
       </c>
-      <c r="L5" s="261" t="s">
+      <c r="L5" s="263" t="s">
         <v>2382</v>
       </c>
-      <c r="M5" s="263" t="s">
+      <c r="M5" s="265" t="s">
         <v>2383</v>
       </c>
-      <c r="N5" s="264" t="s">
+      <c r="N5" s="266" t="s">
         <v>2384</v>
       </c>
-      <c r="O5" s="272" t="s">
+      <c r="O5" s="274" t="s">
         <v>2385</v>
       </c>
-      <c r="P5" s="269" t="s">
+      <c r="P5" s="271" t="s">
         <v>2386</v>
       </c>
-      <c r="Q5" s="260"/>
+      <c r="Q5" s="262"/>
     </row>
     <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="260"/>
-      <c r="B6" s="265" t="s">
+      <c r="A6" s="262"/>
+      <c r="B6" s="267" t="s">
         <v>2387</v>
       </c>
-      <c r="C6" s="273" t="s">
+      <c r="C6" s="275" t="s">
         <v>2388</v>
       </c>
-      <c r="D6" s="266" t="s">
+      <c r="D6" s="268" t="s">
         <v>2389</v>
       </c>
-      <c r="E6" s="266" t="s">
+      <c r="E6" s="268" t="s">
         <v>2390</v>
       </c>
-      <c r="F6" s="266" t="s">
+      <c r="F6" s="268" t="s">
         <v>2391</v>
       </c>
-      <c r="G6" s="271" t="s">
+      <c r="G6" s="273" t="s">
         <v>2392</v>
       </c>
-      <c r="H6" s="266" t="s">
+      <c r="H6" s="268" t="s">
         <v>2393</v>
       </c>
-      <c r="I6" s="266" t="s">
+      <c r="I6" s="268" t="s">
         <v>2394</v>
       </c>
-      <c r="J6" s="266" t="s">
+      <c r="J6" s="268" t="s">
         <v>2395</v>
       </c>
-      <c r="K6" s="274" t="s">
+      <c r="K6" s="276" t="s">
         <v>2396</v>
       </c>
-      <c r="L6" s="269" t="s">
+      <c r="L6" s="271" t="s">
         <v>2397</v>
       </c>
-      <c r="M6" s="275" t="s">
+      <c r="M6" s="277" t="s">
         <v>2398</v>
       </c>
-      <c r="N6" s="272" t="s">
+      <c r="N6" s="274" t="s">
         <v>2399</v>
       </c>
-      <c r="O6" s="272" t="s">
+      <c r="O6" s="274" t="s">
         <v>2400</v>
       </c>
-      <c r="P6" s="267" t="s">
+      <c r="P6" s="269" t="s">
         <v>2401</v>
       </c>
-      <c r="Q6" s="260"/>
+      <c r="Q6" s="262"/>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="260"/>
-      <c r="B7" s="268" t="s">
+      <c r="A7" s="262"/>
+      <c r="B7" s="270" t="s">
         <v>2402</v>
       </c>
-      <c r="C7" s="272" t="s">
+      <c r="C7" s="274" t="s">
         <v>2403</v>
       </c>
-      <c r="D7" s="272" t="s">
+      <c r="D7" s="274" t="s">
         <v>2404</v>
       </c>
-      <c r="E7" s="276" t="s">
+      <c r="E7" s="278" t="s">
         <v>2405</v>
       </c>
-      <c r="F7" s="272" t="s">
+      <c r="F7" s="274" t="s">
         <v>2406</v>
       </c>
-      <c r="G7" s="272" t="s">
+      <c r="G7" s="274" t="s">
         <v>2407</v>
       </c>
-      <c r="H7" s="270" t="s">
+      <c r="H7" s="272" t="s">
         <v>2408</v>
       </c>
-      <c r="I7" s="277" t="s">
+      <c r="I7" s="279" t="s">
         <v>2409</v>
       </c>
-      <c r="J7" s="272" t="s">
+      <c r="J7" s="274" t="s">
         <v>2410</v>
       </c>
-      <c r="K7" s="272" t="s">
+      <c r="K7" s="274" t="s">
         <v>2411</v>
       </c>
-      <c r="L7" s="272" t="s">
+      <c r="L7" s="274" t="s">
         <v>2412</v>
       </c>
-      <c r="M7" s="272" t="s">
+      <c r="M7" s="274" t="s">
         <v>2413</v>
       </c>
-      <c r="N7" s="272" t="s">
+      <c r="N7" s="274" t="s">
         <v>2414</v>
       </c>
-      <c r="O7" s="272" t="s">
+      <c r="O7" s="274" t="s">
         <v>2415</v>
       </c>
-      <c r="P7" s="269" t="s">
+      <c r="P7" s="271" t="s">
         <v>2416</v>
       </c>
-      <c r="Q7" s="260"/>
+      <c r="Q7" s="262"/>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="260"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="260"/>
-      <c r="K8" s="260"/>
-      <c r="L8" s="260"/>
-      <c r="M8" s="260"/>
-      <c r="N8" s="260"/>
-      <c r="O8" s="260"/>
-      <c r="P8" s="260"/>
-      <c r="Q8" s="260"/>
+      <c r="A8" s="262"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
     </row>
     <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="278" t="s">
+      <c r="H9" s="280" t="s">
         <v>2417</v>
       </c>
     </row>
@@ -35336,653 +35539,653 @@
   </sheetPr>
   <dimension ref="H3:AA18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.31640625" defaultRowHeight="66.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="259" width="13.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="13.32"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I3" s="279"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="282"/>
-      <c r="S3" s="282"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="281"/>
-      <c r="AA3" s="283"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="283"/>
+      <c r="R3" s="284"/>
+      <c r="S3" s="284"/>
+      <c r="T3" s="283"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283"/>
+      <c r="W3" s="283"/>
+      <c r="X3" s="283"/>
+      <c r="Y3" s="283"/>
+      <c r="Z3" s="283"/>
+      <c r="AA3" s="285"/>
     </row>
     <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I4" s="284"/>
-      <c r="O4" s="285"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="286" t="s">
+      <c r="I4" s="286"/>
+      <c r="O4" s="287"/>
+      <c r="P4" s="287"/>
+      <c r="Q4" s="288" t="s">
         <v>2418</v>
       </c>
-      <c r="R4" s="285"/>
-      <c r="S4" s="285"/>
-      <c r="T4" s="285"/>
-      <c r="AA4" s="287"/>
+      <c r="R4" s="287"/>
+      <c r="S4" s="287"/>
+      <c r="T4" s="287"/>
+      <c r="AA4" s="289"/>
     </row>
     <row r="5" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I5" s="284"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="286" t="s">
+      <c r="I5" s="286"/>
+      <c r="M5" s="287"/>
+      <c r="N5" s="287"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="288" t="s">
         <v>2419</v>
       </c>
-      <c r="Q5" s="286" t="s">
+      <c r="Q5" s="288" t="s">
         <v>2420</v>
       </c>
-      <c r="R5" s="286" t="s">
+      <c r="R5" s="288" t="s">
         <v>2421</v>
       </c>
-      <c r="S5" s="285"/>
-      <c r="T5" s="285"/>
-      <c r="U5" s="285"/>
-      <c r="AA5" s="287"/>
+      <c r="S5" s="287"/>
+      <c r="T5" s="287"/>
+      <c r="U5" s="287"/>
+      <c r="AA5" s="289"/>
     </row>
     <row r="6" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I6" s="284"/>
-      <c r="M6" s="285"/>
-      <c r="N6" s="288" t="s">
+      <c r="I6" s="286"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="290" t="s">
         <v>2422</v>
       </c>
-      <c r="O6" s="286" t="s">
+      <c r="O6" s="288" t="s">
         <v>2423</v>
       </c>
-      <c r="P6" s="286" t="s">
+      <c r="P6" s="288" t="s">
         <v>2424</v>
       </c>
-      <c r="Q6" s="286" t="s">
+      <c r="Q6" s="288" t="s">
         <v>2425</v>
       </c>
-      <c r="R6" s="286" t="s">
+      <c r="R6" s="288" t="s">
         <v>2426</v>
       </c>
-      <c r="S6" s="286" t="s">
+      <c r="S6" s="288" t="s">
         <v>2427</v>
       </c>
-      <c r="T6" s="288" t="s">
+      <c r="T6" s="290" t="s">
         <v>2428</v>
       </c>
-      <c r="U6" s="285"/>
-      <c r="V6" s="285"/>
-      <c r="W6" s="285"/>
-      <c r="AA6" s="287"/>
+      <c r="U6" s="287"/>
+      <c r="V6" s="287"/>
+      <c r="W6" s="287"/>
+      <c r="AA6" s="289"/>
     </row>
     <row r="7" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I7" s="284"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="289" t="s">
+      <c r="I7" s="286"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="291" t="s">
         <v>2429</v>
       </c>
-      <c r="N7" s="290" t="s">
+      <c r="N7" s="292" t="s">
         <v>2430</v>
       </c>
-      <c r="O7" s="288" t="s">
+      <c r="O7" s="290" t="s">
         <v>2431</v>
       </c>
-      <c r="P7" s="286" t="s">
+      <c r="P7" s="288" t="s">
         <v>2432</v>
       </c>
-      <c r="Q7" s="286" t="s">
+      <c r="Q7" s="288" t="s">
         <v>2433</v>
       </c>
-      <c r="R7" s="286" t="s">
+      <c r="R7" s="288" t="s">
         <v>2434</v>
       </c>
-      <c r="S7" s="288" t="s">
+      <c r="S7" s="290" t="s">
         <v>2435</v>
       </c>
-      <c r="T7" s="291" t="s">
+      <c r="T7" s="293" t="s">
         <v>2436</v>
       </c>
-      <c r="U7" s="292" t="s">
+      <c r="U7" s="294" t="s">
         <v>2437</v>
       </c>
-      <c r="V7" s="293" t="s">
+      <c r="V7" s="295" t="s">
         <v>2438</v>
       </c>
-      <c r="W7" s="294" t="s">
+      <c r="W7" s="296" t="s">
         <v>2439</v>
       </c>
-      <c r="X7" s="285"/>
-      <c r="AA7" s="287"/>
+      <c r="X7" s="287"/>
+      <c r="AA7" s="289"/>
     </row>
     <row r="8" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I8" s="284"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="289" t="s">
+      <c r="I8" s="286"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="291" t="s">
         <v>2440</v>
       </c>
-      <c r="M8" s="289" t="s">
+      <c r="M8" s="291" t="s">
         <v>2441</v>
       </c>
-      <c r="N8" s="295" t="s">
+      <c r="N8" s="297" t="s">
         <v>2442</v>
       </c>
-      <c r="O8" s="290" t="s">
+      <c r="O8" s="292" t="s">
         <v>2443</v>
       </c>
-      <c r="P8" s="288" t="s">
+      <c r="P8" s="290" t="s">
         <v>2444</v>
       </c>
-      <c r="Q8" s="286" t="s">
+      <c r="Q8" s="288" t="s">
         <v>2445</v>
       </c>
-      <c r="R8" s="288" t="s">
+      <c r="R8" s="290" t="s">
         <v>2446</v>
       </c>
-      <c r="S8" s="296" t="s">
+      <c r="S8" s="298" t="s">
         <v>2447</v>
       </c>
-      <c r="T8" s="297" t="s">
+      <c r="T8" s="299" t="s">
         <v>2448</v>
       </c>
-      <c r="U8" s="298" t="s">
+      <c r="U8" s="300" t="s">
         <v>2449</v>
       </c>
-      <c r="V8" s="299" t="s">
+      <c r="V8" s="301" t="s">
         <v>2450</v>
       </c>
-      <c r="W8" s="300" t="s">
+      <c r="W8" s="302" t="s">
         <v>2451</v>
       </c>
-      <c r="X8" s="301" t="s">
+      <c r="X8" s="303" t="s">
         <v>2452</v>
       </c>
-      <c r="Y8" s="285"/>
-      <c r="AA8" s="287"/>
+      <c r="Y8" s="287"/>
+      <c r="AA8" s="289"/>
     </row>
     <row r="9" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I9" s="284"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="302" t="s">
+      <c r="I9" s="286"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="304" t="s">
         <v>2453</v>
       </c>
-      <c r="L9" s="289" t="s">
+      <c r="L9" s="291" t="s">
         <v>2454</v>
       </c>
-      <c r="M9" s="303" t="s">
+      <c r="M9" s="305" t="s">
         <v>2455</v>
       </c>
-      <c r="N9" s="304" t="s">
+      <c r="N9" s="306" t="s">
         <v>2456</v>
       </c>
-      <c r="O9" s="305" t="s">
+      <c r="O9" s="307" t="s">
         <v>2457</v>
       </c>
-      <c r="P9" s="290" t="s">
+      <c r="P9" s="292" t="s">
         <v>2458</v>
       </c>
-      <c r="Q9" s="306" t="s">
+      <c r="Q9" s="308" t="s">
         <v>2459</v>
       </c>
-      <c r="R9" s="307" t="s">
+      <c r="R9" s="309" t="s">
         <v>2460</v>
       </c>
-      <c r="S9" s="293" t="s">
+      <c r="S9" s="295" t="s">
         <v>2461</v>
       </c>
-      <c r="T9" s="292" t="s">
+      <c r="T9" s="294" t="s">
         <v>2462</v>
       </c>
-      <c r="U9" s="308" t="s">
+      <c r="U9" s="310" t="s">
         <v>2463</v>
       </c>
-      <c r="V9" s="309" t="s">
+      <c r="V9" s="311" t="s">
         <v>2464</v>
       </c>
-      <c r="W9" s="310" t="s">
+      <c r="W9" s="312" t="s">
         <v>2465</v>
       </c>
-      <c r="X9" s="311" t="s">
+      <c r="X9" s="313" t="s">
         <v>2466</v>
       </c>
-      <c r="Y9" s="312" t="s">
+      <c r="Y9" s="314" t="s">
         <v>2467</v>
       </c>
-      <c r="Z9" s="285"/>
-      <c r="AA9" s="287"/>
+      <c r="Z9" s="287"/>
+      <c r="AA9" s="289"/>
     </row>
     <row r="10" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="260"/>
-      <c r="I10" s="284"/>
-      <c r="J10" s="285"/>
-      <c r="K10" s="290" t="s">
+      <c r="H10" s="262"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="292" t="s">
         <v>2468</v>
       </c>
-      <c r="L10" s="302" t="s">
+      <c r="L10" s="304" t="s">
         <v>2469</v>
       </c>
-      <c r="M10" s="313" t="s">
+      <c r="M10" s="315" t="s">
         <v>2470</v>
       </c>
-      <c r="N10" s="314" t="s">
+      <c r="N10" s="316" t="s">
         <v>2471</v>
       </c>
-      <c r="O10" s="315" t="s">
+      <c r="O10" s="317" t="s">
         <v>2472</v>
       </c>
-      <c r="P10" s="289" t="s">
+      <c r="P10" s="291" t="s">
         <v>2473</v>
       </c>
-      <c r="Q10" s="289" t="s">
+      <c r="Q10" s="291" t="s">
         <v>2474</v>
       </c>
-      <c r="R10" s="316" t="s">
+      <c r="R10" s="318" t="s">
         <v>2475</v>
       </c>
-      <c r="S10" s="303" t="s">
+      <c r="S10" s="305" t="s">
         <v>2476</v>
       </c>
-      <c r="T10" s="317" t="s">
+      <c r="T10" s="319" t="s">
         <v>2477</v>
       </c>
-      <c r="U10" s="318" t="s">
+      <c r="U10" s="320" t="s">
         <v>2478</v>
       </c>
-      <c r="V10" s="301" t="s">
+      <c r="V10" s="303" t="s">
         <v>2479</v>
       </c>
-      <c r="W10" s="292" t="s">
+      <c r="W10" s="294" t="s">
         <v>2480</v>
       </c>
-      <c r="X10" s="319" t="s">
+      <c r="X10" s="321" t="s">
         <v>2481</v>
       </c>
-      <c r="Y10" s="320" t="s">
+      <c r="Y10" s="322" t="s">
         <v>2482</v>
       </c>
-      <c r="Z10" s="285"/>
-      <c r="AA10" s="287"/>
+      <c r="Z10" s="287"/>
+      <c r="AA10" s="289"/>
     </row>
     <row r="11" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I11" s="284"/>
-      <c r="J11" s="285"/>
-      <c r="K11" s="321" t="s">
+      <c r="I11" s="286"/>
+      <c r="J11" s="287"/>
+      <c r="K11" s="323" t="s">
         <v>2483</v>
       </c>
-      <c r="L11" s="322" t="s">
+      <c r="L11" s="324" t="s">
         <v>2484</v>
       </c>
-      <c r="M11" s="323" t="s">
+      <c r="M11" s="325" t="s">
         <v>2485</v>
       </c>
-      <c r="N11" s="324" t="s">
+      <c r="N11" s="326" t="s">
         <v>2486</v>
       </c>
-      <c r="O11" s="321" t="s">
+      <c r="O11" s="323" t="s">
         <v>2487</v>
       </c>
-      <c r="P11" s="325" t="s">
+      <c r="P11" s="327" t="s">
         <v>2488</v>
       </c>
-      <c r="Q11" s="302" t="s">
+      <c r="Q11" s="304" t="s">
         <v>2489</v>
       </c>
-      <c r="R11" s="289" t="s">
+      <c r="R11" s="291" t="s">
         <v>2490</v>
       </c>
-      <c r="S11" s="326" t="s">
+      <c r="S11" s="328" t="s">
         <v>2491</v>
       </c>
-      <c r="T11" s="317" t="s">
+      <c r="T11" s="319" t="s">
         <v>2492</v>
       </c>
-      <c r="U11" s="321" t="s">
+      <c r="U11" s="323" t="s">
         <v>2493</v>
       </c>
-      <c r="V11" s="327" t="s">
+      <c r="V11" s="329" t="s">
         <v>2494</v>
       </c>
-      <c r="W11" s="328" t="s">
+      <c r="W11" s="330" t="s">
         <v>2495</v>
       </c>
-      <c r="X11" s="329" t="s">
+      <c r="X11" s="331" t="s">
         <v>2496</v>
       </c>
-      <c r="Y11" s="330" t="s">
+      <c r="Y11" s="332" t="s">
         <v>2497</v>
       </c>
-      <c r="Z11" s="285"/>
-      <c r="AA11" s="287"/>
+      <c r="Z11" s="287"/>
+      <c r="AA11" s="289"/>
     </row>
     <row r="12" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I12" s="284"/>
-      <c r="J12" s="285"/>
-      <c r="K12" s="302" t="s">
+      <c r="I12" s="286"/>
+      <c r="J12" s="287"/>
+      <c r="K12" s="304" t="s">
         <v>2498</v>
       </c>
-      <c r="L12" s="331" t="s">
+      <c r="L12" s="333" t="s">
         <v>2499</v>
       </c>
-      <c r="M12" s="302" t="s">
+      <c r="M12" s="304" t="s">
         <v>2500</v>
       </c>
-      <c r="N12" s="289" t="s">
+      <c r="N12" s="291" t="s">
         <v>2501</v>
       </c>
-      <c r="O12" s="332" t="s">
+      <c r="O12" s="334" t="s">
         <v>2502</v>
       </c>
-      <c r="P12" s="313" t="s">
+      <c r="P12" s="315" t="s">
         <v>2503</v>
       </c>
-      <c r="Q12" s="333" t="s">
+      <c r="Q12" s="335" t="s">
         <v>2504</v>
       </c>
-      <c r="R12" s="313" t="s">
+      <c r="R12" s="315" t="s">
         <v>2505</v>
       </c>
-      <c r="S12" s="317" t="s">
+      <c r="S12" s="319" t="s">
         <v>2506</v>
       </c>
-      <c r="T12" s="316" t="s">
+      <c r="T12" s="318" t="s">
         <v>2507</v>
       </c>
-      <c r="U12" s="334" t="s">
+      <c r="U12" s="336" t="s">
         <v>2508</v>
       </c>
-      <c r="V12" s="335" t="s">
+      <c r="V12" s="337" t="s">
         <v>2509</v>
       </c>
-      <c r="W12" s="292" t="s">
+      <c r="W12" s="294" t="s">
         <v>2510</v>
       </c>
-      <c r="X12" s="336" t="s">
+      <c r="X12" s="338" t="s">
         <v>2511</v>
       </c>
-      <c r="Y12" s="337" t="s">
+      <c r="Y12" s="339" t="s">
         <v>2512</v>
       </c>
-      <c r="Z12" s="317" t="s">
+      <c r="Z12" s="319" t="s">
         <v>2513</v>
       </c>
-      <c r="AA12" s="338"/>
+      <c r="AA12" s="340"/>
     </row>
     <row r="13" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I13" s="284"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="339" t="s">
+      <c r="I13" s="286"/>
+      <c r="J13" s="287"/>
+      <c r="K13" s="341" t="s">
         <v>2514</v>
       </c>
-      <c r="L13" s="317" t="s">
+      <c r="L13" s="319" t="s">
         <v>2515</v>
       </c>
-      <c r="M13" s="340" t="s">
+      <c r="M13" s="342" t="s">
         <v>2516</v>
       </c>
-      <c r="N13" s="341" t="s">
+      <c r="N13" s="343" t="s">
         <v>2517</v>
       </c>
-      <c r="O13" s="342" t="s">
+      <c r="O13" s="344" t="s">
         <v>2518</v>
       </c>
-      <c r="P13" s="316" t="s">
+      <c r="P13" s="318" t="s">
         <v>2519</v>
       </c>
-      <c r="Q13" s="343" t="s">
+      <c r="Q13" s="345" t="s">
         <v>2520</v>
       </c>
-      <c r="R13" s="343" t="s">
+      <c r="R13" s="345" t="s">
         <v>2521</v>
       </c>
-      <c r="S13" s="343" t="s">
+      <c r="S13" s="345" t="s">
         <v>2522</v>
       </c>
-      <c r="T13" s="324" t="s">
+      <c r="T13" s="326" t="s">
         <v>2523</v>
       </c>
-      <c r="U13" s="321" t="s">
+      <c r="U13" s="323" t="s">
         <v>2524</v>
       </c>
-      <c r="V13" s="313" t="s">
+      <c r="V13" s="315" t="s">
         <v>2525</v>
       </c>
-      <c r="W13" s="344" t="s">
+      <c r="W13" s="346" t="s">
         <v>2526</v>
       </c>
-      <c r="X13" s="345" t="s">
+      <c r="X13" s="347" t="s">
         <v>2527</v>
       </c>
-      <c r="Y13" s="319" t="s">
+      <c r="Y13" s="321" t="s">
         <v>2528</v>
       </c>
-      <c r="Z13" s="337" t="s">
+      <c r="Z13" s="339" t="s">
         <v>2529</v>
       </c>
-      <c r="AA13" s="338"/>
+      <c r="AA13" s="340"/>
     </row>
     <row r="14" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="284"/>
-      <c r="K14" s="285"/>
-      <c r="L14" s="312" t="s">
+      <c r="I14" s="286"/>
+      <c r="K14" s="287"/>
+      <c r="L14" s="314" t="s">
         <v>2530</v>
       </c>
-      <c r="M14" s="346" t="s">
+      <c r="M14" s="348" t="s">
         <v>2531</v>
       </c>
-      <c r="N14" s="347" t="s">
+      <c r="N14" s="349" t="s">
         <v>2532</v>
       </c>
-      <c r="O14" s="348" t="s">
+      <c r="O14" s="350" t="s">
         <v>2533</v>
       </c>
-      <c r="P14" s="328" t="s">
+      <c r="P14" s="330" t="s">
         <v>2534</v>
       </c>
-      <c r="Q14" s="321" t="s">
+      <c r="Q14" s="323" t="s">
         <v>2535</v>
       </c>
-      <c r="R14" s="349" t="s">
+      <c r="R14" s="351" t="s">
         <v>2536</v>
       </c>
-      <c r="S14" s="350" t="s">
+      <c r="S14" s="352" t="s">
         <v>2537</v>
       </c>
-      <c r="T14" s="351" t="s">
+      <c r="T14" s="353" t="s">
         <v>2538</v>
       </c>
-      <c r="U14" s="321" t="s">
+      <c r="U14" s="323" t="s">
         <v>2539</v>
       </c>
-      <c r="V14" s="343" t="s">
+      <c r="V14" s="345" t="s">
         <v>2540</v>
       </c>
-      <c r="W14" s="352" t="s">
+      <c r="W14" s="354" t="s">
         <v>2541</v>
       </c>
-      <c r="X14" s="353" t="s">
+      <c r="X14" s="355" t="s">
         <v>2542</v>
       </c>
-      <c r="Y14" s="354" t="s">
+      <c r="Y14" s="356" t="s">
         <v>2543</v>
       </c>
-      <c r="Z14" s="355" t="s">
+      <c r="Z14" s="357" t="s">
         <v>2544</v>
       </c>
-      <c r="AA14" s="338"/>
+      <c r="AA14" s="340"/>
     </row>
     <row r="15" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I15" s="284"/>
-      <c r="K15" s="285"/>
-      <c r="L15" s="356" t="s">
+      <c r="I15" s="286"/>
+      <c r="K15" s="287"/>
+      <c r="L15" s="358" t="s">
         <v>2545</v>
       </c>
-      <c r="M15" s="357" t="s">
+      <c r="M15" s="359" t="s">
         <v>2546</v>
       </c>
-      <c r="N15" s="343" t="s">
+      <c r="N15" s="345" t="s">
         <v>2547</v>
       </c>
-      <c r="O15" s="305" t="s">
+      <c r="O15" s="307" t="s">
         <v>2548</v>
       </c>
-      <c r="P15" s="313" t="s">
+      <c r="P15" s="315" t="s">
         <v>2549</v>
       </c>
-      <c r="Q15" s="343" t="s">
+      <c r="Q15" s="345" t="s">
         <v>2550</v>
       </c>
-      <c r="R15" s="358" t="s">
+      <c r="R15" s="360" t="s">
         <v>2551</v>
       </c>
-      <c r="S15" s="359" t="s">
+      <c r="S15" s="361" t="s">
         <v>2552</v>
       </c>
-      <c r="T15" s="360" t="s">
+      <c r="T15" s="362" t="s">
         <v>2553</v>
       </c>
-      <c r="U15" s="361" t="s">
+      <c r="U15" s="363" t="s">
         <v>2554</v>
       </c>
-      <c r="V15" s="362" t="s">
+      <c r="V15" s="364" t="s">
         <v>2555</v>
       </c>
-      <c r="W15" s="363" t="s">
+      <c r="W15" s="365" t="s">
         <v>2556</v>
       </c>
-      <c r="X15" s="364" t="s">
+      <c r="X15" s="366" t="s">
         <v>2557</v>
       </c>
-      <c r="Y15" s="365" t="s">
+      <c r="Y15" s="367" t="s">
         <v>2558</v>
       </c>
-      <c r="Z15" s="355" t="s">
+      <c r="Z15" s="357" t="s">
         <v>2559</v>
       </c>
-      <c r="AA15" s="338"/>
+      <c r="AA15" s="340"/>
     </row>
     <row r="16" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I16" s="284"/>
-      <c r="K16" s="285"/>
-      <c r="L16" s="366" t="s">
+      <c r="I16" s="286"/>
+      <c r="K16" s="287"/>
+      <c r="L16" s="368" t="s">
         <v>2560</v>
       </c>
-      <c r="M16" s="321" t="s">
+      <c r="M16" s="323" t="s">
         <v>2561</v>
       </c>
-      <c r="N16" s="367" t="s">
+      <c r="N16" s="369" t="s">
         <v>2562</v>
       </c>
-      <c r="O16" s="351" t="s">
+      <c r="O16" s="353" t="s">
         <v>2563</v>
       </c>
-      <c r="P16" s="321" t="s">
+      <c r="P16" s="323" t="s">
         <v>2564</v>
       </c>
-      <c r="Q16" s="335" t="s">
+      <c r="Q16" s="337" t="s">
         <v>2565</v>
       </c>
-      <c r="R16" s="293" t="s">
+      <c r="R16" s="295" t="s">
         <v>2566</v>
       </c>
-      <c r="S16" s="368" t="s">
+      <c r="S16" s="370" t="s">
         <v>2567</v>
       </c>
-      <c r="T16" s="348" t="s">
+      <c r="T16" s="350" t="s">
         <v>2568</v>
       </c>
-      <c r="U16" s="369" t="s">
+      <c r="U16" s="371" t="s">
         <v>2569</v>
       </c>
-      <c r="V16" s="370" t="s">
+      <c r="V16" s="372" t="s">
         <v>2570</v>
       </c>
-      <c r="W16" s="371" t="s">
+      <c r="W16" s="373" t="s">
         <v>2571</v>
       </c>
-      <c r="X16" s="372" t="s">
+      <c r="X16" s="374" t="s">
         <v>2572</v>
       </c>
-      <c r="Y16" s="354" t="s">
+      <c r="Y16" s="356" t="s">
         <v>2573</v>
       </c>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="287"/>
+      <c r="Z16" s="287"/>
+      <c r="AA16" s="289"/>
     </row>
     <row r="17" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I17" s="284"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="340" t="s">
+      <c r="I17" s="286"/>
+      <c r="L17" s="287"/>
+      <c r="M17" s="342" t="s">
         <v>2574</v>
       </c>
-      <c r="N17" s="317" t="s">
+      <c r="N17" s="319" t="s">
         <v>2575</v>
       </c>
-      <c r="O17" s="373" t="s">
+      <c r="O17" s="375" t="s">
         <v>2576</v>
       </c>
-      <c r="P17" s="332" t="s">
+      <c r="P17" s="334" t="s">
         <v>2577</v>
       </c>
-      <c r="Q17" s="358" t="s">
+      <c r="Q17" s="360" t="s">
         <v>2578</v>
       </c>
-      <c r="R17" s="334" t="s">
+      <c r="R17" s="336" t="s">
         <v>2579</v>
       </c>
-      <c r="S17" s="374" t="s">
+      <c r="S17" s="376" t="s">
         <v>2580</v>
       </c>
-      <c r="T17" s="375" t="s">
+      <c r="T17" s="377" t="s">
         <v>2581</v>
       </c>
-      <c r="U17" s="371" t="s">
+      <c r="U17" s="373" t="s">
         <v>2582</v>
       </c>
-      <c r="V17" s="376" t="s">
+      <c r="V17" s="378" t="s">
         <v>2583</v>
       </c>
-      <c r="W17" s="377" t="s">
+      <c r="W17" s="379" t="s">
         <v>2584</v>
       </c>
-      <c r="X17" s="378" t="s">
+      <c r="X17" s="380" t="s">
         <v>2585</v>
       </c>
-      <c r="Y17" s="379" t="s">
+      <c r="Y17" s="381" t="s">
         <v>2586</v>
       </c>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="287"/>
+      <c r="Z17" s="287"/>
+      <c r="AA17" s="289"/>
     </row>
     <row r="18" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I18" s="380"/>
-      <c r="J18" s="381"/>
-      <c r="K18" s="381"/>
-      <c r="L18" s="381"/>
-      <c r="M18" s="382"/>
-      <c r="N18" s="382"/>
-      <c r="O18" s="382"/>
-      <c r="P18" s="382"/>
-      <c r="Q18" s="382"/>
-      <c r="R18" s="382"/>
-      <c r="S18" s="382"/>
-      <c r="T18" s="382"/>
-      <c r="U18" s="382"/>
-      <c r="V18" s="382"/>
-      <c r="W18" s="382"/>
-      <c r="X18" s="382"/>
-      <c r="Y18" s="382"/>
-      <c r="Z18" s="381"/>
-      <c r="AA18" s="383"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="383"/>
+      <c r="K18" s="383"/>
+      <c r="L18" s="383"/>
+      <c r="M18" s="384"/>
+      <c r="N18" s="384"/>
+      <c r="O18" s="384"/>
+      <c r="P18" s="384"/>
+      <c r="Q18" s="384"/>
+      <c r="R18" s="384"/>
+      <c r="S18" s="384"/>
+      <c r="T18" s="384"/>
+      <c r="U18" s="384"/>
+      <c r="V18" s="384"/>
+      <c r="W18" s="384"/>
+      <c r="X18" s="384"/>
+      <c r="Y18" s="384"/>
+      <c r="Z18" s="383"/>
+      <c r="AA18" s="385"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -36002,182 +36205,182 @@
   </sheetPr>
   <dimension ref="H3:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="60.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
     </row>
     <row r="4" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H4" s="259" t="s">
+      <c r="H4" s="261" t="s">
         <v>2587</v>
       </c>
-      <c r="I4" s="384" t="s">
+      <c r="I4" s="386" t="s">
         <v>2588</v>
       </c>
-      <c r="J4" s="259"/>
-      <c r="K4" s="385" t="s">
+      <c r="J4" s="261"/>
+      <c r="K4" s="387" t="s">
         <v>2589</v>
       </c>
-      <c r="L4" s="385" t="s">
+      <c r="L4" s="387" t="s">
         <v>2590</v>
       </c>
-      <c r="M4" s="385" t="s">
+      <c r="M4" s="387" t="s">
         <v>2591</v>
       </c>
-      <c r="N4" s="385" t="s">
+      <c r="N4" s="387" t="s">
         <v>2592</v>
       </c>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
     </row>
     <row r="5" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="259"/>
-      <c r="I5" s="385" t="s">
+      <c r="H5" s="261"/>
+      <c r="I5" s="387" t="s">
         <v>2593</v>
       </c>
-      <c r="J5" s="259"/>
-      <c r="K5" s="385" t="s">
+      <c r="J5" s="261"/>
+      <c r="K5" s="387" t="s">
         <v>2594</v>
       </c>
-      <c r="L5" s="259"/>
-      <c r="M5" s="259"/>
-      <c r="N5" s="385" t="s">
+      <c r="L5" s="261"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="387" t="s">
         <v>2595</v>
       </c>
-      <c r="O5" s="278" t="s">
+      <c r="O5" s="280" t="s">
         <v>2596</v>
       </c>
-      <c r="P5" s="259"/>
+      <c r="P5" s="261"/>
     </row>
     <row r="6" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H6" s="259"/>
-      <c r="I6" s="385" t="s">
+      <c r="H6" s="261"/>
+      <c r="I6" s="387" t="s">
         <v>2597</v>
       </c>
-      <c r="J6" s="385" t="s">
+      <c r="J6" s="387" t="s">
         <v>2598</v>
       </c>
-      <c r="K6" s="385" t="s">
+      <c r="K6" s="387" t="s">
         <v>2599</v>
       </c>
-      <c r="L6" s="385" t="s">
+      <c r="L6" s="387" t="s">
         <v>2600</v>
       </c>
-      <c r="M6" s="259"/>
-      <c r="N6" s="259"/>
-      <c r="O6" s="259"/>
-      <c r="P6" s="259"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
     </row>
     <row r="7" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H7" s="259"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="385" t="s">
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="387" t="s">
         <v>2601</v>
       </c>
-      <c r="K7" s="385" t="s">
+      <c r="K7" s="387" t="s">
         <v>2602</v>
       </c>
-      <c r="L7" s="385" t="s">
+      <c r="L7" s="387" t="s">
         <v>2603</v>
       </c>
-      <c r="M7" s="259"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="386"/>
-      <c r="P7" s="387"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="388"/>
+      <c r="P7" s="389"/>
     </row>
     <row r="8" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="259"/>
-      <c r="I8" s="385" t="s">
+      <c r="H8" s="261"/>
+      <c r="I8" s="387" t="s">
         <v>2604</v>
       </c>
-      <c r="J8" s="385" t="s">
+      <c r="J8" s="387" t="s">
         <v>2605</v>
       </c>
-      <c r="K8" s="385" t="s">
+      <c r="K8" s="387" t="s">
         <v>2606</v>
       </c>
-      <c r="L8" s="385" t="s">
+      <c r="L8" s="387" t="s">
         <v>2607</v>
       </c>
-      <c r="M8" s="385" t="s">
+      <c r="M8" s="387" t="s">
         <v>2608</v>
       </c>
-      <c r="N8" s="385" t="s">
+      <c r="N8" s="387" t="s">
         <v>2609</v>
       </c>
-      <c r="O8" s="386"/>
-      <c r="P8" s="259"/>
+      <c r="O8" s="388"/>
+      <c r="P8" s="261"/>
     </row>
     <row r="9" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="259"/>
-      <c r="I9" s="385" t="s">
+      <c r="H9" s="261"/>
+      <c r="I9" s="387" t="s">
         <v>2610</v>
       </c>
-      <c r="J9" s="259"/>
-      <c r="K9" s="259"/>
-      <c r="L9" s="385" t="s">
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="387" t="s">
         <v>2611</v>
       </c>
-      <c r="M9" s="259"/>
-      <c r="N9" s="259"/>
-      <c r="O9" s="259"/>
-      <c r="P9" s="259"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
     </row>
     <row r="10" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="259"/>
-      <c r="I10" s="385" t="s">
+      <c r="H10" s="261"/>
+      <c r="I10" s="387" t="s">
         <v>2612</v>
       </c>
-      <c r="J10" s="385" t="s">
+      <c r="J10" s="387" t="s">
         <v>2613</v>
       </c>
-      <c r="K10" s="259"/>
-      <c r="L10" s="385" t="s">
+      <c r="K10" s="261"/>
+      <c r="L10" s="387" t="s">
         <v>2614</v>
       </c>
-      <c r="M10" s="385" t="s">
+      <c r="M10" s="387" t="s">
         <v>2615</v>
       </c>
-      <c r="N10" s="385" t="s">
+      <c r="N10" s="387" t="s">
         <v>2616</v>
       </c>
-      <c r="O10" s="259"/>
-      <c r="P10" s="259"/>
+      <c r="O10" s="261"/>
+      <c r="P10" s="261"/>
     </row>
     <row r="11" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259" t="s">
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261" t="s">
         <v>2617</v>
       </c>
-      <c r="K11" s="259"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="259"/>
-      <c r="N11" s="385" t="s">
+      <c r="K11" s="261"/>
+      <c r="L11" s="261"/>
+      <c r="M11" s="261"/>
+      <c r="N11" s="387" t="s">
         <v>2618</v>
       </c>
-      <c r="O11" s="259"/>
-      <c r="P11" s="259"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
     </row>
     <row r="12" customFormat="false" ht="60.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="259"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="259"/>
-      <c r="K12" s="259"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="278" t="s">
+      <c r="H12" s="261"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="280" t="s">
         <v>2619</v>
       </c>
-      <c r="O12" s="278" t="s">
+      <c r="O12" s="280" t="s">
         <v>2620</v>
       </c>
-      <c r="P12" s="259"/>
+      <c r="P12" s="261"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -36197,413 +36400,413 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.046875" defaultRowHeight="63.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="259" width="13.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="13.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G1" s="372" t="s">
+      <c r="G1" s="374" t="s">
         <v>2621</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G2" s="388" t="s">
+      <c r="G2" s="390" t="s">
         <v>2622</v>
       </c>
-      <c r="H2" s="388" t="s">
+      <c r="H2" s="390" t="s">
         <v>2623</v>
       </c>
-      <c r="I2" s="388" t="s">
+      <c r="I2" s="390" t="s">
         <v>2624</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G3" s="388" t="s">
+      <c r="G3" s="390" t="s">
         <v>2625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="390" t="s">
         <v>2626</v>
       </c>
-      <c r="F4" s="388" t="s">
+      <c r="F4" s="390" t="s">
         <v>2627</v>
       </c>
-      <c r="G4" s="388" t="s">
+      <c r="G4" s="390" t="s">
         <v>2628</v>
       </c>
-      <c r="H4" s="388" t="s">
+      <c r="H4" s="390" t="s">
         <v>2629</v>
       </c>
-      <c r="I4" s="388" t="s">
+      <c r="I4" s="390" t="s">
         <v>2630</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="388" t="s">
+      <c r="E5" s="390" t="s">
         <v>2631</v>
       </c>
-      <c r="F5" s="389"/>
-      <c r="G5" s="388" t="s">
+      <c r="F5" s="391"/>
+      <c r="G5" s="390" t="s">
         <v>2632</v>
       </c>
-      <c r="H5" s="389"/>
-      <c r="I5" s="388" t="s">
+      <c r="H5" s="391"/>
+      <c r="I5" s="390" t="s">
         <v>2633</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="388" t="s">
+      <c r="E6" s="390" t="s">
         <v>2634</v>
       </c>
-      <c r="F6" s="388" t="s">
+      <c r="F6" s="390" t="s">
         <v>2635</v>
       </c>
-      <c r="G6" s="390" t="s">
+      <c r="G6" s="392" t="s">
         <v>2636</v>
       </c>
-      <c r="H6" s="388" t="s">
+      <c r="H6" s="390" t="s">
         <v>2637</v>
       </c>
-      <c r="I6" s="388" t="s">
+      <c r="I6" s="390" t="s">
         <v>2638</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="388" t="s">
+      <c r="E7" s="390" t="s">
         <v>2639</v>
       </c>
-      <c r="F7" s="389"/>
-      <c r="G7" s="388" t="s">
+      <c r="F7" s="391"/>
+      <c r="G7" s="390" t="s">
         <v>2640</v>
       </c>
-      <c r="H7" s="389"/>
-      <c r="I7" s="388" t="s">
+      <c r="H7" s="391"/>
+      <c r="I7" s="390" t="s">
         <v>2641</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="388" t="s">
+      <c r="E8" s="390" t="s">
         <v>2642</v>
       </c>
-      <c r="F8" s="388" t="s">
+      <c r="F8" s="390" t="s">
         <v>2643</v>
       </c>
-      <c r="G8" s="388" t="s">
+      <c r="G8" s="390" t="s">
         <v>2644</v>
       </c>
-      <c r="H8" s="388" t="s">
+      <c r="H8" s="390" t="s">
         <v>2645</v>
       </c>
-      <c r="I8" s="388" t="s">
+      <c r="I8" s="390" t="s">
         <v>2646</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="388" t="s">
+      <c r="G9" s="390" t="s">
         <v>2647</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="388" t="s">
+      <c r="E10" s="390" t="s">
         <v>2648</v>
       </c>
-      <c r="G10" s="388" t="s">
+      <c r="G10" s="390" t="s">
         <v>2649</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="388" t="s">
+      <c r="E11" s="390" t="s">
         <v>2650</v>
       </c>
-      <c r="F11" s="388" t="s">
+      <c r="F11" s="390" t="s">
         <v>2651</v>
       </c>
-      <c r="G11" s="388" t="s">
+      <c r="G11" s="390" t="s">
         <v>2652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="388" t="s">
+      <c r="C12" s="390" t="s">
         <v>2653</v>
       </c>
-      <c r="G12" s="388" t="s">
+      <c r="G12" s="390" t="s">
         <v>2654</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="388" t="s">
+      <c r="C13" s="390" t="s">
         <v>2655</v>
       </c>
-      <c r="D13" s="388" t="s">
+      <c r="D13" s="390" t="s">
         <v>2656</v>
       </c>
-      <c r="E13" s="388" t="s">
+      <c r="E13" s="390" t="s">
         <v>2657</v>
       </c>
-      <c r="F13" s="388" t="s">
+      <c r="F13" s="390" t="s">
         <v>2658</v>
       </c>
-      <c r="G13" s="388" t="s">
+      <c r="G13" s="390" t="s">
         <v>2659</v>
       </c>
-      <c r="H13" s="388" t="s">
+      <c r="H13" s="390" t="s">
         <v>2660</v>
       </c>
-      <c r="I13" s="388" t="s">
+      <c r="I13" s="390" t="s">
         <v>2661</v>
       </c>
-      <c r="J13" s="388" t="s">
+      <c r="J13" s="390" t="s">
         <v>2662</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="388" t="s">
+      <c r="G14" s="390" t="s">
         <v>2663</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="388" t="s">
+      <c r="A15" s="390" t="s">
         <v>2664</v>
       </c>
-      <c r="F15" s="388" t="s">
+      <c r="F15" s="390" t="s">
         <v>2665</v>
       </c>
-      <c r="G15" s="388" t="s">
+      <c r="G15" s="390" t="s">
         <v>2666</v>
       </c>
-      <c r="H15" s="388" t="s">
+      <c r="H15" s="390" t="s">
         <v>2667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="388" t="s">
+      <c r="A16" s="390" t="s">
         <v>2668</v>
       </c>
-      <c r="B16" s="388" t="s">
+      <c r="B16" s="390" t="s">
         <v>2669</v>
       </c>
-      <c r="C16" s="388" t="s">
+      <c r="C16" s="390" t="s">
         <v>2670</v>
       </c>
-      <c r="D16" s="388" t="s">
+      <c r="D16" s="390" t="s">
         <v>2671</v>
       </c>
-      <c r="E16" s="388" t="s">
+      <c r="E16" s="390" t="s">
         <v>2672</v>
       </c>
-      <c r="F16" s="388" t="s">
+      <c r="F16" s="390" t="s">
         <v>2673</v>
       </c>
-      <c r="G16" s="389"/>
-      <c r="H16" s="390" t="s">
+      <c r="G16" s="391"/>
+      <c r="H16" s="392" t="s">
         <v>2674</v>
       </c>
-      <c r="I16" s="388" t="s">
+      <c r="I16" s="390" t="s">
         <v>2675</v>
       </c>
-      <c r="J16" s="388" t="s">
+      <c r="J16" s="390" t="s">
         <v>2676</v>
       </c>
-      <c r="K16" s="388" t="s">
+      <c r="K16" s="390" t="s">
         <v>2677</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F17" s="388" t="s">
+      <c r="F17" s="390" t="s">
         <v>2678</v>
       </c>
-      <c r="G17" s="388" t="s">
+      <c r="G17" s="390" t="s">
         <v>2679</v>
       </c>
-      <c r="H17" s="388" t="s">
+      <c r="H17" s="390" t="s">
         <v>2680</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="388" t="s">
+      <c r="G18" s="390" t="s">
         <v>2681</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="391" t="s">
+      <c r="D19" s="393" t="s">
         <v>2682</v>
       </c>
-      <c r="E19" s="391" t="s">
+      <c r="E19" s="393" t="s">
         <v>2683</v>
       </c>
-      <c r="F19" s="391" t="s">
+      <c r="F19" s="393" t="s">
         <v>2684</v>
       </c>
-      <c r="G19" s="391" t="s">
+      <c r="G19" s="393" t="s">
         <v>2685</v>
       </c>
-      <c r="H19" s="391" t="s">
+      <c r="H19" s="393" t="s">
         <v>2686</v>
       </c>
-      <c r="I19" s="391" t="s">
+      <c r="I19" s="393" t="s">
         <v>2687</v>
       </c>
-      <c r="J19" s="391" t="s">
+      <c r="J19" s="393" t="s">
         <v>2688</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="391" t="s">
+      <c r="D20" s="393" t="s">
         <v>2689</v>
       </c>
-      <c r="E20" s="392"/>
-      <c r="F20" s="393" t="s">
+      <c r="E20" s="394"/>
+      <c r="F20" s="395" t="s">
         <v>2690</v>
       </c>
-      <c r="G20" s="394" t="s">
+      <c r="G20" s="396" t="s">
         <v>2691</v>
       </c>
-      <c r="H20" s="395" t="s">
+      <c r="H20" s="397" t="s">
         <v>2692</v>
       </c>
-      <c r="I20" s="396" t="s">
+      <c r="I20" s="398" t="s">
         <v>2693</v>
       </c>
-      <c r="J20" s="391" t="s">
+      <c r="J20" s="393" t="s">
         <v>2694</v>
       </c>
-      <c r="L20" s="260"/>
-      <c r="M20" s="260"/>
-      <c r="N20" s="260"/>
+      <c r="L20" s="262"/>
+      <c r="M20" s="262"/>
+      <c r="N20" s="262"/>
     </row>
     <row r="21" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="391" t="s">
+      <c r="D21" s="393" t="s">
         <v>2695</v>
       </c>
-      <c r="E21" s="393" t="s">
+      <c r="E21" s="395" t="s">
         <v>2696</v>
       </c>
-      <c r="F21" s="397" t="s">
+      <c r="F21" s="399" t="s">
         <v>2697</v>
       </c>
-      <c r="G21" s="397" t="s">
+      <c r="G21" s="399" t="s">
         <v>2698</v>
       </c>
-      <c r="H21" s="388" t="s">
+      <c r="H21" s="390" t="s">
         <v>2699</v>
       </c>
-      <c r="I21" s="398" t="s">
+      <c r="I21" s="400" t="s">
         <v>2700</v>
       </c>
-      <c r="J21" s="391" t="s">
+      <c r="J21" s="393" t="s">
         <v>2701</v>
       </c>
-      <c r="L21" s="260"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="262"/>
     </row>
     <row r="22" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="391" t="s">
+      <c r="D22" s="393" t="s">
         <v>2702</v>
       </c>
-      <c r="E22" s="399" t="s">
+      <c r="E22" s="401" t="s">
         <v>2703</v>
       </c>
-      <c r="F22" s="400" t="s">
+      <c r="F22" s="402" t="s">
         <v>2704</v>
       </c>
-      <c r="G22" s="388" t="s">
+      <c r="G22" s="390" t="s">
         <v>2705</v>
       </c>
-      <c r="H22" s="388" t="s">
+      <c r="H22" s="390" t="s">
         <v>2706</v>
       </c>
-      <c r="I22" s="398" t="s">
+      <c r="I22" s="400" t="s">
         <v>2707</v>
       </c>
-      <c r="J22" s="391" t="s">
+      <c r="J22" s="393" t="s">
         <v>2708</v>
       </c>
-      <c r="L22" s="260"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="260"/>
+      <c r="L22" s="262"/>
+      <c r="M22" s="262"/>
+      <c r="N22" s="262"/>
     </row>
     <row r="23" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="391" t="s">
+      <c r="D23" s="393" t="s">
         <v>2709</v>
       </c>
-      <c r="E23" s="392"/>
-      <c r="F23" s="401" t="s">
+      <c r="E23" s="394"/>
+      <c r="F23" s="403" t="s">
         <v>2710</v>
       </c>
-      <c r="G23" s="402" t="s">
+      <c r="G23" s="404" t="s">
         <v>2711</v>
       </c>
-      <c r="H23" s="396" t="s">
+      <c r="H23" s="398" t="s">
         <v>2712</v>
       </c>
-      <c r="I23" s="398" t="s">
+      <c r="I23" s="400" t="s">
         <v>2713</v>
       </c>
-      <c r="J23" s="391" t="s">
+      <c r="J23" s="393" t="s">
         <v>2714</v>
       </c>
-      <c r="L23" s="260"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="260"/>
+      <c r="L23" s="262"/>
+      <c r="M23" s="262"/>
+      <c r="N23" s="262"/>
     </row>
     <row r="24" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D24" s="391" t="s">
+      <c r="D24" s="393" t="s">
         <v>2715</v>
       </c>
-      <c r="E24" s="401" t="s">
+      <c r="E24" s="403" t="s">
         <v>2716</v>
       </c>
-      <c r="F24" s="395" t="s">
+      <c r="F24" s="397" t="s">
         <v>2717</v>
       </c>
-      <c r="G24" s="400" t="s">
+      <c r="G24" s="402" t="s">
         <v>2718</v>
       </c>
-      <c r="H24" s="399" t="s">
+      <c r="H24" s="401" t="s">
         <v>2719</v>
       </c>
-      <c r="I24" s="403" t="s">
+      <c r="I24" s="405" t="s">
         <v>2720</v>
       </c>
-      <c r="J24" s="391" t="s">
+      <c r="J24" s="393" t="s">
         <v>2721</v>
       </c>
-      <c r="L24" s="260"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="260"/>
+      <c r="L24" s="262"/>
+      <c r="M24" s="262"/>
+      <c r="N24" s="262"/>
     </row>
     <row r="25" customFormat="false" ht="63.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D25" s="391" t="s">
+      <c r="D25" s="393" t="s">
         <v>2722</v>
       </c>
-      <c r="E25" s="391" t="s">
+      <c r="E25" s="393" t="s">
         <v>2723</v>
       </c>
-      <c r="F25" s="391" t="s">
+      <c r="F25" s="393" t="s">
         <v>2724</v>
       </c>
-      <c r="G25" s="391" t="s">
+      <c r="G25" s="393" t="s">
         <v>2725</v>
       </c>
-      <c r="H25" s="391" t="s">
+      <c r="H25" s="393" t="s">
         <v>2726</v>
       </c>
-      <c r="I25" s="391" t="s">
+      <c r="I25" s="393" t="s">
         <v>2727</v>
       </c>
-      <c r="J25" s="391" t="s">
+      <c r="J25" s="393" t="s">
         <v>2728</v>
       </c>
-      <c r="L25" s="260"/>
-      <c r="M25" s="260"/>
-      <c r="N25" s="260"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -36623,507 +36826,507 @@
   </sheetPr>
   <dimension ref="C3:AA28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q13" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V28" activeCellId="0" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="62.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="259" width="12.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="12.97"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O3" s="404" t="s">
+      <c r="O3" s="406" t="s">
         <v>2729</v>
       </c>
-      <c r="P3" s="404" t="s">
+      <c r="P3" s="406" t="s">
         <v>2730</v>
       </c>
-      <c r="Q3" s="404" t="s">
+      <c r="Q3" s="406" t="s">
         <v>2731</v>
       </c>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="406" t="s">
         <v>2732</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N4" s="404" t="s">
+      <c r="N4" s="406" t="s">
         <v>2733</v>
       </c>
-      <c r="O4" s="404" t="s">
+      <c r="O4" s="406" t="s">
         <v>2734</v>
       </c>
-      <c r="R4" s="404" t="s">
+      <c r="R4" s="406" t="s">
         <v>2735</v>
       </c>
-      <c r="Z4" s="405" t="s">
+      <c r="Z4" s="407" t="s">
         <v>2736</v>
       </c>
-      <c r="AA4" s="406" t="s">
+      <c r="AA4" s="408" t="s">
         <v>2737</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="404" t="s">
+      <c r="H5" s="406" t="s">
         <v>2738</v>
       </c>
-      <c r="I5" s="404" t="s">
+      <c r="I5" s="406" t="s">
         <v>2739</v>
       </c>
-      <c r="J5" s="404" t="s">
+      <c r="J5" s="406" t="s">
         <v>2740</v>
       </c>
-      <c r="K5" s="404" t="s">
+      <c r="K5" s="406" t="s">
         <v>2741</v>
       </c>
-      <c r="L5" s="404" t="s">
+      <c r="L5" s="406" t="s">
         <v>2742</v>
       </c>
-      <c r="M5" s="404" t="s">
+      <c r="M5" s="406" t="s">
         <v>2743</v>
       </c>
-      <c r="N5" s="404" t="s">
+      <c r="N5" s="406" t="s">
         <v>2744</v>
       </c>
-      <c r="O5" s="404" t="s">
+      <c r="O5" s="406" t="s">
         <v>2745</v>
       </c>
-      <c r="R5" s="404" t="s">
+      <c r="R5" s="406" t="s">
         <v>2746</v>
       </c>
-      <c r="Z5" s="407" t="s">
+      <c r="Z5" s="409" t="s">
         <v>2747</v>
       </c>
-      <c r="AA5" s="406" t="s">
+      <c r="AA5" s="408" t="s">
         <v>2748</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="408" t="s">
+      <c r="C6" s="410" t="s">
         <v>2749</v>
       </c>
-      <c r="D6" s="408" t="s">
+      <c r="D6" s="410" t="s">
         <v>2750</v>
       </c>
-      <c r="E6" s="408" t="s">
+      <c r="E6" s="410" t="s">
         <v>2751</v>
       </c>
-      <c r="J6" s="404" t="s">
+      <c r="J6" s="406" t="s">
         <v>2752</v>
       </c>
-      <c r="Q6" s="405" t="s">
+      <c r="Q6" s="407" t="s">
         <v>2753</v>
       </c>
-      <c r="R6" s="409" t="s">
+      <c r="R6" s="411" t="s">
         <v>2754</v>
       </c>
-      <c r="S6" s="408" t="s">
+      <c r="S6" s="410" t="s">
         <v>2755</v>
       </c>
-      <c r="AA6" s="404" t="s">
+      <c r="AA6" s="406" t="s">
         <v>2756</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="412" t="s">
         <v>2757</v>
       </c>
-      <c r="D7" s="411" t="s">
+      <c r="D7" s="413" t="s">
         <v>2758</v>
       </c>
-      <c r="E7" s="412" t="s">
+      <c r="E7" s="414" t="s">
         <v>2759</v>
       </c>
-      <c r="J7" s="404" t="s">
+      <c r="J7" s="406" t="s">
         <v>2760</v>
       </c>
-      <c r="Q7" s="407" t="s">
+      <c r="Q7" s="409" t="s">
         <v>2761</v>
       </c>
-      <c r="R7" s="407" t="s">
+      <c r="R7" s="409" t="s">
         <v>2762</v>
       </c>
-      <c r="S7" s="413" t="s">
+      <c r="S7" s="415" t="s">
         <v>2763</v>
       </c>
-      <c r="AA7" s="404" t="s">
+      <c r="AA7" s="406" t="s">
         <v>2764</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="414" t="s">
+      <c r="C8" s="416" t="s">
         <v>2765</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="417" t="s">
         <v>2766</v>
       </c>
-      <c r="E8" s="414" t="s">
+      <c r="E8" s="416" t="s">
         <v>2767</v>
       </c>
-      <c r="J8" s="404" t="s">
+      <c r="J8" s="406" t="s">
         <v>2768</v>
       </c>
-      <c r="X8" s="404" t="s">
+      <c r="X8" s="406" t="s">
         <v>2769</v>
       </c>
-      <c r="Y8" s="404" t="s">
+      <c r="Y8" s="406" t="s">
         <v>2770</v>
       </c>
-      <c r="AA8" s="404" t="s">
+      <c r="AA8" s="406" t="s">
         <v>2771</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D9" s="414" t="s">
+      <c r="D9" s="416" t="s">
         <v>2772</v>
       </c>
-      <c r="E9" s="404" t="s">
+      <c r="E9" s="406" t="s">
         <v>2773</v>
       </c>
-      <c r="F9" s="404" t="s">
+      <c r="F9" s="406" t="s">
         <v>2774</v>
       </c>
-      <c r="J9" s="404" t="s">
+      <c r="J9" s="406" t="s">
         <v>2775</v>
       </c>
-      <c r="U9" s="404" t="s">
+      <c r="U9" s="406" t="s">
         <v>2776</v>
       </c>
-      <c r="V9" s="404" t="s">
+      <c r="V9" s="406" t="s">
         <v>2777</v>
       </c>
-      <c r="W9" s="404" t="s">
+      <c r="W9" s="406" t="s">
         <v>2778</v>
       </c>
-      <c r="X9" s="404" t="s">
+      <c r="X9" s="406" t="s">
         <v>2779</v>
       </c>
-      <c r="Y9" s="404" t="s">
+      <c r="Y9" s="406" t="s">
         <v>2780</v>
       </c>
-      <c r="Z9" s="404" t="s">
+      <c r="Z9" s="406" t="s">
         <v>2781</v>
       </c>
-      <c r="AA9" s="404" t="s">
+      <c r="AA9" s="406" t="s">
         <v>2782</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F10" s="404" t="s">
+      <c r="F10" s="406" t="s">
         <v>2783</v>
       </c>
-      <c r="G10" s="404" t="s">
+      <c r="G10" s="406" t="s">
         <v>2784</v>
       </c>
-      <c r="J10" s="404" t="s">
+      <c r="J10" s="406" t="s">
         <v>2785</v>
       </c>
-      <c r="M10" s="405" t="s">
+      <c r="M10" s="407" t="s">
         <v>2786</v>
       </c>
-      <c r="N10" s="416" t="s">
+      <c r="N10" s="418" t="s">
         <v>2787</v>
       </c>
-      <c r="O10" s="406" t="s">
+      <c r="O10" s="408" t="s">
         <v>2788</v>
       </c>
-      <c r="T10" s="404" t="s">
+      <c r="T10" s="406" t="s">
         <v>2789</v>
       </c>
-      <c r="U10" s="404" t="s">
+      <c r="U10" s="406" t="s">
         <v>2790</v>
       </c>
-      <c r="Z10" s="404" t="s">
+      <c r="Z10" s="406" t="s">
         <v>2791</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="404" t="s">
+      <c r="G11" s="406" t="s">
         <v>2792</v>
       </c>
-      <c r="H11" s="404" t="s">
+      <c r="H11" s="406" t="s">
         <v>2793</v>
       </c>
-      <c r="J11" s="404" t="s">
+      <c r="J11" s="406" t="s">
         <v>2794</v>
       </c>
-      <c r="M11" s="407" t="s">
+      <c r="M11" s="409" t="s">
         <v>2795</v>
       </c>
-      <c r="N11" s="406" t="s">
+      <c r="N11" s="408" t="s">
         <v>2796</v>
       </c>
-      <c r="O11" s="387"/>
-      <c r="T11" s="404" t="s">
+      <c r="O11" s="389"/>
+      <c r="T11" s="406" t="s">
         <v>2797</v>
       </c>
-      <c r="U11" s="404" t="s">
+      <c r="U11" s="406" t="s">
         <v>2798</v>
       </c>
-      <c r="V11" s="404" t="s">
+      <c r="V11" s="406" t="s">
         <v>2799</v>
       </c>
-      <c r="Z11" s="404" t="s">
+      <c r="Z11" s="406" t="s">
         <v>2800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="404" t="s">
+      <c r="H12" s="406" t="s">
         <v>2801</v>
       </c>
-      <c r="I12" s="404" t="s">
+      <c r="I12" s="406" t="s">
         <v>2802</v>
       </c>
-      <c r="J12" s="404" t="s">
+      <c r="J12" s="406" t="s">
         <v>2803</v>
       </c>
-      <c r="N12" s="404" t="s">
+      <c r="N12" s="406" t="s">
         <v>2804</v>
       </c>
-      <c r="V12" s="404" t="s">
+      <c r="V12" s="406" t="s">
         <v>2805</v>
       </c>
-      <c r="Z12" s="404" t="s">
+      <c r="Z12" s="406" t="s">
         <v>2806</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J13" s="404" t="s">
+      <c r="J13" s="406" t="s">
         <v>2807</v>
       </c>
-      <c r="N13" s="404" t="s">
+      <c r="N13" s="406" t="s">
         <v>2808</v>
       </c>
-      <c r="R13" s="404" t="s">
+      <c r="R13" s="406" t="s">
         <v>2809</v>
       </c>
-      <c r="S13" s="404" t="s">
+      <c r="S13" s="406" t="s">
         <v>2810</v>
       </c>
-      <c r="V13" s="404" t="s">
+      <c r="V13" s="406" t="s">
         <v>2811</v>
       </c>
-      <c r="Z13" s="404" t="s">
+      <c r="Z13" s="406" t="s">
         <v>2812</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J14" s="404" t="s">
+      <c r="J14" s="406" t="s">
         <v>2813</v>
       </c>
-      <c r="K14" s="404" t="s">
+      <c r="K14" s="406" t="s">
         <v>2814</v>
       </c>
-      <c r="L14" s="404" t="s">
+      <c r="L14" s="406" t="s">
         <v>2815</v>
       </c>
-      <c r="M14" s="404" t="s">
+      <c r="M14" s="406" t="s">
         <v>2816</v>
       </c>
-      <c r="N14" s="404" t="s">
+      <c r="N14" s="406" t="s">
         <v>2817</v>
       </c>
-      <c r="R14" s="404" t="s">
+      <c r="R14" s="406" t="s">
         <v>2818</v>
       </c>
-      <c r="S14" s="404" t="s">
+      <c r="S14" s="406" t="s">
         <v>2819</v>
       </c>
-      <c r="T14" s="404" t="s">
+      <c r="T14" s="406" t="s">
         <v>2820</v>
       </c>
-      <c r="U14" s="404" t="s">
+      <c r="U14" s="406" t="s">
         <v>2821</v>
       </c>
-      <c r="V14" s="404" t="s">
+      <c r="V14" s="406" t="s">
         <v>2822</v>
       </c>
-      <c r="Z14" s="404" t="s">
+      <c r="Z14" s="406" t="s">
         <v>2823</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J15" s="404" t="s">
+      <c r="J15" s="406" t="s">
         <v>2824</v>
       </c>
-      <c r="N15" s="404" t="s">
+      <c r="N15" s="406" t="s">
         <v>2825</v>
       </c>
-      <c r="O15" s="404" t="s">
+      <c r="O15" s="406" t="s">
         <v>2826</v>
       </c>
-      <c r="P15" s="404" t="s">
+      <c r="P15" s="406" t="s">
         <v>2827</v>
       </c>
-      <c r="Q15" s="404" t="s">
+      <c r="Q15" s="406" t="s">
         <v>2828</v>
       </c>
-      <c r="R15" s="404" t="s">
+      <c r="R15" s="406" t="s">
         <v>2829</v>
       </c>
-      <c r="Z15" s="404" t="s">
+      <c r="Z15" s="406" t="s">
         <v>2830</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H16" s="404" t="s">
+      <c r="H16" s="406" t="s">
         <v>2831</v>
       </c>
-      <c r="I16" s="404" t="s">
+      <c r="I16" s="406" t="s">
         <v>2832</v>
       </c>
-      <c r="J16" s="404" t="s">
+      <c r="J16" s="406" t="s">
         <v>2833</v>
       </c>
-      <c r="N16" s="404" t="s">
+      <c r="N16" s="406" t="s">
         <v>2834</v>
       </c>
-      <c r="Q16" s="404" t="s">
+      <c r="Q16" s="406" t="s">
         <v>2835</v>
       </c>
-      <c r="Z16" s="404" t="s">
+      <c r="Z16" s="406" t="s">
         <v>2836</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="404" t="s">
+      <c r="H17" s="406" t="s">
         <v>2837</v>
       </c>
-      <c r="N17" s="404" t="s">
+      <c r="N17" s="406" t="s">
         <v>2838</v>
       </c>
-      <c r="Q17" s="404" t="s">
+      <c r="Q17" s="406" t="s">
         <v>2839</v>
       </c>
-      <c r="Y17" s="404" t="s">
+      <c r="Y17" s="406" t="s">
         <v>2840</v>
       </c>
-      <c r="Z17" s="404" t="s">
+      <c r="Z17" s="406" t="s">
         <v>2841</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H18" s="404" t="s">
+      <c r="H18" s="406" t="s">
         <v>2842</v>
       </c>
-      <c r="N18" s="404" t="s">
+      <c r="N18" s="406" t="s">
         <v>2843</v>
       </c>
-      <c r="Q18" s="404" t="s">
+      <c r="Q18" s="406" t="s">
         <v>2844</v>
       </c>
-      <c r="R18" s="372" t="s">
+      <c r="R18" s="374" t="s">
         <v>2845</v>
       </c>
-      <c r="Y18" s="404" t="s">
+      <c r="Y18" s="406" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N19" s="404" t="s">
+      <c r="N19" s="406" t="s">
         <v>2847</v>
       </c>
-      <c r="X19" s="404" t="s">
+      <c r="X19" s="406" t="s">
         <v>2848</v>
       </c>
-      <c r="Y19" s="404" t="s">
+      <c r="Y19" s="406" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M20" s="410" t="s">
+      <c r="M20" s="412" t="s">
         <v>2850</v>
       </c>
-      <c r="N20" s="406" t="s">
+      <c r="N20" s="408" t="s">
         <v>2851</v>
       </c>
-      <c r="O20" s="408" t="s">
+      <c r="O20" s="410" t="s">
         <v>2852</v>
       </c>
-      <c r="V20" s="404" t="s">
+      <c r="V20" s="406" t="s">
         <v>2853</v>
       </c>
-      <c r="W20" s="404" t="s">
+      <c r="W20" s="406" t="s">
         <v>2854</v>
       </c>
-      <c r="X20" s="404" t="s">
+      <c r="X20" s="406" t="s">
         <v>2855</v>
       </c>
-      <c r="Y20" s="417"/>
+      <c r="Y20" s="419"/>
     </row>
     <row r="21" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M21" s="415" t="s">
+      <c r="M21" s="417" t="s">
         <v>2856</v>
       </c>
-      <c r="N21" s="418" t="s">
+      <c r="N21" s="420" t="s">
         <v>2857</v>
       </c>
-      <c r="O21" s="412" t="s">
+      <c r="O21" s="414" t="s">
         <v>2858</v>
       </c>
-      <c r="V21" s="404" t="s">
+      <c r="V21" s="406" t="s">
         <v>2859</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M22" s="407" t="s">
+      <c r="M22" s="409" t="s">
         <v>2860</v>
       </c>
-      <c r="N22" s="416" t="s">
+      <c r="N22" s="418" t="s">
         <v>2861</v>
       </c>
-      <c r="O22" s="413" t="s">
+      <c r="O22" s="415" t="s">
         <v>2862</v>
       </c>
-      <c r="V22" s="404" t="s">
+      <c r="V22" s="406" t="s">
         <v>2863</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U23" s="404" t="s">
+      <c r="U23" s="406" t="s">
         <v>2864</v>
       </c>
-      <c r="V23" s="404" t="s">
+      <c r="V23" s="406" t="s">
         <v>2865</v>
       </c>
-      <c r="W23" s="404" t="s">
+      <c r="W23" s="406" t="s">
         <v>2866</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V24" s="404" t="s">
+      <c r="V24" s="406" t="s">
         <v>2867</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U25" s="404" t="s">
+      <c r="U25" s="406" t="s">
         <v>2868</v>
       </c>
-      <c r="V25" s="404" t="s">
+      <c r="V25" s="406" t="s">
         <v>2869</v>
       </c>
-      <c r="W25" s="404" t="s">
+      <c r="W25" s="406" t="s">
         <v>2870</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V26" s="404" t="s">
+      <c r="V26" s="406" t="s">
         <v>2871</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U27" s="404" t="s">
+      <c r="U27" s="406" t="s">
         <v>2872</v>
       </c>
-      <c r="V27" s="404" t="s">
+      <c r="V27" s="406" t="s">
         <v>2873</v>
       </c>
-      <c r="W27" s="404" t="s">
+      <c r="W27" s="406" t="s">
         <v>2874</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V28" s="404" t="s">
+      <c r="V28" s="406" t="s">
         <v>2875</v>
       </c>
     </row>
@@ -37145,8 +37348,8 @@
   </sheetPr>
   <dimension ref="E4:AD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD13" activeCellId="0" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37969,282 +38172,282 @@
   </sheetPr>
   <dimension ref="G3:T13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4453125" defaultRowHeight="62.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="259" width="13.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="13.44"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G3" s="419"/>
-      <c r="H3" s="419"/>
-      <c r="I3" s="420"/>
-      <c r="J3" s="421" t="s">
+      <c r="G3" s="421"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="422"/>
+      <c r="J3" s="423" t="s">
         <v>2876</v>
       </c>
-      <c r="K3" s="422"/>
-      <c r="L3" s="421" t="s">
+      <c r="K3" s="424"/>
+      <c r="L3" s="423" t="s">
         <v>2877</v>
       </c>
-      <c r="M3" s="421" t="s">
+      <c r="M3" s="423" t="s">
         <v>2878</v>
       </c>
-      <c r="N3" s="423"/>
-      <c r="O3" s="421" t="s">
+      <c r="N3" s="425"/>
+      <c r="O3" s="423" t="s">
         <v>2879</v>
       </c>
-      <c r="P3" s="420"/>
-      <c r="Q3" s="419"/>
-      <c r="R3" s="419"/>
-      <c r="S3" s="419"/>
-      <c r="T3" s="419"/>
+      <c r="P3" s="422"/>
+      <c r="Q3" s="421"/>
+      <c r="R3" s="421"/>
+      <c r="S3" s="421"/>
+      <c r="T3" s="421"/>
     </row>
     <row r="4" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G4" s="419"/>
-      <c r="H4" s="419"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="425" t="s">
+      <c r="G4" s="421"/>
+      <c r="H4" s="421"/>
+      <c r="I4" s="426"/>
+      <c r="J4" s="427" t="s">
         <v>2880</v>
       </c>
-      <c r="K4" s="425" t="s">
+      <c r="K4" s="427" t="s">
         <v>2881</v>
       </c>
-      <c r="L4" s="426" t="s">
+      <c r="L4" s="428" t="s">
         <v>2882</v>
       </c>
-      <c r="M4" s="426" t="s">
+      <c r="M4" s="428" t="s">
         <v>2883</v>
       </c>
-      <c r="N4" s="425" t="s">
+      <c r="N4" s="427" t="s">
         <v>2884</v>
       </c>
-      <c r="O4" s="425" t="s">
+      <c r="O4" s="427" t="s">
         <v>2885</v>
       </c>
-      <c r="P4" s="424"/>
-      <c r="Q4" s="419"/>
-      <c r="R4" s="419"/>
-      <c r="S4" s="419"/>
-      <c r="T4" s="419"/>
+      <c r="P4" s="426"/>
+      <c r="Q4" s="421"/>
+      <c r="R4" s="421"/>
+      <c r="S4" s="421"/>
+      <c r="T4" s="421"/>
     </row>
     <row r="5" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G5" s="419"/>
-      <c r="H5" s="419"/>
-      <c r="I5" s="420"/>
-      <c r="J5" s="427" t="s">
+      <c r="G5" s="421"/>
+      <c r="H5" s="421"/>
+      <c r="I5" s="422"/>
+      <c r="J5" s="429" t="s">
         <v>2886</v>
       </c>
-      <c r="K5" s="428" t="s">
+      <c r="K5" s="430" t="s">
         <v>2887</v>
       </c>
-      <c r="L5" s="429" t="s">
+      <c r="L5" s="431" t="s">
         <v>2888</v>
       </c>
-      <c r="M5" s="430"/>
-      <c r="N5" s="428" t="s">
+      <c r="M5" s="432"/>
+      <c r="N5" s="430" t="s">
         <v>2889</v>
       </c>
-      <c r="O5" s="427" t="s">
+      <c r="O5" s="429" t="s">
         <v>2890</v>
       </c>
-      <c r="P5" s="420"/>
-      <c r="Q5" s="419"/>
-      <c r="R5" s="419"/>
-      <c r="S5" s="419"/>
-      <c r="T5" s="419"/>
+      <c r="P5" s="422"/>
+      <c r="Q5" s="421"/>
+      <c r="R5" s="421"/>
+      <c r="S5" s="421"/>
+      <c r="T5" s="421"/>
     </row>
     <row r="6" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G6" s="419"/>
-      <c r="H6" s="419"/>
-      <c r="I6" s="431" t="s">
+      <c r="G6" s="421"/>
+      <c r="H6" s="421"/>
+      <c r="I6" s="433" t="s">
         <v>2891</v>
       </c>
-      <c r="J6" s="432" t="s">
+      <c r="J6" s="434" t="s">
         <v>2892</v>
       </c>
-      <c r="K6" s="433" t="s">
+      <c r="K6" s="435" t="s">
         <v>2893</v>
       </c>
-      <c r="L6" s="425" t="s">
+      <c r="L6" s="427" t="s">
         <v>2894</v>
       </c>
-      <c r="M6" s="434" t="s">
+      <c r="M6" s="436" t="s">
         <v>2895</v>
       </c>
-      <c r="N6" s="435" t="s">
+      <c r="N6" s="437" t="s">
         <v>2896</v>
       </c>
-      <c r="O6" s="436" t="s">
+      <c r="O6" s="438" t="s">
         <v>2897</v>
       </c>
-      <c r="P6" s="437" t="s">
+      <c r="P6" s="439" t="s">
         <v>2898</v>
       </c>
-      <c r="Q6" s="419"/>
-      <c r="R6" s="419"/>
-      <c r="S6" s="419"/>
-      <c r="T6" s="419"/>
+      <c r="Q6" s="421"/>
+      <c r="R6" s="421"/>
+      <c r="S6" s="421"/>
+      <c r="T6" s="421"/>
     </row>
     <row r="7" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G7" s="419"/>
-      <c r="H7" s="419"/>
-      <c r="I7" s="431" t="s">
+      <c r="G7" s="421"/>
+      <c r="H7" s="421"/>
+      <c r="I7" s="433" t="s">
         <v>2899</v>
       </c>
-      <c r="J7" s="432" t="s">
+      <c r="J7" s="434" t="s">
         <v>2900</v>
       </c>
-      <c r="K7" s="433" t="s">
+      <c r="K7" s="435" t="s">
         <v>2901</v>
       </c>
-      <c r="L7" s="425" t="s">
+      <c r="L7" s="427" t="s">
         <v>2902</v>
       </c>
-      <c r="M7" s="425" t="s">
+      <c r="M7" s="427" t="s">
         <v>2903</v>
       </c>
-      <c r="N7" s="438" t="s">
+      <c r="N7" s="440" t="s">
         <v>2904</v>
       </c>
-      <c r="O7" s="425" t="s">
+      <c r="O7" s="427" t="s">
         <v>2905</v>
       </c>
-      <c r="P7" s="437" t="s">
+      <c r="P7" s="439" t="s">
         <v>2906</v>
       </c>
-      <c r="Q7" s="419"/>
-      <c r="R7" s="419"/>
-      <c r="S7" s="419"/>
-      <c r="T7" s="419"/>
+      <c r="Q7" s="421"/>
+      <c r="R7" s="421"/>
+      <c r="S7" s="421"/>
+      <c r="T7" s="421"/>
     </row>
     <row r="8" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G8" s="419"/>
-      <c r="H8" s="419"/>
-      <c r="I8" s="420"/>
-      <c r="J8" s="427" t="s">
+      <c r="G8" s="421"/>
+      <c r="H8" s="421"/>
+      <c r="I8" s="422"/>
+      <c r="J8" s="429" t="s">
         <v>2907</v>
       </c>
-      <c r="K8" s="430"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="428" t="s">
+      <c r="K8" s="432"/>
+      <c r="L8" s="441"/>
+      <c r="M8" s="430" t="s">
         <v>2908</v>
       </c>
-      <c r="N8" s="429" t="s">
+      <c r="N8" s="431" t="s">
         <v>2909</v>
       </c>
-      <c r="O8" s="427" t="s">
+      <c r="O8" s="429" t="s">
         <v>2910</v>
       </c>
-      <c r="P8" s="420"/>
-      <c r="Q8" s="419"/>
-      <c r="R8" s="419"/>
-      <c r="S8" s="419"/>
-      <c r="T8" s="419"/>
+      <c r="P8" s="422"/>
+      <c r="Q8" s="421"/>
+      <c r="R8" s="421"/>
+      <c r="S8" s="421"/>
+      <c r="T8" s="421"/>
     </row>
     <row r="9" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="419"/>
-      <c r="H9" s="419" t="s">
+      <c r="G9" s="421"/>
+      <c r="H9" s="421" t="s">
         <v>2911</v>
       </c>
-      <c r="I9" s="440"/>
-      <c r="J9" s="425" t="s">
+      <c r="I9" s="442"/>
+      <c r="J9" s="427" t="s">
         <v>2912</v>
       </c>
-      <c r="K9" s="425" t="s">
+      <c r="K9" s="427" t="s">
         <v>2913</v>
       </c>
-      <c r="L9" s="441" t="s">
+      <c r="L9" s="443" t="s">
         <v>2914</v>
       </c>
-      <c r="M9" s="441" t="s">
+      <c r="M9" s="443" t="s">
         <v>2915</v>
       </c>
-      <c r="N9" s="425" t="s">
+      <c r="N9" s="427" t="s">
         <v>2916</v>
       </c>
-      <c r="O9" s="425" t="s">
+      <c r="O9" s="427" t="s">
         <v>2917</v>
       </c>
-      <c r="P9" s="440"/>
-      <c r="Q9" s="419"/>
-      <c r="R9" s="419"/>
-      <c r="S9" s="419"/>
-      <c r="T9" s="419"/>
+      <c r="P9" s="442"/>
+      <c r="Q9" s="421"/>
+      <c r="R9" s="421"/>
+      <c r="S9" s="421"/>
+      <c r="T9" s="421"/>
     </row>
     <row r="10" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="419"/>
-      <c r="H10" s="419"/>
-      <c r="I10" s="420"/>
-      <c r="J10" s="442" t="s">
+      <c r="G10" s="421"/>
+      <c r="H10" s="421"/>
+      <c r="I10" s="422"/>
+      <c r="J10" s="444" t="s">
         <v>2918</v>
       </c>
-      <c r="K10" s="422"/>
-      <c r="L10" s="442" t="s">
+      <c r="K10" s="424"/>
+      <c r="L10" s="444" t="s">
         <v>2919</v>
       </c>
-      <c r="M10" s="442" t="s">
+      <c r="M10" s="444" t="s">
         <v>2920</v>
       </c>
-      <c r="N10" s="423"/>
-      <c r="O10" s="442" t="s">
+      <c r="N10" s="425"/>
+      <c r="O10" s="444" t="s">
         <v>2921</v>
       </c>
-      <c r="P10" s="420"/>
-      <c r="Q10" s="419"/>
-      <c r="R10" s="419"/>
-      <c r="S10" s="419"/>
-      <c r="T10" s="419"/>
+      <c r="P10" s="422"/>
+      <c r="Q10" s="421"/>
+      <c r="R10" s="421"/>
+      <c r="S10" s="421"/>
+      <c r="T10" s="421"/>
     </row>
     <row r="11" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="419"/>
-      <c r="H11" s="419"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="419"/>
-      <c r="K11" s="419"/>
-      <c r="L11" s="419"/>
-      <c r="M11" s="419"/>
-      <c r="N11" s="419"/>
-      <c r="O11" s="419"/>
-      <c r="P11" s="419"/>
-      <c r="Q11" s="419"/>
-      <c r="R11" s="419"/>
-      <c r="S11" s="419"/>
-      <c r="T11" s="419"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="421"/>
+      <c r="I11" s="421"/>
+      <c r="J11" s="421"/>
+      <c r="K11" s="421"/>
+      <c r="L11" s="421"/>
+      <c r="M11" s="421"/>
+      <c r="N11" s="421"/>
+      <c r="O11" s="421"/>
+      <c r="P11" s="421"/>
+      <c r="Q11" s="421"/>
+      <c r="R11" s="421"/>
+      <c r="S11" s="421"/>
+      <c r="T11" s="421"/>
     </row>
     <row r="12" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="419"/>
-      <c r="H12" s="419"/>
-      <c r="I12" s="419"/>
-      <c r="J12" s="419"/>
-      <c r="K12" s="419"/>
-      <c r="L12" s="419"/>
-      <c r="M12" s="419"/>
-      <c r="N12" s="419"/>
-      <c r="O12" s="419"/>
-      <c r="P12" s="419"/>
-      <c r="Q12" s="419"/>
-      <c r="R12" s="419"/>
-      <c r="S12" s="419"/>
-      <c r="T12" s="419"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="421"/>
+      <c r="I12" s="421"/>
+      <c r="J12" s="421"/>
+      <c r="K12" s="421"/>
+      <c r="L12" s="421"/>
+      <c r="M12" s="421"/>
+      <c r="N12" s="421"/>
+      <c r="O12" s="421"/>
+      <c r="P12" s="421"/>
+      <c r="Q12" s="421"/>
+      <c r="R12" s="421"/>
+      <c r="S12" s="421"/>
+      <c r="T12" s="421"/>
     </row>
     <row r="13" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="419"/>
-      <c r="H13" s="419"/>
-      <c r="I13" s="419"/>
-      <c r="J13" s="419"/>
-      <c r="K13" s="419"/>
-      <c r="L13" s="419"/>
-      <c r="M13" s="419"/>
-      <c r="N13" s="419"/>
-      <c r="O13" s="419"/>
-      <c r="P13" s="419"/>
-      <c r="Q13" s="419"/>
-      <c r="R13" s="419"/>
-      <c r="S13" s="419"/>
-      <c r="T13" s="419"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="421"/>
+      <c r="I13" s="421"/>
+      <c r="J13" s="421"/>
+      <c r="K13" s="421"/>
+      <c r="L13" s="421"/>
+      <c r="M13" s="421"/>
+      <c r="N13" s="421"/>
+      <c r="O13" s="421"/>
+      <c r="P13" s="421"/>
+      <c r="Q13" s="421"/>
+      <c r="R13" s="421"/>
+      <c r="S13" s="421"/>
+      <c r="T13" s="421"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38264,387 +38467,387 @@
   </sheetPr>
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6796875" defaultRowHeight="63.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="259" width="13.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="13.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="390" t="s">
         <v>2922</v>
       </c>
-      <c r="F4" s="388" t="s">
+      <c r="F4" s="390" t="s">
         <v>2923</v>
       </c>
-      <c r="G4" s="388" t="s">
+      <c r="G4" s="390" t="s">
         <v>2924</v>
       </c>
-      <c r="H4" s="388" t="s">
+      <c r="H4" s="390" t="s">
         <v>2925</v>
       </c>
-      <c r="I4" s="388" t="s">
+      <c r="I4" s="390" t="s">
         <v>2926</v>
       </c>
-      <c r="J4" s="388" t="s">
+      <c r="J4" s="390" t="s">
         <v>2927</v>
       </c>
-      <c r="K4" s="388" t="s">
+      <c r="K4" s="390" t="s">
         <v>2928</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="388" t="s">
+      <c r="E5" s="390" t="s">
         <v>2929</v>
       </c>
-      <c r="F5" s="389"/>
-      <c r="G5" s="389"/>
-      <c r="H5" s="388" t="s">
+      <c r="F5" s="391"/>
+      <c r="G5" s="391"/>
+      <c r="H5" s="390" t="s">
         <v>2930</v>
       </c>
-      <c r="I5" s="389"/>
-      <c r="J5" s="389"/>
-      <c r="K5" s="388" t="s">
+      <c r="I5" s="391"/>
+      <c r="J5" s="391"/>
+      <c r="K5" s="390" t="s">
         <v>2931</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="388" t="s">
+      <c r="E6" s="390" t="s">
         <v>2932</v>
       </c>
-      <c r="F6" s="389"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="389"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="388" t="s">
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="390" t="s">
         <v>2933</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="388" t="s">
+      <c r="E7" s="390" t="s">
         <v>2934</v>
       </c>
-      <c r="F7" s="388" t="s">
+      <c r="F7" s="390" t="s">
         <v>2935</v>
       </c>
-      <c r="G7" s="388" t="s">
+      <c r="G7" s="390" t="s">
         <v>2936</v>
       </c>
-      <c r="H7" s="388" t="s">
+      <c r="H7" s="390" t="s">
         <v>2937</v>
       </c>
-      <c r="I7" s="388" t="s">
+      <c r="I7" s="390" t="s">
         <v>2938</v>
       </c>
-      <c r="J7" s="388" t="s">
+      <c r="J7" s="390" t="s">
         <v>2939</v>
       </c>
-      <c r="K7" s="388" t="s">
+      <c r="K7" s="390" t="s">
         <v>2940</v>
       </c>
-      <c r="M7" s="388" t="s">
+      <c r="M7" s="390" t="s">
         <v>2941</v>
       </c>
-      <c r="N7" s="443" t="s">
+      <c r="N7" s="445" t="s">
         <v>2942</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="443" t="s">
+      <c r="H8" s="445" t="s">
         <v>2943</v>
       </c>
-      <c r="L8" s="388" t="s">
+      <c r="L8" s="390" t="s">
         <v>2944</v>
       </c>
-      <c r="M8" s="388" t="s">
+      <c r="M8" s="390" t="s">
         <v>2945</v>
       </c>
-      <c r="N8" s="388" t="s">
+      <c r="N8" s="390" t="s">
         <v>2946</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="388" t="s">
+      <c r="H9" s="390" t="s">
         <v>2947</v>
       </c>
-      <c r="L9" s="388" t="s">
+      <c r="L9" s="390" t="s">
         <v>2948</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="388" t="s">
+      <c r="E10" s="390" t="s">
         <v>2949</v>
       </c>
-      <c r="F10" s="388" t="s">
+      <c r="F10" s="390" t="s">
         <v>2950</v>
       </c>
-      <c r="G10" s="388" t="s">
+      <c r="G10" s="390" t="s">
         <v>2951</v>
       </c>
-      <c r="H10" s="388" t="s">
+      <c r="H10" s="390" t="s">
         <v>2952</v>
       </c>
-      <c r="I10" s="388" t="s">
+      <c r="I10" s="390" t="s">
         <v>2953</v>
       </c>
-      <c r="J10" s="388" t="s">
+      <c r="J10" s="390" t="s">
         <v>2954</v>
       </c>
-      <c r="K10" s="388" t="s">
+      <c r="K10" s="390" t="s">
         <v>2955</v>
       </c>
-      <c r="L10" s="388" t="s">
+      <c r="L10" s="390" t="s">
         <v>2956</v>
       </c>
-      <c r="M10" s="388" t="s">
+      <c r="M10" s="390" t="s">
         <v>2957</v>
       </c>
-      <c r="N10" s="388" t="s">
+      <c r="N10" s="390" t="s">
         <v>2958</v>
       </c>
-      <c r="O10" s="388" t="s">
+      <c r="O10" s="390" t="s">
         <v>2959</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F11" s="387"/>
-      <c r="G11" s="387"/>
-      <c r="H11" s="388" t="s">
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="390" t="s">
         <v>2960</v>
       </c>
-      <c r="N11" s="388" t="s">
+      <c r="N11" s="390" t="s">
         <v>2961</v>
       </c>
-      <c r="O11" s="388" t="s">
+      <c r="O11" s="390" t="s">
         <v>2962</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="388" t="s">
+      <c r="D12" s="390" t="s">
         <v>2963</v>
       </c>
-      <c r="E12" s="388" t="s">
+      <c r="E12" s="390" t="s">
         <v>2964</v>
       </c>
-      <c r="F12" s="388" t="s">
+      <c r="F12" s="390" t="s">
         <v>2965</v>
       </c>
-      <c r="G12" s="388" t="s">
+      <c r="G12" s="390" t="s">
         <v>2966</v>
       </c>
-      <c r="H12" s="388" t="s">
+      <c r="H12" s="390" t="s">
         <v>2967</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="388" t="s">
+      <c r="D13" s="390" t="s">
         <v>2968</v>
       </c>
-      <c r="F13" s="388" t="s">
+      <c r="F13" s="390" t="s">
         <v>2969</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F14" s="388" t="s">
+      <c r="F14" s="390" t="s">
         <v>2970</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F15" s="388" t="s">
+      <c r="F15" s="390" t="s">
         <v>2971</v>
       </c>
-      <c r="L15" s="388" t="s">
+      <c r="L15" s="390" t="s">
         <v>2972</v>
       </c>
-      <c r="M15" s="388" t="s">
+      <c r="M15" s="390" t="s">
         <v>2973</v>
       </c>
-      <c r="N15" s="388" t="s">
+      <c r="N15" s="390" t="s">
         <v>2974</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F16" s="388" t="s">
+      <c r="F16" s="390" t="s">
         <v>2975</v>
       </c>
-      <c r="I16" s="388" t="s">
+      <c r="I16" s="390" t="s">
         <v>2976</v>
       </c>
-      <c r="J16" s="388" t="s">
+      <c r="J16" s="390" t="s">
         <v>2977</v>
       </c>
-      <c r="K16" s="388" t="s">
+      <c r="K16" s="390" t="s">
         <v>2978</v>
       </c>
-      <c r="L16" s="388" t="s">
+      <c r="L16" s="390" t="s">
         <v>2979</v>
       </c>
-      <c r="M16" s="443" t="s">
+      <c r="M16" s="445" t="s">
         <v>2980</v>
       </c>
-      <c r="N16" s="388" t="s">
+      <c r="N16" s="390" t="s">
         <v>2981</v>
       </c>
-      <c r="S16" s="278" t="s">
+      <c r="S16" s="280" t="s">
         <v>2982</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="372" t="s">
+      <c r="D17" s="374" t="s">
         <v>2983</v>
       </c>
-      <c r="E17" s="388" t="s">
+      <c r="E17" s="390" t="s">
         <v>2984</v>
       </c>
-      <c r="F17" s="388" t="s">
+      <c r="F17" s="390" t="s">
         <v>2985</v>
       </c>
-      <c r="G17" s="388" t="s">
+      <c r="G17" s="390" t="s">
         <v>2986</v>
       </c>
-      <c r="H17" s="388" t="s">
+      <c r="H17" s="390" t="s">
         <v>2987</v>
       </c>
-      <c r="I17" s="388" t="s">
+      <c r="I17" s="390" t="s">
         <v>2988</v>
       </c>
-      <c r="L17" s="388" t="s">
+      <c r="L17" s="390" t="s">
         <v>2989</v>
       </c>
-      <c r="M17" s="388" t="s">
+      <c r="M17" s="390" t="s">
         <v>2990</v>
       </c>
-      <c r="N17" s="388" t="s">
+      <c r="N17" s="390" t="s">
         <v>2991</v>
       </c>
-      <c r="S17" s="278" t="s">
+      <c r="S17" s="280" t="s">
         <v>2992</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H18" s="388" t="s">
+      <c r="H18" s="390" t="s">
         <v>2993</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H19" s="388" t="s">
+      <c r="H19" s="390" t="s">
         <v>2994</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G20" s="388" t="s">
+      <c r="G20" s="390" t="s">
         <v>2995</v>
       </c>
-      <c r="H20" s="388" t="s">
+      <c r="H20" s="390" t="s">
         <v>2996</v>
       </c>
-      <c r="I20" s="388" t="s">
+      <c r="I20" s="390" t="s">
         <v>2997</v>
       </c>
-      <c r="J20" s="388" t="s">
+      <c r="J20" s="390" t="s">
         <v>2998</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="388" t="s">
+      <c r="D21" s="390" t="s">
         <v>2999</v>
       </c>
-      <c r="E21" s="388" t="s">
+      <c r="E21" s="390" t="s">
         <v>3000</v>
       </c>
-      <c r="F21" s="388" t="s">
+      <c r="F21" s="390" t="s">
         <v>3001</v>
       </c>
-      <c r="G21" s="388" t="s">
+      <c r="G21" s="390" t="s">
         <v>3002</v>
       </c>
-      <c r="H21" s="389"/>
-      <c r="I21" s="389"/>
-      <c r="J21" s="388" t="s">
+      <c r="H21" s="391"/>
+      <c r="I21" s="391"/>
+      <c r="J21" s="390" t="s">
         <v>3003</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="388" t="s">
+      <c r="D22" s="390" t="s">
         <v>3004</v>
       </c>
-      <c r="G22" s="388" t="s">
+      <c r="G22" s="390" t="s">
         <v>3005</v>
       </c>
-      <c r="H22" s="389"/>
-      <c r="I22" s="443" t="s">
+      <c r="H22" s="391"/>
+      <c r="I22" s="445" t="s">
         <v>3006</v>
       </c>
-      <c r="J22" s="388" t="s">
+      <c r="J22" s="390" t="s">
         <v>3007</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="388" t="s">
+      <c r="C23" s="390" t="s">
         <v>3008</v>
       </c>
-      <c r="D23" s="388" t="s">
+      <c r="D23" s="390" t="s">
         <v>3009</v>
       </c>
-      <c r="E23" s="388" t="s">
+      <c r="E23" s="390" t="s">
         <v>3010</v>
       </c>
-      <c r="G23" s="388" t="s">
+      <c r="G23" s="390" t="s">
         <v>3011</v>
       </c>
-      <c r="H23" s="389"/>
-      <c r="I23" s="389"/>
-      <c r="J23" s="388" t="s">
+      <c r="H23" s="391"/>
+      <c r="I23" s="391"/>
+      <c r="J23" s="390" t="s">
         <v>3012</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D24" s="388" t="s">
+      <c r="D24" s="390" t="s">
         <v>3013</v>
       </c>
-      <c r="E24" s="388" t="s">
+      <c r="E24" s="390" t="s">
         <v>3014</v>
       </c>
-      <c r="G24" s="388" t="s">
+      <c r="G24" s="390" t="s">
         <v>3015</v>
       </c>
-      <c r="H24" s="388" t="s">
+      <c r="H24" s="390" t="s">
         <v>3016</v>
       </c>
-      <c r="I24" s="388" t="s">
+      <c r="I24" s="390" t="s">
         <v>3017</v>
       </c>
-      <c r="J24" s="388" t="s">
+      <c r="J24" s="390" t="s">
         <v>3018</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D25" s="388" t="s">
+      <c r="D25" s="390" t="s">
         <v>3019</v>
       </c>
-      <c r="E25" s="388" t="s">
+      <c r="E25" s="390" t="s">
         <v>3020</v>
       </c>
-      <c r="H25" s="387"/>
-      <c r="I25" s="260"/>
+      <c r="H25" s="389"/>
+      <c r="I25" s="262"/>
     </row>
     <row r="26" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="443" t="s">
+      <c r="E26" s="445" t="s">
         <v>3021</v>
       </c>
-      <c r="H26" s="387"/>
-      <c r="I26" s="387"/>
+      <c r="H26" s="389"/>
+      <c r="I26" s="389"/>
     </row>
     <row r="27" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H27" s="387"/>
-      <c r="I27" s="387"/>
+      <c r="H27" s="389"/>
+      <c r="I27" s="389"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38664,232 +38867,412 @@
   </sheetPr>
   <dimension ref="D3:S21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.19140625" defaultRowHeight="79.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="259" width="15.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="15.19"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F3" s="260"/>
+      <c r="F3" s="262"/>
     </row>
     <row r="4" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="387"/>
-      <c r="F4" s="444" t="s">
+      <c r="E4" s="389"/>
+      <c r="F4" s="446" t="s">
         <v>3022</v>
       </c>
-      <c r="G4" s="387"/>
+      <c r="G4" s="389"/>
     </row>
     <row r="5" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="387"/>
-      <c r="F5" s="445" t="s">
+      <c r="E5" s="389"/>
+      <c r="F5" s="447" t="s">
         <v>3023</v>
       </c>
-      <c r="G5" s="387"/>
+      <c r="G5" s="389"/>
     </row>
     <row r="6" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F6" s="419"/>
+      <c r="F6" s="421"/>
     </row>
     <row r="11" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="260"/>
-      <c r="E11" s="446"/>
-      <c r="F11" s="446"/>
-      <c r="G11" s="446"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="446"/>
-      <c r="K11" s="446"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="446"/>
-      <c r="N11" s="446"/>
-      <c r="O11" s="446"/>
-      <c r="P11" s="446"/>
-      <c r="Q11" s="446"/>
-      <c r="R11" s="446"/>
-      <c r="S11" s="446"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="448"/>
+      <c r="F11" s="448"/>
+      <c r="G11" s="448"/>
+      <c r="H11" s="448"/>
+      <c r="I11" s="448"/>
+      <c r="J11" s="448"/>
+      <c r="K11" s="448"/>
+      <c r="L11" s="448"/>
+      <c r="M11" s="448"/>
+      <c r="N11" s="448"/>
+      <c r="O11" s="448"/>
+      <c r="P11" s="448"/>
+      <c r="Q11" s="448"/>
+      <c r="R11" s="448"/>
+      <c r="S11" s="448"/>
     </row>
     <row r="12" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="260"/>
-      <c r="E12" s="446"/>
-      <c r="F12" s="446"/>
-      <c r="G12" s="446"/>
-      <c r="H12" s="446"/>
-      <c r="I12" s="446"/>
-      <c r="J12" s="446"/>
-      <c r="K12" s="446"/>
-      <c r="L12" s="446"/>
-      <c r="M12" s="446"/>
-      <c r="N12" s="446"/>
-      <c r="O12" s="446"/>
-      <c r="P12" s="446"/>
-      <c r="Q12" s="446"/>
-      <c r="R12" s="446"/>
-      <c r="S12" s="446"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="448"/>
+      <c r="F12" s="448"/>
+      <c r="G12" s="448"/>
+      <c r="H12" s="448"/>
+      <c r="I12" s="448"/>
+      <c r="J12" s="448"/>
+      <c r="K12" s="448"/>
+      <c r="L12" s="448"/>
+      <c r="M12" s="448"/>
+      <c r="N12" s="448"/>
+      <c r="O12" s="448"/>
+      <c r="P12" s="448"/>
+      <c r="Q12" s="448"/>
+      <c r="R12" s="448"/>
+      <c r="S12" s="448"/>
     </row>
     <row r="13" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="260"/>
-      <c r="E13" s="446"/>
-      <c r="F13" s="446"/>
-      <c r="G13" s="446"/>
-      <c r="H13" s="446"/>
-      <c r="I13" s="446"/>
-      <c r="J13" s="446"/>
-      <c r="K13" s="446"/>
-      <c r="L13" s="446"/>
-      <c r="M13" s="446"/>
-      <c r="N13" s="446"/>
-      <c r="O13" s="446"/>
-      <c r="P13" s="446"/>
-      <c r="Q13" s="446"/>
-      <c r="R13" s="446"/>
-      <c r="S13" s="446"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="448"/>
+      <c r="G13" s="448"/>
+      <c r="H13" s="448"/>
+      <c r="I13" s="448"/>
+      <c r="J13" s="448"/>
+      <c r="K13" s="448"/>
+      <c r="L13" s="448"/>
+      <c r="M13" s="448"/>
+      <c r="N13" s="448"/>
+      <c r="O13" s="448"/>
+      <c r="P13" s="448"/>
+      <c r="Q13" s="448"/>
+      <c r="R13" s="448"/>
+      <c r="S13" s="448"/>
     </row>
     <row r="14" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D14" s="260"/>
-      <c r="E14" s="446"/>
-      <c r="F14" s="446"/>
-      <c r="G14" s="446"/>
-      <c r="H14" s="446"/>
-      <c r="I14" s="446"/>
-      <c r="J14" s="446"/>
-      <c r="K14" s="446"/>
-      <c r="L14" s="446"/>
-      <c r="M14" s="446"/>
-      <c r="N14" s="446"/>
-      <c r="O14" s="446"/>
-      <c r="P14" s="446"/>
-      <c r="Q14" s="446"/>
-      <c r="R14" s="446"/>
-      <c r="S14" s="446"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="448"/>
+      <c r="F14" s="448"/>
+      <c r="G14" s="448"/>
+      <c r="H14" s="448"/>
+      <c r="I14" s="448"/>
+      <c r="J14" s="448"/>
+      <c r="K14" s="448"/>
+      <c r="L14" s="448"/>
+      <c r="M14" s="448"/>
+      <c r="N14" s="448"/>
+      <c r="O14" s="448"/>
+      <c r="P14" s="448"/>
+      <c r="Q14" s="448"/>
+      <c r="R14" s="448"/>
+      <c r="S14" s="448"/>
     </row>
     <row r="15" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D15" s="260"/>
-      <c r="E15" s="446"/>
-      <c r="F15" s="446"/>
-      <c r="G15" s="446"/>
-      <c r="H15" s="446"/>
-      <c r="I15" s="446"/>
-      <c r="J15" s="446"/>
-      <c r="K15" s="446"/>
-      <c r="L15" s="446"/>
-      <c r="M15" s="446"/>
-      <c r="N15" s="446"/>
-      <c r="O15" s="446"/>
-      <c r="P15" s="446"/>
-      <c r="Q15" s="446"/>
-      <c r="R15" s="446"/>
-      <c r="S15" s="446"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="448"/>
+      <c r="F15" s="448"/>
+      <c r="G15" s="448"/>
+      <c r="H15" s="448"/>
+      <c r="I15" s="448"/>
+      <c r="J15" s="448"/>
+      <c r="K15" s="448"/>
+      <c r="L15" s="448"/>
+      <c r="M15" s="448"/>
+      <c r="N15" s="448"/>
+      <c r="O15" s="448"/>
+      <c r="P15" s="448"/>
+      <c r="Q15" s="448"/>
+      <c r="R15" s="448"/>
+      <c r="S15" s="448"/>
     </row>
     <row r="16" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="260"/>
-      <c r="E16" s="446"/>
-      <c r="F16" s="446"/>
-      <c r="G16" s="446"/>
-      <c r="H16" s="446"/>
-      <c r="I16" s="446"/>
-      <c r="J16" s="446"/>
-      <c r="K16" s="446"/>
-      <c r="L16" s="446"/>
-      <c r="M16" s="446"/>
-      <c r="N16" s="446"/>
-      <c r="O16" s="446"/>
-      <c r="P16" s="446"/>
-      <c r="Q16" s="446"/>
-      <c r="R16" s="446"/>
-      <c r="S16" s="446"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="448"/>
+      <c r="F16" s="448"/>
+      <c r="G16" s="448"/>
+      <c r="H16" s="448"/>
+      <c r="I16" s="448"/>
+      <c r="J16" s="448"/>
+      <c r="K16" s="448"/>
+      <c r="L16" s="448"/>
+      <c r="M16" s="448"/>
+      <c r="N16" s="448"/>
+      <c r="O16" s="448"/>
+      <c r="P16" s="448"/>
+      <c r="Q16" s="448"/>
+      <c r="R16" s="448"/>
+      <c r="S16" s="448"/>
     </row>
     <row r="17" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="260"/>
-      <c r="E17" s="446"/>
-      <c r="F17" s="446"/>
-      <c r="G17" s="446"/>
-      <c r="H17" s="446"/>
-      <c r="I17" s="446"/>
-      <c r="J17" s="446"/>
-      <c r="K17" s="446"/>
-      <c r="L17" s="446"/>
-      <c r="M17" s="446"/>
-      <c r="N17" s="446"/>
-      <c r="O17" s="446"/>
-      <c r="P17" s="446"/>
-      <c r="Q17" s="446"/>
-      <c r="R17" s="446"/>
-      <c r="S17" s="446"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="448"/>
+      <c r="F17" s="448"/>
+      <c r="G17" s="448"/>
+      <c r="H17" s="448"/>
+      <c r="I17" s="448"/>
+      <c r="J17" s="448"/>
+      <c r="K17" s="448"/>
+      <c r="L17" s="448"/>
+      <c r="M17" s="448"/>
+      <c r="N17" s="448"/>
+      <c r="O17" s="448"/>
+      <c r="P17" s="448"/>
+      <c r="Q17" s="448"/>
+      <c r="R17" s="448"/>
+      <c r="S17" s="448"/>
     </row>
     <row r="18" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="260"/>
-      <c r="E18" s="446"/>
-      <c r="F18" s="446"/>
-      <c r="G18" s="446"/>
-      <c r="H18" s="446"/>
-      <c r="I18" s="446"/>
-      <c r="J18" s="446"/>
-      <c r="K18" s="446"/>
-      <c r="L18" s="446"/>
-      <c r="M18" s="446"/>
-      <c r="N18" s="446"/>
-      <c r="O18" s="446"/>
-      <c r="P18" s="446"/>
-      <c r="Q18" s="446"/>
-      <c r="R18" s="446"/>
-      <c r="S18" s="446"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="448"/>
+      <c r="F18" s="448"/>
+      <c r="G18" s="448"/>
+      <c r="H18" s="448"/>
+      <c r="I18" s="448"/>
+      <c r="J18" s="448"/>
+      <c r="K18" s="448"/>
+      <c r="L18" s="448"/>
+      <c r="M18" s="448"/>
+      <c r="N18" s="448"/>
+      <c r="O18" s="448"/>
+      <c r="P18" s="448"/>
+      <c r="Q18" s="448"/>
+      <c r="R18" s="448"/>
+      <c r="S18" s="448"/>
     </row>
     <row r="19" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="260"/>
-      <c r="E19" s="446"/>
-      <c r="F19" s="446"/>
-      <c r="G19" s="446"/>
-      <c r="H19" s="446"/>
-      <c r="I19" s="446"/>
-      <c r="J19" s="446"/>
-      <c r="K19" s="446"/>
-      <c r="L19" s="446"/>
-      <c r="M19" s="446"/>
-      <c r="N19" s="446"/>
-      <c r="O19" s="446"/>
-      <c r="P19" s="446"/>
-      <c r="Q19" s="446"/>
-      <c r="R19" s="446"/>
-      <c r="S19" s="446"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="448"/>
+      <c r="F19" s="448"/>
+      <c r="G19" s="448"/>
+      <c r="H19" s="448"/>
+      <c r="I19" s="448"/>
+      <c r="J19" s="448"/>
+      <c r="K19" s="448"/>
+      <c r="L19" s="448"/>
+      <c r="M19" s="448"/>
+      <c r="N19" s="448"/>
+      <c r="O19" s="448"/>
+      <c r="P19" s="448"/>
+      <c r="Q19" s="448"/>
+      <c r="R19" s="448"/>
+      <c r="S19" s="448"/>
     </row>
     <row r="20" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="260"/>
-      <c r="E20" s="446"/>
-      <c r="F20" s="446"/>
-      <c r="G20" s="446"/>
-      <c r="H20" s="446"/>
-      <c r="I20" s="446"/>
-      <c r="J20" s="446"/>
-      <c r="K20" s="446"/>
-      <c r="L20" s="446"/>
-      <c r="M20" s="446"/>
-      <c r="N20" s="446"/>
-      <c r="O20" s="446"/>
-      <c r="P20" s="446"/>
-      <c r="Q20" s="446"/>
-      <c r="R20" s="446"/>
-      <c r="S20" s="446"/>
+      <c r="D20" s="262"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="448"/>
+      <c r="G20" s="448"/>
+      <c r="H20" s="448"/>
+      <c r="I20" s="448"/>
+      <c r="J20" s="448"/>
+      <c r="K20" s="448"/>
+      <c r="L20" s="448"/>
+      <c r="M20" s="448"/>
+      <c r="N20" s="448"/>
+      <c r="O20" s="448"/>
+      <c r="P20" s="448"/>
+      <c r="Q20" s="448"/>
+      <c r="R20" s="448"/>
+      <c r="S20" s="448"/>
     </row>
     <row r="21" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="260"/>
-      <c r="K21" s="260"/>
-      <c r="L21" s="260"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="260"/>
-      <c r="P21" s="260"/>
-      <c r="Q21" s="260"/>
-      <c r="R21" s="260"/>
-      <c r="S21" s="260"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="262"/>
+      <c r="O21" s="262"/>
+      <c r="P21" s="262"/>
+      <c r="Q21" s="262"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="262"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="I1:O13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.7421875" defaultRowHeight="78.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="261" width="14.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J1" s="280" t="s">
+        <v>3024</v>
+      </c>
+      <c r="K1" s="280" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L1" s="280" t="s">
+        <v>3026</v>
+      </c>
+      <c r="M1" s="280" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+    </row>
+    <row r="3" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J3" s="339"/>
+      <c r="K3" s="319" t="s">
+        <v>3028</v>
+      </c>
+      <c r="L3" s="339"/>
+    </row>
+    <row r="4" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J4" s="339"/>
+      <c r="K4" s="319" t="s">
+        <v>3029</v>
+      </c>
+      <c r="L4" s="339"/>
+    </row>
+    <row r="5" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K5" s="319" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J6" s="319" t="s">
+        <v>3031</v>
+      </c>
+      <c r="K6" s="319" t="s">
+        <v>3032</v>
+      </c>
+      <c r="L6" s="319" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J7" s="319" t="s">
+        <v>3034</v>
+      </c>
+      <c r="K7" s="361"/>
+      <c r="L7" s="319" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J8" s="319" t="s">
+        <v>3036</v>
+      </c>
+      <c r="K8" s="319" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L8" s="319" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K9" s="319" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K10" s="319" t="s">
+        <v>3040</v>
+      </c>
+      <c r="L10" s="261" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I11" s="449"/>
+      <c r="J11" s="449"/>
+      <c r="K11" s="450" t="s">
+        <v>3042</v>
+      </c>
+      <c r="L11" s="449"/>
+      <c r="M11" s="449" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I12" s="449"/>
+      <c r="J12" s="450" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K12" s="450" t="s">
+        <v>3044</v>
+      </c>
+      <c r="L12" s="450" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M12" s="449"/>
+      <c r="O12" s="262"/>
+    </row>
+    <row r="13" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I13" s="450" t="s">
+        <v>3046</v>
+      </c>
+      <c r="J13" s="450" t="s">
+        <v>3047</v>
+      </c>
+      <c r="K13" s="450" t="s">
+        <v>3048</v>
+      </c>
+      <c r="L13" s="450" t="s">
+        <v>3049</v>
+      </c>
+      <c r="M13" s="450" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="61.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="304" t="s">
+        <v>3051</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38909,7 +39292,7 @@
   </sheetPr>
   <dimension ref="I14:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -38960,8 +39343,8 @@
   </sheetPr>
   <dimension ref="L3:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39034,7 +39417,7 @@
   </sheetPr>
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -39119,7 +39502,7 @@
   </sheetPr>
   <dimension ref="E1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -39339,7 +39722,7 @@
   </sheetPr>
   <dimension ref="C3:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -39393,8 +39776,8 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39427,7 +39810,7 @@
       <c r="H1" s="80" t="s">
         <v>1877</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="135" t="s">
         <v>1878</v>
       </c>
       <c r="J1" s="80" t="s">
@@ -39451,7 +39834,7 @@
       <c r="P1" s="80" t="s">
         <v>1885</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="135" t="s">
         <v>1886</v>
       </c>
       <c r="R1" s="80" t="s">

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -21822,8 +21822,8 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD27" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM31" activeCellId="0" sqref="AM31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI33" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN39" activeCellId="0" sqref="AN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35062,8 +35062,8 @@
   </sheetPr>
   <dimension ref="M4:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9296875" defaultRowHeight="62.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37348,8 +37348,8 @@
   </sheetPr>
   <dimension ref="E4:AD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD13" activeCellId="0" sqref="AD13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39502,8 +39502,8 @@
   </sheetPr>
   <dimension ref="E1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pq4/PepperQuest 4 Ever.xlsx
+++ b/pq4/PepperQuest 4 Ever.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overworld" sheetId="1" state="visible" r:id="rId2"/>
@@ -14547,7 +14547,7 @@
 West 10163</t>
   </si>
   <si>
-    <t xml:space="preserve">#10166
+    <t xml:space="preserve">#10164
 East 10168
 West 10166</t>
   </si>
@@ -15086,7 +15086,7 @@
 West 10976</t>
   </si>
   <si>
-    <t xml:space="preserve">#10990
+    <t xml:space="preserve">#10993
 South 10995</t>
   </si>
   <si>
@@ -18450,7 +18450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6E758"/>
+        <fgColor rgb="FFFFDE59"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
@@ -18575,8 +18575,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FFF6E758"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1EA57"/>
         <bgColor rgb="FFDDE106"/>
       </patternFill>
     </fill>
@@ -18613,7 +18613,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADD192"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -18684,7 +18684,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFF6E758"/>
+        <fgColor rgb="FFD1EA57"/>
         <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
@@ -18749,9 +18749,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0C2CD"/>
-        <bgColor rgb="FFCCCCCC"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFD0CCCC"/>
+        <bgColor rgb="FFF7D1D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -18774,8 +18774,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFE0C2CD"/>
+        <fgColor rgb="FFD0CCCC"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -20818,55 +20818,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="65" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20874,11 +20874,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="66" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21661,17 +21661,17 @@
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FFDEDCE6"/>
+      <rgbColor rgb="FFD1EA57"/>
       <rgbColor rgb="FFFFF5CE"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFD0CCCC"/>
       <rgbColor rgb="FFDEE7E5"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FFB4C7DE"/>
       <rgbColor rgb="FFE692A2"/>
-      <rgbColor rgb="FFE0C2CD"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FFADD192"/>
       <rgbColor rgb="FF86D215"/>
       <rgbColor rgb="FFFFBF00"/>
@@ -21686,7 +21686,7 @@
       <rgbColor rgb="FFBE480A"/>
       <rgbColor rgb="FFFE4705"/>
       <rgbColor rgb="FF3C10B9"/>
-      <rgbColor rgb="FFF6E758"/>
+      <rgbColor rgb="FFFFDE59"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -21699,8 +21699,8 @@
   </sheetPr>
   <dimension ref="A1:BK70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC24" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY44" activeCellId="0" sqref="AY44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U49" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI52" activeCellId="0" sqref="AI52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32999,7 +32999,7 @@
   </sheetPr>
   <dimension ref="C2:P11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -33190,7 +33190,7 @@
   </sheetPr>
   <dimension ref="E2:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -33363,7 +33363,7 @@
   </sheetPr>
   <dimension ref="C1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -33549,7 +33549,7 @@
   </sheetPr>
   <dimension ref="D3:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -33678,7 +33678,7 @@
   </sheetPr>
   <dimension ref="F2:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -33759,7 +33759,7 @@
   </sheetPr>
   <dimension ref="L5:V14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V8" activeCellId="0" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -33931,7 +33931,7 @@
   </sheetPr>
   <dimension ref="J3:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -34035,7 +34035,7 @@
   </sheetPr>
   <dimension ref="B1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -34241,7 +34241,7 @@
   </sheetPr>
   <dimension ref="E3:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -34279,7 +34279,7 @@
   </sheetPr>
   <dimension ref="E3:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -34343,7 +34343,7 @@
   </sheetPr>
   <dimension ref="E1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -34392,7 +34392,7 @@
   </sheetPr>
   <dimension ref="D4:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -34476,7 +34476,7 @@
   </sheetPr>
   <dimension ref="D2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -34583,7 +34583,7 @@
   </sheetPr>
   <dimension ref="I3:AB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y20" activeCellId="0" sqref="Y20"/>
     </sheetView>
   </sheetViews>
@@ -34880,7 +34880,7 @@
   </sheetPr>
   <dimension ref="M4:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -34993,8 +34993,8 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35357,8 +35357,8 @@
   </sheetPr>
   <dimension ref="H3:AA18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P4" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.31640625" defaultRowHeight="66.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36023,8 +36023,8 @@
   </sheetPr>
   <dimension ref="H3:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="60.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36218,7 +36218,7 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -36644,7 +36644,7 @@
   </sheetPr>
   <dimension ref="C3:AA28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q13" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V28" activeCellId="0" sqref="V28"/>
     </sheetView>
   </sheetViews>
@@ -37166,8 +37166,8 @@
   </sheetPr>
   <dimension ref="G3:T13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.4453125" defaultRowHeight="62.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37461,7 +37461,7 @@
   </sheetPr>
   <dimension ref="E4:AD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -38285,7 +38285,7 @@
   </sheetPr>
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -38685,7 +38685,7 @@
   </sheetPr>
   <dimension ref="D3:S21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -38930,7 +38930,7 @@
   </sheetPr>
   <dimension ref="I1:O13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -39081,7 +39081,7 @@
   </sheetPr>
   <dimension ref="D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -39110,7 +39110,7 @@
   </sheetPr>
   <dimension ref="I14:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -39161,7 +39161,7 @@
   </sheetPr>
   <dimension ref="L3:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -39235,7 +39235,7 @@
   </sheetPr>
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -39320,7 +39320,7 @@
   </sheetPr>
   <dimension ref="E1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -39540,7 +39540,7 @@
   </sheetPr>
   <dimension ref="C3:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -39594,7 +39594,7 @@
   </sheetPr>
   <dimension ref="D3:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
